--- a/mereni.xlsx
+++ b/mereni.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mira\Documents\Dokumenty\BP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mira\Documents\Dokumenty\BP\bp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>load data infile '/tmp/mirek-db/mysql/product.txt' replace into table product;</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>0.00061567</t>
+  </si>
+  <si>
+    <t>CREATE INDEX retail_price_cs_idx ON product (retailprice_cs);</t>
+  </si>
+  <si>
+    <t>load index into cache product;</t>
   </si>
 </sst>
 </file>
@@ -493,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,6 +701,16 @@
         <v>49</v>
       </c>
     </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/mereni.xlsx
+++ b/mereni.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>load data infile '/tmp/mirek-db/mysql/product.txt' replace into table product;</t>
   </si>
@@ -180,6 +180,36 @@
   </si>
   <si>
     <t>load index into cache product;</t>
+  </si>
+  <si>
+    <t>select max(retailprice) from product;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> select id from product where retailprice_cs = 12.5</t>
+  </si>
+  <si>
+    <t>0.00068527</t>
+  </si>
+  <si>
+    <t>0.00048519</t>
+  </si>
+  <si>
+    <t>0.00048550</t>
+  </si>
+  <si>
+    <t>0.00106290</t>
+  </si>
+  <si>
+    <t>0.00049251</t>
+  </si>
+  <si>
+    <t>0.00047968</t>
+  </si>
+  <si>
+    <t>0.00048119</t>
+  </si>
+  <si>
+    <t>0.00053873</t>
   </si>
 </sst>
 </file>
@@ -499,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,6 +741,40 @@
         <v>51</v>
       </c>
     </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/mereni.xlsx
+++ b/mereni.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
   <si>
     <t>load data infile '/tmp/mirek-db/mysql/product.txt' replace into table product;</t>
   </si>
@@ -210,6 +210,114 @@
   </si>
   <si>
     <t>0.00053873</t>
+  </si>
+  <si>
+    <t>select id from product where retailprice_cs = 110000</t>
+  </si>
+  <si>
+    <t>0.00968390</t>
+  </si>
+  <si>
+    <t>0.00091721</t>
+  </si>
+  <si>
+    <t>0.00074059</t>
+  </si>
+  <si>
+    <t>0.00047906</t>
+  </si>
+  <si>
+    <t>0.00070678</t>
+  </si>
+  <si>
+    <t>0.00050203</t>
+  </si>
+  <si>
+    <t>0.00067805</t>
+  </si>
+  <si>
+    <t>0.00053893</t>
+  </si>
+  <si>
+    <t>select id from product where retailprice_cs = 2932650</t>
+  </si>
+  <si>
+    <t>0.00050963</t>
+  </si>
+  <si>
+    <t>0.00051144</t>
+  </si>
+  <si>
+    <t>0.00767151</t>
+  </si>
+  <si>
+    <t>0.00047020</t>
+  </si>
+  <si>
+    <t>0.00053813</t>
+  </si>
+  <si>
+    <t>0.00068424</t>
+  </si>
+  <si>
+    <t>0.00049065</t>
+  </si>
+  <si>
+    <t>0.00051151</t>
+  </si>
+  <si>
+    <t>select id from product where retailprice_cs = 1855875</t>
+  </si>
+  <si>
+    <t>0.00050368</t>
+  </si>
+  <si>
+    <t>0.00046416</t>
+  </si>
+  <si>
+    <t>0.00046276</t>
+  </si>
+  <si>
+    <t>0.00049457</t>
+  </si>
+  <si>
+    <t>0.00046781</t>
+  </si>
+  <si>
+    <t>0.00049790</t>
+  </si>
+  <si>
+    <t>0.00059695</t>
+  </si>
+  <si>
+    <t>0.00063842</t>
+  </si>
+  <si>
+    <t>select id from product where retailprice_cs = 954375</t>
+  </si>
+  <si>
+    <t>0.00062934</t>
+  </si>
+  <si>
+    <t>0.00064824</t>
+  </si>
+  <si>
+    <t>0.00058874</t>
+  </si>
+  <si>
+    <t>0.00057954</t>
+  </si>
+  <si>
+    <t>0.00066041</t>
+  </si>
+  <si>
+    <t>0.00068109</t>
+  </si>
+  <si>
+    <t>0.00054907</t>
+  </si>
+  <si>
+    <t>0.00071128</t>
   </si>
 </sst>
 </file>
@@ -529,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,6 +883,122 @@
         <v>61</v>
       </c>
     </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/mereni.xlsx
+++ b/mereni.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="143">
   <si>
     <t>load data infile '/tmp/mirek-db/mysql/product.txt' replace into table product;</t>
   </si>
@@ -318,6 +318,141 @@
   </si>
   <si>
     <t>0.00071128</t>
+  </si>
+  <si>
+    <t>select id from product where internal_number = "0 001 108 211"</t>
+  </si>
+  <si>
+    <t>0.00068110</t>
+  </si>
+  <si>
+    <t>0.00076386</t>
+  </si>
+  <si>
+    <t>0.00187179</t>
+  </si>
+  <si>
+    <t>0.00066529</t>
+  </si>
+  <si>
+    <t>0.00075340</t>
+  </si>
+  <si>
+    <t>0.00087936</t>
+  </si>
+  <si>
+    <t>0.00067745</t>
+  </si>
+  <si>
+    <t>0.00072914</t>
+  </si>
+  <si>
+    <t>select id from product where internal_number = "QB WS 0344 A"</t>
+  </si>
+  <si>
+    <t>0.00054724</t>
+  </si>
+  <si>
+    <t>0.00049655</t>
+  </si>
+  <si>
+    <t>0.00050429</t>
+  </si>
+  <si>
+    <t>0.00050158</t>
+  </si>
+  <si>
+    <t>0.00049735</t>
+  </si>
+  <si>
+    <t>0.00051131</t>
+  </si>
+  <si>
+    <t>0.00046639</t>
+  </si>
+  <si>
+    <t>0.00052117</t>
+  </si>
+  <si>
+    <t>select id from product where internal_number = "SD 0 986 474 332"</t>
+  </si>
+  <si>
+    <t>0.00077904</t>
+  </si>
+  <si>
+    <t>0.00065300</t>
+  </si>
+  <si>
+    <t>0.00049882</t>
+  </si>
+  <si>
+    <t>0.00063806</t>
+  </si>
+  <si>
+    <t>0.00050456</t>
+  </si>
+  <si>
+    <t>0.00045716</t>
+  </si>
+  <si>
+    <t>0.00051399</t>
+  </si>
+  <si>
+    <t>0.00090095</t>
+  </si>
+  <si>
+    <t>select id from product where internal_number = "0 132 801 002"</t>
+  </si>
+  <si>
+    <t>0.00101897</t>
+  </si>
+  <si>
+    <t>0.00067223</t>
+  </si>
+  <si>
+    <t>0.00050217</t>
+  </si>
+  <si>
+    <t>0.00053300</t>
+  </si>
+  <si>
+    <t>0.00059784</t>
+  </si>
+  <si>
+    <t>0.00050421</t>
+  </si>
+  <si>
+    <t>0.00249899</t>
+  </si>
+  <si>
+    <t>0.00057782</t>
+  </si>
+  <si>
+    <t>select id from product where internal_number = "9XX 340 369-011"</t>
+  </si>
+  <si>
+    <t>0.00058355</t>
+  </si>
+  <si>
+    <t>0.00312450</t>
+  </si>
+  <si>
+    <t>0.00057385</t>
+  </si>
+  <si>
+    <t>0.00053378</t>
+  </si>
+  <si>
+    <t>0.00051494</t>
+  </si>
+  <si>
+    <t>0.00056448</t>
+  </si>
+  <si>
+    <t>0.00056384</t>
+  </si>
+  <si>
+    <t>0.00053007</t>
   </si>
 </sst>
 </file>
@@ -637,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,6 +1134,151 @@
         <v>97</v>
       </c>
     </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" t="s">
+        <v>113</v>
+      </c>
+      <c r="H25" t="s">
+        <v>114</v>
+      </c>
+      <c r="I25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" t="s">
+        <v>122</v>
+      </c>
+      <c r="H26" t="s">
+        <v>123</v>
+      </c>
+      <c r="I26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" t="s">
+        <v>131</v>
+      </c>
+      <c r="H27" t="s">
+        <v>132</v>
+      </c>
+      <c r="I27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" t="s">
+        <v>139</v>
+      </c>
+      <c r="G28" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28" t="s">
+        <v>141</v>
+      </c>
+      <c r="I28" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/mereni.xlsx
+++ b/mereni.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="188">
   <si>
     <t>load data infile '/tmp/mirek-db/mysql/product.txt' replace into table product;</t>
   </si>
@@ -453,6 +453,141 @@
   </si>
   <si>
     <t>0.00053007</t>
+  </si>
+  <si>
+    <t>select product_id from product_vehicle where vehicle_id = 13706;</t>
+  </si>
+  <si>
+    <t>0.00071282</t>
+  </si>
+  <si>
+    <t>0.00069697</t>
+  </si>
+  <si>
+    <t>0.00071129</t>
+  </si>
+  <si>
+    <t>0.00066673</t>
+  </si>
+  <si>
+    <t>0.00062374</t>
+  </si>
+  <si>
+    <t>0.00078408</t>
+  </si>
+  <si>
+    <t>0.00069966</t>
+  </si>
+  <si>
+    <t>0.00084931</t>
+  </si>
+  <si>
+    <t>select product_id from product_vehicle where vehicle_id = 66707</t>
+  </si>
+  <si>
+    <t>0.00051450</t>
+  </si>
+  <si>
+    <t>0.00046015</t>
+  </si>
+  <si>
+    <t>0.00047003</t>
+  </si>
+  <si>
+    <t>0.00057798</t>
+  </si>
+  <si>
+    <t>0.00045549</t>
+  </si>
+  <si>
+    <t>0.00049099</t>
+  </si>
+  <si>
+    <t>0.00046561</t>
+  </si>
+  <si>
+    <t>0.00044449</t>
+  </si>
+  <si>
+    <t>select product_id from product_vehicle where vehicle_id = 63014</t>
+  </si>
+  <si>
+    <t>0.00047352</t>
+  </si>
+  <si>
+    <t>0.00047237</t>
+  </si>
+  <si>
+    <t>0.00046890</t>
+  </si>
+  <si>
+    <t>0.00046532</t>
+  </si>
+  <si>
+    <t>0.00047859</t>
+  </si>
+  <si>
+    <t>0.00046733</t>
+  </si>
+  <si>
+    <t>0.00044518</t>
+  </si>
+  <si>
+    <t>0.00045410</t>
+  </si>
+  <si>
+    <t>select product_id from product_vehicle where vehicle_id = 5630</t>
+  </si>
+  <si>
+    <t>0.00047952</t>
+  </si>
+  <si>
+    <t>0.00049230</t>
+  </si>
+  <si>
+    <t>0.00045885</t>
+  </si>
+  <si>
+    <t>0.00045052</t>
+  </si>
+  <si>
+    <t>0.00047100</t>
+  </si>
+  <si>
+    <t>0.00046341</t>
+  </si>
+  <si>
+    <t>0.00047378</t>
+  </si>
+  <si>
+    <t>0.00048845</t>
+  </si>
+  <si>
+    <t>select product_id from product_vehicle where vehicle_id = 28971</t>
+  </si>
+  <si>
+    <t>0.00055412</t>
+  </si>
+  <si>
+    <t>0.00072228</t>
+  </si>
+  <si>
+    <t>0.00074330</t>
+  </si>
+  <si>
+    <t>0.00065673</t>
+  </si>
+  <si>
+    <t>0.00062810</t>
+  </si>
+  <si>
+    <t>0.00065248</t>
+  </si>
+  <si>
+    <t>0.00063203</t>
+  </si>
+  <si>
+    <t>0.00064030</t>
   </si>
 </sst>
 </file>
@@ -772,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,6 +1414,151 @@
         <v>142</v>
       </c>
     </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" t="s">
+        <v>147</v>
+      </c>
+      <c r="F31" t="s">
+        <v>148</v>
+      </c>
+      <c r="G31" t="s">
+        <v>149</v>
+      </c>
+      <c r="H31" t="s">
+        <v>150</v>
+      </c>
+      <c r="I31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" t="s">
+        <v>156</v>
+      </c>
+      <c r="F32" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32" t="s">
+        <v>158</v>
+      </c>
+      <c r="H32" t="s">
+        <v>159</v>
+      </c>
+      <c r="I32" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" t="s">
+        <v>165</v>
+      </c>
+      <c r="F33" t="s">
+        <v>166</v>
+      </c>
+      <c r="G33" t="s">
+        <v>167</v>
+      </c>
+      <c r="H33" t="s">
+        <v>168</v>
+      </c>
+      <c r="I33" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" t="s">
+        <v>173</v>
+      </c>
+      <c r="E34" t="s">
+        <v>174</v>
+      </c>
+      <c r="F34" t="s">
+        <v>175</v>
+      </c>
+      <c r="G34" t="s">
+        <v>176</v>
+      </c>
+      <c r="H34" t="s">
+        <v>177</v>
+      </c>
+      <c r="I34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>179</v>
+      </c>
+      <c r="B35" t="s">
+        <v>180</v>
+      </c>
+      <c r="C35" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" t="s">
+        <v>182</v>
+      </c>
+      <c r="E35" t="s">
+        <v>183</v>
+      </c>
+      <c r="F35" t="s">
+        <v>184</v>
+      </c>
+      <c r="G35" t="s">
+        <v>185</v>
+      </c>
+      <c r="H35" t="s">
+        <v>186</v>
+      </c>
+      <c r="I35" t="s">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/mereni.xlsx
+++ b/mereni.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6315" tabRatio="504"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="231">
   <si>
     <t>load data infile '/tmp/mirek-db/mysql/product.txt' replace into table product;</t>
   </si>
@@ -588,6 +588,135 @@
   </si>
   <si>
     <t>0.00064030</t>
+  </si>
+  <si>
+    <t>MEMORY</t>
+  </si>
+  <si>
+    <t>0.00047589</t>
+  </si>
+  <si>
+    <t>0.00046878</t>
+  </si>
+  <si>
+    <t>0.00049676</t>
+  </si>
+  <si>
+    <t>0.00058349</t>
+  </si>
+  <si>
+    <t>0.00230761</t>
+  </si>
+  <si>
+    <t>0.00047893</t>
+  </si>
+  <si>
+    <t>0.00047025</t>
+  </si>
+  <si>
+    <t>0.00051609</t>
+  </si>
+  <si>
+    <t>0.00046795</t>
+  </si>
+  <si>
+    <t>0.00048577</t>
+  </si>
+  <si>
+    <t>0.00048802</t>
+  </si>
+  <si>
+    <t>0.00051209</t>
+  </si>
+  <si>
+    <t>0.00048951</t>
+  </si>
+  <si>
+    <t>0.00048220</t>
+  </si>
+  <si>
+    <t>0.00056141</t>
+  </si>
+  <si>
+    <t>0.00050915</t>
+  </si>
+  <si>
+    <t>0.00044482</t>
+  </si>
+  <si>
+    <t>0.00051583</t>
+  </si>
+  <si>
+    <t>0.00042101</t>
+  </si>
+  <si>
+    <t>0.00224364</t>
+  </si>
+  <si>
+    <t>0.00053625</t>
+  </si>
+  <si>
+    <t>0.00047744</t>
+  </si>
+  <si>
+    <t>0.00041527</t>
+  </si>
+  <si>
+    <t>0.00047567</t>
+  </si>
+  <si>
+    <t>0.00048092</t>
+  </si>
+  <si>
+    <t>0.00043772</t>
+  </si>
+  <si>
+    <t>0.00044728</t>
+  </si>
+  <si>
+    <t>0.00047488</t>
+  </si>
+  <si>
+    <t>0.00047424</t>
+  </si>
+  <si>
+    <t>0.00046073</t>
+  </si>
+  <si>
+    <t>0.00050043</t>
+  </si>
+  <si>
+    <t>0.00046556</t>
+  </si>
+  <si>
+    <t>0.00052420</t>
+  </si>
+  <si>
+    <t>0.00042969</t>
+  </si>
+  <si>
+    <t>0.00045870</t>
+  </si>
+  <si>
+    <t>0.00268728</t>
+  </si>
+  <si>
+    <t>0.00064868</t>
+  </si>
+  <si>
+    <t>0.00077930</t>
+  </si>
+  <si>
+    <t>0.00064882</t>
+  </si>
+  <si>
+    <t>0.00090785</t>
+  </si>
+  <si>
+    <t>0.00073735</t>
+  </si>
+  <si>
+    <t>0.00080964</t>
   </si>
 </sst>
 </file>
@@ -907,64 +1036,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="9885" topLeftCell="L1" activePane="topRight"/>
+      <selection activeCell="A18" sqref="A18"/>
+      <selection pane="topRight" activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="90.42578125" customWidth="1"/>
     <col min="2" max="11" width="10.28515625" customWidth="1"/>
+    <col min="12" max="18" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>26.06</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L1">
+        <v>25.92</v>
+      </c>
+      <c r="M1">
+        <v>26.85</v>
+      </c>
+      <c r="N1">
+        <v>28.3</v>
+      </c>
+      <c r="O1">
+        <v>28.91</v>
+      </c>
+      <c r="P1">
+        <v>24.56</v>
+      </c>
+      <c r="Q1">
+        <v>28.76</v>
+      </c>
+      <c r="R1">
+        <v>26.12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>33.869999999999997</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>32.409999999999997</v>
+      </c>
+      <c r="M2">
+        <v>29.19</v>
+      </c>
+      <c r="N2">
+        <v>34.1</v>
+      </c>
+      <c r="O2">
+        <v>30</v>
+      </c>
+      <c r="P2">
+        <v>30.84</v>
+      </c>
+      <c r="Q2">
+        <v>29.82</v>
+      </c>
+      <c r="R2">
+        <v>26.31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M3">
+        <v>0.26</v>
+      </c>
+      <c r="N3">
+        <v>0.18</v>
+      </c>
+      <c r="O3">
+        <v>0.18</v>
+      </c>
+      <c r="P3">
+        <v>0.18</v>
+      </c>
+      <c r="Q3">
+        <v>0.18</v>
+      </c>
+      <c r="R3">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>1.59</v>
+      </c>
+      <c r="M4">
+        <v>1.46</v>
+      </c>
+      <c r="N4">
+        <v>1.28</v>
+      </c>
+      <c r="O4">
+        <v>2.15</v>
+      </c>
+      <c r="P4">
+        <v>1.26</v>
+      </c>
+      <c r="Q4">
+        <v>1.26</v>
+      </c>
+      <c r="R4">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>0.23</v>
+      </c>
+      <c r="M5">
+        <v>0.21</v>
+      </c>
+      <c r="N5">
+        <v>0.18</v>
+      </c>
+      <c r="O5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="P5">
+        <v>0.18</v>
+      </c>
+      <c r="Q5">
+        <v>0.19</v>
+      </c>
+      <c r="R5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -992,8 +1232,29 @@
       <c r="I9" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>189</v>
+      </c>
+      <c r="M9" t="s">
+        <v>190</v>
+      </c>
+      <c r="N9" t="s">
+        <v>191</v>
+      </c>
+      <c r="O9" t="s">
+        <v>192</v>
+      </c>
+      <c r="P9" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>194</v>
+      </c>
+      <c r="R9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1021,8 +1282,29 @@
       <c r="I10" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>196</v>
+      </c>
+      <c r="M10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N10" t="s">
+        <v>198</v>
+      </c>
+      <c r="O10" t="s">
+        <v>199</v>
+      </c>
+      <c r="P10" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>201</v>
+      </c>
+      <c r="R10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1050,8 +1332,29 @@
       <c r="I11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>203</v>
+      </c>
+      <c r="M11" t="s">
+        <v>204</v>
+      </c>
+      <c r="N11" t="s">
+        <v>205</v>
+      </c>
+      <c r="O11" t="s">
+        <v>206</v>
+      </c>
+      <c r="P11" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>208</v>
+      </c>
+      <c r="R11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1079,8 +1382,29 @@
       <c r="I12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>210</v>
+      </c>
+      <c r="M12" t="s">
+        <v>211</v>
+      </c>
+      <c r="N12" t="s">
+        <v>212</v>
+      </c>
+      <c r="O12" t="s">
+        <v>213</v>
+      </c>
+      <c r="P12" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>215</v>
+      </c>
+      <c r="R12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1108,23 +1432,44 @@
       <c r="I13" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>217</v>
+      </c>
+      <c r="M13" t="s">
+        <v>218</v>
+      </c>
+      <c r="N13" t="s">
+        <v>219</v>
+      </c>
+      <c r="O13" t="s">
+        <v>220</v>
+      </c>
+      <c r="P13" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>222</v>
+      </c>
+      <c r="R13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -1152,8 +1497,29 @@
       <c r="I18" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>224</v>
+      </c>
+      <c r="M18" t="s">
+        <v>225</v>
+      </c>
+      <c r="N18" t="s">
+        <v>226</v>
+      </c>
+      <c r="O18" t="s">
+        <v>227</v>
+      </c>
+      <c r="P18" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>229</v>
+      </c>
+      <c r="R18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -1182,7 +1548,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -1211,7 +1577,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -1240,7 +1606,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -1269,7 +1635,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>98</v>
       </c>
@@ -1298,7 +1664,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>107</v>
       </c>
@@ -1327,7 +1693,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>116</v>
       </c>
@@ -1356,7 +1722,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>125</v>
       </c>
@@ -1385,7 +1751,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -1414,7 +1780,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>143</v>
       </c>
@@ -1443,7 +1809,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>152</v>
       </c>

--- a/mereni.xlsx
+++ b/mereni.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="259">
   <si>
     <t>load data infile '/tmp/mirek-db/mysql/product.txt' replace into table product;</t>
   </si>
@@ -717,6 +717,90 @@
   </si>
   <si>
     <t>0.00080964</t>
+  </si>
+  <si>
+    <t>0.00040841</t>
+  </si>
+  <si>
+    <t>0.00042055</t>
+  </si>
+  <si>
+    <t>0.00043364</t>
+  </si>
+  <si>
+    <t>0.00039953</t>
+  </si>
+  <si>
+    <t>0.00044751</t>
+  </si>
+  <si>
+    <t>0.00041584</t>
+  </si>
+  <si>
+    <t>0.00043342</t>
+  </si>
+  <si>
+    <t>0.00048315</t>
+  </si>
+  <si>
+    <t>0.00044927</t>
+  </si>
+  <si>
+    <t>0.00045703</t>
+  </si>
+  <si>
+    <t>0.00050746</t>
+  </si>
+  <si>
+    <t>0.00043254</t>
+  </si>
+  <si>
+    <t>0.00043528</t>
+  </si>
+  <si>
+    <t>0.00055932</t>
+  </si>
+  <si>
+    <t>0.00037215</t>
+  </si>
+  <si>
+    <t>0.00050641</t>
+  </si>
+  <si>
+    <t>0.00050566</t>
+  </si>
+  <si>
+    <t>0.00040913</t>
+  </si>
+  <si>
+    <t>0.00039571</t>
+  </si>
+  <si>
+    <t>0.00037662</t>
+  </si>
+  <si>
+    <t>0.00043131</t>
+  </si>
+  <si>
+    <t>0.00040756</t>
+  </si>
+  <si>
+    <t>0.00038175</t>
+  </si>
+  <si>
+    <t>0.00039617</t>
+  </si>
+  <si>
+    <t>0.00038365</t>
+  </si>
+  <si>
+    <t>0.00038592</t>
+  </si>
+  <si>
+    <t>0.00046547</t>
+  </si>
+  <si>
+    <t>0.00037480</t>
   </si>
 </sst>
 </file>
@@ -1040,8 +1124,8 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9885" topLeftCell="L1" activePane="topRight"/>
-      <selection activeCell="A18" sqref="A18"/>
-      <selection pane="topRight" activeCell="R18" sqref="R18"/>
+      <selection activeCell="A22" sqref="A22"/>
+      <selection pane="topRight" activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1547,6 +1631,27 @@
       <c r="I19" t="s">
         <v>70</v>
       </c>
+      <c r="L19" t="s">
+        <v>231</v>
+      </c>
+      <c r="M19" t="s">
+        <v>232</v>
+      </c>
+      <c r="N19" t="s">
+        <v>233</v>
+      </c>
+      <c r="O19" t="s">
+        <v>234</v>
+      </c>
+      <c r="P19" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>236</v>
+      </c>
+      <c r="R19" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1576,6 +1681,27 @@
       <c r="I20" t="s">
         <v>79</v>
       </c>
+      <c r="L20" t="s">
+        <v>238</v>
+      </c>
+      <c r="M20" t="s">
+        <v>239</v>
+      </c>
+      <c r="N20" t="s">
+        <v>240</v>
+      </c>
+      <c r="O20" t="s">
+        <v>241</v>
+      </c>
+      <c r="P20" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>243</v>
+      </c>
+      <c r="R20" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1605,6 +1731,27 @@
       <c r="I21" t="s">
         <v>88</v>
       </c>
+      <c r="L21" t="s">
+        <v>245</v>
+      </c>
+      <c r="M21" t="s">
+        <v>246</v>
+      </c>
+      <c r="N21" t="s">
+        <v>247</v>
+      </c>
+      <c r="O21" t="s">
+        <v>248</v>
+      </c>
+      <c r="P21" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>250</v>
+      </c>
+      <c r="R21" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -1633,6 +1780,27 @@
       </c>
       <c r="I22" t="s">
         <v>97</v>
+      </c>
+      <c r="L22" t="s">
+        <v>252</v>
+      </c>
+      <c r="M22" t="s">
+        <v>253</v>
+      </c>
+      <c r="N22" t="s">
+        <v>254</v>
+      </c>
+      <c r="O22" t="s">
+        <v>255</v>
+      </c>
+      <c r="P22" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>257</v>
+      </c>
+      <c r="R22" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">

--- a/mereni.xlsx
+++ b/mereni.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="294">
   <si>
     <t>load data infile '/tmp/mirek-db/mysql/product.txt' replace into table product;</t>
   </si>
@@ -801,6 +801,111 @@
   </si>
   <si>
     <t>0.00037480</t>
+  </si>
+  <si>
+    <t>0.00075700</t>
+  </si>
+  <si>
+    <t>0.00037283</t>
+  </si>
+  <si>
+    <t>0.00044991</t>
+  </si>
+  <si>
+    <t>0.00045186</t>
+  </si>
+  <si>
+    <t>0.00044642</t>
+  </si>
+  <si>
+    <t>0.00041553</t>
+  </si>
+  <si>
+    <t>0.00041299</t>
+  </si>
+  <si>
+    <t>0.00055307</t>
+  </si>
+  <si>
+    <t>0.00042763</t>
+  </si>
+  <si>
+    <t>0.00041623</t>
+  </si>
+  <si>
+    <t>0.00041605</t>
+  </si>
+  <si>
+    <t>0.00041549</t>
+  </si>
+  <si>
+    <t>0.00040986</t>
+  </si>
+  <si>
+    <t>0.00041337</t>
+  </si>
+  <si>
+    <t>0.00042943</t>
+  </si>
+  <si>
+    <t>0.00052783</t>
+  </si>
+  <si>
+    <t>0.00041759</t>
+  </si>
+  <si>
+    <t>0.00042070</t>
+  </si>
+  <si>
+    <t>0.00040786</t>
+  </si>
+  <si>
+    <t>0.00041603</t>
+  </si>
+  <si>
+    <t>0.00042981</t>
+  </si>
+  <si>
+    <t>0.00050023</t>
+  </si>
+  <si>
+    <t>0.00044399</t>
+  </si>
+  <si>
+    <t>0.00040878</t>
+  </si>
+  <si>
+    <t>0.00042404</t>
+  </si>
+  <si>
+    <t>0.00041206</t>
+  </si>
+  <si>
+    <t>0.00041741</t>
+  </si>
+  <si>
+    <t>0.00041167</t>
+  </si>
+  <si>
+    <t>0.00041793</t>
+  </si>
+  <si>
+    <t>0.00042027</t>
+  </si>
+  <si>
+    <t>0.00042067</t>
+  </si>
+  <si>
+    <t>0.00044178</t>
+  </si>
+  <si>
+    <t>0.00038601</t>
+  </si>
+  <si>
+    <t>0.00046069</t>
+  </si>
+  <si>
+    <t>0.00046132</t>
   </si>
 </sst>
 </file>
@@ -1122,10 +1227,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
       <pane xSplit="9885" topLeftCell="L1" activePane="topRight"/>
-      <selection activeCell="A22" sqref="A22"/>
-      <selection pane="topRight" activeCell="R22" sqref="R22"/>
+      <selection activeCell="A28" sqref="A28"/>
+      <selection pane="topRight" activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1831,6 +1936,27 @@
       <c r="I24" t="s">
         <v>106</v>
       </c>
+      <c r="L24" t="s">
+        <v>259</v>
+      </c>
+      <c r="M24" t="s">
+        <v>260</v>
+      </c>
+      <c r="N24" t="s">
+        <v>261</v>
+      </c>
+      <c r="O24" t="s">
+        <v>262</v>
+      </c>
+      <c r="P24" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>264</v>
+      </c>
+      <c r="R24" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -1860,6 +1986,27 @@
       <c r="I25" t="s">
         <v>115</v>
       </c>
+      <c r="L25" t="s">
+        <v>266</v>
+      </c>
+      <c r="M25" t="s">
+        <v>267</v>
+      </c>
+      <c r="N25" t="s">
+        <v>268</v>
+      </c>
+      <c r="O25" t="s">
+        <v>269</v>
+      </c>
+      <c r="P25" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>271</v>
+      </c>
+      <c r="R25" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -1889,6 +2036,27 @@
       <c r="I26" t="s">
         <v>124</v>
       </c>
+      <c r="L26" t="s">
+        <v>273</v>
+      </c>
+      <c r="M26" t="s">
+        <v>274</v>
+      </c>
+      <c r="N26" t="s">
+        <v>275</v>
+      </c>
+      <c r="O26" t="s">
+        <v>276</v>
+      </c>
+      <c r="P26" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>278</v>
+      </c>
+      <c r="R26" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -1918,6 +2086,27 @@
       <c r="I27" t="s">
         <v>133</v>
       </c>
+      <c r="L27" t="s">
+        <v>280</v>
+      </c>
+      <c r="M27" t="s">
+        <v>281</v>
+      </c>
+      <c r="N27" t="s">
+        <v>282</v>
+      </c>
+      <c r="O27" t="s">
+        <v>283</v>
+      </c>
+      <c r="P27" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>285</v>
+      </c>
+      <c r="R27" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -1946,6 +2135,27 @@
       </c>
       <c r="I28" t="s">
         <v>142</v>
+      </c>
+      <c r="L28" t="s">
+        <v>287</v>
+      </c>
+      <c r="M28" t="s">
+        <v>288</v>
+      </c>
+      <c r="N28" t="s">
+        <v>289</v>
+      </c>
+      <c r="O28" t="s">
+        <v>290</v>
+      </c>
+      <c r="P28" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>292</v>
+      </c>
+      <c r="R28" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">

--- a/mereni.xlsx
+++ b/mereni.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="329">
   <si>
     <t>load data infile '/tmp/mirek-db/mysql/product.txt' replace into table product;</t>
   </si>
@@ -906,6 +906,111 @@
   </si>
   <si>
     <t>0.00046132</t>
+  </si>
+  <si>
+    <t>0.00378300</t>
+  </si>
+  <si>
+    <t>0.00053713</t>
+  </si>
+  <si>
+    <t>0.00078186</t>
+  </si>
+  <si>
+    <t>0.00054164</t>
+  </si>
+  <si>
+    <t>0.00054426</t>
+  </si>
+  <si>
+    <t>0.00055937</t>
+  </si>
+  <si>
+    <t>0.00056477</t>
+  </si>
+  <si>
+    <t>0.00263122</t>
+  </si>
+  <si>
+    <t>0.00040699</t>
+  </si>
+  <si>
+    <t>0.00037275</t>
+  </si>
+  <si>
+    <t>0.00037680</t>
+  </si>
+  <si>
+    <t>0.00043956</t>
+  </si>
+  <si>
+    <t>0.00050493</t>
+  </si>
+  <si>
+    <t>0.00047028</t>
+  </si>
+  <si>
+    <t>0.00693492</t>
+  </si>
+  <si>
+    <t>0.00107527</t>
+  </si>
+  <si>
+    <t>0.00091120</t>
+  </si>
+  <si>
+    <t>0.00085666</t>
+  </si>
+  <si>
+    <t>0.00091561</t>
+  </si>
+  <si>
+    <t>0.00088118</t>
+  </si>
+  <si>
+    <t>0.00087742</t>
+  </si>
+  <si>
+    <t>0.00049989</t>
+  </si>
+  <si>
+    <t>0.00038591</t>
+  </si>
+  <si>
+    <t>0.00040102</t>
+  </si>
+  <si>
+    <t>0.00038776</t>
+  </si>
+  <si>
+    <t>0.00198063</t>
+  </si>
+  <si>
+    <t>0.00039463</t>
+  </si>
+  <si>
+    <t>0.00042651</t>
+  </si>
+  <si>
+    <t>0.00038841</t>
+  </si>
+  <si>
+    <t>0.00042770</t>
+  </si>
+  <si>
+    <t>0.00037295</t>
+  </si>
+  <si>
+    <t>0.00040011</t>
+  </si>
+  <si>
+    <t>0.00038228</t>
+  </si>
+  <si>
+    <t>0.00038890</t>
+  </si>
+  <si>
+    <t>0.00035434</t>
   </si>
 </sst>
 </file>
@@ -1229,8 +1334,8 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
       <pane xSplit="9885" topLeftCell="L1" activePane="topRight"/>
-      <selection activeCell="A28" sqref="A28"/>
-      <selection pane="topRight" activeCell="R28" sqref="R28"/>
+      <selection activeCell="A35" sqref="A35"/>
+      <selection pane="topRight" activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2186,6 +2291,27 @@
       <c r="I31" t="s">
         <v>151</v>
       </c>
+      <c r="L31" t="s">
+        <v>294</v>
+      </c>
+      <c r="M31" t="s">
+        <v>295</v>
+      </c>
+      <c r="N31" t="s">
+        <v>296</v>
+      </c>
+      <c r="O31" t="s">
+        <v>297</v>
+      </c>
+      <c r="P31" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>299</v>
+      </c>
+      <c r="R31" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -2215,8 +2341,29 @@
       <c r="I32" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L32" t="s">
+        <v>301</v>
+      </c>
+      <c r="M32" t="s">
+        <v>302</v>
+      </c>
+      <c r="N32" t="s">
+        <v>303</v>
+      </c>
+      <c r="O32" t="s">
+        <v>304</v>
+      </c>
+      <c r="P32" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>306</v>
+      </c>
+      <c r="R32" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>161</v>
       </c>
@@ -2244,8 +2391,29 @@
       <c r="I33" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L33" t="s">
+        <v>308</v>
+      </c>
+      <c r="M33" t="s">
+        <v>309</v>
+      </c>
+      <c r="N33" t="s">
+        <v>310</v>
+      </c>
+      <c r="O33" t="s">
+        <v>311</v>
+      </c>
+      <c r="P33" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>313</v>
+      </c>
+      <c r="R33" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>170</v>
       </c>
@@ -2273,8 +2441,29 @@
       <c r="I34" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L34" t="s">
+        <v>315</v>
+      </c>
+      <c r="M34" t="s">
+        <v>316</v>
+      </c>
+      <c r="N34" t="s">
+        <v>317</v>
+      </c>
+      <c r="O34" t="s">
+        <v>318</v>
+      </c>
+      <c r="P34" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>320</v>
+      </c>
+      <c r="R34" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>179</v>
       </c>
@@ -2301,6 +2490,27 @@
       </c>
       <c r="I35" t="s">
         <v>187</v>
+      </c>
+      <c r="L35" t="s">
+        <v>322</v>
+      </c>
+      <c r="M35" t="s">
+        <v>323</v>
+      </c>
+      <c r="N35" t="s">
+        <v>324</v>
+      </c>
+      <c r="O35" t="s">
+        <v>325</v>
+      </c>
+      <c r="P35" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>327</v>
+      </c>
+      <c r="R35" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/mereni.xlsx
+++ b/mereni.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="330">
   <si>
     <t>load data infile '/tmp/mirek-db/mysql/product.txt' replace into table product;</t>
   </si>
@@ -1011,6 +1011,9 @@
   </si>
   <si>
     <t>0.00035434</t>
+  </si>
+  <si>
+    <t>InnoDB</t>
   </si>
 </sst>
 </file>
@@ -1047,9 +1050,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1330,12 +1334,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <pane xSplit="9885" topLeftCell="L1" activePane="topRight"/>
-      <selection activeCell="A35" sqref="A35"/>
-      <selection pane="topRight" activeCell="R35" sqref="R35"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <pane xSplit="9885" topLeftCell="B1" activePane="topRight"/>
+      <selection activeCell="A5" sqref="A5"/>
+      <selection pane="topRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1345,7 +1349,7 @@
     <col min="12" max="18" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1376,8 +1380,32 @@
       <c r="R1">
         <v>26.12</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T1" t="s">
+        <v>329</v>
+      </c>
+      <c r="U1">
+        <v>47.62</v>
+      </c>
+      <c r="V1">
+        <v>50.45</v>
+      </c>
+      <c r="W1">
+        <v>44.76</v>
+      </c>
+      <c r="X1">
+        <v>45.67</v>
+      </c>
+      <c r="Y1">
+        <v>54.37</v>
+      </c>
+      <c r="Z1">
+        <v>54.1</v>
+      </c>
+      <c r="AA1">
+        <v>51.9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1405,8 +1433,11 @@
       <c r="R2">
         <v>26.31</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U2" s="2">
+        <v>3.507986111111111E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1434,8 +1465,29 @@
       <c r="R3">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U3">
+        <v>3.22</v>
+      </c>
+      <c r="V3">
+        <v>1.94</v>
+      </c>
+      <c r="W3">
+        <v>1.58</v>
+      </c>
+      <c r="X3">
+        <v>0.98</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AA3">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1463,8 +1515,29 @@
       <c r="R4">
         <v>1.28</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U4">
+        <v>25.13</v>
+      </c>
+      <c r="V4">
+        <v>27.64</v>
+      </c>
+      <c r="W4">
+        <v>25.57</v>
+      </c>
+      <c r="X4">
+        <v>23.15</v>
+      </c>
+      <c r="Y4">
+        <v>24.9</v>
+      </c>
+      <c r="Z4">
+        <v>25.41</v>
+      </c>
+      <c r="AA4">
+        <v>28.58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1492,13 +1565,34 @@
       <c r="R5">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U5">
+        <v>1.83</v>
+      </c>
+      <c r="V5">
+        <v>0.82</v>
+      </c>
+      <c r="W5">
+        <v>1.19</v>
+      </c>
+      <c r="X5">
+        <v>0.77</v>
+      </c>
+      <c r="Y5">
+        <v>1.06</v>
+      </c>
+      <c r="Z5">
+        <v>0.95</v>
+      </c>
+      <c r="AA5">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1548,7 +1642,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1598,7 +1692,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1648,7 +1742,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1698,7 +1792,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1748,12 +1842,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>51</v>
       </c>

--- a/mereni.xlsx
+++ b/mereni.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="365">
   <si>
     <t>load data infile '/tmp/mirek-db/mysql/product.txt' replace into table product;</t>
   </si>
@@ -98,9 +98,6 @@
     <t xml:space="preserve">0.00049949 </t>
   </si>
   <si>
-    <t>select * from product where id = 1000000</t>
-  </si>
-  <si>
     <t>0.00047178</t>
   </si>
   <si>
@@ -1014,6 +1011,114 @@
   </si>
   <si>
     <t>InnoDB</t>
+  </si>
+  <si>
+    <t>0.00246897</t>
+  </si>
+  <si>
+    <t>0.00064543</t>
+  </si>
+  <si>
+    <t>0.00063471</t>
+  </si>
+  <si>
+    <t>0.00061597</t>
+  </si>
+  <si>
+    <t>0.00068010</t>
+  </si>
+  <si>
+    <t>0.00064745</t>
+  </si>
+  <si>
+    <t>0.00060096</t>
+  </si>
+  <si>
+    <t>0.00889994</t>
+  </si>
+  <si>
+    <t>0.00061771</t>
+  </si>
+  <si>
+    <t>0.00066149</t>
+  </si>
+  <si>
+    <t>0.00064333</t>
+  </si>
+  <si>
+    <t>0.00064149</t>
+  </si>
+  <si>
+    <t>0.00068944</t>
+  </si>
+  <si>
+    <t>0.00067851</t>
+  </si>
+  <si>
+    <t>select * from product where id = 1000007</t>
+  </si>
+  <si>
+    <t>0.00068149</t>
+  </si>
+  <si>
+    <t>0.00064122</t>
+  </si>
+  <si>
+    <t>0.00066208</t>
+  </si>
+  <si>
+    <t>0.00062664</t>
+  </si>
+  <si>
+    <t>0.00063896</t>
+  </si>
+  <si>
+    <t>0.00062141</t>
+  </si>
+  <si>
+    <t>0.00075355</t>
+  </si>
+  <si>
+    <t>0.02887444</t>
+  </si>
+  <si>
+    <t>0.00072029</t>
+  </si>
+  <si>
+    <t>0.00086312</t>
+  </si>
+  <si>
+    <t>0.00070496</t>
+  </si>
+  <si>
+    <t>0.00066108</t>
+  </si>
+  <si>
+    <t>0.00072114</t>
+  </si>
+  <si>
+    <t>0.00060923</t>
+  </si>
+  <si>
+    <t>0.01055785</t>
+  </si>
+  <si>
+    <t>0.00058754</t>
+  </si>
+  <si>
+    <t>0.00065102</t>
+  </si>
+  <si>
+    <t>0.00062107</t>
+  </si>
+  <si>
+    <t>0.00831528</t>
+  </si>
+  <si>
+    <t>0.00070669</t>
+  </si>
+  <si>
+    <t>0.00072608</t>
   </si>
 </sst>
 </file>
@@ -1336,10 +1441,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <pane xSplit="9885" topLeftCell="B1" activePane="topRight"/>
-      <selection activeCell="A5" sqref="A5"/>
-      <selection pane="topRight" activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="9885" topLeftCell="U1" activePane="topRight"/>
+      <selection activeCell="A13" sqref="A13"/>
+      <selection pane="topRight" activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,7 +1462,7 @@
         <v>26.06</v>
       </c>
       <c r="K1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L1">
         <v>25.92</v>
@@ -1381,7 +1486,7 @@
         <v>26.12</v>
       </c>
       <c r="T1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U1">
         <v>47.62</v>
@@ -1621,25 +1726,46 @@
         <v>14</v>
       </c>
       <c r="L9" t="s">
+        <v>188</v>
+      </c>
+      <c r="M9" t="s">
         <v>189</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>190</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>191</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>192</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>193</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>194</v>
       </c>
-      <c r="R9" t="s">
-        <v>195</v>
+      <c r="U9" t="s">
+        <v>329</v>
+      </c>
+      <c r="V9" t="s">
+        <v>330</v>
+      </c>
+      <c r="W9" t="s">
+        <v>331</v>
+      </c>
+      <c r="X9" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>333</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>334</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
@@ -1671,940 +1797,1024 @@
         <v>22</v>
       </c>
       <c r="L10" t="s">
+        <v>195</v>
+      </c>
+      <c r="M10" t="s">
         <v>196</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>197</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>198</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>199</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>200</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>201</v>
       </c>
-      <c r="R10" t="s">
-        <v>202</v>
+      <c r="U10" t="s">
+        <v>336</v>
+      </c>
+      <c r="V10" t="s">
+        <v>337</v>
+      </c>
+      <c r="W10" t="s">
+        <v>338</v>
+      </c>
+      <c r="X10" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>340</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>343</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>27</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>28</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>29</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>30</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>31</v>
       </c>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
       <c r="L11" t="s">
+        <v>202</v>
+      </c>
+      <c r="M11" t="s">
         <v>203</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>204</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>205</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>206</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>207</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>208</v>
       </c>
-      <c r="R11" t="s">
-        <v>209</v>
+      <c r="U11" t="s">
+        <v>344</v>
+      </c>
+      <c r="V11" t="s">
+        <v>345</v>
+      </c>
+      <c r="W11" t="s">
+        <v>346</v>
+      </c>
+      <c r="X11" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>348</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>36</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>37</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>38</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>39</v>
       </c>
-      <c r="H12" t="s">
-        <v>40</v>
-      </c>
       <c r="I12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L12" t="s">
+        <v>209</v>
+      </c>
+      <c r="M12" t="s">
         <v>210</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>211</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>212</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>213</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>214</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>215</v>
       </c>
-      <c r="R12" t="s">
-        <v>216</v>
+      <c r="U12" t="s">
+        <v>351</v>
+      </c>
+      <c r="V12" t="s">
+        <v>352</v>
+      </c>
+      <c r="W12" t="s">
+        <v>353</v>
+      </c>
+      <c r="X12" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>356</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
         <v>41</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>42</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>43</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>44</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>45</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>46</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>47</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>48</v>
       </c>
-      <c r="I13" t="s">
-        <v>49</v>
-      </c>
       <c r="L13" t="s">
+        <v>216</v>
+      </c>
+      <c r="M13" t="s">
         <v>217</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>218</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>219</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>220</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>221</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>222</v>
       </c>
-      <c r="R13" t="s">
-        <v>223</v>
+      <c r="U13" t="s">
+        <v>358</v>
+      </c>
+      <c r="V13" t="s">
+        <v>359</v>
+      </c>
+      <c r="W13" t="s">
+        <v>360</v>
+      </c>
+      <c r="X13" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>362</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>363</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
         <v>53</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>54</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>55</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>56</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>57</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>58</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>59</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>60</v>
       </c>
-      <c r="I18" t="s">
-        <v>61</v>
-      </c>
       <c r="L18" t="s">
+        <v>223</v>
+      </c>
+      <c r="M18" t="s">
         <v>224</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>225</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>226</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>227</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>228</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>229</v>
-      </c>
-      <c r="R18" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
         <v>62</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>63</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>64</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>65</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>66</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>67</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>68</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>69</v>
       </c>
-      <c r="I19" t="s">
-        <v>70</v>
-      </c>
       <c r="L19" t="s">
+        <v>230</v>
+      </c>
+      <c r="M19" t="s">
         <v>231</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>232</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>233</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>234</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>235</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>236</v>
-      </c>
-      <c r="R19" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
         <v>71</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>72</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>73</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>74</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>75</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>76</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>77</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>78</v>
       </c>
-      <c r="I20" t="s">
-        <v>79</v>
-      </c>
       <c r="L20" t="s">
+        <v>237</v>
+      </c>
+      <c r="M20" t="s">
         <v>238</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>239</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>240</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>241</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>242</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>243</v>
-      </c>
-      <c r="R20" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s">
         <v>80</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>81</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>82</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>83</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>84</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>85</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>86</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>87</v>
       </c>
-      <c r="I21" t="s">
-        <v>88</v>
-      </c>
       <c r="L21" t="s">
+        <v>244</v>
+      </c>
+      <c r="M21" t="s">
         <v>245</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>246</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>247</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>248</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>249</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>250</v>
-      </c>
-      <c r="R21" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" t="s">
         <v>89</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>90</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>91</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>92</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>93</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>94</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>95</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>96</v>
       </c>
-      <c r="I22" t="s">
-        <v>97</v>
-      </c>
       <c r="L22" t="s">
+        <v>251</v>
+      </c>
+      <c r="M22" t="s">
         <v>252</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>253</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>254</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>255</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>256</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>257</v>
-      </c>
-      <c r="R22" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" t="s">
         <v>98</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>99</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>100</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>101</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>102</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>103</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>104</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>105</v>
       </c>
-      <c r="I24" t="s">
-        <v>106</v>
-      </c>
       <c r="L24" t="s">
+        <v>258</v>
+      </c>
+      <c r="M24" t="s">
         <v>259</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>260</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>261</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>262</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>263</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>264</v>
-      </c>
-      <c r="R24" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" t="s">
         <v>107</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>108</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>109</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>110</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>111</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>112</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>113</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>114</v>
       </c>
-      <c r="I25" t="s">
-        <v>115</v>
-      </c>
       <c r="L25" t="s">
+        <v>265</v>
+      </c>
+      <c r="M25" t="s">
         <v>266</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>267</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>268</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>269</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>270</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>271</v>
-      </c>
-      <c r="R25" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" t="s">
         <v>116</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>117</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>118</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>119</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>120</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>121</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>122</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>123</v>
       </c>
-      <c r="I26" t="s">
-        <v>124</v>
-      </c>
       <c r="L26" t="s">
+        <v>272</v>
+      </c>
+      <c r="M26" t="s">
         <v>273</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>274</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>275</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>276</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>277</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>278</v>
-      </c>
-      <c r="R26" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" t="s">
         <v>125</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>126</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>127</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>128</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>129</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>130</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>131</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>132</v>
       </c>
-      <c r="I27" t="s">
-        <v>133</v>
-      </c>
       <c r="L27" t="s">
+        <v>279</v>
+      </c>
+      <c r="M27" t="s">
         <v>280</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>281</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>282</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>283</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>284</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>285</v>
-      </c>
-      <c r="R27" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" t="s">
         <v>134</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>135</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>136</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>137</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>138</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>139</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>140</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>141</v>
       </c>
-      <c r="I28" t="s">
-        <v>142</v>
-      </c>
       <c r="L28" t="s">
+        <v>286</v>
+      </c>
+      <c r="M28" t="s">
         <v>287</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>288</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>289</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>290</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>291</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>292</v>
-      </c>
-      <c r="R28" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" t="s">
         <v>143</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>144</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>145</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>146</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>147</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>148</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>149</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>150</v>
       </c>
-      <c r="I31" t="s">
-        <v>151</v>
-      </c>
       <c r="L31" t="s">
+        <v>293</v>
+      </c>
+      <c r="M31" t="s">
         <v>294</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>295</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>296</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>297</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>298</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
         <v>299</v>
-      </c>
-      <c r="R31" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" t="s">
         <v>152</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>153</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>154</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>155</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>156</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>157</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>158</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>159</v>
       </c>
-      <c r="I32" t="s">
-        <v>160</v>
-      </c>
       <c r="L32" t="s">
+        <v>300</v>
+      </c>
+      <c r="M32" t="s">
         <v>301</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>302</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>303</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>304</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>305</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>306</v>
-      </c>
-      <c r="R32" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" t="s">
         <v>161</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>162</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>163</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>164</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>165</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>166</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>167</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>168</v>
       </c>
-      <c r="I33" t="s">
-        <v>169</v>
-      </c>
       <c r="L33" t="s">
+        <v>307</v>
+      </c>
+      <c r="M33" t="s">
         <v>308</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>309</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
         <v>310</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>311</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>312</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>313</v>
-      </c>
-      <c r="R33" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" t="s">
         <v>170</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>171</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>172</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>173</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>174</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>175</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>176</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>177</v>
       </c>
-      <c r="I34" t="s">
-        <v>178</v>
-      </c>
       <c r="L34" t="s">
+        <v>314</v>
+      </c>
+      <c r="M34" t="s">
         <v>315</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>316</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>317</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>318</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>319</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="R34" t="s">
         <v>320</v>
-      </c>
-      <c r="R34" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35" t="s">
         <v>179</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>180</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>181</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>182</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>183</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>184</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>185</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>186</v>
       </c>
-      <c r="I35" t="s">
-        <v>187</v>
-      </c>
       <c r="L35" t="s">
+        <v>321</v>
+      </c>
+      <c r="M35" t="s">
         <v>322</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>323</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>324</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>325</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>326</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
         <v>327</v>
-      </c>
-      <c r="R35" t="s">
-        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/mereni.xlsx
+++ b/mereni.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="393">
   <si>
     <t>load data infile '/tmp/mirek-db/mysql/product.txt' replace into table product;</t>
   </si>
@@ -1119,6 +1119,90 @@
   </si>
   <si>
     <t>0.00072608</t>
+  </si>
+  <si>
+    <t>0.00051559</t>
+  </si>
+  <si>
+    <t>0.00050894</t>
+  </si>
+  <si>
+    <t>0.00064590</t>
+  </si>
+  <si>
+    <t>0.00058386</t>
+  </si>
+  <si>
+    <t>0.00057522</t>
+  </si>
+  <si>
+    <t>0.00059981</t>
+  </si>
+  <si>
+    <t>0.00052736</t>
+  </si>
+  <si>
+    <t>0.00052708</t>
+  </si>
+  <si>
+    <t>0.00053290</t>
+  </si>
+  <si>
+    <t>0.00281634</t>
+  </si>
+  <si>
+    <t>0.00060332</t>
+  </si>
+  <si>
+    <t>0.00051514</t>
+  </si>
+  <si>
+    <t>0.00047778</t>
+  </si>
+  <si>
+    <t>0.00055322</t>
+  </si>
+  <si>
+    <t>0.00056410</t>
+  </si>
+  <si>
+    <t>0.00055113</t>
+  </si>
+  <si>
+    <t>0.00059287</t>
+  </si>
+  <si>
+    <t>0.00052251</t>
+  </si>
+  <si>
+    <t>0.00097926</t>
+  </si>
+  <si>
+    <t>0.00053147</t>
+  </si>
+  <si>
+    <t>0.00058164</t>
+  </si>
+  <si>
+    <t>0.00056441</t>
+  </si>
+  <si>
+    <t>0.00054798</t>
+  </si>
+  <si>
+    <t>0.00054364</t>
+  </si>
+  <si>
+    <t>0.00053623</t>
+  </si>
+  <si>
+    <t>0.00052193</t>
+  </si>
+  <si>
+    <t>0.00062388</t>
+  </si>
+  <si>
+    <t>0.00054874</t>
   </si>
 </sst>
 </file>
@@ -1443,8 +1527,8 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9885" topLeftCell="U1" activePane="topRight"/>
-      <selection activeCell="A13" sqref="A13"/>
-      <selection pane="topRight" activeCell="AA13" sqref="AA13"/>
+      <selection activeCell="A21" sqref="A21"/>
+      <selection pane="topRight" activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2062,12 +2146,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -2116,8 +2200,29 @@
       <c r="R18" t="s">
         <v>229</v>
       </c>
+      <c r="U18" t="s">
+        <v>365</v>
+      </c>
+      <c r="V18" t="s">
+        <v>366</v>
+      </c>
+      <c r="W18" t="s">
+        <v>367</v>
+      </c>
+      <c r="X18" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>369</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>371</v>
+      </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -2166,8 +2271,29 @@
       <c r="R19" t="s">
         <v>236</v>
       </c>
+      <c r="U19" t="s">
+        <v>372</v>
+      </c>
+      <c r="V19" t="s">
+        <v>373</v>
+      </c>
+      <c r="W19" t="s">
+        <v>374</v>
+      </c>
+      <c r="X19" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>377</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -2216,8 +2342,29 @@
       <c r="R20" t="s">
         <v>243</v>
       </c>
+      <c r="U20" t="s">
+        <v>379</v>
+      </c>
+      <c r="V20" t="s">
+        <v>380</v>
+      </c>
+      <c r="W20" t="s">
+        <v>381</v>
+      </c>
+      <c r="X20" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>384</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>385</v>
+      </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -2266,8 +2413,29 @@
       <c r="R21" t="s">
         <v>250</v>
       </c>
+      <c r="U21" t="s">
+        <v>386</v>
+      </c>
+      <c r="V21" t="s">
+        <v>387</v>
+      </c>
+      <c r="W21" t="s">
+        <v>388</v>
+      </c>
+      <c r="X21" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>390</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>391</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>392</v>
+      </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -2317,7 +2485,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>97</v>
       </c>
@@ -2367,7 +2535,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -2417,7 +2585,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>115</v>
       </c>
@@ -2467,7 +2635,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>124</v>
       </c>
@@ -2517,7 +2685,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>133</v>
       </c>
@@ -2567,7 +2735,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -2617,7 +2785,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>151</v>
       </c>

--- a/mereni.xlsx
+++ b/mereni.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="435">
   <si>
     <t>load data infile '/tmp/mirek-db/mysql/product.txt' replace into table product;</t>
   </si>
@@ -1203,6 +1203,132 @@
   </si>
   <si>
     <t>0.00054874</t>
+  </si>
+  <si>
+    <t>0.00054212</t>
+  </si>
+  <si>
+    <t>0.00052291</t>
+  </si>
+  <si>
+    <t>0.00053528</t>
+  </si>
+  <si>
+    <t>0.00053058</t>
+  </si>
+  <si>
+    <t>0.00055898</t>
+  </si>
+  <si>
+    <t>0.00054165</t>
+  </si>
+  <si>
+    <t>0.00053768</t>
+  </si>
+  <si>
+    <t>0.00083318</t>
+  </si>
+  <si>
+    <t>0.00054527</t>
+  </si>
+  <si>
+    <t>0.00169374</t>
+  </si>
+  <si>
+    <t>0.00100699</t>
+  </si>
+  <si>
+    <t>0.00086739</t>
+  </si>
+  <si>
+    <t>0.00080752</t>
+  </si>
+  <si>
+    <t>0.00071169</t>
+  </si>
+  <si>
+    <t>0.00058345</t>
+  </si>
+  <si>
+    <t>0.00012753</t>
+  </si>
+  <si>
+    <t>0.00051381</t>
+  </si>
+  <si>
+    <t>0.00060535</t>
+  </si>
+  <si>
+    <t>0.00063814</t>
+  </si>
+  <si>
+    <t>0.00052475</t>
+  </si>
+  <si>
+    <t>0.00061139</t>
+  </si>
+  <si>
+    <t>0.00055024</t>
+  </si>
+  <si>
+    <t>0.00051395</t>
+  </si>
+  <si>
+    <t>0.00061480</t>
+  </si>
+  <si>
+    <t>0.00052254</t>
+  </si>
+  <si>
+    <t>0.00055198</t>
+  </si>
+  <si>
+    <t>0.00055112</t>
+  </si>
+  <si>
+    <t>0.00058419</t>
+  </si>
+  <si>
+    <t>0.00063594</t>
+  </si>
+  <si>
+    <t>0.00062702</t>
+  </si>
+  <si>
+    <t>0.00070878</t>
+  </si>
+  <si>
+    <t>0.00088846</t>
+  </si>
+  <si>
+    <t>0.00066205</t>
+  </si>
+  <si>
+    <t>0.00087025</t>
+  </si>
+  <si>
+    <t>0.00082049</t>
+  </si>
+  <si>
+    <t>0.00064669</t>
+  </si>
+  <si>
+    <t>0.00055193</t>
+  </si>
+  <si>
+    <t>0.00056033</t>
+  </si>
+  <si>
+    <t>0.00064630</t>
+  </si>
+  <si>
+    <t>0.00053112</t>
+  </si>
+  <si>
+    <t>0.00053741</t>
+  </si>
+  <si>
+    <t>0.00069937</t>
   </si>
 </sst>
 </file>
@@ -1525,10 +1651,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <pane xSplit="9885" topLeftCell="U1" activePane="topRight"/>
-      <selection activeCell="A21" sqref="A21"/>
-      <selection pane="topRight" activeCell="AA21" sqref="AA21"/>
+      <selection activeCell="A28" sqref="A28"/>
+      <selection pane="topRight" activeCell="AA28" sqref="AA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2484,6 +2610,27 @@
       <c r="R22" t="s">
         <v>257</v>
       </c>
+      <c r="U22" t="s">
+        <v>393</v>
+      </c>
+      <c r="V22" t="s">
+        <v>394</v>
+      </c>
+      <c r="W22" t="s">
+        <v>395</v>
+      </c>
+      <c r="X22" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>397</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -2534,6 +2681,27 @@
       <c r="R24" t="s">
         <v>264</v>
       </c>
+      <c r="U24" t="s">
+        <v>400</v>
+      </c>
+      <c r="V24" t="s">
+        <v>401</v>
+      </c>
+      <c r="W24" t="s">
+        <v>402</v>
+      </c>
+      <c r="X24" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>405</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -2584,6 +2752,27 @@
       <c r="R25" t="s">
         <v>271</v>
       </c>
+      <c r="U25" t="s">
+        <v>407</v>
+      </c>
+      <c r="V25" t="s">
+        <v>408</v>
+      </c>
+      <c r="W25" t="s">
+        <v>409</v>
+      </c>
+      <c r="X25" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>411</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>412</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -2634,6 +2823,27 @@
       <c r="R26" t="s">
         <v>278</v>
       </c>
+      <c r="U26" t="s">
+        <v>414</v>
+      </c>
+      <c r="V26" t="s">
+        <v>415</v>
+      </c>
+      <c r="W26" t="s">
+        <v>416</v>
+      </c>
+      <c r="X26" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>418</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>419</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -2684,6 +2894,27 @@
       <c r="R27" t="s">
         <v>285</v>
       </c>
+      <c r="U27" t="s">
+        <v>421</v>
+      </c>
+      <c r="V27" t="s">
+        <v>422</v>
+      </c>
+      <c r="W27" t="s">
+        <v>423</v>
+      </c>
+      <c r="X27" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>425</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>426</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -2733,6 +2964,27 @@
       </c>
       <c r="R28" t="s">
         <v>292</v>
+      </c>
+      <c r="U28" t="s">
+        <v>428</v>
+      </c>
+      <c r="V28" t="s">
+        <v>429</v>
+      </c>
+      <c r="W28" t="s">
+        <v>430</v>
+      </c>
+      <c r="X28" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>432</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>433</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">

--- a/mereni.xlsx
+++ b/mereni.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="469">
   <si>
     <t>load data infile '/tmp/mirek-db/mysql/product.txt' replace into table product;</t>
   </si>
@@ -1329,6 +1329,108 @@
   </si>
   <si>
     <t>0.00069937</t>
+  </si>
+  <si>
+    <t>2.85445764</t>
+  </si>
+  <si>
+    <t>0.00169812</t>
+  </si>
+  <si>
+    <t>0.00210317</t>
+  </si>
+  <si>
+    <t>0.00159186</t>
+  </si>
+  <si>
+    <t>0.00164150</t>
+  </si>
+  <si>
+    <t>0.00166651</t>
+  </si>
+  <si>
+    <t>0.00154033</t>
+  </si>
+  <si>
+    <t>0.10000997</t>
+  </si>
+  <si>
+    <t>0.00056639</t>
+  </si>
+  <si>
+    <t>0.00054906</t>
+  </si>
+  <si>
+    <t>0.00055155</t>
+  </si>
+  <si>
+    <t>0.00055027</t>
+  </si>
+  <si>
+    <t>0.00055925</t>
+  </si>
+  <si>
+    <t>0.00054840</t>
+  </si>
+  <si>
+    <t>0.04733758</t>
+  </si>
+  <si>
+    <t>0.00052081</t>
+  </si>
+  <si>
+    <t>0.00055501</t>
+  </si>
+  <si>
+    <t>0.00052068</t>
+  </si>
+  <si>
+    <t>0.00056296</t>
+  </si>
+  <si>
+    <t>0.00058855</t>
+  </si>
+  <si>
+    <t>0.06730451</t>
+  </si>
+  <si>
+    <t>0.00057017</t>
+  </si>
+  <si>
+    <t>0.00055042</t>
+  </si>
+  <si>
+    <t>0.00055190</t>
+  </si>
+  <si>
+    <t>0.00053804</t>
+  </si>
+  <si>
+    <t>0.00055137</t>
+  </si>
+  <si>
+    <t>0.00053417</t>
+  </si>
+  <si>
+    <t>0.07369726</t>
+  </si>
+  <si>
+    <t>0.00055029</t>
+  </si>
+  <si>
+    <t>0.00056330</t>
+  </si>
+  <si>
+    <t>0.00054851</t>
+  </si>
+  <si>
+    <t>0.00055211</t>
+  </si>
+  <si>
+    <t>0.00055033</t>
+  </si>
+  <si>
+    <t>0.00056195</t>
   </si>
 </sst>
 </file>
@@ -1653,8 +1755,8 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <pane xSplit="9885" topLeftCell="U1" activePane="topRight"/>
-      <selection activeCell="A28" sqref="A28"/>
-      <selection pane="topRight" activeCell="AA28" sqref="AA28"/>
+      <selection activeCell="A35" sqref="A35"/>
+      <selection pane="topRight" activeCell="AA35" sqref="AA35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3036,6 +3138,27 @@
       <c r="R31" t="s">
         <v>299</v>
       </c>
+      <c r="U31" t="s">
+        <v>435</v>
+      </c>
+      <c r="V31" t="s">
+        <v>436</v>
+      </c>
+      <c r="W31" t="s">
+        <v>437</v>
+      </c>
+      <c r="X31" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>439</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -3086,8 +3209,29 @@
       <c r="R32" t="s">
         <v>306</v>
       </c>
+      <c r="U32" t="s">
+        <v>442</v>
+      </c>
+      <c r="V32" t="s">
+        <v>443</v>
+      </c>
+      <c r="W32" t="s">
+        <v>444</v>
+      </c>
+      <c r="X32" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>446</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>447</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>448</v>
+      </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>160</v>
       </c>
@@ -3136,8 +3280,29 @@
       <c r="R33" t="s">
         <v>313</v>
       </c>
+      <c r="U33" t="s">
+        <v>449</v>
+      </c>
+      <c r="V33" t="s">
+        <v>450</v>
+      </c>
+      <c r="W33" t="s">
+        <v>45</v>
+      </c>
+      <c r="X33" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>452</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>454</v>
+      </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>169</v>
       </c>
@@ -3186,8 +3351,29 @@
       <c r="R34" t="s">
         <v>320</v>
       </c>
+      <c r="U34" t="s">
+        <v>455</v>
+      </c>
+      <c r="V34" t="s">
+        <v>456</v>
+      </c>
+      <c r="W34" t="s">
+        <v>457</v>
+      </c>
+      <c r="X34" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>459</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>460</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>461</v>
+      </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>178</v>
       </c>
@@ -3235,6 +3421,27 @@
       </c>
       <c r="R35" t="s">
         <v>327</v>
+      </c>
+      <c r="U35" t="s">
+        <v>462</v>
+      </c>
+      <c r="V35" t="s">
+        <v>463</v>
+      </c>
+      <c r="W35" t="s">
+        <v>464</v>
+      </c>
+      <c r="X35" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>466</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>467</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>

--- a/mereni.xlsx
+++ b/mereni.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="491">
   <si>
     <t>load data infile '/tmp/mirek-db/mysql/product.txt' replace into table product;</t>
   </si>
@@ -1431,6 +1431,72 @@
   </si>
   <si>
     <t>0.00056195</t>
+  </si>
+  <si>
+    <t>postgre</t>
+  </si>
+  <si>
+    <t>227.645</t>
+  </si>
+  <si>
+    <t>3380.577</t>
+  </si>
+  <si>
+    <t>328.134</t>
+  </si>
+  <si>
+    <t>18335.313</t>
+  </si>
+  <si>
+    <t>84346.087</t>
+  </si>
+  <si>
+    <t>(ms)</t>
+  </si>
+  <si>
+    <t>94901.072</t>
+  </si>
+  <si>
+    <t>17616.596</t>
+  </si>
+  <si>
+    <t>258.316</t>
+  </si>
+  <si>
+    <t>3639.067</t>
+  </si>
+  <si>
+    <t>298.908</t>
+  </si>
+  <si>
+    <t>14458.015</t>
+  </si>
+  <si>
+    <t>84506.125</t>
+  </si>
+  <si>
+    <t>204.017</t>
+  </si>
+  <si>
+    <t>3210.409</t>
+  </si>
+  <si>
+    <t>322.086</t>
+  </si>
+  <si>
+    <t>15504.475</t>
+  </si>
+  <si>
+    <t>84042.401</t>
+  </si>
+  <si>
+    <t>414.425</t>
+  </si>
+  <si>
+    <t>3391.376</t>
+  </si>
+  <si>
+    <t>328.138</t>
   </si>
 </sst>
 </file>
@@ -1751,12 +1817,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA35"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <pane xSplit="9885" topLeftCell="U1" activePane="topRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="9885" topLeftCell="AC1" activePane="topRight"/>
       <selection activeCell="A35" sqref="A35"/>
-      <selection pane="topRight" activeCell="AA35" sqref="AA35"/>
+      <selection pane="topRight" activeCell="AG5" sqref="AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1766,7 +1832,7 @@
     <col min="12" max="18" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1821,8 +1887,23 @@
       <c r="AA1">
         <v>51.9</v>
       </c>
+      <c r="AC1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>473</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>477</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>481</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>486</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1853,8 +1934,23 @@
       <c r="U2" s="2">
         <v>3.507986111111111E-3</v>
       </c>
+      <c r="AC2" t="s">
+        <v>475</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>474</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>476</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>482</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>487</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1903,8 +1999,20 @@
       <c r="AA3">
         <v>0.83</v>
       </c>
+      <c r="AD3" t="s">
+        <v>470</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>478</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>483</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>488</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1953,8 +2061,20 @@
       <c r="AA4">
         <v>28.58</v>
       </c>
+      <c r="AD4" t="s">
+        <v>471</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>484</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>489</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2003,13 +2123,25 @@
       <c r="AA5">
         <v>2.31</v>
       </c>
+      <c r="AD5" t="s">
+        <v>472</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>480</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>485</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>490</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2080,7 +2212,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2151,7 +2283,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>343</v>
       </c>
@@ -2222,7 +2354,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -2293,7 +2425,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -2364,12 +2496,12 @@
         <v>364</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>

--- a/mereni.xlsx
+++ b/mereni.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="506">
   <si>
     <t>load data infile '/tmp/mirek-db/mysql/product.txt' replace into table product;</t>
   </si>
@@ -44,9 +44,6 @@
     <t>selecty</t>
   </si>
   <si>
-    <t xml:space="preserve"> select * from product where id = 1</t>
-  </si>
-  <si>
     <t>0.00048840</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t xml:space="preserve"> 0.00054060</t>
   </si>
   <si>
-    <t>select * from product where id = 5161000</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.00051246 </t>
   </si>
   <si>
@@ -122,9 +116,6 @@
     <t>0.00043919</t>
   </si>
   <si>
-    <t>select * from product where id = 500000</t>
-  </si>
-  <si>
     <t>0.00050899</t>
   </si>
   <si>
@@ -146,9 +137,6 @@
     <t>0.00054929</t>
   </si>
   <si>
-    <t>select * from product where id = 2000</t>
-  </si>
-  <si>
     <t>0.00267534</t>
   </si>
   <si>
@@ -182,9 +170,6 @@
     <t>select max(retailprice) from product;</t>
   </si>
   <si>
-    <t xml:space="preserve"> select id from product where retailprice_cs = 12.5</t>
-  </si>
-  <si>
     <t>0.00068527</t>
   </si>
   <si>
@@ -209,9 +194,6 @@
     <t>0.00053873</t>
   </si>
   <si>
-    <t>select id from product where retailprice_cs = 110000</t>
-  </si>
-  <si>
     <t>0.00968390</t>
   </si>
   <si>
@@ -236,9 +218,6 @@
     <t>0.00053893</t>
   </si>
   <si>
-    <t>select id from product where retailprice_cs = 2932650</t>
-  </si>
-  <si>
     <t>0.00050963</t>
   </si>
   <si>
@@ -263,9 +242,6 @@
     <t>0.00051151</t>
   </si>
   <si>
-    <t>select id from product where retailprice_cs = 1855875</t>
-  </si>
-  <si>
     <t>0.00050368</t>
   </si>
   <si>
@@ -290,9 +266,6 @@
     <t>0.00063842</t>
   </si>
   <si>
-    <t>select id from product where retailprice_cs = 954375</t>
-  </si>
-  <si>
     <t>0.00062934</t>
   </si>
   <si>
@@ -317,9 +290,6 @@
     <t>0.00071128</t>
   </si>
   <si>
-    <t>select id from product where internal_number = "0 001 108 211"</t>
-  </si>
-  <si>
     <t>0.00068110</t>
   </si>
   <si>
@@ -344,9 +314,6 @@
     <t>0.00072914</t>
   </si>
   <si>
-    <t>select id from product where internal_number = "QB WS 0344 A"</t>
-  </si>
-  <si>
     <t>0.00054724</t>
   </si>
   <si>
@@ -371,9 +338,6 @@
     <t>0.00052117</t>
   </si>
   <si>
-    <t>select id from product where internal_number = "SD 0 986 474 332"</t>
-  </si>
-  <si>
     <t>0.00077904</t>
   </si>
   <si>
@@ -398,9 +362,6 @@
     <t>0.00090095</t>
   </si>
   <si>
-    <t>select id from product where internal_number = "0 132 801 002"</t>
-  </si>
-  <si>
     <t>0.00101897</t>
   </si>
   <si>
@@ -425,9 +386,6 @@
     <t>0.00057782</t>
   </si>
   <si>
-    <t>select id from product where internal_number = "9XX 340 369-011"</t>
-  </si>
-  <si>
     <t>0.00058355</t>
   </si>
   <si>
@@ -479,9 +437,6 @@
     <t>0.00084931</t>
   </si>
   <si>
-    <t>select product_id from product_vehicle where vehicle_id = 66707</t>
-  </si>
-  <si>
     <t>0.00051450</t>
   </si>
   <si>
@@ -506,9 +461,6 @@
     <t>0.00044449</t>
   </si>
   <si>
-    <t>select product_id from product_vehicle where vehicle_id = 63014</t>
-  </si>
-  <si>
     <t>0.00047352</t>
   </si>
   <si>
@@ -533,9 +485,6 @@
     <t>0.00045410</t>
   </si>
   <si>
-    <t>select product_id from product_vehicle where vehicle_id = 5630</t>
-  </si>
-  <si>
     <t>0.00047952</t>
   </si>
   <si>
@@ -560,9 +509,6 @@
     <t>0.00048845</t>
   </si>
   <si>
-    <t>select product_id from product_vehicle where vehicle_id = 28971</t>
-  </si>
-  <si>
     <t>0.00055412</t>
   </si>
   <si>
@@ -1055,9 +1001,6 @@
     <t>0.00067851</t>
   </si>
   <si>
-    <t>select * from product where id = 1000007</t>
-  </si>
-  <si>
     <t>0.00068149</t>
   </si>
   <si>
@@ -1497,6 +1440,108 @@
   </si>
   <si>
     <t>328.138</t>
+  </si>
+  <si>
+    <t>select * from product where id = 1;</t>
+  </si>
+  <si>
+    <t>select * from product where id = 5161000;</t>
+  </si>
+  <si>
+    <t>select * from product where id = 1000007;</t>
+  </si>
+  <si>
+    <t>select * from product where id = 500000;</t>
+  </si>
+  <si>
+    <t>select * from product where id = 2000;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> select id from product where retailprice_cs = 12.5;</t>
+  </si>
+  <si>
+    <t>select id from product where retailprice_cs = 110000;</t>
+  </si>
+  <si>
+    <t>select id from product where retailprice_cs = 2932650;</t>
+  </si>
+  <si>
+    <t>select id from product where retailprice_cs = 1855875;</t>
+  </si>
+  <si>
+    <t>select id from product where retailprice_cs = 954375;</t>
+  </si>
+  <si>
+    <t>select id from product where internal_number = "0 001 108 211";</t>
+  </si>
+  <si>
+    <t>select id from product where internal_number = "QB WS 0344 A";</t>
+  </si>
+  <si>
+    <t>select id from product where internal_number = "SD 0 986 474 332";</t>
+  </si>
+  <si>
+    <t>select id from product where internal_number = "0 132 801 002";</t>
+  </si>
+  <si>
+    <t>select id from product where internal_number = "9XX 340 369-011";</t>
+  </si>
+  <si>
+    <t>select product_id from product_vehicle where vehicle_id = 66707;</t>
+  </si>
+  <si>
+    <t>select product_id from product_vehicle where vehicle_id = 63014;</t>
+  </si>
+  <si>
+    <t>select product_id from product_vehicle where vehicle_id = 5630;</t>
+  </si>
+  <si>
+    <t>select product_id from product_vehicle where vehicle_id = 28971;</t>
+  </si>
+  <si>
+    <t>16209.768</t>
+  </si>
+  <si>
+    <t>79610.829</t>
+  </si>
+  <si>
+    <t>206.153</t>
+  </si>
+  <si>
+    <t>3720.475</t>
+  </si>
+  <si>
+    <t>349.581</t>
+  </si>
+  <si>
+    <t>15069.468</t>
+  </si>
+  <si>
+    <t>76792.373</t>
+  </si>
+  <si>
+    <t>202.483</t>
+  </si>
+  <si>
+    <t>3353.410</t>
+  </si>
+  <si>
+    <t>329.211</t>
+  </si>
+  <si>
+    <t>20774.990</t>
+  </si>
+  <si>
+    <t>91267.825</t>
+  </si>
+  <si>
+    <t>202.840</t>
+  </si>
+  <si>
+    <t>2952.421</t>
+  </si>
+  <si>
+    <t>290.021</t>
   </si>
 </sst>
 </file>
@@ -1817,12 +1862,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG35"/>
+  <dimension ref="A1:AJ35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9885" topLeftCell="AC1" activePane="topRight"/>
-      <selection activeCell="A35" sqref="A35"/>
-      <selection pane="topRight" activeCell="AG5" sqref="AG5"/>
+      <pane xSplit="9885" topLeftCell="AD1" activePane="topRight"/>
+      <selection activeCell="A31" sqref="A31:A35"/>
+      <selection pane="topRight" activeCell="AJ5" sqref="AJ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1832,7 +1877,7 @@
     <col min="12" max="18" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1840,7 +1885,7 @@
         <v>26.06</v>
       </c>
       <c r="K1" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="L1">
         <v>25.92</v>
@@ -1864,7 +1909,7 @@
         <v>26.12</v>
       </c>
       <c r="T1" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="U1">
         <v>47.62</v>
@@ -1888,22 +1933,31 @@
         <v>51.9</v>
       </c>
       <c r="AC1" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="AD1" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="AE1" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="AF1" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="AG1" t="s">
-        <v>486</v>
+        <v>467</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>491</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>496</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>501</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1935,22 +1989,31 @@
         <v>3.507986111111111E-3</v>
       </c>
       <c r="AC2" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="AD2" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="AE2" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="AF2" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="AG2" t="s">
-        <v>487</v>
+        <v>468</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>492</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>497</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>502</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2000,19 +2063,28 @@
         <v>0.83</v>
       </c>
       <c r="AD3" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="AE3" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="AF3" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="AG3" t="s">
-        <v>488</v>
+        <v>469</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>493</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>498</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>503</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2062,19 +2134,28 @@
         <v>28.58</v>
       </c>
       <c r="AD4" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="AE4" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="AF4" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="AG4" t="s">
-        <v>489</v>
+        <v>470</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>494</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>499</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>504</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2124,1456 +2205,1465 @@
         <v>2.31</v>
       </c>
       <c r="AD5" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="AE5" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="AF5" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="AG5" t="s">
-        <v>490</v>
+        <v>471</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>495</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>500</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>505</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>472</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="L9" t="s">
+        <v>170</v>
+      </c>
+      <c r="M9" t="s">
+        <v>171</v>
+      </c>
+      <c r="N9" t="s">
+        <v>172</v>
+      </c>
+      <c r="O9" t="s">
+        <v>173</v>
+      </c>
+      <c r="P9" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>175</v>
+      </c>
+      <c r="R9" t="s">
+        <v>176</v>
+      </c>
+      <c r="U9" t="s">
+        <v>311</v>
+      </c>
+      <c r="V9" t="s">
+        <v>312</v>
+      </c>
+      <c r="W9" t="s">
+        <v>313</v>
+      </c>
+      <c r="X9" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>473</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L9" t="s">
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" t="s">
+        <v>177</v>
+      </c>
+      <c r="M10" t="s">
+        <v>178</v>
+      </c>
+      <c r="N10" t="s">
+        <v>179</v>
+      </c>
+      <c r="O10" t="s">
+        <v>180</v>
+      </c>
+      <c r="P10" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>182</v>
+      </c>
+      <c r="R10" t="s">
+        <v>183</v>
+      </c>
+      <c r="U10" t="s">
+        <v>318</v>
+      </c>
+      <c r="V10" t="s">
+        <v>319</v>
+      </c>
+      <c r="W10" t="s">
+        <v>320</v>
+      </c>
+      <c r="X10" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>474</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" t="s">
+        <v>184</v>
+      </c>
+      <c r="M11" t="s">
+        <v>185</v>
+      </c>
+      <c r="N11" t="s">
+        <v>186</v>
+      </c>
+      <c r="O11" t="s">
+        <v>187</v>
+      </c>
+      <c r="P11" t="s">
         <v>188</v>
       </c>
-      <c r="M9" t="s">
+      <c r="Q11" t="s">
         <v>189</v>
       </c>
-      <c r="N9" t="s">
+      <c r="R11" t="s">
         <v>190</v>
       </c>
-      <c r="O9" t="s">
+      <c r="U11" t="s">
+        <v>325</v>
+      </c>
+      <c r="V11" t="s">
+        <v>326</v>
+      </c>
+      <c r="W11" t="s">
+        <v>327</v>
+      </c>
+      <c r="X11" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>330</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>475</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" t="s">
         <v>191</v>
       </c>
-      <c r="P9" t="s">
+      <c r="M12" t="s">
         <v>192</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="N12" t="s">
         <v>193</v>
       </c>
-      <c r="R9" t="s">
+      <c r="O12" t="s">
         <v>194</v>
       </c>
-      <c r="U9" t="s">
-        <v>329</v>
-      </c>
-      <c r="V9" t="s">
-        <v>330</v>
-      </c>
-      <c r="W9" t="s">
-        <v>331</v>
-      </c>
-      <c r="X9" t="s">
+      <c r="P12" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>196</v>
+      </c>
+      <c r="R12" t="s">
+        <v>197</v>
+      </c>
+      <c r="U12" t="s">
         <v>332</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="V12" t="s">
         <v>333</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="W12" t="s">
         <v>334</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="X12" t="s">
         <v>335</v>
       </c>
+      <c r="Y12" t="s">
+        <v>336</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>338</v>
+      </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" t="s">
-        <v>195</v>
-      </c>
-      <c r="M10" t="s">
-        <v>196</v>
-      </c>
-      <c r="N10" t="s">
-        <v>197</v>
-      </c>
-      <c r="O10" t="s">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>476</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" t="s">
         <v>198</v>
       </c>
-      <c r="P10" t="s">
+      <c r="M13" t="s">
         <v>199</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="N13" t="s">
         <v>200</v>
       </c>
-      <c r="R10" t="s">
+      <c r="O13" t="s">
         <v>201</v>
       </c>
-      <c r="U10" t="s">
-        <v>336</v>
-      </c>
-      <c r="V10" t="s">
-        <v>337</v>
-      </c>
-      <c r="W10" t="s">
-        <v>338</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="P13" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>203</v>
+      </c>
+      <c r="R13" t="s">
+        <v>204</v>
+      </c>
+      <c r="U13" t="s">
         <v>339</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="V13" t="s">
         <v>340</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="W13" t="s">
         <v>341</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="X13" t="s">
         <v>342</v>
       </c>
+      <c r="Y13" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>344</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>345</v>
+      </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>343</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" t="s">
-        <v>202</v>
-      </c>
-      <c r="M11" t="s">
-        <v>203</v>
-      </c>
-      <c r="N11" t="s">
-        <v>204</v>
-      </c>
-      <c r="O11" t="s">
-        <v>205</v>
-      </c>
-      <c r="P11" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>207</v>
-      </c>
-      <c r="R11" t="s">
-        <v>208</v>
-      </c>
-      <c r="U11" t="s">
-        <v>344</v>
-      </c>
-      <c r="V11" t="s">
-        <v>345</v>
-      </c>
-      <c r="W11" t="s">
-        <v>346</v>
-      </c>
-      <c r="X11" t="s">
-        <v>347</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>348</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>349</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>350</v>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" t="s">
-        <v>209</v>
-      </c>
-      <c r="M12" t="s">
-        <v>210</v>
-      </c>
-      <c r="N12" t="s">
-        <v>211</v>
-      </c>
-      <c r="O12" t="s">
-        <v>212</v>
-      </c>
-      <c r="P12" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>214</v>
-      </c>
-      <c r="R12" t="s">
-        <v>215</v>
-      </c>
-      <c r="U12" t="s">
-        <v>351</v>
-      </c>
-      <c r="V12" t="s">
-        <v>352</v>
-      </c>
-      <c r="W12" t="s">
-        <v>353</v>
-      </c>
-      <c r="X12" t="s">
-        <v>354</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>356</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" t="s">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" t="s">
-        <v>216</v>
-      </c>
-      <c r="M13" t="s">
-        <v>217</v>
-      </c>
-      <c r="N13" t="s">
-        <v>218</v>
-      </c>
-      <c r="O13" t="s">
-        <v>219</v>
-      </c>
-      <c r="P13" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>221</v>
-      </c>
-      <c r="R13" t="s">
-        <v>222</v>
-      </c>
-      <c r="U13" t="s">
-        <v>358</v>
-      </c>
-      <c r="V13" t="s">
-        <v>359</v>
-      </c>
-      <c r="W13" t="s">
-        <v>360</v>
-      </c>
-      <c r="X13" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>362</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>363</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>477</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
         <v>52</v>
       </c>
-      <c r="B18" t="s">
+      <c r="G18" t="s">
         <v>53</v>
       </c>
-      <c r="C18" t="s">
+      <c r="H18" t="s">
         <v>54</v>
       </c>
-      <c r="D18" t="s">
+      <c r="I18" t="s">
         <v>55</v>
       </c>
-      <c r="E18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" t="s">
-        <v>60</v>
-      </c>
       <c r="L18" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="M18" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="N18" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="O18" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="P18" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="Q18" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="R18" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="U18" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="V18" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="W18" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="X18" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="Y18" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="Z18" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="AA18" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>478</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" t="s">
         <v>61</v>
       </c>
-      <c r="B19" t="s">
+      <c r="H19" t="s">
         <v>62</v>
       </c>
-      <c r="C19" t="s">
+      <c r="I19" t="s">
         <v>63</v>
       </c>
-      <c r="D19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I19" t="s">
-        <v>69</v>
-      </c>
       <c r="L19" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="M19" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="N19" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="O19" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="P19" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="Q19" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="R19" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="U19" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="V19" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="W19" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="X19" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="Y19" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="Z19" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="AA19" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>479</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" t="s">
         <v>70</v>
       </c>
-      <c r="B20" t="s">
+      <c r="I20" t="s">
         <v>71</v>
       </c>
-      <c r="C20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" t="s">
-        <v>77</v>
-      </c>
-      <c r="I20" t="s">
-        <v>78</v>
-      </c>
       <c r="L20" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="M20" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="N20" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="O20" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="P20" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="Q20" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="R20" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="U20" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="V20" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="W20" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="X20" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="Y20" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="Z20" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="AA20" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>480</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" t="s">
         <v>79</v>
       </c>
-      <c r="B21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" t="s">
-        <v>84</v>
-      </c>
-      <c r="G21" t="s">
-        <v>85</v>
-      </c>
-      <c r="H21" t="s">
-        <v>86</v>
-      </c>
-      <c r="I21" t="s">
-        <v>87</v>
-      </c>
       <c r="L21" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="M21" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="N21" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="O21" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="P21" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="Q21" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="R21" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="U21" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="V21" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="W21" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="X21" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="Y21" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="Z21" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="AA21" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>481</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F22" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="I22" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="L22" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="M22" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="N22" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="O22" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="P22" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="Q22" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="R22" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="U22" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="V22" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="W22" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="X22" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="Y22" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="Z22" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="AA22" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>482</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F24" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="H24" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="I24" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="L24" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="M24" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="N24" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="O24" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="P24" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="Q24" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="R24" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="U24" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="V24" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="W24" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="X24" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="Y24" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="Z24" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="AA24" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>483</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E25" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F25" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G25" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H25" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="I25" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="L25" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="N25" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="O25" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="P25" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="Q25" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="R25" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="U25" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="V25" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="W25" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="X25" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="Y25" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="Z25" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="AA25" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>484</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E26" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F26" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G26" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="H26" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I26" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="L26" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="M26" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="N26" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="O26" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="P26" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="Q26" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="R26" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="U26" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="V26" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="W26" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="X26" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="Y26" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="Z26" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="AA26" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>485</v>
       </c>
       <c r="B27" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D27" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E27" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G27" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="H27" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="I27" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="L27" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="M27" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="N27" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="O27" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="P27" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="Q27" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="R27" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="U27" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="V27" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="W27" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="X27" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="Y27" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="Z27" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="AA27" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>133</v>
+        <v>486</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C28" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D28" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E28" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F28" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="G28" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="H28" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="I28" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="L28" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="M28" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="N28" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="O28" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="P28" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="Q28" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="R28" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="U28" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="V28" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="W28" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="X28" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="Y28" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="Z28" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="AA28" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B31" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C31" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E31" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="F31" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="G31" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="H31" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="I31" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="L31" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="M31" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="N31" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="O31" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="P31" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="Q31" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="R31" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="U31" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="V31" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="W31" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="X31" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="Y31" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="Z31" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="AA31" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>151</v>
+        <v>487</v>
       </c>
       <c r="B32" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C32" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="D32" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="E32" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="F32" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="G32" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="H32" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="I32" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="L32" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="M32" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="N32" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="O32" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="P32" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="Q32" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="R32" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="U32" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="V32" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="W32" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="X32" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="Y32" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="Z32" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="AA32" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>160</v>
+        <v>488</v>
       </c>
       <c r="B33" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C33" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="D33" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="E33" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="F33" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="G33" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="H33" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="I33" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="L33" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="M33" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="N33" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="O33" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="P33" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="Q33" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="R33" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="U33" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="V33" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="W33" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X33" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="Y33" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="Z33" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="AA33" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>169</v>
+        <v>489</v>
       </c>
       <c r="B34" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="C34" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D34" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="E34" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="F34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="G34" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="H34" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="I34" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="L34" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="M34" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="N34" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="O34" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="P34" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="Q34" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="R34" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="U34" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="V34" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="W34" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="X34" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="Y34" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="Z34" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="AA34" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>178</v>
+        <v>490</v>
       </c>
       <c r="B35" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="C35" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="D35" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="E35" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="F35" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="G35" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="H35" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="I35" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="L35" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="M35" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="N35" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="O35" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="P35" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="Q35" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="R35" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="U35" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="V35" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="W35" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="X35" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="Y35" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="Z35" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="AA35" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>

--- a/mereni.xlsx
+++ b/mereni.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="618">
   <si>
     <t>load data infile '/tmp/mirek-db/mysql/product.txt' replace into table product;</t>
   </si>
@@ -161,15 +161,6 @@
     <t>0.00061567</t>
   </si>
   <si>
-    <t>CREATE INDEX retail_price_cs_idx ON product (retailprice_cs);</t>
-  </si>
-  <si>
-    <t>load index into cache product;</t>
-  </si>
-  <si>
-    <t>select max(retailprice) from product;</t>
-  </si>
-  <si>
     <t>0.00068527</t>
   </si>
   <si>
@@ -1472,21 +1463,6 @@
     <t>select id from product where retailprice_cs = 954375;</t>
   </si>
   <si>
-    <t>select id from product where internal_number = "0 001 108 211";</t>
-  </si>
-  <si>
-    <t>select id from product where internal_number = "QB WS 0344 A";</t>
-  </si>
-  <si>
-    <t>select id from product where internal_number = "SD 0 986 474 332";</t>
-  </si>
-  <si>
-    <t>select id from product where internal_number = "0 132 801 002";</t>
-  </si>
-  <si>
-    <t>select id from product where internal_number = "9XX 340 369-011";</t>
-  </si>
-  <si>
     <t>select product_id from product_vehicle where vehicle_id = 66707;</t>
   </si>
   <si>
@@ -1542,6 +1518,366 @@
   </si>
   <si>
     <t>290.021</t>
+  </si>
+  <si>
+    <t>select id from product where internal_number = '0 001 108 211';</t>
+  </si>
+  <si>
+    <t>select id from product where internal_number = 'QB WS 0344 A';</t>
+  </si>
+  <si>
+    <t>select id from product where internal_number = 'SD 0 986 474 332';</t>
+  </si>
+  <si>
+    <t>select id from product where internal_number = '0 132 801 002';</t>
+  </si>
+  <si>
+    <t>select id from product where internal_number = '9XX 340 369-011';</t>
+  </si>
+  <si>
+    <t>1.754</t>
+  </si>
+  <si>
+    <t>1.178</t>
+  </si>
+  <si>
+    <t>0.599</t>
+  </si>
+  <si>
+    <t>0.575</t>
+  </si>
+  <si>
+    <t>0.611</t>
+  </si>
+  <si>
+    <t>0.449</t>
+  </si>
+  <si>
+    <t>0.213</t>
+  </si>
+  <si>
+    <t>0.148</t>
+  </si>
+  <si>
+    <t>0.200</t>
+  </si>
+  <si>
+    <t>0.146</t>
+  </si>
+  <si>
+    <t>8.308</t>
+  </si>
+  <si>
+    <t>0.411</t>
+  </si>
+  <si>
+    <t>0.186</t>
+  </si>
+  <si>
+    <t>0.167</t>
+  </si>
+  <si>
+    <t>0.177</t>
+  </si>
+  <si>
+    <t>0.371</t>
+  </si>
+  <si>
+    <t>0.426</t>
+  </si>
+  <si>
+    <t>0.721</t>
+  </si>
+  <si>
+    <t>0.398</t>
+  </si>
+  <si>
+    <t>0.588</t>
+  </si>
+  <si>
+    <t>0.541</t>
+  </si>
+  <si>
+    <t>0.553</t>
+  </si>
+  <si>
+    <t>0.590</t>
+  </si>
+  <si>
+    <t>0.685</t>
+  </si>
+  <si>
+    <t>0.355</t>
+  </si>
+  <si>
+    <t>0.163</t>
+  </si>
+  <si>
+    <t>0.240</t>
+  </si>
+  <si>
+    <t>0.198</t>
+  </si>
+  <si>
+    <t>0.201</t>
+  </si>
+  <si>
+    <t>0.224</t>
+  </si>
+  <si>
+    <t>0.261</t>
+  </si>
+  <si>
+    <t>0.181</t>
+  </si>
+  <si>
+    <t>0.295</t>
+  </si>
+  <si>
+    <t>0.116</t>
+  </si>
+  <si>
+    <t>0.120</t>
+  </si>
+  <si>
+    <t>0.381</t>
+  </si>
+  <si>
+    <t>0.661</t>
+  </si>
+  <si>
+    <t>0.648</t>
+  </si>
+  <si>
+    <t>0.550</t>
+  </si>
+  <si>
+    <t>0.651</t>
+  </si>
+  <si>
+    <t>0.556</t>
+  </si>
+  <si>
+    <t>0.266</t>
+  </si>
+  <si>
+    <t>0.182</t>
+  </si>
+  <si>
+    <t>0.147</t>
+  </si>
+  <si>
+    <t>0.143</t>
+  </si>
+  <si>
+    <t>0.166</t>
+  </si>
+  <si>
+    <t>0.142</t>
+  </si>
+  <si>
+    <t>0.137</t>
+  </si>
+  <si>
+    <t>0.356</t>
+  </si>
+  <si>
+    <t>0.327</t>
+  </si>
+  <si>
+    <t>0.117</t>
+  </si>
+  <si>
+    <t>0.121</t>
+  </si>
+  <si>
+    <t>0.410</t>
+  </si>
+  <si>
+    <t>0.591</t>
+  </si>
+  <si>
+    <t>0.605</t>
+  </si>
+  <si>
+    <t>0.726</t>
+  </si>
+  <si>
+    <t>2.102</t>
+  </si>
+  <si>
+    <t>0.378</t>
+  </si>
+  <si>
+    <t>0.212</t>
+  </si>
+  <si>
+    <t>0.215</t>
+  </si>
+  <si>
+    <t>0.193</t>
+  </si>
+  <si>
+    <t>0.247</t>
+  </si>
+  <si>
+    <t>0.205</t>
+  </si>
+  <si>
+    <t>0.267</t>
+  </si>
+  <si>
+    <t>0.211</t>
+  </si>
+  <si>
+    <t>0.392</t>
+  </si>
+  <si>
+    <t>0.309</t>
+  </si>
+  <si>
+    <t>0.130</t>
+  </si>
+  <si>
+    <t>0.171</t>
+  </si>
+  <si>
+    <t>0.168</t>
+  </si>
+  <si>
+    <t>0.447</t>
+  </si>
+  <si>
+    <t>0.609</t>
+  </si>
+  <si>
+    <t>0.593</t>
+  </si>
+  <si>
+    <t>0.545</t>
+  </si>
+  <si>
+    <t>0.494</t>
+  </si>
+  <si>
+    <t>0.208</t>
+  </si>
+  <si>
+    <t>0.218</t>
+  </si>
+  <si>
+    <t>0.149</t>
+  </si>
+  <si>
+    <t>0.169</t>
+  </si>
+  <si>
+    <t>0.153</t>
+  </si>
+  <si>
+    <t>0.185</t>
+  </si>
+  <si>
+    <t>0.165</t>
+  </si>
+  <si>
+    <t>0.258</t>
+  </si>
+  <si>
+    <t>0.403</t>
+  </si>
+  <si>
+    <t>0.118</t>
+  </si>
+  <si>
+    <t>0.386</t>
+  </si>
+  <si>
+    <t>0.544</t>
+  </si>
+  <si>
+    <t>0.876</t>
+  </si>
+  <si>
+    <t>0.596</t>
+  </si>
+  <si>
+    <t>0.657</t>
+  </si>
+  <si>
+    <t>0.445</t>
+  </si>
+  <si>
+    <t>0.282</t>
+  </si>
+  <si>
+    <t>0.196</t>
+  </si>
+  <si>
+    <t>0.251</t>
+  </si>
+  <si>
+    <t>0.179</t>
+  </si>
+  <si>
+    <t>0.170</t>
+  </si>
+  <si>
+    <t>0.300</t>
+  </si>
+  <si>
+    <t>0.129</t>
+  </si>
+  <si>
+    <t>0.323</t>
+  </si>
+  <si>
+    <t>0.421</t>
+  </si>
+  <si>
+    <t>0.815</t>
+  </si>
+  <si>
+    <t>0.857</t>
+  </si>
+  <si>
+    <t>0.549</t>
+  </si>
+  <si>
+    <t>0.644</t>
+  </si>
+  <si>
+    <t>0.433</t>
+  </si>
+  <si>
+    <t>0.174</t>
+  </si>
+  <si>
+    <t>0.145</t>
+  </si>
+  <si>
+    <t>0.156</t>
+  </si>
+  <si>
+    <t>1.469</t>
+  </si>
+  <si>
+    <t>0.244</t>
+  </si>
+  <si>
+    <t>0.152</t>
+  </si>
+  <si>
+    <t>0.203</t>
+  </si>
+  <si>
+    <t>0.770</t>
+  </si>
+  <si>
+    <t>0.365</t>
+  </si>
+  <si>
+    <t>0.131</t>
   </si>
 </sst>
 </file>
@@ -1862,12 +2198,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ35"/>
+  <dimension ref="A1:AJ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane xSplit="9885" topLeftCell="AD1" activePane="topRight"/>
-      <selection activeCell="A31" sqref="A31:A35"/>
-      <selection pane="topRight" activeCell="AJ5" sqref="AJ5"/>
+      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection pane="topRight" activeCell="AJ9" sqref="AD9:AJ28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1885,7 +2221,7 @@
         <v>26.06</v>
       </c>
       <c r="K1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L1">
         <v>25.92</v>
@@ -1909,7 +2245,7 @@
         <v>26.12</v>
       </c>
       <c r="T1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="U1">
         <v>47.62</v>
@@ -1933,28 +2269,28 @@
         <v>51.9</v>
       </c>
       <c r="AC1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AD1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="AE1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="AF1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AG1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="AH1" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="AI1" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="AJ1" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -1989,28 +2325,28 @@
         <v>3.507986111111111E-3</v>
       </c>
       <c r="AC2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AD2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AE2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="AF2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="AG2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AH2" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="AI2" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="AJ2" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -2063,25 +2399,25 @@
         <v>0.83</v>
       </c>
       <c r="AD3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="AE3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AF3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AG3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="AH3" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="AI3" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="AJ3" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
@@ -2134,25 +2470,25 @@
         <v>28.58</v>
       </c>
       <c r="AD4" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AE4" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="AF4" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="AG4" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="AH4" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="AI4" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="AJ4" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
@@ -2205,25 +2541,25 @@
         <v>2.31</v>
       </c>
       <c r="AD5" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="AE5" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AF5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="AG5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="AH5" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="AI5" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="AJ5" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
@@ -2233,7 +2569,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -2260,51 +2596,72 @@
         <v>13</v>
       </c>
       <c r="L9" t="s">
+        <v>167</v>
+      </c>
+      <c r="M9" t="s">
+        <v>168</v>
+      </c>
+      <c r="N9" t="s">
+        <v>169</v>
+      </c>
+      <c r="O9" t="s">
         <v>170</v>
       </c>
-      <c r="M9" t="s">
+      <c r="P9" t="s">
         <v>171</v>
       </c>
-      <c r="N9" t="s">
+      <c r="Q9" t="s">
         <v>172</v>
       </c>
-      <c r="O9" t="s">
+      <c r="R9" t="s">
         <v>173</v>
       </c>
-      <c r="P9" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>175</v>
-      </c>
-      <c r="R9" t="s">
-        <v>176</v>
-      </c>
       <c r="U9" t="s">
+        <v>308</v>
+      </c>
+      <c r="V9" t="s">
+        <v>309</v>
+      </c>
+      <c r="W9" t="s">
+        <v>310</v>
+      </c>
+      <c r="X9" t="s">
         <v>311</v>
       </c>
-      <c r="V9" t="s">
+      <c r="Y9" t="s">
         <v>312</v>
       </c>
-      <c r="W9" t="s">
+      <c r="Z9" t="s">
         <v>313</v>
       </c>
-      <c r="X9" t="s">
+      <c r="AA9" t="s">
         <v>314</v>
       </c>
-      <c r="Y9" t="s">
-        <v>315</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>317</v>
+      <c r="AD9" t="s">
+        <v>503</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>522</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>538</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>555</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>573</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>588</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -2331,51 +2688,72 @@
         <v>20</v>
       </c>
       <c r="L10" t="s">
+        <v>174</v>
+      </c>
+      <c r="M10" t="s">
+        <v>175</v>
+      </c>
+      <c r="N10" t="s">
+        <v>176</v>
+      </c>
+      <c r="O10" t="s">
         <v>177</v>
       </c>
-      <c r="M10" t="s">
+      <c r="P10" t="s">
         <v>178</v>
       </c>
-      <c r="N10" t="s">
+      <c r="Q10" t="s">
         <v>179</v>
       </c>
-      <c r="O10" t="s">
+      <c r="R10" t="s">
         <v>180</v>
       </c>
-      <c r="P10" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>182</v>
-      </c>
-      <c r="R10" t="s">
-        <v>183</v>
-      </c>
       <c r="U10" t="s">
+        <v>315</v>
+      </c>
+      <c r="V10" t="s">
+        <v>316</v>
+      </c>
+      <c r="W10" t="s">
+        <v>317</v>
+      </c>
+      <c r="X10" t="s">
         <v>318</v>
       </c>
-      <c r="V10" t="s">
+      <c r="Y10" t="s">
         <v>319</v>
       </c>
-      <c r="W10" t="s">
+      <c r="Z10" t="s">
         <v>320</v>
       </c>
-      <c r="X10" t="s">
+      <c r="AA10" t="s">
         <v>321</v>
       </c>
-      <c r="Y10" t="s">
-        <v>322</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>323</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>324</v>
+      <c r="AD10" t="s">
+        <v>504</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>523</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>539</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>556</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>589</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -2402,51 +2780,72 @@
         <v>29</v>
       </c>
       <c r="L11" t="s">
+        <v>181</v>
+      </c>
+      <c r="M11" t="s">
+        <v>182</v>
+      </c>
+      <c r="N11" t="s">
+        <v>183</v>
+      </c>
+      <c r="O11" t="s">
         <v>184</v>
       </c>
-      <c r="M11" t="s">
+      <c r="P11" t="s">
         <v>185</v>
       </c>
-      <c r="N11" t="s">
+      <c r="Q11" t="s">
         <v>186</v>
       </c>
-      <c r="O11" t="s">
+      <c r="R11" t="s">
         <v>187</v>
       </c>
-      <c r="P11" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>189</v>
-      </c>
-      <c r="R11" t="s">
-        <v>190</v>
-      </c>
       <c r="U11" t="s">
+        <v>322</v>
+      </c>
+      <c r="V11" t="s">
+        <v>323</v>
+      </c>
+      <c r="W11" t="s">
+        <v>324</v>
+      </c>
+      <c r="X11" t="s">
         <v>325</v>
       </c>
-      <c r="V11" t="s">
+      <c r="Y11" t="s">
         <v>326</v>
       </c>
-      <c r="W11" t="s">
+      <c r="Z11" t="s">
         <v>327</v>
       </c>
-      <c r="X11" t="s">
+      <c r="AA11" t="s">
         <v>328</v>
       </c>
-      <c r="Y11" t="s">
-        <v>329</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>330</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>331</v>
+      <c r="AD11" t="s">
+        <v>505</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>524</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>540</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>557</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>575</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>590</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -2473,51 +2872,72 @@
         <v>29</v>
       </c>
       <c r="L12" t="s">
+        <v>188</v>
+      </c>
+      <c r="M12" t="s">
+        <v>189</v>
+      </c>
+      <c r="N12" t="s">
+        <v>190</v>
+      </c>
+      <c r="O12" t="s">
         <v>191</v>
       </c>
-      <c r="M12" t="s">
+      <c r="P12" t="s">
         <v>192</v>
       </c>
-      <c r="N12" t="s">
+      <c r="Q12" t="s">
         <v>193</v>
       </c>
-      <c r="O12" t="s">
+      <c r="R12" t="s">
         <v>194</v>
       </c>
-      <c r="P12" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>196</v>
-      </c>
-      <c r="R12" t="s">
-        <v>197</v>
-      </c>
       <c r="U12" t="s">
+        <v>329</v>
+      </c>
+      <c r="V12" t="s">
+        <v>330</v>
+      </c>
+      <c r="W12" t="s">
+        <v>331</v>
+      </c>
+      <c r="X12" t="s">
         <v>332</v>
       </c>
-      <c r="V12" t="s">
+      <c r="Y12" t="s">
         <v>333</v>
       </c>
-      <c r="W12" t="s">
+      <c r="Z12" t="s">
         <v>334</v>
       </c>
-      <c r="X12" t="s">
+      <c r="AA12" t="s">
         <v>335</v>
       </c>
-      <c r="Y12" t="s">
-        <v>336</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>337</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>338</v>
+      <c r="AD12" t="s">
+        <v>506</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>525</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>541</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>558</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>506</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>591</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
@@ -2544,1126 +2964,1447 @@
         <v>44</v>
       </c>
       <c r="L13" t="s">
+        <v>195</v>
+      </c>
+      <c r="M13" t="s">
+        <v>196</v>
+      </c>
+      <c r="N13" t="s">
+        <v>197</v>
+      </c>
+      <c r="O13" t="s">
         <v>198</v>
       </c>
-      <c r="M13" t="s">
+      <c r="P13" t="s">
         <v>199</v>
       </c>
-      <c r="N13" t="s">
+      <c r="Q13" t="s">
         <v>200</v>
       </c>
-      <c r="O13" t="s">
+      <c r="R13" t="s">
         <v>201</v>
       </c>
-      <c r="P13" t="s">
+      <c r="U13" t="s">
+        <v>336</v>
+      </c>
+      <c r="V13" t="s">
+        <v>337</v>
+      </c>
+      <c r="W13" t="s">
+        <v>338</v>
+      </c>
+      <c r="X13" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>340</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>342</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>507</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>526</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>542</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>559</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>576</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>592</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>474</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" t="s">
         <v>202</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="M14" t="s">
         <v>203</v>
       </c>
-      <c r="R13" t="s">
+      <c r="N14" t="s">
         <v>204</v>
       </c>
-      <c r="U13" t="s">
-        <v>339</v>
-      </c>
-      <c r="V13" t="s">
-        <v>340</v>
-      </c>
-      <c r="W13" t="s">
-        <v>341</v>
-      </c>
-      <c r="X13" t="s">
-        <v>342</v>
-      </c>
-      <c r="Y13" t="s">
+      <c r="O14" t="s">
+        <v>205</v>
+      </c>
+      <c r="P14" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>207</v>
+      </c>
+      <c r="R14" t="s">
+        <v>208</v>
+      </c>
+      <c r="U14" t="s">
         <v>343</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="V14" t="s">
         <v>344</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="W14" t="s">
         <v>345</v>
+      </c>
+      <c r="X14" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>349</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>508</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>527</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>543</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>560</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>577</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>593</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>475</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L15" t="s">
+        <v>209</v>
+      </c>
+      <c r="M15" t="s">
+        <v>210</v>
+      </c>
+      <c r="N15" t="s">
+        <v>211</v>
+      </c>
+      <c r="O15" t="s">
+        <v>212</v>
+      </c>
+      <c r="P15" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>214</v>
+      </c>
+      <c r="R15" t="s">
+        <v>215</v>
+      </c>
+      <c r="U15" t="s">
+        <v>350</v>
+      </c>
+      <c r="V15" t="s">
+        <v>351</v>
+      </c>
+      <c r="W15" t="s">
+        <v>352</v>
+      </c>
+      <c r="X15" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>355</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>356</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>509</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>528</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>544</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>561</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>578</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>530</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>476</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" t="s">
+        <v>216</v>
+      </c>
+      <c r="M16" t="s">
+        <v>217</v>
+      </c>
+      <c r="N16" t="s">
+        <v>218</v>
+      </c>
+      <c r="O16" t="s">
+        <v>219</v>
+      </c>
+      <c r="P16" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>221</v>
+      </c>
+      <c r="R16" t="s">
+        <v>222</v>
+      </c>
+      <c r="U16" t="s">
+        <v>357</v>
+      </c>
+      <c r="V16" t="s">
+        <v>358</v>
+      </c>
+      <c r="W16" t="s">
+        <v>359</v>
+      </c>
+      <c r="X16" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>361</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>362</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>363</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>510</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>545</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>562</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>579</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>594</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>609</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>477</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" t="s">
+        <v>76</v>
+      </c>
+      <c r="L17" t="s">
+        <v>223</v>
+      </c>
+      <c r="M17" t="s">
+        <v>224</v>
+      </c>
+      <c r="N17" t="s">
+        <v>225</v>
+      </c>
+      <c r="O17" t="s">
+        <v>226</v>
+      </c>
+      <c r="P17" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>228</v>
+      </c>
+      <c r="R17" t="s">
+        <v>229</v>
+      </c>
+      <c r="U17" t="s">
+        <v>364</v>
+      </c>
+      <c r="V17" t="s">
+        <v>365</v>
+      </c>
+      <c r="W17" t="s">
+        <v>366</v>
+      </c>
+      <c r="X17" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>369</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>370</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>511</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>530</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>546</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>563</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>580</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>595</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>610</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="L18" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="M18" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="N18" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="O18" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="P18" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="Q18" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="R18" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="U18" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="V18" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="W18" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="X18" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="Y18" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="Z18" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="AA18" t="s">
-        <v>352</v>
+        <v>377</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>512</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>511</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>546</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>564</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>581</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>546</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="I19" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="L19" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="M19" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="N19" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="O19" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="P19" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="Q19" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="R19" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="U19" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="V19" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="W19" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="X19" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="Y19" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="Z19" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="AA19" t="s">
-        <v>359</v>
+        <v>384</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>513</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>531</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>528</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>565</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>567</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>563</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>528</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>499</v>
+      </c>
+      <c r="B20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" t="s">
+        <v>100</v>
+      </c>
+      <c r="L20" t="s">
+        <v>244</v>
+      </c>
+      <c r="M20" t="s">
+        <v>245</v>
+      </c>
+      <c r="N20" t="s">
+        <v>246</v>
+      </c>
+      <c r="O20" t="s">
+        <v>247</v>
+      </c>
+      <c r="P20" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>249</v>
+      </c>
+      <c r="R20" t="s">
+        <v>250</v>
+      </c>
+      <c r="U20" t="s">
+        <v>385</v>
+      </c>
+      <c r="V20" t="s">
+        <v>386</v>
+      </c>
+      <c r="W20" t="s">
+        <v>387</v>
+      </c>
+      <c r="X20" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>391</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>514</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>532</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>547</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>563</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>582</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>510</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>500</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" t="s">
+        <v>107</v>
+      </c>
+      <c r="I21" t="s">
+        <v>108</v>
+      </c>
+      <c r="L21" t="s">
+        <v>251</v>
+      </c>
+      <c r="M21" t="s">
+        <v>252</v>
+      </c>
+      <c r="N21" t="s">
+        <v>253</v>
+      </c>
+      <c r="O21" t="s">
+        <v>254</v>
+      </c>
+      <c r="P21" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>256</v>
+      </c>
+      <c r="R21" t="s">
+        <v>257</v>
+      </c>
+      <c r="U21" t="s">
+        <v>392</v>
+      </c>
+      <c r="V21" t="s">
+        <v>393</v>
+      </c>
+      <c r="W21" t="s">
+        <v>394</v>
+      </c>
+      <c r="X21" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>397</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>398</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>515</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>533</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>548</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>566</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>583</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>597</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>501</v>
+      </c>
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22" t="s">
+        <v>116</v>
+      </c>
+      <c r="L22" t="s">
+        <v>258</v>
+      </c>
+      <c r="M22" t="s">
+        <v>259</v>
+      </c>
+      <c r="N22" t="s">
+        <v>260</v>
+      </c>
+      <c r="O22" t="s">
+        <v>261</v>
+      </c>
+      <c r="P22" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>263</v>
+      </c>
+      <c r="R22" t="s">
+        <v>264</v>
+      </c>
+      <c r="U22" t="s">
+        <v>399</v>
+      </c>
+      <c r="V22" t="s">
+        <v>400</v>
+      </c>
+      <c r="W22" t="s">
+        <v>401</v>
+      </c>
+      <c r="X22" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>403</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>516</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>534</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>549</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>567</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>584</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>547</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>502</v>
+      </c>
+      <c r="B23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" t="s">
+        <v>122</v>
+      </c>
+      <c r="H23" t="s">
+        <v>123</v>
+      </c>
+      <c r="I23" t="s">
+        <v>124</v>
+      </c>
+      <c r="L23" t="s">
+        <v>265</v>
+      </c>
+      <c r="M23" t="s">
+        <v>266</v>
+      </c>
+      <c r="N23" t="s">
+        <v>267</v>
+      </c>
+      <c r="O23" t="s">
+        <v>268</v>
+      </c>
+      <c r="P23" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>270</v>
+      </c>
+      <c r="R23" t="s">
+        <v>271</v>
+      </c>
+      <c r="U23" t="s">
+        <v>406</v>
+      </c>
+      <c r="V23" t="s">
+        <v>407</v>
+      </c>
+      <c r="W23" t="s">
+        <v>408</v>
+      </c>
+      <c r="X23" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>410</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>411</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>412</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>517</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>534</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>550</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>561</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>585</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>598</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" t="s">
+        <v>131</v>
+      </c>
+      <c r="H24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I24" t="s">
+        <v>133</v>
+      </c>
+      <c r="L24" t="s">
+        <v>272</v>
+      </c>
+      <c r="M24" t="s">
+        <v>273</v>
+      </c>
+      <c r="N24" t="s">
+        <v>274</v>
+      </c>
+      <c r="O24" t="s">
+        <v>275</v>
+      </c>
+      <c r="P24" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>277</v>
+      </c>
+      <c r="R24" t="s">
+        <v>278</v>
+      </c>
+      <c r="U24" t="s">
+        <v>413</v>
+      </c>
+      <c r="V24" t="s">
+        <v>414</v>
+      </c>
+      <c r="W24" t="s">
+        <v>415</v>
+      </c>
+      <c r="X24" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>417</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>418</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>419</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>518</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>527</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>551</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>568</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>586</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>555</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>479</v>
       </c>
-      <c r="B20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" t="s">
-        <v>71</v>
-      </c>
-      <c r="L20" t="s">
-        <v>219</v>
-      </c>
-      <c r="M20" t="s">
-        <v>220</v>
-      </c>
-      <c r="N20" t="s">
-        <v>221</v>
-      </c>
-      <c r="O20" t="s">
-        <v>222</v>
-      </c>
-      <c r="P20" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>224</v>
-      </c>
-      <c r="R20" t="s">
-        <v>225</v>
-      </c>
-      <c r="U20" t="s">
-        <v>360</v>
-      </c>
-      <c r="V20" t="s">
-        <v>361</v>
-      </c>
-      <c r="W20" t="s">
-        <v>362</v>
-      </c>
-      <c r="X20" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>364</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>365</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>366</v>
+      <c r="B25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" t="s">
+        <v>140</v>
+      </c>
+      <c r="I25" t="s">
+        <v>141</v>
+      </c>
+      <c r="L25" t="s">
+        <v>279</v>
+      </c>
+      <c r="M25" t="s">
+        <v>280</v>
+      </c>
+      <c r="N25" t="s">
+        <v>281</v>
+      </c>
+      <c r="O25" t="s">
+        <v>282</v>
+      </c>
+      <c r="P25" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>284</v>
+      </c>
+      <c r="R25" t="s">
+        <v>285</v>
+      </c>
+      <c r="U25" t="s">
+        <v>420</v>
+      </c>
+      <c r="V25" t="s">
+        <v>421</v>
+      </c>
+      <c r="W25" t="s">
+        <v>422</v>
+      </c>
+      <c r="X25" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>424</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>425</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>519</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>535</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>552</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>569</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>527</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>599</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>616</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>480</v>
       </c>
-      <c r="B21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" t="s">
-        <v>78</v>
-      </c>
-      <c r="I21" t="s">
-        <v>79</v>
-      </c>
-      <c r="L21" t="s">
-        <v>226</v>
-      </c>
-      <c r="M21" t="s">
-        <v>227</v>
-      </c>
-      <c r="N21" t="s">
-        <v>228</v>
-      </c>
-      <c r="O21" t="s">
-        <v>229</v>
-      </c>
-      <c r="P21" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>231</v>
-      </c>
-      <c r="R21" t="s">
-        <v>232</v>
-      </c>
-      <c r="U21" t="s">
-        <v>367</v>
-      </c>
-      <c r="V21" t="s">
-        <v>368</v>
-      </c>
-      <c r="W21" t="s">
-        <v>369</v>
-      </c>
-      <c r="X21" t="s">
-        <v>370</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>371</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>372</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>373</v>
+      <c r="B26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" t="s">
+        <v>145</v>
+      </c>
+      <c r="F26" t="s">
+        <v>146</v>
+      </c>
+      <c r="G26" t="s">
+        <v>147</v>
+      </c>
+      <c r="H26" t="s">
+        <v>148</v>
+      </c>
+      <c r="I26" t="s">
+        <v>149</v>
+      </c>
+      <c r="L26" t="s">
+        <v>286</v>
+      </c>
+      <c r="M26" t="s">
+        <v>287</v>
+      </c>
+      <c r="N26" t="s">
+        <v>288</v>
+      </c>
+      <c r="O26" t="s">
+        <v>289</v>
+      </c>
+      <c r="P26" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>291</v>
+      </c>
+      <c r="R26" t="s">
+        <v>292</v>
+      </c>
+      <c r="U26" t="s">
+        <v>427</v>
+      </c>
+      <c r="V26" t="s">
+        <v>428</v>
+      </c>
+      <c r="W26" t="s">
+        <v>41</v>
+      </c>
+      <c r="X26" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>430</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>431</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>432</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>510</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>536</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>553</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>570</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>553</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>584</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>534</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>481</v>
       </c>
-      <c r="B22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" t="s">
-        <v>85</v>
-      </c>
-      <c r="H22" t="s">
-        <v>86</v>
-      </c>
-      <c r="I22" t="s">
-        <v>87</v>
-      </c>
-      <c r="L22" t="s">
-        <v>233</v>
-      </c>
-      <c r="M22" t="s">
-        <v>234</v>
-      </c>
-      <c r="N22" t="s">
-        <v>235</v>
-      </c>
-      <c r="O22" t="s">
-        <v>236</v>
-      </c>
-      <c r="P22" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>238</v>
-      </c>
-      <c r="R22" t="s">
-        <v>239</v>
-      </c>
-      <c r="U22" t="s">
-        <v>374</v>
-      </c>
-      <c r="V22" t="s">
-        <v>375</v>
-      </c>
-      <c r="W22" t="s">
-        <v>376</v>
-      </c>
-      <c r="X22" t="s">
-        <v>377</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>378</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>379</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>380</v>
+      <c r="B27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" t="s">
+        <v>154</v>
+      </c>
+      <c r="G27" t="s">
+        <v>155</v>
+      </c>
+      <c r="H27" t="s">
+        <v>156</v>
+      </c>
+      <c r="I27" t="s">
+        <v>157</v>
+      </c>
+      <c r="L27" t="s">
+        <v>293</v>
+      </c>
+      <c r="M27" t="s">
+        <v>294</v>
+      </c>
+      <c r="N27" t="s">
+        <v>295</v>
+      </c>
+      <c r="O27" t="s">
+        <v>296</v>
+      </c>
+      <c r="P27" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>298</v>
+      </c>
+      <c r="R27" t="s">
+        <v>299</v>
+      </c>
+      <c r="U27" t="s">
+        <v>433</v>
+      </c>
+      <c r="V27" t="s">
+        <v>434</v>
+      </c>
+      <c r="W27" t="s">
+        <v>435</v>
+      </c>
+      <c r="X27" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>437</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>438</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>439</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>520</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>537</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>554</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>571</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>553</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>600</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>482</v>
       </c>
-      <c r="B24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" t="s">
-        <v>93</v>
-      </c>
-      <c r="H24" t="s">
-        <v>94</v>
-      </c>
-      <c r="I24" t="s">
-        <v>95</v>
-      </c>
-      <c r="L24" t="s">
-        <v>240</v>
-      </c>
-      <c r="M24" t="s">
-        <v>241</v>
-      </c>
-      <c r="N24" t="s">
-        <v>242</v>
-      </c>
-      <c r="O24" t="s">
-        <v>243</v>
-      </c>
-      <c r="P24" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>245</v>
-      </c>
-      <c r="R24" t="s">
-        <v>246</v>
-      </c>
-      <c r="U24" t="s">
-        <v>381</v>
-      </c>
-      <c r="V24" t="s">
-        <v>382</v>
-      </c>
-      <c r="W24" t="s">
-        <v>383</v>
-      </c>
-      <c r="X24" t="s">
-        <v>384</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>385</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>386</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>483</v>
-      </c>
-      <c r="B25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" t="s">
-        <v>99</v>
-      </c>
-      <c r="F25" t="s">
-        <v>100</v>
-      </c>
-      <c r="G25" t="s">
-        <v>101</v>
-      </c>
-      <c r="H25" t="s">
-        <v>102</v>
-      </c>
-      <c r="I25" t="s">
-        <v>103</v>
-      </c>
-      <c r="L25" t="s">
-        <v>247</v>
-      </c>
-      <c r="M25" t="s">
-        <v>248</v>
-      </c>
-      <c r="N25" t="s">
-        <v>249</v>
-      </c>
-      <c r="O25" t="s">
-        <v>250</v>
-      </c>
-      <c r="P25" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>252</v>
-      </c>
-      <c r="R25" t="s">
-        <v>253</v>
-      </c>
-      <c r="U25" t="s">
-        <v>388</v>
-      </c>
-      <c r="V25" t="s">
-        <v>389</v>
-      </c>
-      <c r="W25" t="s">
-        <v>390</v>
-      </c>
-      <c r="X25" t="s">
-        <v>391</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>392</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>393</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>484</v>
-      </c>
-      <c r="B26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" t="s">
-        <v>107</v>
-      </c>
-      <c r="F26" t="s">
-        <v>108</v>
-      </c>
-      <c r="G26" t="s">
-        <v>109</v>
-      </c>
-      <c r="H26" t="s">
-        <v>110</v>
-      </c>
-      <c r="I26" t="s">
-        <v>111</v>
-      </c>
-      <c r="L26" t="s">
-        <v>254</v>
-      </c>
-      <c r="M26" t="s">
-        <v>255</v>
-      </c>
-      <c r="N26" t="s">
-        <v>256</v>
-      </c>
-      <c r="O26" t="s">
-        <v>257</v>
-      </c>
-      <c r="P26" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>259</v>
-      </c>
-      <c r="R26" t="s">
-        <v>260</v>
-      </c>
-      <c r="U26" t="s">
-        <v>395</v>
-      </c>
-      <c r="V26" t="s">
-        <v>396</v>
-      </c>
-      <c r="W26" t="s">
-        <v>397</v>
-      </c>
-      <c r="X26" t="s">
-        <v>398</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>399</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>400</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>485</v>
-      </c>
-      <c r="B27" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" t="s">
-        <v>114</v>
-      </c>
-      <c r="E27" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27" t="s">
-        <v>116</v>
-      </c>
-      <c r="G27" t="s">
-        <v>117</v>
-      </c>
-      <c r="H27" t="s">
-        <v>118</v>
-      </c>
-      <c r="I27" t="s">
-        <v>119</v>
-      </c>
-      <c r="L27" t="s">
-        <v>261</v>
-      </c>
-      <c r="M27" t="s">
-        <v>262</v>
-      </c>
-      <c r="N27" t="s">
-        <v>263</v>
-      </c>
-      <c r="O27" t="s">
-        <v>264</v>
-      </c>
-      <c r="P27" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>266</v>
-      </c>
-      <c r="R27" t="s">
-        <v>267</v>
-      </c>
-      <c r="U27" t="s">
-        <v>402</v>
-      </c>
-      <c r="V27" t="s">
-        <v>403</v>
-      </c>
-      <c r="W27" t="s">
-        <v>404</v>
-      </c>
-      <c r="X27" t="s">
-        <v>405</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>406</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>407</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>486</v>
-      </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="E28" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="F28" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="G28" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="H28" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="I28" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="L28" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="M28" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="N28" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="O28" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="P28" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="Q28" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="R28" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="U28" t="s">
-        <v>409</v>
+        <v>440</v>
       </c>
       <c r="V28" t="s">
-        <v>410</v>
+        <v>441</v>
       </c>
       <c r="W28" t="s">
-        <v>411</v>
+        <v>442</v>
       </c>
       <c r="X28" t="s">
-        <v>412</v>
+        <v>443</v>
       </c>
       <c r="Y28" t="s">
-        <v>413</v>
+        <v>444</v>
       </c>
       <c r="Z28" t="s">
-        <v>414</v>
+        <v>445</v>
       </c>
       <c r="AA28" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>128</v>
-      </c>
-      <c r="B31" t="s">
-        <v>129</v>
-      </c>
-      <c r="C31" t="s">
-        <v>130</v>
-      </c>
-      <c r="D31" t="s">
-        <v>131</v>
-      </c>
-      <c r="E31" t="s">
-        <v>132</v>
-      </c>
-      <c r="F31" t="s">
-        <v>133</v>
-      </c>
-      <c r="G31" t="s">
-        <v>134</v>
-      </c>
-      <c r="H31" t="s">
-        <v>135</v>
-      </c>
-      <c r="I31" t="s">
-        <v>136</v>
-      </c>
-      <c r="L31" t="s">
-        <v>275</v>
-      </c>
-      <c r="M31" t="s">
-        <v>276</v>
-      </c>
-      <c r="N31" t="s">
-        <v>277</v>
-      </c>
-      <c r="O31" t="s">
-        <v>278</v>
-      </c>
-      <c r="P31" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>280</v>
-      </c>
-      <c r="R31" t="s">
-        <v>281</v>
-      </c>
-      <c r="U31" t="s">
-        <v>416</v>
-      </c>
-      <c r="V31" t="s">
-        <v>417</v>
-      </c>
-      <c r="W31" t="s">
-        <v>418</v>
-      </c>
-      <c r="X31" t="s">
-        <v>419</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>420</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>421</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>487</v>
-      </c>
-      <c r="B32" t="s">
-        <v>137</v>
-      </c>
-      <c r="C32" t="s">
-        <v>138</v>
-      </c>
-      <c r="D32" t="s">
-        <v>139</v>
-      </c>
-      <c r="E32" t="s">
-        <v>140</v>
-      </c>
-      <c r="F32" t="s">
-        <v>141</v>
-      </c>
-      <c r="G32" t="s">
-        <v>142</v>
-      </c>
-      <c r="H32" t="s">
-        <v>143</v>
-      </c>
-      <c r="I32" t="s">
-        <v>144</v>
-      </c>
-      <c r="L32" t="s">
-        <v>282</v>
-      </c>
-      <c r="M32" t="s">
-        <v>283</v>
-      </c>
-      <c r="N32" t="s">
-        <v>284</v>
-      </c>
-      <c r="O32" t="s">
-        <v>285</v>
-      </c>
-      <c r="P32" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>287</v>
-      </c>
-      <c r="R32" t="s">
-        <v>288</v>
-      </c>
-      <c r="U32" t="s">
-        <v>423</v>
-      </c>
-      <c r="V32" t="s">
-        <v>424</v>
-      </c>
-      <c r="W32" t="s">
-        <v>425</v>
-      </c>
-      <c r="X32" t="s">
-        <v>426</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>427</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>428</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>488</v>
-      </c>
-      <c r="B33" t="s">
-        <v>145</v>
-      </c>
-      <c r="C33" t="s">
-        <v>146</v>
-      </c>
-      <c r="D33" t="s">
-        <v>147</v>
-      </c>
-      <c r="E33" t="s">
-        <v>148</v>
-      </c>
-      <c r="F33" t="s">
-        <v>149</v>
-      </c>
-      <c r="G33" t="s">
-        <v>150</v>
-      </c>
-      <c r="H33" t="s">
-        <v>151</v>
-      </c>
-      <c r="I33" t="s">
-        <v>152</v>
-      </c>
-      <c r="L33" t="s">
-        <v>289</v>
-      </c>
-      <c r="M33" t="s">
-        <v>290</v>
-      </c>
-      <c r="N33" t="s">
-        <v>291</v>
-      </c>
-      <c r="O33" t="s">
-        <v>292</v>
-      </c>
-      <c r="P33" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>294</v>
-      </c>
-      <c r="R33" t="s">
-        <v>295</v>
-      </c>
-      <c r="U33" t="s">
-        <v>430</v>
-      </c>
-      <c r="V33" t="s">
-        <v>431</v>
-      </c>
-      <c r="W33" t="s">
-        <v>41</v>
-      </c>
-      <c r="X33" t="s">
-        <v>432</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>433</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>434</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>489</v>
-      </c>
-      <c r="B34" t="s">
-        <v>153</v>
-      </c>
-      <c r="C34" t="s">
-        <v>154</v>
-      </c>
-      <c r="D34" t="s">
-        <v>155</v>
-      </c>
-      <c r="E34" t="s">
-        <v>156</v>
-      </c>
-      <c r="F34" t="s">
-        <v>157</v>
-      </c>
-      <c r="G34" t="s">
-        <v>158</v>
-      </c>
-      <c r="H34" t="s">
-        <v>159</v>
-      </c>
-      <c r="I34" t="s">
-        <v>160</v>
-      </c>
-      <c r="L34" t="s">
-        <v>296</v>
-      </c>
-      <c r="M34" t="s">
-        <v>297</v>
-      </c>
-      <c r="N34" t="s">
-        <v>298</v>
-      </c>
-      <c r="O34" t="s">
-        <v>299</v>
-      </c>
-      <c r="P34" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>301</v>
-      </c>
-      <c r="R34" t="s">
-        <v>302</v>
-      </c>
-      <c r="U34" t="s">
-        <v>436</v>
-      </c>
-      <c r="V34" t="s">
-        <v>437</v>
-      </c>
-      <c r="W34" t="s">
-        <v>438</v>
-      </c>
-      <c r="X34" t="s">
-        <v>439</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>440</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>441</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>490</v>
-      </c>
-      <c r="B35" t="s">
-        <v>161</v>
-      </c>
-      <c r="C35" t="s">
-        <v>162</v>
-      </c>
-      <c r="D35" t="s">
-        <v>163</v>
-      </c>
-      <c r="E35" t="s">
-        <v>164</v>
-      </c>
-      <c r="F35" t="s">
-        <v>165</v>
-      </c>
-      <c r="G35" t="s">
-        <v>166</v>
-      </c>
-      <c r="H35" t="s">
-        <v>167</v>
-      </c>
-      <c r="I35" t="s">
-        <v>168</v>
-      </c>
-      <c r="L35" t="s">
-        <v>303</v>
-      </c>
-      <c r="M35" t="s">
-        <v>304</v>
-      </c>
-      <c r="N35" t="s">
-        <v>305</v>
-      </c>
-      <c r="O35" t="s">
-        <v>306</v>
-      </c>
-      <c r="P35" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>308</v>
-      </c>
-      <c r="R35" t="s">
-        <v>309</v>
-      </c>
-      <c r="U35" t="s">
-        <v>443</v>
-      </c>
-      <c r="V35" t="s">
-        <v>444</v>
-      </c>
-      <c r="W35" t="s">
-        <v>445</v>
-      </c>
-      <c r="X35" t="s">
         <v>446</v>
       </c>
-      <c r="Y35" t="s">
-        <v>447</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>448</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>449</v>
+      <c r="AD28" t="s">
+        <v>521</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>536</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>537</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>572</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>587</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>601</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>

--- a/mereni.xlsx
+++ b/mereni.xlsx
@@ -268,10 +268,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -557,9 +558,9 @@
   <dimension ref="A1:AR28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9885" topLeftCell="S1"/>
+      <pane xSplit="9885" topLeftCell="S1" activePane="topRight"/>
       <selection activeCell="A6" sqref="A6"/>
-      <selection pane="topRight" activeCell="I5" sqref="I5"/>
+      <selection pane="topRight" activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,6 +718,15 @@
       <c r="U2" s="2">
         <v>3.507986111111111E-3</v>
       </c>
+      <c r="V2" s="2">
+        <v>3.3275462962962968E-3</v>
+      </c>
+      <c r="W2" s="2">
+        <v>3.2515046296296298E-3</v>
+      </c>
+      <c r="X2" s="2">
+        <v>3.4216435185185183E-3</v>
+      </c>
       <c r="AC2" t="s">
         <v>15</v>
       </c>
@@ -1084,35 +1094,35 @@
       <c r="AA9">
         <v>0.60095999999999994</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AD9" s="3">
         <v>1.754</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AE9" s="3">
         <v>0.58799999999999997</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AF9" s="3">
         <v>0.38100000000000001</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="AG9" s="3">
         <v>0.41</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AH9" s="3">
         <v>0.44700000000000001</v>
       </c>
-      <c r="AI9" s="1">
+      <c r="AI9" s="3">
         <v>0.38600000000000001</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="AJ9" s="3">
         <v>0.42099999999999999</v>
       </c>
       <c r="AK9" s="1"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
-      <c r="AQ9" s="3"/>
-      <c r="AR9" s="3"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1184,34 +1194,34 @@
       <c r="AA10">
         <v>0.67851000000000006</v>
       </c>
-      <c r="AD10" s="1">
+      <c r="AD10" s="3">
         <v>1.1779999999999999</v>
       </c>
-      <c r="AE10" s="1">
+      <c r="AE10" s="3">
         <v>0.54100000000000004</v>
       </c>
-      <c r="AF10" s="1">
+      <c r="AF10" s="3">
         <v>0.66100000000000003</v>
       </c>
-      <c r="AG10" s="1">
+      <c r="AG10" s="3">
         <v>0.59099999999999997</v>
       </c>
-      <c r="AH10" s="1">
+      <c r="AH10" s="3">
         <v>0.60899999999999999</v>
       </c>
-      <c r="AI10" s="1">
+      <c r="AI10" s="3">
         <v>0.54400000000000004</v>
       </c>
-      <c r="AJ10" s="1">
+      <c r="AJ10" s="3">
         <v>0.81499999999999995</v>
       </c>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="3"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1283,34 +1293,34 @@
       <c r="AA11">
         <v>0.75354999999999994</v>
       </c>
-      <c r="AD11" s="1">
+      <c r="AD11" s="3">
         <v>0.59899999999999998</v>
       </c>
-      <c r="AE11" s="1">
+      <c r="AE11" s="3">
         <v>0.55300000000000005</v>
       </c>
-      <c r="AF11" s="1">
+      <c r="AF11" s="3">
         <v>0.64800000000000002</v>
       </c>
-      <c r="AG11" s="1">
+      <c r="AG11" s="3">
         <v>0.60499999999999998</v>
       </c>
-      <c r="AH11" s="1">
+      <c r="AH11" s="3">
         <v>0.59299999999999997</v>
       </c>
-      <c r="AI11" s="1">
+      <c r="AI11" s="3">
         <v>0.876</v>
       </c>
-      <c r="AJ11" s="1">
+      <c r="AJ11" s="3">
         <v>0.85699999999999998</v>
       </c>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
-      <c r="AQ11" s="3"/>
-      <c r="AR11" s="3"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1382,34 +1392,34 @@
       <c r="AA12">
         <v>0.60922999999999994</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="AD12" s="3">
         <v>0.57499999999999996</v>
       </c>
-      <c r="AE12" s="1">
+      <c r="AE12" s="3">
         <v>0.59</v>
       </c>
-      <c r="AF12" s="1">
+      <c r="AF12" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AG12" s="1">
+      <c r="AG12" s="3">
         <v>0.72599999999999998</v>
       </c>
-      <c r="AH12" s="1">
+      <c r="AH12" s="3">
         <v>0.57499999999999996</v>
       </c>
-      <c r="AI12" s="1">
+      <c r="AI12" s="3">
         <v>0.59599999999999997</v>
       </c>
-      <c r="AJ12" s="1">
+      <c r="AJ12" s="3">
         <v>0.54900000000000004</v>
       </c>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="3"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1481,34 +1491,34 @@
       <c r="AA13">
         <v>0.72608000000000006</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AD13" s="3">
         <v>0.61099999999999999</v>
       </c>
-      <c r="AE13" s="1">
+      <c r="AE13" s="3">
         <v>0.68500000000000005</v>
       </c>
-      <c r="AF13" s="1">
+      <c r="AF13" s="3">
         <v>0.65100000000000002</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="AG13" s="3">
         <v>2.1019999999999999</v>
       </c>
-      <c r="AH13" s="1">
+      <c r="AH13" s="3">
         <v>0.54500000000000004</v>
       </c>
-      <c r="AI13" s="1">
+      <c r="AI13" s="3">
         <v>0.65700000000000003</v>
       </c>
-      <c r="AJ13" s="1">
+      <c r="AJ13" s="3">
         <v>0.64400000000000002</v>
       </c>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="3"/>
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="3"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1580,34 +1590,34 @@
       <c r="AA14">
         <v>0.52736000000000005</v>
       </c>
-      <c r="AD14" s="1">
+      <c r="AD14" s="3">
         <v>0.44900000000000001</v>
       </c>
-      <c r="AE14" s="1">
+      <c r="AE14" s="3">
         <v>0.35499999999999998</v>
       </c>
-      <c r="AF14" s="1">
+      <c r="AF14" s="3">
         <v>0.55600000000000005</v>
       </c>
-      <c r="AG14" s="1">
+      <c r="AG14" s="3">
         <v>0.378</v>
       </c>
-      <c r="AH14" s="1">
+      <c r="AH14" s="3">
         <v>0.49399999999999999</v>
       </c>
-      <c r="AI14" s="1">
+      <c r="AI14" s="3">
         <v>0.44500000000000001</v>
       </c>
-      <c r="AJ14" s="1">
+      <c r="AJ14" s="3">
         <v>0.433</v>
       </c>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="3"/>
-      <c r="AP14" s="3"/>
-      <c r="AQ14" s="3"/>
-      <c r="AR14" s="3"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1679,34 +1689,34 @@
       <c r="AA15">
         <v>0.55322000000000005</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AD15" s="3">
         <v>0.21299999999999999</v>
       </c>
-      <c r="AE15" s="1">
+      <c r="AE15" s="3">
         <v>0.16300000000000001</v>
       </c>
-      <c r="AF15" s="1">
+      <c r="AF15" s="3">
         <v>0.26600000000000001</v>
       </c>
-      <c r="AG15" s="1">
+      <c r="AG15" s="3">
         <v>0.21199999999999999</v>
       </c>
-      <c r="AH15" s="1">
+      <c r="AH15" s="3">
         <v>0.20799999999999999</v>
       </c>
-      <c r="AI15" s="1">
+      <c r="AI15" s="3">
         <v>0.19800000000000001</v>
       </c>
-      <c r="AJ15" s="1">
+      <c r="AJ15" s="3">
         <v>0.17399999999999999</v>
       </c>
-      <c r="AL15" s="3"/>
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="3"/>
-      <c r="AO15" s="3"/>
-      <c r="AP15" s="3"/>
-      <c r="AQ15" s="3"/>
-      <c r="AR15" s="3"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1778,34 +1788,34 @@
       <c r="AA16">
         <v>0.58164000000000005</v>
       </c>
-      <c r="AD16" s="1">
+      <c r="AD16" s="3">
         <v>0.14799999999999999</v>
       </c>
-      <c r="AE16" s="1">
+      <c r="AE16" s="3">
         <v>0.24</v>
       </c>
-      <c r="AF16" s="1">
+      <c r="AF16" s="3">
         <v>0.182</v>
       </c>
-      <c r="AG16" s="1">
+      <c r="AG16" s="3">
         <v>0.215</v>
       </c>
-      <c r="AH16" s="1">
+      <c r="AH16" s="3">
         <v>0.218</v>
       </c>
-      <c r="AI16" s="1">
+      <c r="AI16" s="3">
         <v>0.28199999999999997</v>
       </c>
-      <c r="AJ16" s="1">
+      <c r="AJ16" s="3">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AL16" s="3"/>
-      <c r="AM16" s="3"/>
-      <c r="AN16" s="3"/>
-      <c r="AO16" s="3"/>
-      <c r="AP16" s="3"/>
-      <c r="AQ16" s="3"/>
-      <c r="AR16" s="3"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1877,34 +1887,34 @@
       <c r="AA17">
         <v>0.54874000000000001</v>
       </c>
-      <c r="AD17" s="1">
+      <c r="AD17" s="3">
         <v>0.2</v>
       </c>
-      <c r="AE17" s="1">
+      <c r="AE17" s="3">
         <v>0.19800000000000001</v>
       </c>
-      <c r="AF17" s="1">
+      <c r="AF17" s="3">
         <v>0.14699999999999999</v>
       </c>
-      <c r="AG17" s="1">
+      <c r="AG17" s="3">
         <v>0.193</v>
       </c>
-      <c r="AH17" s="1">
+      <c r="AH17" s="3">
         <v>0.14899999999999999</v>
       </c>
-      <c r="AI17" s="1">
+      <c r="AI17" s="3">
         <v>0.19600000000000001</v>
       </c>
-      <c r="AJ17" s="1">
+      <c r="AJ17" s="3">
         <v>0.156</v>
       </c>
-      <c r="AL17" s="3"/>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
-      <c r="AO17" s="3"/>
-      <c r="AP17" s="3"/>
-      <c r="AQ17" s="3"/>
-      <c r="AR17" s="3"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1976,34 +1986,34 @@
       <c r="AA18">
         <v>0.53768000000000005</v>
       </c>
-      <c r="AD18" s="1">
+      <c r="AD18" s="3">
         <v>0.14599999999999999</v>
       </c>
-      <c r="AE18" s="1">
+      <c r="AE18" s="3">
         <v>0.2</v>
       </c>
-      <c r="AF18" s="1">
+      <c r="AF18" s="3">
         <v>0.14699999999999999</v>
       </c>
-      <c r="AG18" s="1">
+      <c r="AG18" s="3">
         <v>0.247</v>
       </c>
-      <c r="AH18" s="1">
+      <c r="AH18" s="3">
         <v>0.16900000000000001</v>
       </c>
-      <c r="AI18" s="1">
+      <c r="AI18" s="3">
         <v>0.251</v>
       </c>
-      <c r="AJ18" s="1">
+      <c r="AJ18" s="3">
         <v>0.14699999999999999</v>
       </c>
-      <c r="AL18" s="3"/>
-      <c r="AM18" s="3"/>
-      <c r="AN18" s="3"/>
-      <c r="AO18" s="3"/>
-      <c r="AP18" s="3"/>
-      <c r="AQ18" s="3"/>
-      <c r="AR18" s="3"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -2075,34 +2085,34 @@
       <c r="AA19">
         <v>0.71168999999999993</v>
       </c>
-      <c r="AD19" s="1">
+      <c r="AD19" s="3">
         <v>8.3079999999999998</v>
       </c>
-      <c r="AE19" s="1">
+      <c r="AE19" s="3">
         <v>0.20100000000000001</v>
       </c>
-      <c r="AF19" s="1">
+      <c r="AF19" s="3">
         <v>0.16300000000000001</v>
       </c>
-      <c r="AG19" s="1">
+      <c r="AG19" s="3">
         <v>0.20499999999999999</v>
       </c>
-      <c r="AH19" s="1">
+      <c r="AH19" s="3">
         <v>0.21099999999999999</v>
       </c>
-      <c r="AI19" s="1">
+      <c r="AI19" s="3">
         <v>0.193</v>
       </c>
-      <c r="AJ19" s="1">
+      <c r="AJ19" s="3">
         <v>0.16300000000000001</v>
       </c>
-      <c r="AL19" s="3"/>
-      <c r="AM19" s="3"/>
-      <c r="AN19" s="3"/>
-      <c r="AO19" s="3"/>
-      <c r="AP19" s="3"/>
-      <c r="AQ19" s="3"/>
-      <c r="AR19" s="3"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="4"/>
+      <c r="AR19" s="4"/>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -2174,34 +2184,34 @@
       <c r="AA20">
         <v>0.61138999999999999</v>
       </c>
-      <c r="AD20" s="1">
+      <c r="AD20" s="3">
         <v>0.41099999999999998</v>
       </c>
-      <c r="AE20" s="1">
+      <c r="AE20" s="3">
         <v>0.224</v>
       </c>
-      <c r="AF20" s="1">
+      <c r="AF20" s="3">
         <v>0.14299999999999999</v>
       </c>
-      <c r="AG20" s="1">
+      <c r="AG20" s="3">
         <v>0.193</v>
       </c>
-      <c r="AH20" s="1">
+      <c r="AH20" s="3">
         <v>0.153</v>
       </c>
-      <c r="AI20" s="1">
+      <c r="AI20" s="3">
         <v>0.14799999999999999</v>
       </c>
-      <c r="AJ20" s="1">
+      <c r="AJ20" s="3">
         <v>1.4690000000000001</v>
       </c>
-      <c r="AL20" s="3"/>
-      <c r="AM20" s="3"/>
-      <c r="AN20" s="3"/>
-      <c r="AO20" s="3"/>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4"/>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -2273,34 +2283,34 @@
       <c r="AA21">
         <v>0.58418999999999999</v>
       </c>
-      <c r="AD21" s="1">
+      <c r="AD21" s="3">
         <v>0.186</v>
       </c>
-      <c r="AE21" s="1">
+      <c r="AE21" s="3">
         <v>0.26100000000000001</v>
       </c>
-      <c r="AF21" s="1">
+      <c r="AF21" s="3">
         <v>0.16600000000000001</v>
       </c>
-      <c r="AG21" s="1">
+      <c r="AG21" s="3">
         <v>0.26700000000000002</v>
       </c>
-      <c r="AH21" s="1">
+      <c r="AH21" s="3">
         <v>0.185</v>
       </c>
-      <c r="AI21" s="1">
+      <c r="AI21" s="3">
         <v>0.17899999999999999</v>
       </c>
-      <c r="AJ21" s="1">
+      <c r="AJ21" s="3">
         <v>0.24399999999999999</v>
       </c>
-      <c r="AL21" s="3"/>
-      <c r="AM21" s="3"/>
-      <c r="AN21" s="3"/>
-      <c r="AO21" s="3"/>
-      <c r="AP21" s="3"/>
-      <c r="AQ21" s="3"/>
-      <c r="AR21" s="3"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="4"/>
+      <c r="AP21" s="4"/>
+      <c r="AQ21" s="4"/>
+      <c r="AR21" s="4"/>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -2372,34 +2382,34 @@
       <c r="AA22">
         <v>0.82049000000000005</v>
       </c>
-      <c r="AD22" s="1">
+      <c r="AD22" s="3">
         <v>0.16700000000000001</v>
       </c>
-      <c r="AE22" s="1">
+      <c r="AE22" s="3">
         <v>0.18099999999999999</v>
       </c>
-      <c r="AF22" s="1">
+      <c r="AF22" s="3">
         <v>0.14199999999999999</v>
       </c>
-      <c r="AG22" s="1">
+      <c r="AG22" s="3">
         <v>0.21099999999999999</v>
       </c>
-      <c r="AH22" s="1">
+      <c r="AH22" s="3">
         <v>0.16500000000000001</v>
       </c>
-      <c r="AI22" s="1">
+      <c r="AI22" s="3">
         <v>0.14299999999999999</v>
       </c>
-      <c r="AJ22" s="1">
+      <c r="AJ22" s="3">
         <v>0.152</v>
       </c>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="3"/>
-      <c r="AN22" s="3"/>
-      <c r="AO22" s="3"/>
-      <c r="AP22" s="3"/>
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="3"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -2471,34 +2481,34 @@
       <c r="AA23">
         <v>0.69937000000000005</v>
       </c>
-      <c r="AD23" s="1">
+      <c r="AD23" s="3">
         <v>0.17699999999999999</v>
       </c>
-      <c r="AE23" s="1">
+      <c r="AE23" s="3">
         <v>0.18099999999999999</v>
       </c>
-      <c r="AF23" s="1">
+      <c r="AF23" s="3">
         <v>0.13700000000000001</v>
       </c>
-      <c r="AG23" s="1">
+      <c r="AG23" s="3">
         <v>0.21199999999999999</v>
       </c>
-      <c r="AH23" s="1">
+      <c r="AH23" s="3">
         <v>0.25800000000000001</v>
       </c>
-      <c r="AI23" s="1">
+      <c r="AI23" s="3">
         <v>0.17</v>
       </c>
-      <c r="AJ23" s="1">
+      <c r="AJ23" s="3">
         <v>0.20300000000000001</v>
       </c>
-      <c r="AL23" s="3"/>
-      <c r="AM23" s="3"/>
-      <c r="AN23" s="3"/>
-      <c r="AO23" s="3"/>
-      <c r="AP23" s="3"/>
-      <c r="AQ23" s="3"/>
-      <c r="AR23" s="3"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="4"/>
+      <c r="AO23" s="4"/>
+      <c r="AP23" s="4"/>
+      <c r="AQ23" s="4"/>
+      <c r="AR23" s="4"/>
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -2570,34 +2580,34 @@
       <c r="AA24">
         <v>1.54033</v>
       </c>
-      <c r="AD24" s="1">
+      <c r="AD24" s="3">
         <v>0.371</v>
       </c>
-      <c r="AE24" s="1">
+      <c r="AE24" s="3">
         <v>0.35499999999999998</v>
       </c>
-      <c r="AF24" s="1">
+      <c r="AF24" s="3">
         <v>0.35599999999999998</v>
       </c>
-      <c r="AG24" s="1">
+      <c r="AG24" s="3">
         <v>0.39200000000000002</v>
       </c>
-      <c r="AH24" s="1">
+      <c r="AH24" s="3">
         <v>0.40300000000000002</v>
       </c>
-      <c r="AI24" s="1">
+      <c r="AI24" s="3">
         <v>0.41</v>
       </c>
-      <c r="AJ24" s="1">
+      <c r="AJ24" s="3">
         <v>0.77</v>
       </c>
-      <c r="AL24" s="3"/>
-      <c r="AM24" s="3"/>
-      <c r="AN24" s="3"/>
-      <c r="AO24" s="3"/>
-      <c r="AP24" s="3"/>
-      <c r="AQ24" s="3"/>
-      <c r="AR24" s="3"/>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="4"/>
+      <c r="AN24" s="4"/>
+      <c r="AO24" s="4"/>
+      <c r="AP24" s="4"/>
+      <c r="AQ24" s="4"/>
+      <c r="AR24" s="4"/>
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -2669,34 +2679,34 @@
       <c r="AA25">
         <v>0.5484</v>
       </c>
-      <c r="AD25" s="1">
+      <c r="AD25" s="3">
         <v>0.42599999999999999</v>
       </c>
-      <c r="AE25" s="1">
+      <c r="AE25" s="3">
         <v>0.29499999999999998</v>
       </c>
-      <c r="AF25" s="1">
+      <c r="AF25" s="3">
         <v>0.32700000000000001</v>
       </c>
-      <c r="AG25" s="1">
+      <c r="AG25" s="3">
         <v>0.309</v>
       </c>
-      <c r="AH25" s="1">
+      <c r="AH25" s="3">
         <v>0.35499999999999998</v>
       </c>
-      <c r="AI25" s="1">
+      <c r="AI25" s="3">
         <v>0.3</v>
       </c>
-      <c r="AJ25" s="1">
+      <c r="AJ25" s="3">
         <v>0.36499999999999999</v>
       </c>
-      <c r="AL25" s="3"/>
-      <c r="AM25" s="3"/>
-      <c r="AN25" s="3"/>
-      <c r="AO25" s="3"/>
-      <c r="AP25" s="3"/>
-      <c r="AQ25" s="3"/>
-      <c r="AR25" s="3"/>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="4"/>
+      <c r="AN25" s="4"/>
+      <c r="AO25" s="4"/>
+      <c r="AP25" s="4"/>
+      <c r="AQ25" s="4"/>
+      <c r="AR25" s="4"/>
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -2768,34 +2778,34 @@
       <c r="AA26">
         <v>0.58855000000000002</v>
       </c>
-      <c r="AD26" s="1">
+      <c r="AD26" s="3">
         <v>0.14799999999999999</v>
       </c>
-      <c r="AE26" s="1">
+      <c r="AE26" s="3">
         <v>0.11600000000000001</v>
       </c>
-      <c r="AF26" s="1">
+      <c r="AF26" s="3">
         <v>0.11700000000000001</v>
       </c>
-      <c r="AG26" s="1">
+      <c r="AG26" s="3">
         <v>0.13</v>
       </c>
-      <c r="AH26" s="1">
+      <c r="AH26" s="3">
         <v>0.11700000000000001</v>
       </c>
-      <c r="AI26" s="1">
+      <c r="AI26" s="3">
         <v>0.16500000000000001</v>
       </c>
-      <c r="AJ26" s="1">
+      <c r="AJ26" s="3">
         <v>0.18099999999999999</v>
       </c>
-      <c r="AL26" s="3"/>
-      <c r="AM26" s="3"/>
-      <c r="AN26" s="3"/>
-      <c r="AO26" s="3"/>
-      <c r="AP26" s="3"/>
-      <c r="AQ26" s="3"/>
-      <c r="AR26" s="3"/>
+      <c r="AL26" s="4"/>
+      <c r="AM26" s="4"/>
+      <c r="AN26" s="4"/>
+      <c r="AO26" s="4"/>
+      <c r="AP26" s="4"/>
+      <c r="AQ26" s="4"/>
+      <c r="AR26" s="4"/>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -2867,34 +2877,34 @@
       <c r="AA27">
         <v>0.53417000000000003</v>
       </c>
-      <c r="AD27" s="1">
+      <c r="AD27" s="3">
         <v>0.72099999999999997</v>
       </c>
-      <c r="AE27" s="1">
+      <c r="AE27" s="3">
         <v>0.12</v>
       </c>
-      <c r="AF27" s="1">
+      <c r="AF27" s="3">
         <v>0.121</v>
       </c>
-      <c r="AG27" s="1">
+      <c r="AG27" s="3">
         <v>0.17100000000000001</v>
       </c>
-      <c r="AH27" s="1">
+      <c r="AH27" s="3">
         <v>0.11700000000000001</v>
       </c>
-      <c r="AI27" s="1">
+      <c r="AI27" s="3">
         <v>0.129</v>
       </c>
-      <c r="AJ27" s="1">
+      <c r="AJ27" s="3">
         <v>0.13100000000000001</v>
       </c>
-      <c r="AL27" s="3"/>
-      <c r="AM27" s="3"/>
-      <c r="AN27" s="3"/>
-      <c r="AO27" s="3"/>
-      <c r="AP27" s="3"/>
-      <c r="AQ27" s="3"/>
-      <c r="AR27" s="3"/>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="4"/>
+      <c r="AN27" s="4"/>
+      <c r="AO27" s="4"/>
+      <c r="AP27" s="4"/>
+      <c r="AQ27" s="4"/>
+      <c r="AR27" s="4"/>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -2966,34 +2976,34 @@
       <c r="AA28">
         <v>0.56194999999999995</v>
       </c>
-      <c r="AD28" s="1">
+      <c r="AD28" s="3">
         <v>0.39800000000000002</v>
       </c>
-      <c r="AE28" s="1">
+      <c r="AE28" s="3">
         <v>0.11600000000000001</v>
       </c>
-      <c r="AF28" s="1">
+      <c r="AF28" s="3">
         <v>0.12</v>
       </c>
-      <c r="AG28" s="1">
+      <c r="AG28" s="3">
         <v>0.16800000000000001</v>
       </c>
-      <c r="AH28" s="1">
+      <c r="AH28" s="3">
         <v>0.11799999999999999</v>
       </c>
-      <c r="AI28" s="1">
+      <c r="AI28" s="3">
         <v>0.32300000000000001</v>
       </c>
-      <c r="AJ28" s="1">
+      <c r="AJ28" s="3">
         <v>0.193</v>
       </c>
-      <c r="AL28" s="3"/>
-      <c r="AM28" s="3"/>
-      <c r="AN28" s="3"/>
-      <c r="AO28" s="3"/>
-      <c r="AP28" s="3"/>
-      <c r="AQ28" s="3"/>
-      <c r="AR28" s="3"/>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="4"/>
+      <c r="AO28" s="4"/>
+      <c r="AP28" s="4"/>
+      <c r="AQ28" s="4"/>
+      <c r="AR28" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mereni.xlsx
+++ b/mereni.xlsx
@@ -560,7 +560,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9885" topLeftCell="S1" activePane="topRight"/>
       <selection activeCell="A6" sqref="A6"/>
-      <selection pane="topRight" activeCell="Y2" sqref="Y2"/>
+      <selection pane="topRight" activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,6 +727,15 @@
       <c r="X2" s="2">
         <v>3.4216435185185183E-3</v>
       </c>
+      <c r="Y2" s="2">
+        <v>3.3328703703703702E-3</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>3.650462962962963E-3</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>3.3495370370370367E-3</v>
+      </c>
       <c r="AC2" t="s">
         <v>15</v>
       </c>

--- a/mereni.xlsx
+++ b/mereni.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6315" tabRatio="504"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6315" tabRatio="504" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="257">
   <si>
     <t>load data infile '/tmp/mirek-db/mysql/product.txt' replace into table product;</t>
   </si>
@@ -56,69 +57,9 @@
     <t>postgre</t>
   </si>
   <si>
-    <t>227.645</t>
-  </si>
-  <si>
-    <t>3380.577</t>
-  </si>
-  <si>
-    <t>328.134</t>
-  </si>
-  <si>
-    <t>18335.313</t>
-  </si>
-  <si>
-    <t>84346.087</t>
-  </si>
-  <si>
     <t>(ms)</t>
   </si>
   <si>
-    <t>94901.072</t>
-  </si>
-  <si>
-    <t>17616.596</t>
-  </si>
-  <si>
-    <t>258.316</t>
-  </si>
-  <si>
-    <t>3639.067</t>
-  </si>
-  <si>
-    <t>298.908</t>
-  </si>
-  <si>
-    <t>14458.015</t>
-  </si>
-  <si>
-    <t>84506.125</t>
-  </si>
-  <si>
-    <t>204.017</t>
-  </si>
-  <si>
-    <t>3210.409</t>
-  </si>
-  <si>
-    <t>322.086</t>
-  </si>
-  <si>
-    <t>15504.475</t>
-  </si>
-  <si>
-    <t>84042.401</t>
-  </si>
-  <si>
-    <t>414.425</t>
-  </si>
-  <si>
-    <t>3391.376</t>
-  </si>
-  <si>
-    <t>328.138</t>
-  </si>
-  <si>
     <t>select * from product where id = 1;</t>
   </si>
   <si>
@@ -161,51 +102,6 @@
     <t>select product_id from product_vehicle where vehicle_id = 28971;</t>
   </si>
   <si>
-    <t>16209.768</t>
-  </si>
-  <si>
-    <t>79610.829</t>
-  </si>
-  <si>
-    <t>206.153</t>
-  </si>
-  <si>
-    <t>3720.475</t>
-  </si>
-  <si>
-    <t>349.581</t>
-  </si>
-  <si>
-    <t>15069.468</t>
-  </si>
-  <si>
-    <t>76792.373</t>
-  </si>
-  <si>
-    <t>202.483</t>
-  </si>
-  <si>
-    <t>3353.410</t>
-  </si>
-  <si>
-    <t>329.211</t>
-  </si>
-  <si>
-    <t>20774.990</t>
-  </si>
-  <si>
-    <t>91267.825</t>
-  </si>
-  <si>
-    <t>202.840</t>
-  </si>
-  <si>
-    <t>2952.421</t>
-  </si>
-  <si>
-    <t>290.021</t>
-  </si>
-  <si>
     <t>select id from product where internal_number = '0 001 108 211';</t>
   </si>
   <si>
@@ -219,6 +115,687 @@
   </si>
   <si>
     <t>select id from product where internal_number = '9XX 340 369-011';</t>
+  </si>
+  <si>
+    <t>0.00842895</t>
+  </si>
+  <si>
+    <t>0.00756157</t>
+  </si>
+  <si>
+    <t>0.00803856</t>
+  </si>
+  <si>
+    <t>0.00835081</t>
+  </si>
+  <si>
+    <t>0.00744333</t>
+  </si>
+  <si>
+    <t>0.00792844</t>
+  </si>
+  <si>
+    <t>0.00674767</t>
+  </si>
+  <si>
+    <t>0.00784640</t>
+  </si>
+  <si>
+    <t>0.00783706</t>
+  </si>
+  <si>
+    <t>0.00834483</t>
+  </si>
+  <si>
+    <t>0.00686793</t>
+  </si>
+  <si>
+    <t>0.00736921</t>
+  </si>
+  <si>
+    <t>0.00828447</t>
+  </si>
+  <si>
+    <t>0.00882278</t>
+  </si>
+  <si>
+    <t>0.00776199</t>
+  </si>
+  <si>
+    <t>0.00778678</t>
+  </si>
+  <si>
+    <t>0.00714614</t>
+  </si>
+  <si>
+    <t>0.00765930</t>
+  </si>
+  <si>
+    <t>0.00796900</t>
+  </si>
+  <si>
+    <t>0.00796138</t>
+  </si>
+  <si>
+    <t>0.00791180</t>
+  </si>
+  <si>
+    <t>0.00782001</t>
+  </si>
+  <si>
+    <t>0.00790255</t>
+  </si>
+  <si>
+    <t>0.00779237</t>
+  </si>
+  <si>
+    <t>0.00938123</t>
+  </si>
+  <si>
+    <t>0.00798644</t>
+  </si>
+  <si>
+    <t>0.00718085</t>
+  </si>
+  <si>
+    <t>0.00676769</t>
+  </si>
+  <si>
+    <t>0.00628927</t>
+  </si>
+  <si>
+    <t>0.00742493</t>
+  </si>
+  <si>
+    <t>0.00772725</t>
+  </si>
+  <si>
+    <t>0.00784771</t>
+  </si>
+  <si>
+    <t>0.00786337</t>
+  </si>
+  <si>
+    <t>0.00805666</t>
+  </si>
+  <si>
+    <t>0.00764405</t>
+  </si>
+  <si>
+    <t>0.00900981</t>
+  </si>
+  <si>
+    <t>0.00676774</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT treenode_product.`product_id`) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.`treenodetype_id` = 1 AND treenode.`mptt_min` &gt;= -32319 AND treenode.`mptt_max` &lt;= -32226 AND product_vehicle.`vehicle_id` = 9117 ;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT treenode_product.`product_id`) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.`treenodetype_id` = 1 AND treenode.`mptt_min` &gt;= -31179 AND treenode.`mptt_max` &lt;= -31164 AND product_vehicle.`vehicle_id` = 9117 ;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT treenode_product.`product_id`) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.`treenodetype_id` = 1 AND treenode.`mptt_min` &gt;= -31703 AND treenode.`mptt_max` &lt;= -31682 AND product_vehicle.`vehicle_id` = 9117 ;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT treenode_product.`product_id`) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.`treenodetype_id` = 1 AND treenode.`mptt_min` &gt;= -32225 AND treenode.`mptt_max` &lt;= -32170 AND product_vehicle.`vehicle_id` = 9117 ;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT treenode_product.`product_id`) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.`treenodetype_id` = 1 AND treenode.`mptt_min` &gt;= -31681 AND treenode.`mptt_max` &lt;= -31676 AND product_vehicle.`vehicle_id` = 9117 ;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT treenode_product.`product_id`) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.`treenodetype_id` = 1 AND treenode.`mptt_min` &gt;= -31619 AND treenode.`mptt_max` &lt;= -31586 AND product_vehicle.`vehicle_id` = 9117 ;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT treenode_product.`product_id`) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.`treenodetype_id` = 1 AND treenode.`mptt_min` &gt;= -32135 AND treenode.`mptt_max` &lt;= -31926 AND product_vehicle.`vehicle_id` = 9117 ;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT treenode_product.`product_id`) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.`treenodetype_id` = 1 AND treenode.`mptt_min` &gt;= -32337 AND treenode.`mptt_max` &lt;= -32320 AND product_vehicle.`vehicle_id` = 9117 ;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT treenode_product.`product_id`) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.`treenodetype_id` = 1 AND treenode.`mptt_min` &gt;= -31059 AND treenode.`mptt_max` &lt;= -31050 AND product_vehicle.`vehicle_id` = 9117 ;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT treenode_product.`product_id`) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.`treenodetype_id` = 1 AND treenode.`mptt_min` &gt;= -31495 AND treenode.`mptt_max` &lt;= -31434 AND product_vehicle.`vehicle_id` = 9117 ;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT treenode_product.`product_id`) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.`treenodetype_id` = 1 AND treenode.`mptt_min` &gt;= -31925 AND treenode.`mptt_max` &lt;= -31904 AND product_vehicle.`vehicle_id` = 9117 ;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT treenode_product.`product_id`) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.`treenodetype_id` = 1 AND treenode.`mptt_min` &gt;= -31125 AND treenode.`mptt_max` &lt;= -31118 AND product_vehicle.`vehicle_id` = 9117 ;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT treenode_product.`product_id`) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.`treenodetype_id` = 1 AND treenode.`mptt_min` &gt;= -32767 AND treenode.`mptt_max` &lt;= -32434 AND product_vehicle.`vehicle_id` = 9117 ;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT treenode_product.`product_id`) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.`treenodetype_id` = 1 AND treenode.`mptt_min` &gt;= -31781 AND treenode.`mptt_max` &lt;= -31766 AND product_vehicle.`vehicle_id` = 9117 ;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT treenode_product.`product_id`) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.`treenodetype_id` = 1 AND treenode.`mptt_min` &gt;= -31321 AND treenode.`mptt_max` &lt;= -31264 AND product_vehicle.`vehicle_id` = 9117 ;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT treenode_product.`product_id`) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.`treenodetype_id` = 1 AND treenode.`mptt_min` &gt;= -31199 AND treenode.`mptt_max` &lt;= -31180 AND product_vehicle.`vehicle_id` = 9117 ;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT treenode_product.`product_id`) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.`treenodetype_id` = 1 AND treenode.`mptt_min` &gt;= -31209 AND treenode.`mptt_max` &lt;= -31200 AND product_vehicle.`vehicle_id` = 9117 ;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT treenode_product.`product_id`) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.`treenodetype_id` = 1 AND treenode.`mptt_min` &gt;= -31585 AND treenode.`mptt_max` &lt;= -31516 AND product_vehicle.`vehicle_id` = 9117 ;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT treenode_product.`product_id`) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.`treenodetype_id` = 1 AND treenode.`mptt_min` &gt;= -31263 AND treenode.`mptt_max` &lt;= -31250 AND product_vehicle.`vehicle_id` = 9117 ;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT treenode_product.`product_id`) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.`treenodetype_id` = 1 AND treenode.`mptt_min` &gt;= -31117 AND treenode.`mptt_max` &lt;= -31082 AND product_vehicle.`vehicle_id` = 9117 ;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT treenode_product.`product_id`) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.`treenodetype_id` = 1 AND treenode.`mptt_min` &gt;= -31081 AND treenode.`mptt_max` &lt;= -31074 AND product_vehicle.`vehicle_id` = 9117 ;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT treenode_product.`product_id`) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.`treenodetype_id` = 1 AND treenode.`mptt_min` &gt;= -31211 AND treenode.`mptt_max` &lt;= -31210 AND product_vehicle.`vehicle_id` = 9117 ;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT treenode_product.`product_id`) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.`treenodetype_id` = 1 AND treenode.`mptt_min` &gt;= -31675 AND treenode.`mptt_max` &lt;= -31620 AND product_vehicle.`vehicle_id` = 9117 ;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT treenode_product.`product_id`) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.`treenodetype_id` = 1 AND treenode.`mptt_min` &gt;= -31433 AND treenode.`mptt_max` &lt;= -31322 AND product_vehicle.`vehicle_id` = 9117 ;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT treenode_product.`product_id`) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.`treenodetype_id` = 1 AND treenode.`mptt_min` &gt;= -31903 AND treenode.`mptt_max` &lt;= -31854 AND product_vehicle.`vehicle_id` = 9117 ;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT treenode_product.`product_id`) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.`treenodetype_id` = 1 AND treenode.`mptt_min` &gt;= -31143 AND treenode.`mptt_max` &lt;= -31126 AND product_vehicle.`vehicle_id` = 9117 ;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT treenode_product.`product_id`) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.`treenodetype_id` = 1 AND treenode.`mptt_min` &gt;= -31073 AND treenode.`mptt_max` &lt;= -31072 AND product_vehicle.`vehicle_id` = 9117 ;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT treenode_product.`product_id`) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.`treenodetype_id` = 1 AND treenode.`mptt_min` &gt;= -31765 AND treenode.`mptt_max` &lt;= -31704 AND product_vehicle.`vehicle_id` = 9117 ;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT treenode_product.`product_id`) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.`treenodetype_id` = 1 AND treenode.`mptt_min` &gt;= -31071 AND treenode.`mptt_max` &lt;= -31070 AND product_vehicle.`vehicle_id` = 9117 ;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT treenode_product.`product_id`) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.`treenodetype_id` = 1 AND treenode.`mptt_min` &gt;= -31515 AND treenode.`mptt_max` &lt;= -31496 AND product_vehicle.`vehicle_id` = 9117 ;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT treenode_product.`product_id`) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.`treenodetype_id` = 1 AND treenode.`mptt_min` &gt;= -31249 AND treenode.`mptt_max` &lt;= -31212 AND product_vehicle.`vehicle_id` = 9117 ;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT treenode_product.`product_id`) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.`treenodetype_id` = 1 AND treenode.`mptt_min` &gt;= -32433 AND treenode.`mptt_max` &lt;= -32338 AND product_vehicle.`vehicle_id` = 9117 ;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT treenode_product.`product_id`) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.`treenodetype_id` = 1 AND treenode.`mptt_min` &gt;= -31163 AND treenode.`mptt_max` &lt;= -31144 AND product_vehicle.`vehicle_id` = 9117 ;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT treenode_product.`product_id`) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.`treenodetype_id` = 1 AND treenode.`mptt_min` &gt;= -31853 AND treenode.`mptt_max` &lt;= -31782 AND product_vehicle.`vehicle_id` = 9117 ;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT treenode_product.`product_id`) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.`treenodetype_id` = 1 AND treenode.`mptt_min` &gt;= -32169 AND treenode.`mptt_max` &lt;= -32138 AND product_vehicle.`vehicle_id` = 9117 ;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT treenode_product.`product_id`) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.`treenodetype_id` = 1 AND treenode.`mptt_min` &gt;= -31069 AND treenode.`mptt_max` &lt;= -31060 AND product_vehicle.`vehicle_id` = 9117 ;</t>
+  </si>
+  <si>
+    <t>Aria</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>0.03641251</t>
+  </si>
+  <si>
+    <t>0.01639174</t>
+  </si>
+  <si>
+    <t>0.01717638</t>
+  </si>
+  <si>
+    <t>0.01676085</t>
+  </si>
+  <si>
+    <t>0.01722952</t>
+  </si>
+  <si>
+    <t>0.01800400</t>
+  </si>
+  <si>
+    <t>0.01695505</t>
+  </si>
+  <si>
+    <t>0.01745939</t>
+  </si>
+  <si>
+    <t>0.01684203</t>
+  </si>
+  <si>
+    <t>0.01796053</t>
+  </si>
+  <si>
+    <t>0.01713911</t>
+  </si>
+  <si>
+    <t>0.01740662</t>
+  </si>
+  <si>
+    <t>0.01702370</t>
+  </si>
+  <si>
+    <t>0.01654174</t>
+  </si>
+  <si>
+    <t>0.01944661</t>
+  </si>
+  <si>
+    <t>0.01781390</t>
+  </si>
+  <si>
+    <t>0.01842116</t>
+  </si>
+  <si>
+    <t>0.01732895</t>
+  </si>
+  <si>
+    <t>0.01759340</t>
+  </si>
+  <si>
+    <t>0.01739905</t>
+  </si>
+  <si>
+    <t>0.01711613</t>
+  </si>
+  <si>
+    <t>0.01717749</t>
+  </si>
+  <si>
+    <t>0.01741245</t>
+  </si>
+  <si>
+    <t>0.01715440</t>
+  </si>
+  <si>
+    <t>0.01718426</t>
+  </si>
+  <si>
+    <t>0.01800129</t>
+  </si>
+  <si>
+    <t>0.01642766</t>
+  </si>
+  <si>
+    <t>0.01653877</t>
+  </si>
+  <si>
+    <t>0.01689622</t>
+  </si>
+  <si>
+    <t>0.01693904</t>
+  </si>
+  <si>
+    <t>0.01657560</t>
+  </si>
+  <si>
+    <t>0.01672654</t>
+  </si>
+  <si>
+    <t>0.01857868</t>
+  </si>
+  <si>
+    <t>0.01696853</t>
+  </si>
+  <si>
+    <t>0.01683069</t>
+  </si>
+  <si>
+    <t>0.01746302</t>
+  </si>
+  <si>
+    <t>0.01715100</t>
+  </si>
+  <si>
+    <t>0.00825822</t>
+  </si>
+  <si>
+    <t>0.00664860</t>
+  </si>
+  <si>
+    <t>0.00672942</t>
+  </si>
+  <si>
+    <t>0.00809080</t>
+  </si>
+  <si>
+    <t>0.00810135</t>
+  </si>
+  <si>
+    <t>0.00865620</t>
+  </si>
+  <si>
+    <t>0.00720441</t>
+  </si>
+  <si>
+    <t>0.00705537</t>
+  </si>
+  <si>
+    <t>0.00707500</t>
+  </si>
+  <si>
+    <t>0.00706262</t>
+  </si>
+  <si>
+    <t>0.00862937</t>
+  </si>
+  <si>
+    <t>0.00758010</t>
+  </si>
+  <si>
+    <t>0.00700631</t>
+  </si>
+  <si>
+    <t>0.00688176</t>
+  </si>
+  <si>
+    <t>0.00681470</t>
+  </si>
+  <si>
+    <t>0.00677036</t>
+  </si>
+  <si>
+    <t>0.00689290</t>
+  </si>
+  <si>
+    <t>0.00745939</t>
+  </si>
+  <si>
+    <t>0.00789251</t>
+  </si>
+  <si>
+    <t>0.00841436</t>
+  </si>
+  <si>
+    <t>0.00833403</t>
+  </si>
+  <si>
+    <t>0.00711513</t>
+  </si>
+  <si>
+    <t>0.00684846</t>
+  </si>
+  <si>
+    <t>0.00685393</t>
+  </si>
+  <si>
+    <t>0.00686913</t>
+  </si>
+  <si>
+    <t>0.00685659</t>
+  </si>
+  <si>
+    <t>0.00674537</t>
+  </si>
+  <si>
+    <t>0.00808290</t>
+  </si>
+  <si>
+    <t>0.00841901</t>
+  </si>
+  <si>
+    <t>0.00811349</t>
+  </si>
+  <si>
+    <t>0.00690150</t>
+  </si>
+  <si>
+    <t>0.00700199</t>
+  </si>
+  <si>
+    <t>0.00763246</t>
+  </si>
+  <si>
+    <t>0.00686330</t>
+  </si>
+  <si>
+    <t>0.00701956</t>
+  </si>
+  <si>
+    <t>0.00831285</t>
+  </si>
+  <si>
+    <t>0.00821658</t>
+  </si>
+  <si>
+    <t>6.10451280</t>
+  </si>
+  <si>
+    <t>0.03935896</t>
+  </si>
+  <si>
+    <t>0.03666261</t>
+  </si>
+  <si>
+    <t>0.03820723</t>
+  </si>
+  <si>
+    <t>0.03662260</t>
+  </si>
+  <si>
+    <t>0.03828900</t>
+  </si>
+  <si>
+    <t>0.04336227</t>
+  </si>
+  <si>
+    <t>0.03672039</t>
+  </si>
+  <si>
+    <t>0.05909667</t>
+  </si>
+  <si>
+    <t>0.03533061</t>
+  </si>
+  <si>
+    <t>0.03441540</t>
+  </si>
+  <si>
+    <t>0.03305358</t>
+  </si>
+  <si>
+    <t>0.07802918</t>
+  </si>
+  <si>
+    <t>0.03187099</t>
+  </si>
+  <si>
+    <t>0.03965287</t>
+  </si>
+  <si>
+    <t>0.03334028</t>
+  </si>
+  <si>
+    <t>0.03371722</t>
+  </si>
+  <si>
+    <t>0.03164400</t>
+  </si>
+  <si>
+    <t>0.03103604</t>
+  </si>
+  <si>
+    <t>0.03123576</t>
+  </si>
+  <si>
+    <t>0.03187902</t>
+  </si>
+  <si>
+    <t>0.03415114</t>
+  </si>
+  <si>
+    <t>0.03123253</t>
+  </si>
+  <si>
+    <t>0.03198121</t>
+  </si>
+  <si>
+    <t>0.03160836</t>
+  </si>
+  <si>
+    <t>0.16957831</t>
+  </si>
+  <si>
+    <t>0.02882047</t>
+  </si>
+  <si>
+    <t>0.02719444</t>
+  </si>
+  <si>
+    <t>0.02659190</t>
+  </si>
+  <si>
+    <t>0.23859079</t>
+  </si>
+  <si>
+    <t>0.02744821</t>
+  </si>
+  <si>
+    <t>0.02349856</t>
+  </si>
+  <si>
+    <t>0.04509649</t>
+  </si>
+  <si>
+    <t>0.02439913</t>
+  </si>
+  <si>
+    <t>0.02402600</t>
+  </si>
+  <si>
+    <t>0.02199193</t>
+  </si>
+  <si>
+    <t>0.02121476</t>
+  </si>
+  <si>
+    <t>XtraDB</t>
+  </si>
+  <si>
+    <t>postgresql</t>
+  </si>
+  <si>
+    <t>16.761</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT treenode_product.`product_id`) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.`treenodetype_id` = 1 AND treenode.`mptt_min` &gt;= -32137 AND treenode.`mptt_max` &lt;= -32136 AND product_vehicle.`vehicle_id` = 9117;</t>
+  </si>
+  <si>
+    <t>17.964</t>
+  </si>
+  <si>
+    <t>17.880</t>
+  </si>
+  <si>
+    <t>17.122</t>
+  </si>
+  <si>
+    <t>19.067</t>
+  </si>
+  <si>
+    <t>20.959</t>
+  </si>
+  <si>
+    <t>17.406</t>
+  </si>
+  <si>
+    <t>59.840</t>
+  </si>
+  <si>
+    <t>90.619</t>
+  </si>
+  <si>
+    <t>17.945</t>
+  </si>
+  <si>
+    <t>18.005</t>
+  </si>
+  <si>
+    <t>17.706</t>
+  </si>
+  <si>
+    <t>16.545</t>
+  </si>
+  <si>
+    <t>17.063</t>
+  </si>
+  <si>
+    <t>18.030</t>
+  </si>
+  <si>
+    <t>17.106</t>
+  </si>
+  <si>
+    <t>18.000</t>
+  </si>
+  <si>
+    <t>16.653</t>
+  </si>
+  <si>
+    <t>17.523</t>
+  </si>
+  <si>
+    <t>17.349</t>
+  </si>
+  <si>
+    <t>17.910</t>
+  </si>
+  <si>
+    <t>18.507</t>
+  </si>
+  <si>
+    <t>16.859</t>
+  </si>
+  <si>
+    <t>16.264</t>
+  </si>
+  <si>
+    <t>35.888</t>
+  </si>
+  <si>
+    <t>16.798</t>
+  </si>
+  <si>
+    <t>17.578</t>
+  </si>
+  <si>
+    <t>17.506</t>
+  </si>
+  <si>
+    <t>17.209</t>
+  </si>
+  <si>
+    <t>16.379</t>
+  </si>
+  <si>
+    <t>16.455</t>
+  </si>
+  <si>
+    <t>17.111</t>
+  </si>
+  <si>
+    <t>16.858</t>
+  </si>
+  <si>
+    <t>16.607</t>
+  </si>
+  <si>
+    <t>16.679</t>
+  </si>
+  <si>
+    <t>16.634</t>
+  </si>
+  <si>
+    <t>16.786</t>
+  </si>
+  <si>
+    <t>Memory</t>
   </si>
 </sst>
 </file>
@@ -229,7 +806,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _K_č_-;\-* #,##0.00\ _K_č_-;_-* &quot;-&quot;??\ _K_č_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,16 +823,37 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -263,19 +861,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -555,12 +1188,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR28"/>
+  <dimension ref="A1:AS32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9885" topLeftCell="S1" activePane="topRight"/>
-      <selection activeCell="A6" sqref="A6"/>
-      <selection pane="topRight" activeCell="AA2" sqref="AA2"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="9885" topLeftCell="O1"/>
+      <selection activeCell="A26" sqref="A26:XFD26"/>
+      <selection pane="topRight" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,33 +1201,37 @@
     <col min="1" max="1" width="90.42578125" customWidth="1"/>
     <col min="2" max="11" width="10.28515625" customWidth="1"/>
     <col min="12" max="18" width="10.7109375" customWidth="1"/>
-    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>26.06</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>22.06</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>22.31</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="1">
         <v>20.68</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="1">
         <v>23.59</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="1">
         <v>25.28</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="1">
         <v>26.6</v>
+      </c>
+      <c r="I1" s="4">
+        <f>AVERAGE(B1,C1,D1,E1,F1,G1,H1)</f>
+        <v>23.797142857142855</v>
       </c>
       <c r="K1" t="s">
         <v>7</v>
@@ -620,79 +1257,99 @@
       <c r="R1">
         <v>26.12</v>
       </c>
-      <c r="T1" t="s">
+      <c r="S1">
+        <f>AVERAGE(L1:R1)</f>
+        <v>27.06</v>
+      </c>
+      <c r="T1" s="4">
+        <f>AVERAGE(L1:S1)</f>
+        <v>27.06</v>
+      </c>
+      <c r="U1" t="s">
         <v>8</v>
       </c>
-      <c r="U1">
+      <c r="V1" s="1">
         <v>47.62</v>
       </c>
-      <c r="V1">
+      <c r="W1" s="1">
         <v>50.45</v>
       </c>
-      <c r="W1">
+      <c r="X1" s="1">
         <v>44.76</v>
       </c>
-      <c r="X1">
+      <c r="Y1" s="1">
         <v>45.67</v>
       </c>
-      <c r="Y1">
+      <c r="Z1" s="1">
         <v>54.37</v>
       </c>
-      <c r="Z1">
+      <c r="AA1" s="1">
         <v>54.1</v>
       </c>
-      <c r="AA1">
+      <c r="AB1" s="1">
         <v>51.9</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="1">
+        <f>AVERAGE(V1:AB1)</f>
+        <v>49.838571428571427</v>
+      </c>
+      <c r="AD1" t="s">
         <v>9</v>
       </c>
-      <c r="AD1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AE1" s="1">
+        <v>18.335312999999999</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>17.616596000000001</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>14.458015</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>15.504475000000001</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>16.209768</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>15.069468000000001</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>20.774990000000003</v>
+      </c>
+      <c r="AL1" s="4">
+        <f>AVERAGE(AE1:AK1)</f>
+        <v>16.852660714285715</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>33.869999999999997</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>30.98</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>35.020000000000003</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>31.58</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>34.75</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>33.83</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>41.35</v>
+      </c>
+      <c r="I2" s="4">
+        <f t="shared" ref="I2:I5" si="0">AVERAGE(B2,C2,D2,E2,F2,G2,H2)</f>
+        <v>34.482857142857135</v>
       </c>
       <c r="L2">
         <v>32.409999999999997</v>
@@ -715,76 +1372,96 @@
       <c r="R2">
         <v>26.31</v>
       </c>
-      <c r="U2" s="2">
-        <v>3.507986111111111E-3</v>
-      </c>
-      <c r="V2" s="2">
-        <v>3.3275462962962968E-3</v>
-      </c>
-      <c r="W2" s="2">
-        <v>3.2515046296296298E-3</v>
-      </c>
-      <c r="X2" s="2">
-        <v>3.4216435185185183E-3</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>3.3328703703703702E-3</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>3.650462962962963E-3</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>3.3495370370370367E-3</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>15</v>
+      <c r="S2">
+        <f t="shared" ref="S2:S5" si="1">AVERAGE(L2:R2)</f>
+        <v>30.381428571428568</v>
+      </c>
+      <c r="T2" s="4">
+        <f t="shared" ref="T2:T5" si="2">AVERAGE(L2:S2)</f>
+        <v>30.381428571428568</v>
+      </c>
+      <c r="V2" s="1">
+        <v>303</v>
+      </c>
+      <c r="W2" s="1">
+        <v>288</v>
+      </c>
+      <c r="X2" s="1">
+        <v>281</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>296</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>288</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>316</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>289</v>
+      </c>
+      <c r="AC2" s="1">
+        <f t="shared" ref="AC2:AC5" si="3">AVERAGE(V2:AB2)</f>
+        <v>294.42857142857144</v>
       </c>
       <c r="AD2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>84.346086999999997</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>94.901071999999999</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>84.506124999999997</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>84.042400999999998</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>79.610828999999995</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>76.792373000000012</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>91.267825000000002</v>
+      </c>
+      <c r="AL2" s="4">
+        <f t="shared" ref="AL2:AL5" si="4">AVERAGE(AE2:AK2)</f>
+        <v>85.066673142857141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0.17</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0.18</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0.16</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>0.18</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>0.16</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>0.17</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>0.17</v>
+      </c>
+      <c r="I3" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16999999999999998</v>
       </c>
       <c r="L3">
         <v>0.28000000000000003</v>
@@ -807,73 +1484,93 @@
       <c r="R3">
         <v>0.18</v>
       </c>
-      <c r="U3">
+      <c r="S3">
+        <f t="shared" si="1"/>
+        <v>0.20571428571428568</v>
+      </c>
+      <c r="T3" s="4">
+        <f t="shared" si="2"/>
+        <v>0.20571428571428568</v>
+      </c>
+      <c r="V3" s="1">
         <v>3.22</v>
       </c>
-      <c r="V3">
+      <c r="W3" s="1">
         <v>1.94</v>
       </c>
-      <c r="W3">
+      <c r="X3" s="1">
         <v>1.58</v>
       </c>
-      <c r="X3">
+      <c r="Y3" s="1">
         <v>0.98</v>
       </c>
-      <c r="Y3">
+      <c r="Z3" s="1">
         <v>1</v>
       </c>
-      <c r="Z3">
+      <c r="AA3" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AA3">
+      <c r="AB3" s="1">
         <v>0.83</v>
       </c>
-      <c r="AD3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AC3" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4428571428571431</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>0.22764500000000001</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>0.25831599999999999</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>0.204017</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>0.41442499999999999</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>0.206153</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>0.202483</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>0.20283999999999999</v>
+      </c>
+      <c r="AL3" s="4">
+        <f t="shared" si="4"/>
+        <v>0.24512557142857141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1.4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>1.52</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>1.39</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>1.41</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>2.36</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>1.38</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>1.37</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5471428571428574</v>
       </c>
       <c r="L4">
         <v>1.59</v>
@@ -896,73 +1593,93 @@
       <c r="R4">
         <v>1.28</v>
       </c>
-      <c r="U4">
+      <c r="S4">
+        <f t="shared" si="1"/>
+        <v>1.4685714285714284</v>
+      </c>
+      <c r="T4" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4685714285714284</v>
+      </c>
+      <c r="V4" s="1">
         <v>25.13</v>
       </c>
-      <c r="V4">
+      <c r="W4" s="1">
         <v>27.64</v>
       </c>
-      <c r="W4">
+      <c r="X4" s="1">
         <v>25.57</v>
       </c>
-      <c r="X4">
+      <c r="Y4" s="1">
         <v>23.15</v>
       </c>
-      <c r="Y4">
+      <c r="Z4" s="1">
         <v>24.9</v>
       </c>
-      <c r="Z4">
+      <c r="AA4" s="1">
         <v>25.41</v>
       </c>
-      <c r="AA4">
+      <c r="AB4" s="1">
         <v>28.58</v>
       </c>
-      <c r="AD4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AC4" s="1">
+        <f t="shared" si="3"/>
+        <v>25.768571428571427</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>3.3805770000000002</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>3.6390669999999998</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>3.2104090000000003</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>3.3913760000000002</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>3.720475</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>3.3534099999999998</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>2.9524209999999997</v>
+      </c>
+      <c r="AL4" s="4">
+        <f t="shared" si="4"/>
+        <v>3.3782478571428571</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>0.22</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0.23</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>0.97</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>0.75</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>0.4</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>0.21</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>0.22</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.42857142857142855</v>
       </c>
       <c r="L5">
         <v>0.23</v>
@@ -985,57 +1702,73 @@
       <c r="R5">
         <v>0.18</v>
       </c>
-      <c r="U5">
+      <c r="S5">
+        <f t="shared" si="1"/>
+        <v>0.24714285714285714</v>
+      </c>
+      <c r="T5" s="4">
+        <f t="shared" si="2"/>
+        <v>0.24714285714285714</v>
+      </c>
+      <c r="V5" s="1">
         <v>1.83</v>
       </c>
-      <c r="V5">
+      <c r="W5" s="1">
         <v>0.82</v>
       </c>
-      <c r="W5">
+      <c r="X5" s="1">
         <v>1.19</v>
       </c>
-      <c r="X5">
+      <c r="Y5" s="1">
         <v>0.77</v>
       </c>
-      <c r="Y5">
+      <c r="Z5" s="1">
         <v>1.06</v>
       </c>
-      <c r="Z5">
+      <c r="AA5" s="1">
         <v>0.95</v>
       </c>
-      <c r="AA5">
+      <c r="AB5" s="1">
         <v>2.31</v>
       </c>
-      <c r="AD5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AC5" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2757142857142856</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0.32813400000000004</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>0.29890800000000001</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>0.32208600000000004</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>0.32813799999999999</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>0.34958100000000003</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>0.32921100000000003</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>0.29002100000000003</v>
+      </c>
+      <c r="AL5" s="4">
+        <f t="shared" si="4"/>
+        <v>0.32086842857142855</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>0.48840000000000006</v>
@@ -1061,81 +1794,81 @@
       <c r="I9" s="1">
         <v>0.54059999999999997</v>
       </c>
-      <c r="L9">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1">
         <v>0.47589000000000004</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="1">
         <v>0.46878000000000003</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="1">
         <v>0.49675999999999998</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="1">
         <v>0.58348999999999995</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="1">
         <v>2.3076099999999999</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="1">
         <v>0.47893000000000002</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="1">
         <v>0.47025</v>
       </c>
-      <c r="U9">
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1">
         <v>2.4689700000000001</v>
       </c>
-      <c r="V9">
+      <c r="W9" s="1">
         <v>0.64543000000000006</v>
       </c>
-      <c r="W9">
+      <c r="X9" s="1">
         <v>0.63471</v>
       </c>
-      <c r="X9">
+      <c r="Y9" s="1">
         <v>0.61597000000000002</v>
       </c>
-      <c r="Y9">
+      <c r="Z9" s="1">
         <v>0.68010000000000004</v>
       </c>
-      <c r="Z9">
+      <c r="AA9" s="1">
         <v>0.64745000000000008</v>
       </c>
-      <c r="AA9">
+      <c r="AB9" s="1">
         <v>0.60095999999999994</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1">
         <v>1.754</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="1">
         <v>0.58799999999999997</v>
       </c>
-      <c r="AF9" s="3">
+      <c r="AG9" s="1">
         <v>0.38100000000000001</v>
       </c>
-      <c r="AG9" s="3">
+      <c r="AH9" s="1">
         <v>0.41</v>
       </c>
-      <c r="AH9" s="3">
+      <c r="AI9" s="1">
         <v>0.44700000000000001</v>
       </c>
-      <c r="AI9" s="3">
+      <c r="AJ9" s="1">
         <v>0.38600000000000001</v>
       </c>
-      <c r="AJ9" s="3">
+      <c r="AK9" s="1">
         <v>0.42099999999999999</v>
       </c>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4"/>
-      <c r="AN9" s="4"/>
-      <c r="AO9" s="4"/>
-      <c r="AP9" s="4"/>
-      <c r="AQ9" s="4"/>
-      <c r="AR9" s="4"/>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AL9" s="1"/>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>0.51245999999999992</v>
@@ -1161,1861 +1894,3711 @@
       <c r="I10" s="1">
         <v>0.58962000000000003</v>
       </c>
-      <c r="L10">
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1">
         <v>0.51608999999999994</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="1">
         <v>0.46795000000000003</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="1">
         <v>0.48576999999999998</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="1">
         <v>0.48801999999999995</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="1">
         <v>0.51208999999999993</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="1">
         <v>0.48950999999999995</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="1">
         <v>0.48220000000000002</v>
       </c>
-      <c r="U10">
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1">
         <v>8.8999400000000009</v>
       </c>
-      <c r="V10">
+      <c r="W10" s="1">
         <v>0.61771000000000009</v>
       </c>
-      <c r="W10">
+      <c r="X10" s="1">
         <v>0.66149000000000002</v>
       </c>
-      <c r="X10">
+      <c r="Y10" s="1">
         <v>0.64332999999999996</v>
       </c>
-      <c r="Y10">
+      <c r="Z10" s="1">
         <v>0.64149</v>
       </c>
-      <c r="Z10">
+      <c r="AA10" s="1">
         <v>0.68944000000000005</v>
       </c>
-      <c r="AA10">
+      <c r="AB10" s="1">
         <v>0.67851000000000006</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1">
         <v>1.1779999999999999</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="1">
         <v>0.54100000000000004</v>
       </c>
-      <c r="AF10" s="3">
+      <c r="AG10" s="1">
         <v>0.66100000000000003</v>
       </c>
-      <c r="AG10" s="3">
+      <c r="AH10" s="1">
         <v>0.59099999999999997</v>
       </c>
-      <c r="AH10" s="3">
+      <c r="AI10" s="1">
         <v>0.60899999999999999</v>
       </c>
-      <c r="AI10" s="3">
+      <c r="AJ10" s="1">
         <v>0.54400000000000004</v>
       </c>
-      <c r="AJ10" s="3">
+      <c r="AK10" s="1">
         <v>0.81499999999999995</v>
       </c>
-      <c r="AL10" s="4"/>
-      <c r="AM10" s="4"/>
-      <c r="AN10" s="4"/>
-      <c r="AO10" s="4"/>
-      <c r="AP10" s="4"/>
-      <c r="AQ10" s="4"/>
-      <c r="AR10" s="4"/>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
         <v>0.47177999999999998</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>0.45859</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>0.46933000000000002</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>0.44307999999999997</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>0.44935999999999998</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>0.47666000000000003</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>0.50178999999999996</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>0.43919000000000002</v>
       </c>
-      <c r="L11">
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1">
         <v>0.56141000000000008</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="1">
         <v>0.50914999999999999</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="1">
         <v>0.44481999999999999</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="1">
         <v>0.51583000000000001</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="1">
         <v>0.42101</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="1">
         <v>2.2436400000000001</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="1">
         <v>0.53625</v>
       </c>
-      <c r="U11">
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1">
         <v>0.68148999999999993</v>
       </c>
-      <c r="V11">
+      <c r="W11" s="1">
         <v>0.64122000000000001</v>
       </c>
-      <c r="W11">
+      <c r="X11" s="1">
         <v>0.66208</v>
       </c>
-      <c r="X11">
+      <c r="Y11" s="1">
         <v>0.62664000000000009</v>
       </c>
-      <c r="Y11">
+      <c r="Z11" s="1">
         <v>0.63896000000000008</v>
       </c>
-      <c r="Z11">
+      <c r="AA11" s="1">
         <v>0.62141000000000002</v>
       </c>
-      <c r="AA11">
+      <c r="AB11" s="1">
         <v>0.75354999999999994</v>
       </c>
-      <c r="AD11" s="3">
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1">
         <v>0.59899999999999998</v>
       </c>
-      <c r="AE11" s="3">
+      <c r="AF11" s="1">
         <v>0.55300000000000005</v>
       </c>
-      <c r="AF11" s="3">
+      <c r="AG11" s="1">
         <v>0.64800000000000002</v>
       </c>
-      <c r="AG11" s="3">
+      <c r="AH11" s="1">
         <v>0.60499999999999998</v>
       </c>
-      <c r="AH11" s="3">
+      <c r="AI11" s="1">
         <v>0.59299999999999997</v>
       </c>
-      <c r="AI11" s="3">
+      <c r="AJ11" s="1">
         <v>0.876</v>
       </c>
-      <c r="AJ11" s="3">
+      <c r="AK11" s="1">
         <v>0.85699999999999998</v>
       </c>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="4"/>
-      <c r="AN11" s="4"/>
-      <c r="AO11" s="4"/>
-      <c r="AP11" s="4"/>
-      <c r="AQ11" s="4"/>
-      <c r="AR11" s="4"/>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
         <v>0.50898999999999994</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>1.01715</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>0.49461000000000005</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>0.53594000000000008</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>0.50164999999999993</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>2.40835</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>0.54929000000000006</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>0.43919000000000002</v>
       </c>
-      <c r="L12">
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1">
         <v>0.47743999999999998</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="1">
         <v>0.41526999999999997</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="1">
         <v>0.47566999999999998</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="1">
         <v>0.48092000000000001</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="1">
         <v>0.43772</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="1">
         <v>0.44728000000000001</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="1">
         <v>0.47488000000000002</v>
       </c>
-      <c r="U12">
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1">
         <v>28.87444</v>
       </c>
-      <c r="V12">
+      <c r="W12" s="1">
         <v>0.72028999999999999</v>
       </c>
-      <c r="W12">
+      <c r="X12" s="1">
         <v>0.86312</v>
       </c>
-      <c r="X12">
+      <c r="Y12" s="1">
         <v>0.70496000000000003</v>
       </c>
-      <c r="Y12">
+      <c r="Z12" s="1">
         <v>0.66108</v>
       </c>
-      <c r="Z12">
+      <c r="AA12" s="1">
         <v>0.72114</v>
       </c>
-      <c r="AA12">
+      <c r="AB12" s="1">
         <v>0.60922999999999994</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1">
         <v>0.57499999999999996</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="1">
         <v>0.59</v>
       </c>
-      <c r="AF12" s="3">
+      <c r="AG12" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AG12" s="3">
+      <c r="AH12" s="1">
         <v>0.72599999999999998</v>
       </c>
-      <c r="AH12" s="3">
+      <c r="AI12" s="1">
         <v>0.57499999999999996</v>
       </c>
-      <c r="AI12" s="3">
+      <c r="AJ12" s="1">
         <v>0.59599999999999997</v>
       </c>
-      <c r="AJ12" s="3">
+      <c r="AK12" s="1">
         <v>0.54900000000000004</v>
       </c>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
         <v>2.6753399999999998</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>0.55771999999999999</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>0.53122000000000003</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>0.54554999999999998</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>0.51634999999999998</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>0.52298999999999995</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>0.52446999999999999</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>0.61567000000000005</v>
       </c>
-      <c r="L13">
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1">
         <v>0.47423999999999999</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="1">
         <v>0.46073000000000003</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="1">
         <v>0.50042999999999993</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="1">
         <v>0.46556000000000003</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="1">
         <v>0.5242</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="1">
         <v>0.42968999999999996</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="1">
         <v>0.4587</v>
       </c>
-      <c r="U13">
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1">
         <v>10.55785</v>
       </c>
-      <c r="V13">
+      <c r="W13" s="1">
         <v>0.58753999999999995</v>
       </c>
-      <c r="W13">
+      <c r="X13" s="1">
         <v>0.65101999999999993</v>
       </c>
-      <c r="X13">
+      <c r="Y13" s="1">
         <v>0.62107000000000001</v>
       </c>
-      <c r="Y13">
+      <c r="Z13" s="1">
         <v>8.3152799999999996</v>
       </c>
-      <c r="Z13">
+      <c r="AA13" s="1">
         <v>0.70669000000000004</v>
       </c>
-      <c r="AA13">
+      <c r="AB13" s="1">
         <v>0.72608000000000006</v>
       </c>
-      <c r="AD13" s="3">
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1">
         <v>0.61099999999999999</v>
       </c>
-      <c r="AE13" s="3">
+      <c r="AF13" s="1">
         <v>0.68500000000000005</v>
       </c>
-      <c r="AF13" s="3">
+      <c r="AG13" s="1">
         <v>0.65100000000000002</v>
       </c>
-      <c r="AG13" s="3">
+      <c r="AH13" s="1">
         <v>2.1019999999999999</v>
       </c>
-      <c r="AH13" s="3">
+      <c r="AI13" s="1">
         <v>0.54500000000000004</v>
       </c>
-      <c r="AI13" s="3">
+      <c r="AJ13" s="1">
         <v>0.65700000000000003</v>
       </c>
-      <c r="AJ13" s="3">
+      <c r="AK13" s="1">
         <v>0.64400000000000002</v>
       </c>
-      <c r="AL13" s="4"/>
-      <c r="AM13" s="4"/>
-      <c r="AN13" s="4"/>
-      <c r="AO13" s="4"/>
-      <c r="AP13" s="4"/>
-      <c r="AQ13" s="4"/>
-      <c r="AR13" s="4"/>
-    </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14">
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1">
+        <f>AVERAGE(B9:I13)</f>
+        <v>0.62854249999999989</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1">
+        <f>AVERAGE(L9:R13)</f>
+        <v>0.58509085714285725</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1">
+        <f>AVERAGE(V9:AB13)</f>
+        <v>2.2591611428571428</v>
+      </c>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1">
+        <f>AVERAGE(AE9:AK13)</f>
+        <v>0.68894285714285708</v>
+      </c>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1">
         <v>0.68526999999999993</v>
       </c>
-      <c r="C14">
+      <c r="C15" s="1">
         <v>0.48518999999999995</v>
       </c>
-      <c r="D14">
+      <c r="D15" s="1">
         <v>0.48549999999999999</v>
       </c>
-      <c r="E14">
+      <c r="E15" s="1">
         <v>1.0629000000000002</v>
       </c>
-      <c r="F14">
+      <c r="F15" s="1">
         <v>0.49251000000000006</v>
       </c>
-      <c r="G14">
+      <c r="G15" s="1">
         <v>0.47968</v>
       </c>
-      <c r="H14">
+      <c r="H15" s="1">
         <v>0.48119000000000001</v>
       </c>
-      <c r="I14">
+      <c r="I15" s="1">
         <v>0.53872999999999993</v>
       </c>
-      <c r="L14">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1">
         <v>2.6872799999999999</v>
       </c>
-      <c r="M14">
+      <c r="M15" s="1">
         <v>0.64868000000000003</v>
       </c>
-      <c r="N14">
+      <c r="N15" s="1">
         <v>0.77929999999999999</v>
       </c>
-      <c r="O14">
+      <c r="O15" s="1">
         <v>0.64882000000000006</v>
       </c>
-      <c r="P14">
+      <c r="P15" s="1">
         <v>0.90784999999999993</v>
       </c>
-      <c r="Q14">
+      <c r="Q15" s="1">
         <v>0.73735000000000006</v>
       </c>
-      <c r="R14">
+      <c r="R15" s="1">
         <v>0.80964000000000003</v>
       </c>
-      <c r="U14">
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1">
         <v>0.51558999999999999</v>
       </c>
-      <c r="V14">
+      <c r="W15" s="1">
         <v>0.50894000000000006</v>
       </c>
-      <c r="W14">
+      <c r="X15" s="1">
         <v>0.64590000000000003</v>
       </c>
-      <c r="X14">
+      <c r="Y15" s="1">
         <v>0.58385999999999993</v>
       </c>
-      <c r="Y14">
+      <c r="Z15" s="1">
         <v>0.57521999999999995</v>
       </c>
-      <c r="Z14">
+      <c r="AA15" s="1">
         <v>0.59980999999999995</v>
       </c>
-      <c r="AA14">
+      <c r="AB15" s="1">
         <v>0.52736000000000005</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1">
         <v>0.44900000000000001</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF15" s="1">
         <v>0.35499999999999998</v>
       </c>
-      <c r="AF14" s="3">
+      <c r="AG15" s="1">
         <v>0.55600000000000005</v>
       </c>
-      <c r="AG14" s="3">
+      <c r="AH15" s="1">
         <v>0.378</v>
       </c>
-      <c r="AH14" s="3">
+      <c r="AI15" s="1">
         <v>0.49399999999999999</v>
       </c>
-      <c r="AI14" s="3">
+      <c r="AJ15" s="1">
         <v>0.44500000000000001</v>
       </c>
-      <c r="AJ14" s="3">
+      <c r="AK15" s="1">
         <v>0.433</v>
       </c>
-      <c r="AL14" s="4"/>
-      <c r="AM14" s="4"/>
-      <c r="AN14" s="4"/>
-      <c r="AO14" s="4"/>
-      <c r="AP14" s="4"/>
-      <c r="AQ14" s="4"/>
-      <c r="AR14" s="4"/>
-    </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15">
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
         <v>9.6839000000000013</v>
       </c>
-      <c r="C15">
+      <c r="C16" s="1">
         <v>0.91720999999999997</v>
       </c>
-      <c r="D15">
+      <c r="D16" s="1">
         <v>0.74058999999999997</v>
       </c>
-      <c r="E15">
+      <c r="E16" s="1">
         <v>0.47905999999999999</v>
       </c>
-      <c r="F15">
+      <c r="F16" s="1">
         <v>0.70677999999999996</v>
       </c>
-      <c r="G15">
+      <c r="G16" s="1">
         <v>0.50202999999999998</v>
       </c>
-      <c r="H15">
+      <c r="H16" s="1">
         <v>0.67805000000000004</v>
       </c>
-      <c r="I15">
+      <c r="I16" s="1">
         <v>0.53892999999999991</v>
       </c>
-      <c r="L15">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1">
         <v>0.40841</v>
       </c>
-      <c r="M15">
+      <c r="M16" s="1">
         <v>0.42054999999999998</v>
       </c>
-      <c r="N15">
+      <c r="N16" s="1">
         <v>0.43364000000000003</v>
       </c>
-      <c r="O15">
+      <c r="O16" s="1">
         <v>0.39953</v>
       </c>
-      <c r="P15">
+      <c r="P16" s="1">
         <v>0.44750999999999996</v>
       </c>
-      <c r="Q15">
+      <c r="Q16" s="1">
         <v>0.41583999999999999</v>
       </c>
-      <c r="R15">
+      <c r="R16" s="1">
         <v>0.43342000000000003</v>
       </c>
-      <c r="U15">
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1">
         <v>0.52707999999999999</v>
       </c>
-      <c r="V15">
+      <c r="W16" s="1">
         <v>0.53290000000000004</v>
       </c>
-      <c r="W15">
+      <c r="X16" s="1">
         <v>2.8163400000000003</v>
       </c>
-      <c r="X15">
+      <c r="Y16" s="1">
         <v>0.60331999999999997</v>
       </c>
-      <c r="Y15">
+      <c r="Z16" s="1">
         <v>0.51513999999999993</v>
       </c>
-      <c r="Z15">
+      <c r="AA16" s="1">
         <v>0.47778000000000004</v>
       </c>
-      <c r="AA15">
+      <c r="AB16" s="1">
         <v>0.55322000000000005</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1">
         <v>0.21299999999999999</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF16" s="1">
         <v>0.16300000000000001</v>
       </c>
-      <c r="AF15" s="3">
+      <c r="AG16" s="1">
         <v>0.26600000000000001</v>
       </c>
-      <c r="AG15" s="3">
+      <c r="AH16" s="1">
         <v>0.21199999999999999</v>
       </c>
-      <c r="AH15" s="3">
+      <c r="AI16" s="1">
         <v>0.20799999999999999</v>
       </c>
-      <c r="AI15" s="3">
+      <c r="AJ16" s="1">
         <v>0.19800000000000001</v>
       </c>
-      <c r="AJ15" s="3">
+      <c r="AK16" s="1">
         <v>0.17399999999999999</v>
       </c>
-      <c r="AL15" s="4"/>
-      <c r="AM15" s="4"/>
-      <c r="AN15" s="4"/>
-      <c r="AO15" s="4"/>
-      <c r="AP15" s="4"/>
-      <c r="AQ15" s="4"/>
-      <c r="AR15" s="4"/>
-    </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16">
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="2"/>
+      <c r="AQ16" s="2"/>
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="2"/>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1">
         <v>0.50962999999999992</v>
       </c>
-      <c r="C16">
+      <c r="C17" s="1">
         <v>0.51144000000000001</v>
       </c>
-      <c r="D16">
+      <c r="D17" s="1">
         <v>7.6715100000000005</v>
       </c>
-      <c r="E16">
+      <c r="E17" s="1">
         <v>0.47020000000000001</v>
       </c>
-      <c r="F16">
+      <c r="F17" s="1">
         <v>0.53813000000000011</v>
       </c>
-      <c r="G16">
+      <c r="G17" s="1">
         <v>0.68424000000000007</v>
       </c>
-      <c r="H16">
+      <c r="H17" s="1">
         <v>0.49065000000000003</v>
       </c>
-      <c r="I16">
+      <c r="I17" s="1">
         <v>0.51150999999999991</v>
       </c>
-      <c r="L16">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1">
         <v>0.48315000000000002</v>
       </c>
-      <c r="M16">
+      <c r="M17" s="1">
         <v>0.44927</v>
       </c>
-      <c r="N16">
+      <c r="N17" s="1">
         <v>0.45702999999999999</v>
       </c>
-      <c r="O16">
+      <c r="O17" s="1">
         <v>0.50746000000000002</v>
       </c>
-      <c r="P16">
+      <c r="P17" s="1">
         <v>0.43253999999999998</v>
       </c>
-      <c r="Q16">
+      <c r="Q17" s="1">
         <v>0.43528</v>
       </c>
-      <c r="R16">
+      <c r="R17" s="1">
         <v>0.55931999999999993</v>
       </c>
-      <c r="U16">
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1">
         <v>0.56410000000000005</v>
       </c>
-      <c r="V16">
+      <c r="W17" s="1">
         <v>0.55113000000000001</v>
       </c>
-      <c r="W16">
+      <c r="X17" s="1">
         <v>0.59287000000000001</v>
       </c>
-      <c r="X16">
+      <c r="Y17" s="1">
         <v>0.52251000000000003</v>
       </c>
-      <c r="Y16">
+      <c r="Z17" s="1">
         <v>0.97926000000000002</v>
       </c>
-      <c r="Z16">
+      <c r="AA17" s="1">
         <v>0.53147</v>
       </c>
-      <c r="AA16">
+      <c r="AB17" s="1">
         <v>0.58164000000000005</v>
       </c>
-      <c r="AD16" s="3">
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1">
         <v>0.14799999999999999</v>
       </c>
-      <c r="AE16" s="3">
+      <c r="AF17" s="1">
         <v>0.24</v>
       </c>
-      <c r="AF16" s="3">
+      <c r="AG17" s="1">
         <v>0.182</v>
       </c>
-      <c r="AG16" s="3">
+      <c r="AH17" s="1">
         <v>0.215</v>
       </c>
-      <c r="AH16" s="3">
+      <c r="AI17" s="1">
         <v>0.218</v>
       </c>
-      <c r="AI16" s="3">
+      <c r="AJ17" s="1">
         <v>0.28199999999999997</v>
       </c>
-      <c r="AJ16" s="3">
+      <c r="AK17" s="1">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AL16" s="4"/>
-      <c r="AM16" s="4"/>
-      <c r="AN16" s="4"/>
-      <c r="AO16" s="4"/>
-      <c r="AP16" s="4"/>
-      <c r="AQ16" s="4"/>
-      <c r="AR16" s="4"/>
-    </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17">
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1">
         <v>0.50367999999999991</v>
       </c>
-      <c r="C17">
+      <c r="C18" s="1">
         <v>0.46415999999999996</v>
       </c>
-      <c r="D17">
+      <c r="D18" s="1">
         <v>0.46276</v>
       </c>
-      <c r="E17">
+      <c r="E18" s="1">
         <v>0.49456999999999995</v>
       </c>
-      <c r="F17">
+      <c r="F18" s="1">
         <v>0.46781</v>
       </c>
-      <c r="G17">
+      <c r="G18" s="1">
         <v>0.49790000000000001</v>
       </c>
-      <c r="H17">
+      <c r="H18" s="1">
         <v>0.59694999999999998</v>
       </c>
-      <c r="I17">
+      <c r="I18" s="1">
         <v>0.63841999999999999</v>
       </c>
-      <c r="L17">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1">
         <v>0.37215000000000004</v>
       </c>
-      <c r="M17">
+      <c r="M18" s="1">
         <v>0.50641000000000003</v>
       </c>
-      <c r="N17">
+      <c r="N18" s="1">
         <v>0.50566</v>
       </c>
-      <c r="O17">
+      <c r="O18" s="1">
         <v>0.40912999999999999</v>
       </c>
-      <c r="P17">
+      <c r="P18" s="1">
         <v>0.39571000000000001</v>
       </c>
-      <c r="Q17">
+      <c r="Q18" s="1">
         <v>0.37661999999999995</v>
       </c>
-      <c r="R17">
+      <c r="R18" s="1">
         <v>0.43131000000000003</v>
       </c>
-      <c r="U17">
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1">
         <v>0.56440999999999997</v>
       </c>
-      <c r="V17">
+      <c r="W18" s="1">
         <v>0.54798000000000002</v>
       </c>
-      <c r="W17">
+      <c r="X18" s="1">
         <v>0.54364000000000001</v>
       </c>
-      <c r="X17">
+      <c r="Y18" s="1">
         <v>0.53622999999999998</v>
       </c>
-      <c r="Y17">
+      <c r="Z18" s="1">
         <v>0.52193000000000001</v>
       </c>
-      <c r="Z17">
+      <c r="AA18" s="1">
         <v>0.6238800000000001</v>
       </c>
-      <c r="AA17">
+      <c r="AB18" s="1">
         <v>0.54874000000000001</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1">
         <v>0.2</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF18" s="1">
         <v>0.19800000000000001</v>
       </c>
-      <c r="AF17" s="3">
+      <c r="AG18" s="1">
         <v>0.14699999999999999</v>
       </c>
-      <c r="AG17" s="3">
+      <c r="AH18" s="1">
         <v>0.193</v>
       </c>
-      <c r="AH17" s="3">
+      <c r="AI18" s="1">
         <v>0.14899999999999999</v>
       </c>
-      <c r="AI17" s="3">
+      <c r="AJ18" s="1">
         <v>0.19600000000000001</v>
       </c>
-      <c r="AJ17" s="3">
+      <c r="AK18" s="1">
         <v>0.156</v>
       </c>
-      <c r="AL17" s="4"/>
-      <c r="AM17" s="4"/>
-      <c r="AN17" s="4"/>
-      <c r="AO17" s="4"/>
-      <c r="AP17" s="4"/>
-      <c r="AQ17" s="4"/>
-      <c r="AR17" s="4"/>
-    </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18">
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2"/>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1">
         <v>0.62934000000000001</v>
       </c>
-      <c r="C18">
+      <c r="C19" s="1">
         <v>0.64824000000000004</v>
       </c>
-      <c r="D18">
+      <c r="D19" s="1">
         <v>0.58874000000000004</v>
       </c>
-      <c r="E18">
+      <c r="E19" s="1">
         <v>0.57954000000000006</v>
       </c>
-      <c r="F18">
+      <c r="F19" s="1">
         <v>0.66040999999999994</v>
       </c>
-      <c r="G18">
+      <c r="G19" s="1">
         <v>0.68108999999999997</v>
       </c>
-      <c r="H18">
+      <c r="H19" s="1">
         <v>0.54907000000000006</v>
       </c>
-      <c r="I18">
+      <c r="I19" s="1">
         <v>0.71128000000000002</v>
       </c>
-      <c r="L18">
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1">
         <v>0.40756000000000003</v>
       </c>
-      <c r="M18">
+      <c r="M19" s="1">
         <v>0.38174999999999998</v>
       </c>
-      <c r="N18">
+      <c r="N19" s="1">
         <v>0.39617000000000002</v>
       </c>
-      <c r="O18">
+      <c r="O19" s="1">
         <v>0.38364999999999999</v>
       </c>
-      <c r="P18">
+      <c r="P19" s="1">
         <v>0.38591999999999999</v>
       </c>
-      <c r="Q18">
+      <c r="Q19" s="1">
         <v>0.46546999999999999</v>
       </c>
-      <c r="R18">
+      <c r="R19" s="1">
         <v>0.37480000000000002</v>
       </c>
-      <c r="U18">
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1">
         <v>0.54212000000000005</v>
       </c>
-      <c r="V18">
+      <c r="W19" s="1">
         <v>0.52290999999999999</v>
       </c>
-      <c r="W18">
+      <c r="X19" s="1">
         <v>0.53527999999999998</v>
       </c>
-      <c r="X18">
+      <c r="Y19" s="1">
         <v>0.53058000000000005</v>
       </c>
-      <c r="Y18">
+      <c r="Z19" s="1">
         <v>0.55898000000000003</v>
       </c>
-      <c r="Z18">
+      <c r="AA19" s="1">
         <v>0.54164999999999996</v>
       </c>
-      <c r="AA18">
+      <c r="AB19" s="1">
         <v>0.53768000000000005</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1">
         <v>0.14599999999999999</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF19" s="1">
         <v>0.2</v>
       </c>
-      <c r="AF18" s="3">
+      <c r="AG19" s="1">
         <v>0.14699999999999999</v>
       </c>
-      <c r="AG18" s="3">
+      <c r="AH19" s="1">
         <v>0.247</v>
       </c>
-      <c r="AH18" s="3">
+      <c r="AI19" s="1">
         <v>0.16900000000000001</v>
       </c>
-      <c r="AI18" s="3">
+      <c r="AJ19" s="1">
         <v>0.251</v>
       </c>
-      <c r="AJ18" s="3">
+      <c r="AK19" s="1">
         <v>0.14699999999999999</v>
       </c>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="4"/>
-      <c r="AO18" s="4"/>
-      <c r="AP18" s="4"/>
-      <c r="AQ18" s="4"/>
-      <c r="AR18" s="4"/>
-    </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19">
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1">
+        <f>AVERAGE(B15:I19)</f>
+        <v>0.98796975000000009</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1">
+        <f>AVERAGE(L15:R19)</f>
+        <v>0.55126228571428559</v>
+      </c>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1">
+        <f>AVERAGE(V15:AB19)</f>
+        <v>0.62747000000000008</v>
+      </c>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1">
+        <f>AVERAGE(AE15:AK19)</f>
+        <v>0.24342857142857141</v>
+      </c>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1">
         <v>0.68110000000000004</v>
       </c>
-      <c r="C19">
+      <c r="C21" s="1">
         <v>0.76385999999999998</v>
       </c>
-      <c r="D19">
+      <c r="D21" s="1">
         <v>1.8717899999999998</v>
       </c>
-      <c r="E19">
+      <c r="E21" s="1">
         <v>0.66529000000000005</v>
       </c>
-      <c r="F19">
+      <c r="F21" s="1">
         <v>0.75339999999999996</v>
       </c>
-      <c r="G19">
+      <c r="G21" s="1">
         <v>0.87936000000000003</v>
       </c>
-      <c r="H19">
+      <c r="H21" s="1">
         <v>0.67745</v>
       </c>
-      <c r="I19">
+      <c r="I21" s="1">
         <v>0.72914000000000001</v>
       </c>
-      <c r="L19">
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1">
         <v>0.75700000000000001</v>
       </c>
-      <c r="M19">
+      <c r="M21" s="1">
         <v>0.37282999999999999</v>
       </c>
-      <c r="N19">
+      <c r="N21" s="1">
         <v>0.44990999999999998</v>
       </c>
-      <c r="O19">
+      <c r="O21" s="1">
         <v>0.45185999999999998</v>
       </c>
-      <c r="P19">
+      <c r="P21" s="1">
         <v>0.44641999999999998</v>
       </c>
-      <c r="Q19">
+      <c r="Q21" s="1">
         <v>0.41553000000000001</v>
       </c>
-      <c r="R19">
+      <c r="R21" s="1">
         <v>0.41299000000000002</v>
       </c>
-      <c r="U19">
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1">
         <v>0.83318000000000003</v>
       </c>
-      <c r="V19">
+      <c r="W21" s="1">
         <v>0.54527000000000003</v>
       </c>
-      <c r="W19">
+      <c r="X21" s="1">
         <v>1.69374</v>
       </c>
-      <c r="X19">
+      <c r="Y21" s="1">
         <v>1.0069899999999998</v>
       </c>
-      <c r="Y19">
+      <c r="Z21" s="1">
         <v>0.86738999999999999</v>
       </c>
-      <c r="Z19">
+      <c r="AA21" s="1">
         <v>0.80752000000000002</v>
       </c>
-      <c r="AA19">
+      <c r="AB21" s="1">
         <v>0.71168999999999993</v>
       </c>
-      <c r="AD19" s="3">
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1">
         <v>8.3079999999999998</v>
       </c>
-      <c r="AE19" s="3">
+      <c r="AF21" s="1">
         <v>0.20100000000000001</v>
       </c>
-      <c r="AF19" s="3">
+      <c r="AG21" s="1">
         <v>0.16300000000000001</v>
       </c>
-      <c r="AG19" s="3">
+      <c r="AH21" s="1">
         <v>0.20499999999999999</v>
       </c>
-      <c r="AH19" s="3">
+      <c r="AI21" s="1">
         <v>0.21099999999999999</v>
       </c>
-      <c r="AI19" s="3">
+      <c r="AJ21" s="1">
         <v>0.193</v>
       </c>
-      <c r="AJ19" s="3">
+      <c r="AK21" s="1">
         <v>0.16300000000000001</v>
       </c>
-      <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
-      <c r="AN19" s="4"/>
-      <c r="AO19" s="4"/>
-      <c r="AP19" s="4"/>
-      <c r="AQ19" s="4"/>
-      <c r="AR19" s="4"/>
-    </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20">
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1">
         <v>0.54724000000000006</v>
       </c>
-      <c r="C20">
+      <c r="C22" s="1">
         <v>0.49654999999999999</v>
       </c>
-      <c r="D20">
+      <c r="D22" s="1">
         <v>0.50429000000000002</v>
       </c>
-      <c r="E20">
+      <c r="E22" s="1">
         <v>0.50157999999999991</v>
       </c>
-      <c r="F20">
+      <c r="F22" s="1">
         <v>0.49735000000000001</v>
       </c>
-      <c r="G20">
+      <c r="G22" s="1">
         <v>0.51130999999999993</v>
       </c>
-      <c r="H20">
+      <c r="H22" s="1">
         <v>0.46639000000000003</v>
       </c>
-      <c r="I20">
+      <c r="I22" s="1">
         <v>0.52117000000000002</v>
       </c>
-      <c r="L20">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1">
         <v>0.55307000000000006</v>
       </c>
-      <c r="M20">
+      <c r="M22" s="1">
         <v>0.42763000000000001</v>
       </c>
-      <c r="N20">
+      <c r="N22" s="1">
         <v>0.41623000000000004</v>
       </c>
-      <c r="O20">
+      <c r="O22" s="1">
         <v>0.41604999999999998</v>
       </c>
-      <c r="P20">
+      <c r="P22" s="1">
         <v>0.41549000000000003</v>
       </c>
-      <c r="Q20">
+      <c r="Q22" s="1">
         <v>0.40986</v>
       </c>
-      <c r="R20">
+      <c r="R22" s="1">
         <v>0.41336999999999996</v>
       </c>
-      <c r="U20">
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1">
         <v>0.58345000000000002</v>
       </c>
-      <c r="V20">
+      <c r="W22" s="1">
         <v>0.12753</v>
       </c>
-      <c r="W20">
+      <c r="X22" s="1">
         <v>0.51380999999999999</v>
       </c>
-      <c r="X20">
+      <c r="Y22" s="1">
         <v>0.60535000000000005</v>
       </c>
-      <c r="Y20">
+      <c r="Z22" s="1">
         <v>0.63814000000000004</v>
       </c>
-      <c r="Z20">
+      <c r="AA22" s="1">
         <v>0.52475000000000005</v>
       </c>
-      <c r="AA20">
+      <c r="AB22" s="1">
         <v>0.61138999999999999</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1">
         <v>0.41099999999999998</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF22" s="1">
         <v>0.224</v>
       </c>
-      <c r="AF20" s="3">
+      <c r="AG22" s="1">
         <v>0.14299999999999999</v>
       </c>
-      <c r="AG20" s="3">
+      <c r="AH22" s="1">
         <v>0.193</v>
       </c>
-      <c r="AH20" s="3">
+      <c r="AI22" s="1">
         <v>0.153</v>
       </c>
-      <c r="AI20" s="3">
+      <c r="AJ22" s="1">
         <v>0.14799999999999999</v>
       </c>
-      <c r="AJ20" s="3">
+      <c r="AK22" s="1">
         <v>1.4690000000000001</v>
       </c>
-      <c r="AL20" s="4"/>
-      <c r="AM20" s="4"/>
-      <c r="AN20" s="4"/>
-      <c r="AO20" s="4"/>
-      <c r="AP20" s="4"/>
-      <c r="AQ20" s="4"/>
-      <c r="AR20" s="4"/>
-    </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21">
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="1">
         <v>0.77904000000000007</v>
       </c>
-      <c r="C21">
+      <c r="C23" s="1">
         <v>0.65300000000000002</v>
       </c>
-      <c r="D21">
+      <c r="D23" s="1">
         <v>0.49881999999999999</v>
       </c>
-      <c r="E21">
+      <c r="E23" s="1">
         <v>0.63805999999999996</v>
       </c>
-      <c r="F21">
+      <c r="F23" s="1">
         <v>0.50456000000000001</v>
       </c>
-      <c r="G21">
+      <c r="G23" s="1">
         <v>0.45716000000000001</v>
       </c>
-      <c r="H21">
+      <c r="H23" s="1">
         <v>0.51398999999999995</v>
       </c>
-      <c r="I21">
+      <c r="I23" s="1">
         <v>0.90094999999999992</v>
       </c>
-      <c r="L21">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1">
         <v>0.42943000000000003</v>
       </c>
-      <c r="M21">
+      <c r="M23" s="1">
         <v>0.52783000000000002</v>
       </c>
-      <c r="N21">
+      <c r="N23" s="1">
         <v>0.41759000000000002</v>
       </c>
-      <c r="O21">
+      <c r="O23" s="1">
         <v>0.42069999999999996</v>
       </c>
-      <c r="P21">
+      <c r="P23" s="1">
         <v>0.40786</v>
       </c>
-      <c r="Q21">
+      <c r="Q23" s="1">
         <v>0.41603000000000001</v>
       </c>
-      <c r="R21">
+      <c r="R23" s="1">
         <v>0.42980999999999997</v>
       </c>
-      <c r="U21">
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1">
         <v>0.55024000000000006</v>
       </c>
-      <c r="V21">
+      <c r="W23" s="1">
         <v>0.51395000000000002</v>
       </c>
-      <c r="W21">
+      <c r="X23" s="1">
         <v>0.61480000000000001</v>
       </c>
-      <c r="X21">
+      <c r="Y23" s="1">
         <v>0.52254</v>
       </c>
-      <c r="Y21">
+      <c r="Z23" s="1">
         <v>0.55198000000000003</v>
       </c>
-      <c r="Z21">
+      <c r="AA23" s="1">
         <v>0.55111999999999994</v>
       </c>
-      <c r="AA21">
+      <c r="AB23" s="1">
         <v>0.58418999999999999</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1">
         <v>0.186</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF23" s="1">
         <v>0.26100000000000001</v>
       </c>
-      <c r="AF21" s="3">
+      <c r="AG23" s="1">
         <v>0.16600000000000001</v>
       </c>
-      <c r="AG21" s="3">
+      <c r="AH23" s="1">
         <v>0.26700000000000002</v>
       </c>
-      <c r="AH21" s="3">
+      <c r="AI23" s="1">
         <v>0.185</v>
       </c>
-      <c r="AI21" s="3">
+      <c r="AJ23" s="1">
         <v>0.17899999999999999</v>
       </c>
-      <c r="AJ21" s="3">
+      <c r="AK23" s="1">
         <v>0.24399999999999999</v>
       </c>
-      <c r="AL21" s="4"/>
-      <c r="AM21" s="4"/>
-      <c r="AN21" s="4"/>
-      <c r="AO21" s="4"/>
-      <c r="AP21" s="4"/>
-      <c r="AQ21" s="4"/>
-      <c r="AR21" s="4"/>
-    </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22">
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="1">
         <v>1.0189699999999999</v>
       </c>
-      <c r="C22">
+      <c r="C24" s="1">
         <v>0.67222999999999999</v>
       </c>
-      <c r="D22">
+      <c r="D24" s="1">
         <v>0.50217000000000001</v>
       </c>
-      <c r="E22">
+      <c r="E24" s="1">
         <v>0.53300000000000003</v>
       </c>
-      <c r="F22">
+      <c r="F24" s="1">
         <v>0.59783999999999993</v>
       </c>
-      <c r="G22">
+      <c r="G24" s="1">
         <v>0.50421000000000005</v>
       </c>
-      <c r="H22">
+      <c r="H24" s="1">
         <v>2.49899</v>
       </c>
-      <c r="I22">
+      <c r="I24" s="1">
         <v>0.57782</v>
       </c>
-      <c r="L22">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1">
         <v>0.50023000000000006</v>
       </c>
-      <c r="M22">
+      <c r="M24" s="1">
         <v>0.44399</v>
       </c>
-      <c r="N22">
+      <c r="N24" s="1">
         <v>0.40878000000000003</v>
       </c>
-      <c r="O22">
+      <c r="O24" s="1">
         <v>0.42403999999999997</v>
       </c>
-      <c r="P22">
+      <c r="P24" s="1">
         <v>0.41205999999999998</v>
       </c>
-      <c r="Q22">
+      <c r="Q24" s="1">
         <v>0.41741</v>
       </c>
-      <c r="R22">
+      <c r="R24" s="1">
         <v>0.41166999999999998</v>
       </c>
-      <c r="U22">
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1">
         <v>0.63593999999999995</v>
       </c>
-      <c r="V22">
+      <c r="W24" s="1">
         <v>0.62702000000000002</v>
       </c>
-      <c r="W22">
+      <c r="X24" s="1">
         <v>0.70877999999999997</v>
       </c>
-      <c r="X22">
+      <c r="Y24" s="1">
         <v>0.88846000000000003</v>
       </c>
-      <c r="Y22">
+      <c r="Z24" s="1">
         <v>0.66204999999999992</v>
       </c>
-      <c r="Z22">
+      <c r="AA24" s="1">
         <v>0.87025000000000008</v>
       </c>
-      <c r="AA22">
+      <c r="AB24" s="1">
         <v>0.82049000000000005</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1">
         <v>0.16700000000000001</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF24" s="1">
         <v>0.18099999999999999</v>
       </c>
-      <c r="AF22" s="3">
+      <c r="AG24" s="1">
         <v>0.14199999999999999</v>
       </c>
-      <c r="AG22" s="3">
+      <c r="AH24" s="1">
         <v>0.21099999999999999</v>
       </c>
-      <c r="AH22" s="3">
+      <c r="AI24" s="1">
         <v>0.16500000000000001</v>
       </c>
-      <c r="AI22" s="3">
+      <c r="AJ24" s="1">
         <v>0.14299999999999999</v>
       </c>
-      <c r="AJ22" s="3">
+      <c r="AK24" s="1">
         <v>0.152</v>
       </c>
-      <c r="AL22" s="4"/>
-      <c r="AM22" s="4"/>
-      <c r="AN22" s="4"/>
-      <c r="AO22" s="4"/>
-      <c r="AP22" s="4"/>
-      <c r="AQ22" s="4"/>
-      <c r="AR22" s="4"/>
-    </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23">
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="2"/>
+      <c r="AS24" s="2"/>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="1">
         <v>0.5835499999999999</v>
       </c>
-      <c r="C23">
+      <c r="C25" s="1">
         <v>3.1245000000000003</v>
       </c>
-      <c r="D23">
+      <c r="D25" s="1">
         <v>0.57384999999999997</v>
       </c>
-      <c r="E23">
+      <c r="E25" s="1">
         <v>0.53377999999999992</v>
       </c>
-      <c r="F23">
+      <c r="F25" s="1">
         <v>0.51493999999999995</v>
       </c>
-      <c r="G23">
+      <c r="G25" s="1">
         <v>0.56447999999999998</v>
       </c>
-      <c r="H23">
+      <c r="H25" s="1">
         <v>0.56384000000000001</v>
       </c>
-      <c r="I23">
+      <c r="I25" s="1">
         <v>0.53007000000000004</v>
       </c>
-      <c r="L23">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1">
         <v>0.41793000000000002</v>
       </c>
-      <c r="M23">
+      <c r="M25" s="1">
         <v>0.42026999999999998</v>
       </c>
-      <c r="N23">
+      <c r="N25" s="1">
         <v>0.42066999999999999</v>
       </c>
-      <c r="O23">
+      <c r="O25" s="1">
         <v>0.44178000000000001</v>
       </c>
-      <c r="P23">
+      <c r="P25" s="1">
         <v>0.38601000000000002</v>
       </c>
-      <c r="Q23">
+      <c r="Q25" s="1">
         <v>0.46068999999999999</v>
       </c>
-      <c r="R23">
+      <c r="R25" s="1">
         <v>0.46132000000000001</v>
       </c>
-      <c r="U23">
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1">
         <v>0.64668999999999999</v>
       </c>
-      <c r="V23">
+      <c r="W25" s="1">
         <v>0.55192999999999992</v>
       </c>
-      <c r="W23">
+      <c r="X25" s="1">
         <v>0.56033000000000011</v>
       </c>
-      <c r="X23">
+      <c r="Y25" s="1">
         <v>0.6463000000000001</v>
       </c>
-      <c r="Y23">
+      <c r="Z25" s="1">
         <v>0.53112000000000004</v>
       </c>
-      <c r="Z23">
+      <c r="AA25" s="1">
         <v>0.53740999999999994</v>
       </c>
-      <c r="AA23">
+      <c r="AB25" s="1">
         <v>0.69937000000000005</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1">
         <v>0.17699999999999999</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF25" s="1">
         <v>0.18099999999999999</v>
       </c>
-      <c r="AF23" s="3">
+      <c r="AG25" s="1">
         <v>0.13700000000000001</v>
       </c>
-      <c r="AG23" s="3">
+      <c r="AH25" s="1">
         <v>0.21199999999999999</v>
       </c>
-      <c r="AH23" s="3">
+      <c r="AI25" s="1">
         <v>0.25800000000000001</v>
       </c>
-      <c r="AI23" s="3">
+      <c r="AJ25" s="1">
         <v>0.17</v>
       </c>
-      <c r="AJ23" s="3">
+      <c r="AK25" s="1">
         <v>0.20300000000000001</v>
       </c>
-      <c r="AL23" s="4"/>
-      <c r="AM23" s="4"/>
-      <c r="AN23" s="4"/>
-      <c r="AO23" s="4"/>
-      <c r="AP23" s="4"/>
-      <c r="AQ23" s="4"/>
-      <c r="AR23" s="4"/>
-    </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="2"/>
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1">
+        <f>AVERAGE(B21:I25)</f>
+        <v>0.74767724999999996</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1">
+        <f>AVERAGE(L21:R25)</f>
+        <v>0.44098114285714279</v>
+      </c>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1">
+        <f>AVERAGE(V21:AB25)</f>
+        <v>0.66700457142857139</v>
+      </c>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1">
+        <f>AVERAGE(AE21:AK25)</f>
+        <v>0.46205714285714278</v>
+      </c>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="2"/>
+      <c r="AS26" s="2"/>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>6</v>
       </c>
-      <c r="B24">
+      <c r="B27" s="1">
         <v>0.71282000000000001</v>
       </c>
-      <c r="C24">
+      <c r="C27" s="1">
         <v>0.69696999999999998</v>
       </c>
-      <c r="D24">
+      <c r="D27" s="1">
         <v>0.71128999999999998</v>
       </c>
-      <c r="E24">
+      <c r="E27" s="1">
         <v>0.66673000000000004</v>
       </c>
-      <c r="F24">
+      <c r="F27" s="1">
         <v>0.62373999999999996</v>
       </c>
-      <c r="G24">
+      <c r="G27" s="1">
         <v>0.78408</v>
       </c>
-      <c r="H24">
+      <c r="H27" s="1">
         <v>0.69965999999999995</v>
       </c>
-      <c r="I24">
+      <c r="I27" s="1">
         <v>0.84931000000000001</v>
       </c>
-      <c r="L24">
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1">
         <v>3.7829999999999999</v>
       </c>
-      <c r="M24">
+      <c r="M27" s="1">
         <v>0.53713</v>
       </c>
-      <c r="N24">
+      <c r="N27" s="1">
         <v>0.78186</v>
       </c>
-      <c r="O24">
+      <c r="O27" s="1">
         <v>0.54164000000000001</v>
       </c>
-      <c r="P24">
+      <c r="P27" s="1">
         <v>0.54425999999999997</v>
       </c>
-      <c r="Q24">
+      <c r="Q27" s="1">
         <v>0.55937000000000003</v>
       </c>
-      <c r="R24">
+      <c r="R27" s="1">
         <v>0.56476999999999999</v>
       </c>
-      <c r="U24">
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1">
         <v>2854.4576400000001</v>
       </c>
-      <c r="V24">
+      <c r="W27" s="1">
         <v>1.6981200000000001</v>
       </c>
-      <c r="W24">
+      <c r="X27" s="1">
         <v>2.10317</v>
       </c>
-      <c r="X24">
+      <c r="Y27" s="1">
         <v>1.5918600000000001</v>
       </c>
-      <c r="Y24">
+      <c r="Z27" s="1">
         <v>1.6415</v>
       </c>
-      <c r="Z24">
+      <c r="AA27" s="1">
         <v>1.6665099999999999</v>
       </c>
-      <c r="AA24">
+      <c r="AB27" s="1">
         <v>1.54033</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1">
         <v>0.371</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF27" s="1">
         <v>0.35499999999999998</v>
       </c>
-      <c r="AF24" s="3">
+      <c r="AG27" s="1">
         <v>0.35599999999999998</v>
       </c>
-      <c r="AG24" s="3">
+      <c r="AH27" s="1">
         <v>0.39200000000000002</v>
       </c>
-      <c r="AH24" s="3">
+      <c r="AI27" s="1">
         <v>0.40300000000000002</v>
       </c>
-      <c r="AI24" s="3">
+      <c r="AJ27" s="1">
         <v>0.41</v>
       </c>
-      <c r="AJ24" s="3">
+      <c r="AK27" s="1">
         <v>0.77</v>
       </c>
-      <c r="AL24" s="4"/>
-      <c r="AM24" s="4"/>
-      <c r="AN24" s="4"/>
-      <c r="AO24" s="4"/>
-      <c r="AP24" s="4"/>
-      <c r="AQ24" s="4"/>
-      <c r="AR24" s="4"/>
-    </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25">
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="2"/>
+      <c r="AQ27" s="2"/>
+      <c r="AR27" s="2"/>
+      <c r="AS27" s="2"/>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="1">
         <v>0.51449999999999996</v>
       </c>
-      <c r="C25">
+      <c r="C28" s="1">
         <v>0.46015</v>
       </c>
-      <c r="D25">
+      <c r="D28" s="1">
         <v>0.47003</v>
       </c>
-      <c r="E25">
+      <c r="E28" s="1">
         <v>0.57797999999999994</v>
       </c>
-      <c r="F25">
+      <c r="F28" s="1">
         <v>0.45549000000000001</v>
       </c>
-      <c r="G25">
+      <c r="G28" s="1">
         <v>0.49098999999999998</v>
       </c>
-      <c r="H25">
+      <c r="H28" s="1">
         <v>0.46560999999999997</v>
       </c>
-      <c r="I25">
+      <c r="I28" s="1">
         <v>0.44449</v>
       </c>
-      <c r="L25">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1">
         <v>2.6312199999999999</v>
       </c>
-      <c r="M25">
+      <c r="M28" s="1">
         <v>0.40698999999999996</v>
       </c>
-      <c r="N25">
+      <c r="N28" s="1">
         <v>0.37274999999999997</v>
       </c>
-      <c r="O25">
+      <c r="O28" s="1">
         <v>0.37680000000000002</v>
       </c>
-      <c r="P25">
+      <c r="P28" s="1">
         <v>0.43956000000000001</v>
       </c>
-      <c r="Q25">
+      <c r="Q28" s="1">
         <v>0.50492999999999999</v>
       </c>
-      <c r="R25">
+      <c r="R28" s="1">
         <v>0.47028000000000003</v>
       </c>
-      <c r="U25">
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1">
         <v>100.00997000000001</v>
       </c>
-      <c r="V25">
+      <c r="W28" s="1">
         <v>0.56638999999999995</v>
       </c>
-      <c r="W25">
+      <c r="X28" s="1">
         <v>0.54905999999999999</v>
       </c>
-      <c r="X25">
+      <c r="Y28" s="1">
         <v>0.5515500000000001</v>
       </c>
-      <c r="Y25">
+      <c r="Z28" s="1">
         <v>0.55026999999999993</v>
       </c>
-      <c r="Z25">
+      <c r="AA28" s="1">
         <v>0.55924999999999991</v>
       </c>
-      <c r="AA25">
+      <c r="AB28" s="1">
         <v>0.5484</v>
       </c>
-      <c r="AD25" s="3">
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1">
         <v>0.42599999999999999</v>
       </c>
-      <c r="AE25" s="3">
+      <c r="AF28" s="1">
         <v>0.29499999999999998</v>
       </c>
-      <c r="AF25" s="3">
+      <c r="AG28" s="1">
         <v>0.32700000000000001</v>
       </c>
-      <c r="AG25" s="3">
+      <c r="AH28" s="1">
         <v>0.309</v>
       </c>
-      <c r="AH25" s="3">
+      <c r="AI28" s="1">
         <v>0.35499999999999998</v>
       </c>
-      <c r="AI25" s="3">
+      <c r="AJ28" s="1">
         <v>0.3</v>
       </c>
-      <c r="AJ25" s="3">
+      <c r="AK28" s="1">
         <v>0.36499999999999999</v>
       </c>
-      <c r="AL25" s="4"/>
-      <c r="AM25" s="4"/>
-      <c r="AN25" s="4"/>
-      <c r="AO25" s="4"/>
-      <c r="AP25" s="4"/>
-      <c r="AQ25" s="4"/>
-      <c r="AR25" s="4"/>
-    </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26">
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="2"/>
+      <c r="AR28" s="2"/>
+      <c r="AS28" s="2"/>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="1">
         <v>0.47352</v>
       </c>
-      <c r="C26">
+      <c r="C29" s="1">
         <v>0.47237000000000001</v>
       </c>
-      <c r="D26">
+      <c r="D29" s="1">
         <v>0.46890000000000004</v>
       </c>
-      <c r="E26">
+      <c r="E29" s="1">
         <v>0.46532000000000001</v>
       </c>
-      <c r="F26">
+      <c r="F29" s="1">
         <v>0.47858999999999996</v>
       </c>
-      <c r="G26">
+      <c r="G29" s="1">
         <v>0.46733000000000002</v>
       </c>
-      <c r="H26">
+      <c r="H29" s="1">
         <v>0.44517999999999996</v>
       </c>
-      <c r="I26">
+      <c r="I29" s="1">
         <v>0.4541</v>
       </c>
-      <c r="L26">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1">
         <v>6.93492</v>
       </c>
-      <c r="M26">
+      <c r="M29" s="1">
         <v>1.0752699999999999</v>
       </c>
-      <c r="N26">
+      <c r="N29" s="1">
         <v>0.91120000000000001</v>
       </c>
-      <c r="O26">
+      <c r="O29" s="1">
         <v>0.85665999999999998</v>
       </c>
-      <c r="P26">
+      <c r="P29" s="1">
         <v>0.91560999999999992</v>
       </c>
-      <c r="Q26">
+      <c r="Q29" s="1">
         <v>0.88117999999999996</v>
       </c>
-      <c r="R26">
+      <c r="R29" s="1">
         <v>0.87741999999999998</v>
       </c>
-      <c r="U26">
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1">
         <v>47.337579999999996</v>
       </c>
-      <c r="V26">
+      <c r="W29" s="1">
         <v>0.52081</v>
       </c>
-      <c r="W26">
+      <c r="X29" s="1">
         <v>0.51634999999999998</v>
       </c>
-      <c r="X26">
+      <c r="Y29" s="1">
         <v>0.55501</v>
       </c>
-      <c r="Y26">
+      <c r="Z29" s="1">
         <v>0.52068000000000003</v>
       </c>
-      <c r="Z26">
+      <c r="AA29" s="1">
         <v>0.56296000000000002</v>
       </c>
-      <c r="AA26">
+      <c r="AB29" s="1">
         <v>0.58855000000000002</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1">
         <v>0.14799999999999999</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF29" s="1">
         <v>0.11600000000000001</v>
       </c>
-      <c r="AF26" s="3">
+      <c r="AG29" s="1">
         <v>0.11700000000000001</v>
       </c>
-      <c r="AG26" s="3">
+      <c r="AH29" s="1">
         <v>0.13</v>
       </c>
-      <c r="AH26" s="3">
+      <c r="AI29" s="1">
         <v>0.11700000000000001</v>
       </c>
-      <c r="AI26" s="3">
+      <c r="AJ29" s="1">
         <v>0.16500000000000001</v>
       </c>
-      <c r="AJ26" s="3">
+      <c r="AK29" s="1">
         <v>0.18099999999999999</v>
       </c>
-      <c r="AL26" s="4"/>
-      <c r="AM26" s="4"/>
-      <c r="AN26" s="4"/>
-      <c r="AO26" s="4"/>
-      <c r="AP26" s="4"/>
-      <c r="AQ26" s="4"/>
-      <c r="AR26" s="4"/>
-    </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27">
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="2"/>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="2"/>
+      <c r="AS29" s="2"/>
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="1">
         <v>0.47952</v>
       </c>
-      <c r="C27">
+      <c r="C30" s="1">
         <v>0.49229999999999996</v>
       </c>
-      <c r="D27">
+      <c r="D30" s="1">
         <v>0.45885000000000004</v>
       </c>
-      <c r="E27">
+      <c r="E30" s="1">
         <v>0.45051999999999998</v>
       </c>
-      <c r="F27">
+      <c r="F30" s="1">
         <v>0.47100000000000003</v>
       </c>
-      <c r="G27">
+      <c r="G30" s="1">
         <v>0.46340999999999999</v>
       </c>
-      <c r="H27">
+      <c r="H30" s="1">
         <v>0.47377999999999998</v>
       </c>
-      <c r="I27">
+      <c r="I30" s="1">
         <v>0.48845</v>
       </c>
-      <c r="L27">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1">
         <v>0.49989</v>
       </c>
-      <c r="M27">
+      <c r="M30" s="1">
         <v>0.38590999999999998</v>
       </c>
-      <c r="N27">
+      <c r="N30" s="1">
         <v>0.40101999999999999</v>
       </c>
-      <c r="O27">
+      <c r="O30" s="1">
         <v>0.38775999999999999</v>
       </c>
-      <c r="P27">
+      <c r="P30" s="1">
         <v>1.9806300000000001</v>
       </c>
-      <c r="Q27">
+      <c r="Q30" s="1">
         <v>0.39462999999999998</v>
       </c>
-      <c r="R27">
+      <c r="R30" s="1">
         <v>0.42651</v>
       </c>
-      <c r="U27">
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1">
         <v>67.304509999999993</v>
       </c>
-      <c r="V27">
+      <c r="W30" s="1">
         <v>0.57017000000000007</v>
       </c>
-      <c r="W27">
+      <c r="X30" s="1">
         <v>0.55042000000000002</v>
       </c>
-      <c r="X27">
+      <c r="Y30" s="1">
         <v>0.55190000000000006</v>
       </c>
-      <c r="Y27">
+      <c r="Z30" s="1">
         <v>0.53804000000000007</v>
       </c>
-      <c r="Z27">
+      <c r="AA30" s="1">
         <v>0.55137000000000003</v>
       </c>
-      <c r="AA27">
+      <c r="AB30" s="1">
         <v>0.53417000000000003</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1">
         <v>0.72099999999999997</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF30" s="1">
         <v>0.12</v>
       </c>
-      <c r="AF27" s="3">
+      <c r="AG30" s="1">
         <v>0.121</v>
       </c>
-      <c r="AG27" s="3">
+      <c r="AH30" s="1">
         <v>0.17100000000000001</v>
       </c>
-      <c r="AH27" s="3">
+      <c r="AI30" s="1">
         <v>0.11700000000000001</v>
       </c>
-      <c r="AI27" s="3">
+      <c r="AJ30" s="1">
         <v>0.129</v>
       </c>
-      <c r="AJ27" s="3">
+      <c r="AK30" s="1">
         <v>0.13100000000000001</v>
       </c>
-      <c r="AL27" s="4"/>
-      <c r="AM27" s="4"/>
-      <c r="AN27" s="4"/>
-      <c r="AO27" s="4"/>
-      <c r="AP27" s="4"/>
-      <c r="AQ27" s="4"/>
-      <c r="AR27" s="4"/>
-    </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28">
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="2"/>
+      <c r="AO30" s="2"/>
+      <c r="AP30" s="2"/>
+      <c r="AQ30" s="2"/>
+      <c r="AR30" s="2"/>
+      <c r="AS30" s="2"/>
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="1">
         <v>0.55411999999999995</v>
       </c>
-      <c r="C28">
+      <c r="C31" s="1">
         <v>0.72227999999999992</v>
       </c>
-      <c r="D28">
+      <c r="D31" s="1">
         <v>0.74329999999999996</v>
       </c>
-      <c r="E28">
+      <c r="E31" s="1">
         <v>0.65673000000000004</v>
       </c>
-      <c r="F28">
+      <c r="F31" s="1">
         <v>0.62809999999999999</v>
       </c>
-      <c r="G28">
+      <c r="G31" s="1">
         <v>0.65247999999999995</v>
       </c>
-      <c r="H28">
+      <c r="H31" s="1">
         <v>0.63202999999999998</v>
       </c>
-      <c r="I28">
+      <c r="I31" s="1">
         <v>0.64029999999999998</v>
       </c>
-      <c r="L28">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1">
         <v>0.38840999999999998</v>
       </c>
-      <c r="M28">
+      <c r="M31" s="1">
         <v>0.42769999999999997</v>
       </c>
-      <c r="N28">
+      <c r="N31" s="1">
         <v>0.37295</v>
       </c>
-      <c r="O28">
+      <c r="O31" s="1">
         <v>0.40011000000000002</v>
       </c>
-      <c r="P28">
+      <c r="P31" s="1">
         <v>0.38227999999999995</v>
       </c>
-      <c r="Q28">
+      <c r="Q31" s="1">
         <v>0.38890000000000002</v>
       </c>
-      <c r="R28">
+      <c r="R31" s="1">
         <v>0.35434000000000004</v>
       </c>
-      <c r="U28">
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1">
         <v>73.69726</v>
       </c>
-      <c r="V28">
+      <c r="W31" s="1">
         <v>0.55029000000000006</v>
       </c>
-      <c r="W28">
+      <c r="X31" s="1">
         <v>0.56330000000000002</v>
       </c>
-      <c r="X28">
+      <c r="Y31" s="1">
         <v>0.54850999999999994</v>
       </c>
-      <c r="Y28">
+      <c r="Z31" s="1">
         <v>0.55210999999999999</v>
       </c>
-      <c r="Z28">
+      <c r="AA31" s="1">
         <v>0.55032999999999999</v>
       </c>
-      <c r="AA28">
+      <c r="AB31" s="1">
         <v>0.56194999999999995</v>
       </c>
-      <c r="AD28" s="3">
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1">
         <v>0.39800000000000002</v>
       </c>
-      <c r="AE28" s="3">
+      <c r="AF31" s="1">
         <v>0.11600000000000001</v>
       </c>
-      <c r="AF28" s="3">
+      <c r="AG31" s="1">
         <v>0.12</v>
       </c>
-      <c r="AG28" s="3">
+      <c r="AH31" s="1">
         <v>0.16800000000000001</v>
       </c>
-      <c r="AH28" s="3">
+      <c r="AI31" s="1">
         <v>0.11799999999999999</v>
       </c>
-      <c r="AI28" s="3">
+      <c r="AJ31" s="1">
         <v>0.32300000000000001</v>
       </c>
-      <c r="AJ28" s="3">
+      <c r="AK31" s="1">
         <v>0.193</v>
       </c>
-      <c r="AL28" s="4"/>
-      <c r="AM28" s="4"/>
-      <c r="AN28" s="4"/>
-      <c r="AO28" s="4"/>
-      <c r="AP28" s="4"/>
-      <c r="AQ28" s="4"/>
-      <c r="AR28" s="4"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="2"/>
+      <c r="AO31" s="2"/>
+      <c r="AP31" s="2"/>
+      <c r="AQ31" s="2"/>
+      <c r="AR31" s="2"/>
+      <c r="AS31" s="2"/>
+    </row>
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="J32" s="1">
+        <f>AVERAGE(B27:I31)</f>
+        <v>0.55890800000000018</v>
+      </c>
+      <c r="S32" s="1">
+        <f>AVERAGE(L27:R31)</f>
+        <v>0.91879600000000017</v>
+      </c>
+      <c r="AC32" s="1">
+        <f>AVERAGE(V27:AB31)</f>
+        <v>90.464579714285705</v>
+      </c>
+      <c r="AL32" s="1">
+        <f>AVERAGE(AE27:AK31)</f>
+        <v>0.2672571428571428</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="140.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I2">
+        <v>36.412510000000005</v>
+      </c>
+      <c r="J2">
+        <v>8.2582199999999997</v>
+      </c>
+      <c r="K2">
+        <v>6104.5128000000004</v>
+      </c>
+      <c r="L2">
+        <v>17.963999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="I3">
+        <v>16.391739999999999</v>
+      </c>
+      <c r="J3">
+        <v>6.6486000000000001</v>
+      </c>
+      <c r="K3">
+        <v>39.358959999999996</v>
+      </c>
+      <c r="L3">
+        <v>17.88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I4">
+        <v>17.176380000000002</v>
+      </c>
+      <c r="J4">
+        <v>6.7294200000000002</v>
+      </c>
+      <c r="K4">
+        <v>36.662610000000001</v>
+      </c>
+      <c r="L4">
+        <v>17.122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I5">
+        <v>16.760850000000001</v>
+      </c>
+      <c r="J5">
+        <v>8.0907999999999998</v>
+      </c>
+      <c r="K5">
+        <v>38.207230000000003</v>
+      </c>
+      <c r="L5">
+        <v>19.067</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="I6">
+        <v>17.229520000000001</v>
+      </c>
+      <c r="J6">
+        <v>8.1013500000000001</v>
+      </c>
+      <c r="K6">
+        <v>36.622599999999998</v>
+      </c>
+      <c r="L6">
+        <v>20.959</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="I7">
+        <v>18.003999999999998</v>
+      </c>
+      <c r="J7">
+        <v>8.6562000000000001</v>
+      </c>
+      <c r="K7">
+        <v>38.288999999999994</v>
+      </c>
+      <c r="L7">
+        <v>17.405999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="I8">
+        <v>16.95505</v>
+      </c>
+      <c r="J8">
+        <v>7.2044099999999993</v>
+      </c>
+      <c r="K8">
+        <v>43.362270000000002</v>
+      </c>
+      <c r="L8">
+        <v>59.84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="I9">
+        <v>17.459390000000003</v>
+      </c>
+      <c r="J9">
+        <v>7.0553699999999999</v>
+      </c>
+      <c r="K9">
+        <v>36.720390000000002</v>
+      </c>
+      <c r="L9">
+        <v>90.619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I10">
+        <v>16.842030000000001</v>
+      </c>
+      <c r="J10">
+        <v>7.0749999999999993</v>
+      </c>
+      <c r="K10">
+        <v>59.096669999999996</v>
+      </c>
+      <c r="L10">
+        <v>17.945</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="I11">
+        <v>17.960529999999999</v>
+      </c>
+      <c r="J11">
+        <v>7.0626200000000008</v>
+      </c>
+      <c r="K11">
+        <v>35.33061</v>
+      </c>
+      <c r="L11">
+        <v>18.004999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I12">
+        <v>17.139109999999999</v>
+      </c>
+      <c r="J12">
+        <v>8.6293700000000015</v>
+      </c>
+      <c r="K12">
+        <v>34.415399999999998</v>
+      </c>
+      <c r="L12">
+        <v>16.760999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I13">
+        <v>17.40662</v>
+      </c>
+      <c r="J13">
+        <v>7.5800999999999998</v>
+      </c>
+      <c r="K13">
+        <v>33.053579999999997</v>
+      </c>
+      <c r="L13">
+        <v>17.706</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I14">
+        <v>17.023699999999998</v>
+      </c>
+      <c r="J14">
+        <v>7.00631</v>
+      </c>
+      <c r="K14">
+        <v>78.029179999999997</v>
+      </c>
+      <c r="L14">
+        <v>16.545000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="I15">
+        <v>16.541740000000001</v>
+      </c>
+      <c r="J15">
+        <v>6.8817599999999999</v>
+      </c>
+      <c r="K15">
+        <v>31.870990000000003</v>
+      </c>
+      <c r="L15">
+        <v>17.062999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="I16">
+        <v>19.44661</v>
+      </c>
+      <c r="J16">
+        <v>6.8147000000000002</v>
+      </c>
+      <c r="K16">
+        <v>39.65287</v>
+      </c>
+      <c r="L16">
+        <v>18.03</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I17">
+        <v>17.8139</v>
+      </c>
+      <c r="J17">
+        <v>6.7703599999999993</v>
+      </c>
+      <c r="K17">
+        <v>33.34028</v>
+      </c>
+      <c r="L17">
+        <v>17.106000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="I18">
+        <v>18.42116</v>
+      </c>
+      <c r="J18">
+        <v>6.8929</v>
+      </c>
+      <c r="K18">
+        <v>33.717219999999998</v>
+      </c>
+      <c r="L18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="I19">
+        <v>17.328949999999999</v>
+      </c>
+      <c r="J19">
+        <v>7.45939</v>
+      </c>
+      <c r="K19">
+        <v>31.643999999999998</v>
+      </c>
+      <c r="L19">
+        <v>16.652999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="I20">
+        <v>17.593399999999999</v>
+      </c>
+      <c r="J20">
+        <v>7.8925100000000006</v>
+      </c>
+      <c r="K20">
+        <v>31.03604</v>
+      </c>
+      <c r="L20">
+        <v>17.523</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="I21">
+        <v>17.399049999999999</v>
+      </c>
+      <c r="J21">
+        <v>8.4143599999999985</v>
+      </c>
+      <c r="K21">
+        <v>31.235760000000003</v>
+      </c>
+      <c r="L21">
+        <v>17.349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I22">
+        <v>17.116130000000002</v>
+      </c>
+      <c r="J22">
+        <v>8.3340299999999985</v>
+      </c>
+      <c r="K22">
+        <v>31.879020000000001</v>
+      </c>
+      <c r="L22">
+        <v>17.91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="I23">
+        <v>17.177489999999999</v>
+      </c>
+      <c r="J23">
+        <v>7.1151299999999997</v>
+      </c>
+      <c r="K23">
+        <v>34.151140000000005</v>
+      </c>
+      <c r="L23">
+        <v>18.507000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I24">
+        <v>17.41245</v>
+      </c>
+      <c r="J24">
+        <v>6.8484600000000002</v>
+      </c>
+      <c r="K24">
+        <v>31.232530000000001</v>
+      </c>
+      <c r="L24">
+        <v>16.859000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I25">
+        <v>17.154399999999999</v>
+      </c>
+      <c r="J25">
+        <v>6.8539300000000001</v>
+      </c>
+      <c r="K25">
+        <v>31.981210000000004</v>
+      </c>
+      <c r="L25">
+        <v>16.263999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I26">
+        <v>17.184259999999998</v>
+      </c>
+      <c r="J26">
+        <v>6.8691300000000002</v>
+      </c>
+      <c r="K26">
+        <v>31.608360000000001</v>
+      </c>
+      <c r="L26">
+        <v>35.887999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I27">
+        <v>18.001290000000001</v>
+      </c>
+      <c r="J27">
+        <v>6.8565899999999997</v>
+      </c>
+      <c r="K27">
+        <v>169.57831000000002</v>
+      </c>
+      <c r="L27">
+        <v>16.797999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="I28">
+        <v>16.427659999999999</v>
+      </c>
+      <c r="J28">
+        <v>6.7453699999999994</v>
+      </c>
+      <c r="K28">
+        <v>28.82047</v>
+      </c>
+      <c r="L28">
+        <v>17.577999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="I29">
+        <v>16.53877</v>
+      </c>
+      <c r="J29">
+        <v>8.0829000000000004</v>
+      </c>
+      <c r="K29">
+        <v>27.19444</v>
+      </c>
+      <c r="L29">
+        <v>17.506</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="I30">
+        <v>16.89622</v>
+      </c>
+      <c r="J30">
+        <v>8.4190100000000001</v>
+      </c>
+      <c r="K30">
+        <v>26.591900000000003</v>
+      </c>
+      <c r="L30">
+        <v>17.209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="I31">
+        <v>16.939039999999999</v>
+      </c>
+      <c r="J31">
+        <v>8.1134899999999988</v>
+      </c>
+      <c r="K31">
+        <v>238.59079</v>
+      </c>
+      <c r="L31">
+        <v>16.379000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="I32">
+        <v>16.575599999999998</v>
+      </c>
+      <c r="J32">
+        <v>6.9014999999999995</v>
+      </c>
+      <c r="K32">
+        <v>27.44821</v>
+      </c>
+      <c r="L32">
+        <v>16.454999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I33">
+        <v>16.72654</v>
+      </c>
+      <c r="J33">
+        <v>7.0019899999999993</v>
+      </c>
+      <c r="K33">
+        <v>23.498560000000001</v>
+      </c>
+      <c r="L33">
+        <v>17.111000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="I34">
+        <v>18.578679999999999</v>
+      </c>
+      <c r="J34">
+        <v>7.63246</v>
+      </c>
+      <c r="K34">
+        <v>45.096490000000003</v>
+      </c>
+      <c r="L34">
+        <v>16.858000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="I35">
+        <v>16.968529999999998</v>
+      </c>
+      <c r="J35">
+        <v>6.8632999999999997</v>
+      </c>
+      <c r="K35">
+        <v>24.399130000000003</v>
+      </c>
+      <c r="L35">
+        <v>16.606999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I36">
+        <v>16.830690000000001</v>
+      </c>
+      <c r="J36">
+        <v>7.0195600000000002</v>
+      </c>
+      <c r="K36">
+        <v>24.026</v>
+      </c>
+      <c r="L36">
+        <v>16.678999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="I37">
+        <v>17.46302</v>
+      </c>
+      <c r="J37">
+        <v>8.312850000000001</v>
+      </c>
+      <c r="K37">
+        <v>21.99193</v>
+      </c>
+      <c r="L37">
+        <v>16.634</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="I38">
+        <v>17.151</v>
+      </c>
+      <c r="J38">
+        <v>8.2165799999999987</v>
+      </c>
+      <c r="K38">
+        <v>21.214759999999998</v>
+      </c>
+      <c r="L38">
+        <v>16.786000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="5"/>
+      <c r="I39" s="3">
+        <f>AVERAGE(I2:I38)</f>
+        <v>17.795892162162158</v>
+      </c>
+      <c r="J39" s="3">
+        <f t="shared" ref="J39:L39" si="0">AVERAGE(J2:J38)</f>
+        <v>7.443514324324326</v>
+      </c>
+      <c r="K39" s="3">
+        <f t="shared" si="0"/>
+        <v>207.71518135135133</v>
+      </c>
+      <c r="L39" s="3">
+        <f t="shared" si="0"/>
+        <v>21.01543243243243</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f>SUBSTITUTE(A2,"`","")</f>
+        <v>SELECT COUNT(DISTINCT treenode_product.product_id) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.treenodetype_id = 1 AND treenode.mptt_min &gt;= -32319 AND treenode.mptt_max &lt;= -32226 AND product_vehicle.vehicle_id = 9117 ;</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z41">
+        <f>_xlfn.NUMBERVALUE(Y41,"."," ")</f>
+        <v>17.963999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f>SUBSTITUTE(A5,"`","")</f>
+        <v>SELECT COUNT(DISTINCT treenode_product.product_id) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.treenodetype_id = 1 AND treenode.mptt_min &gt;= -32225 AND treenode.mptt_max &lt;= -32170 AND product_vehicle.vehicle_id = 9117 ;</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" ref="Z42:Z77" si="1">_xlfn.NUMBERVALUE(Y42,"."," ")</f>
+        <v>17.88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f>SUBSTITUTE(A8,"`","")</f>
+        <v>SELECT COUNT(DISTINCT treenode_product.product_id) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.treenodetype_id = 1 AND treenode.mptt_min &gt;= -32135 AND treenode.mptt_max &lt;= -31926 AND product_vehicle.vehicle_id = 9117 ;</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="1"/>
+        <v>17.122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f>SUBSTITUTE(A11,"`","")</f>
+        <v>SELECT COUNT(DISTINCT treenode_product.product_id) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.treenodetype_id = 1 AND treenode.mptt_min &gt;= -31495 AND treenode.mptt_max &lt;= -31434 AND product_vehicle.vehicle_id = 9117 ;</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="1"/>
+        <v>19.067</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f>SUBSTITUTE(A14,"`","")</f>
+        <v>SELECT COUNT(DISTINCT treenode_product.product_id) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.treenodetype_id = 1 AND treenode.mptt_min &gt;= -32767 AND treenode.mptt_max &lt;= -32434 AND product_vehicle.vehicle_id = 9117 ;</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="1"/>
+        <v>20.959</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f>SUBSTITUTE(A17,"`","")</f>
+        <v>SELECT COUNT(DISTINCT treenode_product.product_id) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.treenodetype_id = 1 AND treenode.mptt_min &gt;= -31321 AND treenode.mptt_max &lt;= -31264 AND product_vehicle.vehicle_id = 9117 ;</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="1"/>
+        <v>17.405999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f>SUBSTITUTE(A20,"`","")</f>
+        <v>SELECT COUNT(DISTINCT treenode_product.product_id) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.treenodetype_id = 1 AND treenode.mptt_min &gt;= -31585 AND treenode.mptt_max &lt;= -31516 AND product_vehicle.vehicle_id = 9117 ;</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="1"/>
+        <v>59.84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f>SUBSTITUTE(A23,"`","")</f>
+        <v>SELECT COUNT(DISTINCT treenode_product.product_id) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.treenodetype_id = 1 AND treenode.mptt_min &gt;= -31081 AND treenode.mptt_max &lt;= -31074 AND product_vehicle.vehicle_id = 9117 ;</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="1"/>
+        <v>90.619</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f>SUBSTITUTE(A26,"`","")</f>
+        <v>SELECT COUNT(DISTINCT treenode_product.product_id) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.treenodetype_id = 1 AND treenode.mptt_min &gt;= -31433 AND treenode.mptt_max &lt;= -31322 AND product_vehicle.vehicle_id = 9117 ;</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="1"/>
+        <v>17.945</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f>SUBSTITUTE(A29,"`","")</f>
+        <v>SELECT COUNT(DISTINCT treenode_product.product_id) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.treenodetype_id = 1 AND treenode.mptt_min &gt;= -31073 AND treenode.mptt_max &lt;= -31072 AND product_vehicle.vehicle_id = 9117 ;</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="1"/>
+        <v>18.004999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f>SUBSTITUTE(A32,"`","")</f>
+        <v>SELECT COUNT(DISTINCT treenode_product.product_id) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.treenodetype_id = 1 AND treenode.mptt_min &gt;= -31515 AND treenode.mptt_max &lt;= -31496 AND product_vehicle.vehicle_id = 9117 ;</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z51">
+        <f t="shared" si="1"/>
+        <v>16.760999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f>SUBSTITUTE(A35,"`","")</f>
+        <v>SELECT COUNT(DISTINCT treenode_product.product_id) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.treenodetype_id = 1 AND treenode.mptt_min &gt;= -31163 AND treenode.mptt_max &lt;= -31144 AND product_vehicle.vehicle_id = 9117 ;</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="1"/>
+        <v>17.706</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f>SUBSTITUTE(A38,"`","")</f>
+        <v>SELECT COUNT(DISTINCT treenode_product.product_id) FROM treenode INNER JOIN treenode_product on treenode_product.treenode_id = treenode.id inner join product_vehicle on treenode_product.product_id = product_vehicle.product_id WHERE treenode_product.treenodetype_id = 1 AND treenode.mptt_min &gt;= -31069 AND treenode.mptt_max &lt;= -31060 AND product_vehicle.vehicle_id = 9117 ;</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z53">
+        <f t="shared" si="1"/>
+        <v>16.545000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y54" t="s">
+        <v>232</v>
+      </c>
+      <c r="Z54">
+        <f t="shared" si="1"/>
+        <v>17.062999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y55" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z55">
+        <f t="shared" si="1"/>
+        <v>18.03</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y56" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z56">
+        <f t="shared" si="1"/>
+        <v>17.106000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y57" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z57">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y58" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z58">
+        <f t="shared" si="1"/>
+        <v>16.652999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y59" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" si="1"/>
+        <v>17.523</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y60" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="1"/>
+        <v>17.349</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y61" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z61">
+        <f t="shared" si="1"/>
+        <v>17.91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y62" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z62">
+        <f t="shared" si="1"/>
+        <v>18.507000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y63" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z63">
+        <f t="shared" si="1"/>
+        <v>16.859000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y64" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z64">
+        <f t="shared" si="1"/>
+        <v>16.263999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y65" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z65">
+        <f t="shared" si="1"/>
+        <v>35.887999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y66" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z66">
+        <f t="shared" si="1"/>
+        <v>16.797999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y67" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z67">
+        <f t="shared" si="1"/>
+        <v>17.577999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y68" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z68">
+        <f t="shared" si="1"/>
+        <v>17.506</v>
+      </c>
+    </row>
+    <row r="69" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y69" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z69">
+        <f t="shared" si="1"/>
+        <v>17.209</v>
+      </c>
+    </row>
+    <row r="70" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y70" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z70">
+        <f t="shared" si="1"/>
+        <v>16.379000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y71" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z71">
+        <f t="shared" si="1"/>
+        <v>16.454999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y72" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z72">
+        <f t="shared" si="1"/>
+        <v>17.111000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="25:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y73" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z73">
+        <f t="shared" si="1"/>
+        <v>16.858000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y74" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z74">
+        <f t="shared" si="1"/>
+        <v>16.606999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y75" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z75">
+        <f t="shared" si="1"/>
+        <v>16.678999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y76" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z76">
+        <f t="shared" si="1"/>
+        <v>16.634</v>
+      </c>
+    </row>
+    <row r="77" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y77" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z77">
+        <f t="shared" si="1"/>
+        <v>16.786000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/mereni.xlsx
+++ b/mereni.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6315" tabRatio="504"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6315" tabRatio="504" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="119">
   <si>
     <t>load data infile '/tmp/mirek-db/mysql/product.txt' replace into table product;</t>
   </si>
@@ -358,6 +359,30 @@
   </si>
   <si>
     <t>medián</t>
+  </si>
+  <si>
+    <t>Dle primárního klíče</t>
+  </si>
+  <si>
+    <t>Dle ceny</t>
+  </si>
+  <si>
+    <t>Dle textového pole</t>
+  </si>
+  <si>
+    <t>Ve vazebné tabulce</t>
+  </si>
+  <si>
+    <t>postgres</t>
+  </si>
+  <si>
+    <t>produkty v kategorii</t>
+  </si>
+  <si>
+    <t>Součet</t>
+  </si>
+  <si>
+    <t>load</t>
   </si>
 </sst>
 </file>
@@ -755,7 +780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
@@ -3968,6 +3993,191 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B7:K18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8">
+        <v>17.795892160000001</v>
+      </c>
+      <c r="D8">
+        <v>7.4435143239999997</v>
+      </c>
+      <c r="E8">
+        <v>207.71518140000001</v>
+      </c>
+      <c r="F8">
+        <v>21.015432430000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11">
+        <v>0.63</v>
+      </c>
+      <c r="D11">
+        <v>0.59</v>
+      </c>
+      <c r="E11">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F11">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12">
+        <v>0.99</v>
+      </c>
+      <c r="D12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E12">
+        <v>0.63</v>
+      </c>
+      <c r="F12">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13">
+        <v>0.75</v>
+      </c>
+      <c r="D13">
+        <v>0.44</v>
+      </c>
+      <c r="E13">
+        <v>0.67</v>
+      </c>
+      <c r="F13">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D14">
+        <v>0.92</v>
+      </c>
+      <c r="E14">
+        <v>90.46</v>
+      </c>
+      <c r="F14">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15">
+        <v>2.93</v>
+      </c>
+      <c r="D15">
+        <v>2.5</v>
+      </c>
+      <c r="E15">
+        <v>94.02</v>
+      </c>
+      <c r="F15">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17">
+        <v>60.43</v>
+      </c>
+      <c r="D17">
+        <v>59.36</v>
+      </c>
+      <c r="E17">
+        <v>372.75</v>
+      </c>
+      <c r="F17">
+        <v>105.86</v>
+      </c>
+      <c r="H17">
+        <f>AVERAGE(C17:F17)</f>
+        <v>149.6</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ref="I17:K17" si="0">AVERAGE(D17:G17)</f>
+        <v>179.32333333333335</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>209.40333333333334</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>144.92777777777778</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <f>(H17-C17)/H17</f>
+        <v>0.59605614973262022</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ref="I18:K18" si="1">(I17-D17)/I17</f>
+        <v>0.66897782404223283</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>-0.78005762404291556</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>0.26956721738797101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z80"/>
   <sheetViews>

--- a/mereni.xlsx
+++ b/mereni.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6315" tabRatio="504" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6315" tabRatio="504"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="118">
   <si>
     <t>load data infile '/tmp/mirek-db/mysql/product.txt' replace into table product;</t>
   </si>
@@ -52,9 +52,6 @@
     <t>MEMORY</t>
   </si>
   <si>
-    <t>InnoDB</t>
-  </si>
-  <si>
     <t>postgre</t>
   </si>
   <si>
@@ -376,13 +373,13 @@
     <t>postgres</t>
   </si>
   <si>
-    <t>produkty v kategorii</t>
-  </si>
-  <si>
-    <t>Součet</t>
-  </si>
-  <si>
-    <t>load</t>
+    <t>získání počtu produktů v kategorii</t>
+  </si>
+  <si>
+    <t>vyhledávání produktů, součet</t>
+  </si>
+  <si>
+    <t>načítání dat</t>
   </si>
 </sst>
 </file>
@@ -391,7 +388,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _K_č_-;\-* #,##0.00\ _K_č_-;_-* &quot;-&quot;??\ _K_č_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -484,10 +481,10 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -496,6 +493,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -778,315 +777,316 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT33"/>
+  <dimension ref="A1:AU33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="O25" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="90.42578125" customWidth="1"/>
-    <col min="2" max="11" width="10.28515625" customWidth="1"/>
-    <col min="12" max="18" width="10.7109375" customWidth="1"/>
-    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="12" width="10.28515625" customWidth="1"/>
+    <col min="13" max="19" width="10.7109375" customWidth="1"/>
+    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="B1">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="C1">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="1">
         <v>26.06</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>22.06</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>22.31</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>20.68</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>23.59</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>25.28</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>26.6</v>
       </c>
-      <c r="I2" s="4">
-        <f>AVERAGE(B2,C2,D2,E2,F2,G2,H2)</f>
+      <c r="J2" s="4">
+        <f>AVERAGE(C2,D2,E2,F2,G2,H2,I2)</f>
         <v>23.797142857142855</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>7</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>25.92</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>26.85</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>28.3</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>28.91</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>24.56</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>28.76</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>26.12</v>
       </c>
-      <c r="S2">
-        <f>AVERAGE(L2:R2)</f>
+      <c r="T2">
+        <f>AVERAGE(M2:S2)</f>
         <v>27.06</v>
       </c>
-      <c r="T2" s="4">
-        <f>AVERAGE(L2:S2)</f>
+      <c r="U2" s="4">
+        <f>AVERAGE(M2:T2)</f>
         <v>27.06</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
+        <v>64</v>
+      </c>
+      <c r="W2" s="1">
+        <v>47.62</v>
+      </c>
+      <c r="X2" s="1">
+        <v>50.45</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>44.76</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>45.67</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>54.37</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>54.1</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>51.9</v>
+      </c>
+      <c r="AD2" s="1">
+        <f>AVERAGE(W2:AC2)</f>
+        <v>49.838571428571427</v>
+      </c>
+      <c r="AE2" s="4">
+        <f>AVERAGE(W2:AD2)</f>
+        <v>49.838571428571427</v>
+      </c>
+      <c r="AF2" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="1">
-        <v>47.62</v>
-      </c>
-      <c r="W2" s="1">
-        <v>50.45</v>
-      </c>
-      <c r="X2" s="1">
-        <v>44.76</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>45.67</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>54.37</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>54.1</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>51.9</v>
-      </c>
-      <c r="AC2" s="1">
-        <f>AVERAGE(V2:AB2)</f>
-        <v>49.838571428571427</v>
-      </c>
-      <c r="AD2" s="4">
-        <f>AVERAGE(V2:AC2)</f>
-        <v>49.838571428571427</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF2" s="1">
+      <c r="AG2" s="1">
         <v>18.335312999999999</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AH2" s="1">
         <v>17.616596000000001</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AI2" s="1">
         <v>14.458015</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AJ2" s="1">
         <v>15.504475000000001</v>
       </c>
-      <c r="AJ2" s="1">
+      <c r="AK2" s="1">
         <v>16.209768</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AL2" s="1">
         <v>15.069468000000001</v>
       </c>
-      <c r="AL2" s="1">
+      <c r="AM2" s="1">
         <v>20.774990000000003</v>
       </c>
-      <c r="AM2" s="4">
-        <f>AVERAGE(AF2:AL2)</f>
+      <c r="AN2" s="4">
+        <f>AVERAGE(AG2:AM2)</f>
         <v>16.852660714285715</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>33.869999999999997</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>30.98</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>35.020000000000003</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>31.58</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>34.75</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>33.83</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>41.35</v>
       </c>
-      <c r="I3" s="4">
-        <f t="shared" ref="I3:I6" si="0">AVERAGE(B3,C3,D3,E3,F3,G3,H3)</f>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J6" si="0">AVERAGE(C3,D3,E3,F3,G3,H3,I3)</f>
         <v>34.482857142857135</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>32.409999999999997</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>29.19</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>34.1</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>30</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>30.84</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>29.82</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>26.31</v>
       </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S6" si="1">AVERAGE(L3:R3)</f>
+      <c r="T3">
+        <f t="shared" ref="T3:T6" si="1">AVERAGE(M3:S3)</f>
         <v>30.381428571428568</v>
       </c>
-      <c r="T3" s="4">
-        <f t="shared" ref="T3:T6" si="2">AVERAGE(L3:S3)</f>
+      <c r="U3" s="4">
+        <f t="shared" ref="U3:U6" si="2">AVERAGE(M3:T3)</f>
         <v>30.381428571428568</v>
       </c>
-      <c r="V3" s="1">
+      <c r="W3" s="1">
         <v>303</v>
       </c>
-      <c r="W3" s="1">
+      <c r="X3" s="1">
         <v>288</v>
       </c>
-      <c r="X3" s="1">
+      <c r="Y3" s="1">
         <v>281</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Z3" s="1">
         <v>296</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="AA3" s="1">
         <v>288</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AB3" s="1">
         <v>316</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AC3" s="1">
         <v>289</v>
       </c>
-      <c r="AC3" s="1">
-        <f t="shared" ref="AC3:AC6" si="3">AVERAGE(V3:AB3)</f>
+      <c r="AD3" s="1">
+        <f t="shared" ref="AD3:AD6" si="3">AVERAGE(W3:AC3)</f>
         <v>294.42857142857144</v>
       </c>
-      <c r="AD3" s="4">
-        <f t="shared" ref="AD3:AD6" si="4">AVERAGE(V3:AC3)</f>
+      <c r="AE3" s="4">
+        <f t="shared" ref="AE3:AE6" si="4">AVERAGE(W3:AD3)</f>
         <v>294.42857142857144</v>
       </c>
-      <c r="AF3" s="1">
+      <c r="AG3" s="1">
         <v>84.346086999999997</v>
       </c>
-      <c r="AG3" s="1">
+      <c r="AH3" s="1">
         <v>94.901071999999999</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AI3" s="1">
         <v>84.506124999999997</v>
       </c>
-      <c r="AI3" s="1">
+      <c r="AJ3" s="1">
         <v>84.042400999999998</v>
       </c>
-      <c r="AJ3" s="1">
+      <c r="AK3" s="1">
         <v>79.610828999999995</v>
       </c>
-      <c r="AK3" s="1">
+      <c r="AL3" s="1">
         <v>76.792373000000012</v>
       </c>
-      <c r="AL3" s="1">
+      <c r="AM3" s="1">
         <v>91.267825000000002</v>
       </c>
-      <c r="AM3" s="4">
-        <f t="shared" ref="AM3:AM6" si="5">AVERAGE(AF3:AL3)</f>
+      <c r="AN3" s="4">
+        <f t="shared" ref="AN3:AN6" si="5">AVERAGE(AG3:AM3)</f>
         <v>85.066673142857141</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>0.17</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>0.18</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>0.16</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>0.18</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>0.16</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.17</v>
       </c>
       <c r="H4" s="1">
         <v>0.17</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="J4" s="4">
         <f t="shared" si="0"/>
         <v>0.16999999999999998</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.28000000000000003</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.26</v>
-      </c>
-      <c r="N4">
-        <v>0.18</v>
       </c>
       <c r="O4">
         <v>0.18</v>
@@ -1101,897 +1101,899 @@
         <v>0.18</v>
       </c>
       <c r="S4">
+        <v>0.18</v>
+      </c>
+      <c r="T4">
         <f t="shared" si="1"/>
         <v>0.20571428571428568</v>
       </c>
-      <c r="T4" s="4">
+      <c r="U4" s="4">
         <f t="shared" si="2"/>
         <v>0.20571428571428568</v>
       </c>
-      <c r="V4" s="1">
+      <c r="W4" s="1">
         <v>3.22</v>
       </c>
-      <c r="W4" s="1">
+      <c r="X4" s="1">
         <v>1.94</v>
       </c>
-      <c r="X4" s="1">
+      <c r="Y4" s="1">
         <v>1.58</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Z4" s="1">
         <v>0.98</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="AA4" s="1">
         <v>1</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AB4" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AC4" s="1">
         <v>0.83</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AD4" s="1">
         <f t="shared" si="3"/>
         <v>1.4428571428571431</v>
       </c>
-      <c r="AD4" s="4">
+      <c r="AE4" s="4">
         <f t="shared" si="4"/>
         <v>1.4428571428571431</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AG4" s="1">
         <v>0.22764500000000001</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AH4" s="1">
         <v>0.25831599999999999</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AI4" s="1">
         <v>0.204017</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AJ4" s="1">
         <v>0.41442499999999999</v>
       </c>
-      <c r="AJ4" s="1">
+      <c r="AK4" s="1">
         <v>0.206153</v>
       </c>
-      <c r="AK4" s="1">
+      <c r="AL4" s="1">
         <v>0.202483</v>
       </c>
-      <c r="AL4" s="1">
+      <c r="AM4" s="1">
         <v>0.20283999999999999</v>
       </c>
-      <c r="AM4" s="4">
+      <c r="AN4" s="4">
         <f t="shared" si="5"/>
         <v>0.24512557142857141</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>1.4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>1.52</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>1.39</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>1.41</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>2.36</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>1.38</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>1.37</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <f t="shared" si="0"/>
         <v>1.5471428571428574</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1.59</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1.46</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1.28</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>2.15</v>
-      </c>
-      <c r="P5">
-        <v>1.26</v>
       </c>
       <c r="Q5">
         <v>1.26</v>
       </c>
       <c r="R5">
+        <v>1.26</v>
+      </c>
+      <c r="S5">
         <v>1.28</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <f t="shared" si="1"/>
         <v>1.4685714285714284</v>
       </c>
-      <c r="T5" s="4">
+      <c r="U5" s="4">
         <f t="shared" si="2"/>
         <v>1.4685714285714284</v>
       </c>
-      <c r="V5" s="1">
+      <c r="W5" s="1">
         <v>25.13</v>
       </c>
-      <c r="W5" s="1">
+      <c r="X5" s="1">
         <v>27.64</v>
       </c>
-      <c r="X5" s="1">
+      <c r="Y5" s="1">
         <v>25.57</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Z5" s="1">
         <v>23.15</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="AA5" s="1">
         <v>24.9</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AB5" s="1">
         <v>25.41</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AC5" s="1">
         <v>28.58</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AD5" s="1">
         <f t="shared" si="3"/>
         <v>25.768571428571427</v>
       </c>
-      <c r="AD5" s="4">
+      <c r="AE5" s="4">
         <f t="shared" si="4"/>
         <v>25.768571428571427</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AG5" s="1">
         <v>3.3805770000000002</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AH5" s="1">
         <v>3.6390669999999998</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AI5" s="1">
         <v>3.2104090000000003</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AJ5" s="1">
         <v>3.3913760000000002</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AK5" s="1">
         <v>3.720475</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AL5" s="1">
         <v>3.3534099999999998</v>
       </c>
-      <c r="AL5" s="1">
+      <c r="AM5" s="1">
         <v>2.9524209999999997</v>
       </c>
-      <c r="AM5" s="4">
+      <c r="AN5" s="4">
         <f t="shared" si="5"/>
         <v>3.3782478571428571</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>0.22</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>0.23</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>0.97</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>0.75</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>0.4</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>0.21</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>0.22</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.23</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.21</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>0.18</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>0.56000000000000005</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>0.18</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>0.19</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>0.18</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <f t="shared" si="1"/>
         <v>0.24714285714285714</v>
       </c>
-      <c r="T6" s="4">
+      <c r="U6" s="4">
         <f t="shared" si="2"/>
         <v>0.24714285714285714</v>
       </c>
-      <c r="V6" s="1">
+      <c r="W6" s="1">
         <v>1.83</v>
       </c>
-      <c r="W6" s="1">
+      <c r="X6" s="1">
         <v>0.82</v>
       </c>
-      <c r="X6" s="1">
+      <c r="Y6" s="1">
         <v>1.19</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Z6" s="1">
         <v>0.77</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="AA6" s="1">
         <v>1.06</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AB6" s="1">
         <v>0.95</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AC6" s="1">
         <v>2.31</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AD6" s="1">
         <f t="shared" si="3"/>
         <v>1.2757142857142856</v>
       </c>
-      <c r="AD6" s="4">
+      <c r="AE6" s="4">
         <f t="shared" si="4"/>
         <v>1.2757142857142856</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AG6" s="1">
         <v>0.32813400000000004</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AH6" s="1">
         <v>0.29890800000000001</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AI6" s="1">
         <v>0.32208600000000004</v>
       </c>
-      <c r="AI6" s="1">
+      <c r="AJ6" s="1">
         <v>0.32813799999999999</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AK6" s="1">
         <v>0.34958100000000003</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="AL6" s="1">
         <v>0.32921100000000003</v>
       </c>
-      <c r="AL6" s="1">
+      <c r="AM6" s="1">
         <v>0.29002100000000003</v>
       </c>
-      <c r="AM6" s="4">
+      <c r="AN6" s="4">
         <f t="shared" si="5"/>
         <v>0.32086842857142855</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="I7" s="1">
-        <f>SUM(I2:I6)</f>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="J7" s="1">
+        <f>SUM(J2:J6)</f>
         <v>60.425714285714278</v>
       </c>
-      <c r="T7" s="1">
-        <f>SUM(T2:T6)</f>
+      <c r="U7" s="1">
+        <f>SUM(U2:U6)</f>
         <v>59.362857142857138</v>
       </c>
-      <c r="AD7" s="1">
-        <f>SUM(AD2:AD6)</f>
+      <c r="AE7" s="1">
+        <f>SUM(AE2:AE6)</f>
         <v>372.75428571428569</v>
       </c>
-      <c r="AM7" s="1">
-        <f>SUM(AM2:AM6)</f>
+      <c r="AN7" s="1">
+        <f>SUM(AN2:AN6)</f>
         <v>105.86357571428572</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.48840000000000006</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.56179999999999997</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.53145999999999993</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.49916999999999995</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.54206999999999994</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.54228999999999994</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.54059999999999997</v>
+      </c>
+      <c r="K10" s="4">
+        <f>AVERAGE(C10:J10)</f>
+        <v>0.52991124999999994</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1">
+        <v>0.47589000000000004</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.46878000000000003</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.49675999999999998</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.58348999999999995</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>2.3076099999999999</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0.47893000000000002</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0.47025</v>
+      </c>
+      <c r="T10" s="4">
+        <f>AVERAGE(L10:S10)</f>
+        <v>0.75453000000000003</v>
+      </c>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1">
+        <v>2.4689700000000001</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0.64543000000000006</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0.63471</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>0.61597000000000002</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0.68010000000000004</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0.64745000000000008</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>0.60095999999999994</v>
+      </c>
+      <c r="AD10" s="4">
+        <f>AVERAGE(V10:AC10)</f>
+        <v>0.89908428571428589</v>
+      </c>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1">
+        <v>1.754</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="AN10" s="4">
+        <f>AVERAGE(AF10:AM10)</f>
+        <v>0.62671428571428578</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.48840000000000006</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.56179999999999997</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.53145999999999993</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.49916999999999995</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.54206999999999994</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.53349999999999997</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.54228999999999994</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.54059999999999997</v>
-      </c>
-      <c r="J10" s="4">
-        <f>AVERAGE(B10:I10)</f>
-        <v>0.52991124999999994</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1">
-        <v>0.47589000000000004</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0.46878000000000003</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0.49675999999999998</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0.58348999999999995</v>
-      </c>
-      <c r="P10" s="1">
-        <v>2.3076099999999999</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>0.47893000000000002</v>
-      </c>
-      <c r="R10" s="1">
-        <v>0.47025</v>
-      </c>
-      <c r="S10" s="4">
-        <f>AVERAGE(K10:R10)</f>
-        <v>0.75453000000000003</v>
-      </c>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1">
-        <v>2.4689700000000001</v>
-      </c>
-      <c r="W10" s="1">
-        <v>0.64543000000000006</v>
-      </c>
-      <c r="X10" s="1">
-        <v>0.63471</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>0.61597000000000002</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>0.68010000000000004</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>0.64745000000000008</v>
-      </c>
-      <c r="AB10" s="1">
-        <v>0.60095999999999994</v>
-      </c>
-      <c r="AC10" s="4">
-        <f>AVERAGE(U10:AB10)</f>
-        <v>0.89908428571428589</v>
-      </c>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1">
-        <v>1.754</v>
-      </c>
-      <c r="AG10" s="1">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="AH10" s="1">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="AI10" s="1">
-        <v>0.41</v>
-      </c>
-      <c r="AJ10" s="1">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="AK10" s="1">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="AL10" s="1">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="AM10" s="4">
-        <f>AVERAGE(AE10:AL10)</f>
-        <v>0.62671428571428578</v>
-      </c>
-    </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C11" s="1">
+        <v>0.51245999999999992</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.49948999999999999</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.54213999999999996</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.48886000000000002</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.47645999999999999</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.59443999999999997</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.54467999999999994</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.58962000000000003</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" ref="K11:K14" si="6">AVERAGE(C11:J11)</f>
+        <v>0.53101874999999998</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1">
+        <v>0.51608999999999994</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.46795000000000003</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.48576999999999998</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.48801999999999995</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.51208999999999993</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0.48950999999999995</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0.48220000000000002</v>
+      </c>
+      <c r="T11" s="4">
+        <f t="shared" ref="T11:T14" si="7">AVERAGE(L11:S11)</f>
+        <v>0.49166142857142864</v>
+      </c>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1">
+        <v>8.8999400000000009</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0.61771000000000009</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0.66149000000000002</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>0.64332999999999996</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>0.64149</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>0.68944000000000005</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>0.67851000000000006</v>
+      </c>
+      <c r="AD11" s="4">
+        <f t="shared" ref="AD11:AD14" si="8">AVERAGE(V11:AC11)</f>
+        <v>1.8331300000000001</v>
+      </c>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1">
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="AN11" s="4">
+        <f t="shared" ref="AN11:AN14" si="9">AVERAGE(AF11:AM11)</f>
+        <v>0.70557142857142863</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
-        <v>0.51245999999999992</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.49948999999999999</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.54213999999999996</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.48886000000000002</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.47645999999999999</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.59443999999999997</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.54467999999999994</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.58962000000000003</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" ref="J11:J14" si="6">AVERAGE(B11:I11)</f>
-        <v>0.53101874999999998</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1">
-        <v>0.51608999999999994</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0.46795000000000003</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0.48576999999999998</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0.48801999999999995</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0.51208999999999993</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>0.48950999999999995</v>
-      </c>
-      <c r="R11" s="1">
-        <v>0.48220000000000002</v>
-      </c>
-      <c r="S11" s="4">
-        <f t="shared" ref="S11:S14" si="7">AVERAGE(K11:R11)</f>
-        <v>0.49166142857142864</v>
-      </c>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1">
-        <v>8.8999400000000009</v>
-      </c>
-      <c r="W11" s="1">
-        <v>0.61771000000000009</v>
-      </c>
-      <c r="X11" s="1">
-        <v>0.66149000000000002</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>0.64332999999999996</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>0.64149</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>0.68944000000000005</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>0.67851000000000006</v>
-      </c>
-      <c r="AC11" s="4">
-        <f t="shared" ref="AC11:AC14" si="8">AVERAGE(U11:AB11)</f>
-        <v>1.8331300000000001</v>
-      </c>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1">
-        <v>1.1779999999999999</v>
-      </c>
-      <c r="AG11" s="1">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="AH11" s="1">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="AI11" s="1">
-        <v>0.59099999999999997</v>
-      </c>
-      <c r="AJ11" s="1">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="AK11" s="1">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="AL11" s="1">
-        <v>0.81499999999999995</v>
-      </c>
-      <c r="AM11" s="4">
-        <f t="shared" ref="AM11:AM14" si="9">AVERAGE(AE11:AL11)</f>
-        <v>0.70557142857142863</v>
-      </c>
-    </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="C12" s="1">
         <v>0.47177999999999998</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>0.45859</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>0.46933000000000002</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>0.44307999999999997</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>0.44935999999999998</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>0.47666000000000003</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>0.50178999999999996</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>0.43919000000000002</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <f t="shared" si="6"/>
         <v>0.46372249999999993</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1">
+      <c r="L12" s="1"/>
+      <c r="M12" s="1">
         <v>0.56141000000000008</v>
       </c>
-      <c r="M12" s="1">
+      <c r="N12" s="1">
         <v>0.50914999999999999</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <v>0.44481999999999999</v>
       </c>
-      <c r="O12" s="1">
+      <c r="P12" s="1">
         <v>0.51583000000000001</v>
       </c>
-      <c r="P12" s="1">
+      <c r="Q12" s="1">
         <v>0.42101</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="R12" s="1">
         <v>2.2436400000000001</v>
       </c>
-      <c r="R12" s="1">
+      <c r="S12" s="1">
         <v>0.53625</v>
       </c>
-      <c r="S12" s="4">
+      <c r="T12" s="4">
         <f t="shared" si="7"/>
         <v>0.74744428571428567</v>
       </c>
-      <c r="T12" s="1"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="1">
+      <c r="V12" s="1"/>
+      <c r="W12" s="1">
         <v>0.68148999999999993</v>
       </c>
-      <c r="W12" s="1">
+      <c r="X12" s="1">
         <v>0.64122000000000001</v>
       </c>
-      <c r="X12" s="1">
+      <c r="Y12" s="1">
         <v>0.66208</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="Z12" s="1">
         <v>0.62664000000000009</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="AA12" s="1">
         <v>0.63896000000000008</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AB12" s="1">
         <v>0.62141000000000002</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AC12" s="1">
         <v>0.75354999999999994</v>
       </c>
-      <c r="AC12" s="4">
+      <c r="AD12" s="4">
         <f t="shared" si="8"/>
         <v>0.66076428571428569</v>
       </c>
-      <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
-      <c r="AF12" s="1">
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1">
         <v>0.59899999999999998</v>
       </c>
-      <c r="AG12" s="1">
+      <c r="AH12" s="1">
         <v>0.55300000000000005</v>
       </c>
-      <c r="AH12" s="1">
+      <c r="AI12" s="1">
         <v>0.64800000000000002</v>
       </c>
-      <c r="AI12" s="1">
+      <c r="AJ12" s="1">
         <v>0.60499999999999998</v>
       </c>
-      <c r="AJ12" s="1">
+      <c r="AK12" s="1">
         <v>0.59299999999999997</v>
       </c>
-      <c r="AK12" s="1">
+      <c r="AL12" s="1">
         <v>0.876</v>
       </c>
-      <c r="AL12" s="1">
+      <c r="AM12" s="1">
         <v>0.85699999999999998</v>
       </c>
-      <c r="AM12" s="4">
+      <c r="AN12" s="4">
         <f t="shared" si="9"/>
         <v>0.67585714285714282</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
         <v>0.50898999999999994</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>1.01715</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>0.49461000000000005</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>0.53594000000000008</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>0.50164999999999993</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>2.40835</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>0.54929000000000006</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>0.43919000000000002</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <f t="shared" si="6"/>
         <v>0.80689624999999998</v>
       </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1">
+      <c r="L13" s="1"/>
+      <c r="M13" s="1">
         <v>0.47743999999999998</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <v>0.41526999999999997</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>0.47566999999999998</v>
       </c>
-      <c r="O13" s="1">
+      <c r="P13" s="1">
         <v>0.48092000000000001</v>
       </c>
-      <c r="P13" s="1">
+      <c r="Q13" s="1">
         <v>0.43772</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="R13" s="1">
         <v>0.44728000000000001</v>
       </c>
-      <c r="R13" s="1">
+      <c r="S13" s="1">
         <v>0.47488000000000002</v>
       </c>
-      <c r="S13" s="4">
+      <c r="T13" s="4">
         <f t="shared" si="7"/>
         <v>0.45845428571428576</v>
       </c>
-      <c r="T13" s="1"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="1">
+      <c r="V13" s="1"/>
+      <c r="W13" s="1">
         <v>28.87444</v>
       </c>
-      <c r="W13" s="1">
+      <c r="X13" s="1">
         <v>0.72028999999999999</v>
       </c>
-      <c r="X13" s="1">
+      <c r="Y13" s="1">
         <v>0.86312</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="Z13" s="1">
         <v>0.70496000000000003</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="AA13" s="1">
         <v>0.66108</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AB13" s="1">
         <v>0.72114</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AC13" s="1">
         <v>0.60922999999999994</v>
       </c>
-      <c r="AC13" s="4">
+      <c r="AD13" s="4">
         <f t="shared" si="8"/>
         <v>4.7363228571428566</v>
       </c>
-      <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
-      <c r="AF13" s="1">
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1">
         <v>0.57499999999999996</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="AH13" s="1">
         <v>0.59</v>
       </c>
-      <c r="AH13" s="1">
+      <c r="AI13" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AI13" s="1">
+      <c r="AJ13" s="1">
         <v>0.72599999999999998</v>
       </c>
-      <c r="AJ13" s="1">
+      <c r="AK13" s="1">
         <v>0.57499999999999996</v>
       </c>
-      <c r="AK13" s="1">
+      <c r="AL13" s="1">
         <v>0.59599999999999997</v>
       </c>
-      <c r="AL13" s="1">
+      <c r="AM13" s="1">
         <v>0.54900000000000004</v>
       </c>
-      <c r="AM13" s="4">
+      <c r="AN13" s="4">
         <f t="shared" si="9"/>
         <v>0.59442857142857153</v>
       </c>
-      <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2"/>
       <c r="AR13" s="2"/>
       <c r="AS13" s="2"/>
       <c r="AT13" s="2"/>
-    </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU13" s="2"/>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
         <v>2.6753399999999998</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>0.55771999999999999</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>0.53122000000000003</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>0.54554999999999998</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>0.51634999999999998</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>0.52298999999999995</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>0.52446999999999999</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>0.61567000000000005</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <f t="shared" si="6"/>
         <v>0.81116374999999996</v>
       </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1">
+      <c r="L14" s="1"/>
+      <c r="M14" s="1">
         <v>0.47423999999999999</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N14" s="1">
         <v>0.46073000000000003</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
         <v>0.50042999999999993</v>
       </c>
-      <c r="O14" s="1">
+      <c r="P14" s="1">
         <v>0.46556000000000003</v>
       </c>
-      <c r="P14" s="1">
+      <c r="Q14" s="1">
         <v>0.5242</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="R14" s="1">
         <v>0.42968999999999996</v>
       </c>
-      <c r="R14" s="1">
+      <c r="S14" s="1">
         <v>0.4587</v>
       </c>
-      <c r="S14" s="4">
+      <c r="T14" s="4">
         <f t="shared" si="7"/>
         <v>0.47336428571428568</v>
       </c>
-      <c r="T14" s="1"/>
       <c r="U14" s="1"/>
-      <c r="V14" s="1">
+      <c r="V14" s="1"/>
+      <c r="W14" s="1">
         <v>10.55785</v>
       </c>
-      <c r="W14" s="1">
+      <c r="X14" s="1">
         <v>0.58753999999999995</v>
       </c>
-      <c r="X14" s="1">
+      <c r="Y14" s="1">
         <v>0.65101999999999993</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="Z14" s="1">
         <v>0.62107000000000001</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="AA14" s="1">
         <v>8.3152799999999996</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AB14" s="1">
         <v>0.70669000000000004</v>
       </c>
-      <c r="AB14" s="1">
+      <c r="AC14" s="1">
         <v>0.72608000000000006</v>
       </c>
-      <c r="AC14" s="4">
+      <c r="AD14" s="4">
         <f t="shared" si="8"/>
         <v>3.1665042857142858</v>
       </c>
-      <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
-      <c r="AF14" s="1">
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1">
         <v>0.61099999999999999</v>
       </c>
-      <c r="AG14" s="1">
+      <c r="AH14" s="1">
         <v>0.68500000000000005</v>
       </c>
-      <c r="AH14" s="1">
+      <c r="AI14" s="1">
         <v>0.65100000000000002</v>
       </c>
-      <c r="AI14" s="1">
+      <c r="AJ14" s="1">
         <v>2.1019999999999999</v>
       </c>
-      <c r="AJ14" s="1">
+      <c r="AK14" s="1">
         <v>0.54500000000000004</v>
       </c>
-      <c r="AK14" s="1">
+      <c r="AL14" s="1">
         <v>0.65700000000000003</v>
       </c>
-      <c r="AL14" s="1">
+      <c r="AM14" s="1">
         <v>0.64400000000000002</v>
       </c>
-      <c r="AM14" s="4">
+      <c r="AN14" s="4">
         <f t="shared" si="9"/>
         <v>0.84214285714285708</v>
       </c>
-      <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2"/>
       <c r="AR14" s="2"/>
       <c r="AS14" s="2"/>
       <c r="AT14" s="2"/>
-    </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
+      <c r="AU14" s="2"/>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1999,11 +2001,11 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="4">
-        <f>AVERAGE(B10:I14)</f>
+      <c r="J15" s="1"/>
+      <c r="K15" s="4">
+        <f>AVERAGE(C10:J14)</f>
         <v>0.62854249999999989</v>
       </c>
-      <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -2011,11 +2013,11 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
-      <c r="S15" s="1">
-        <f>AVERAGE(L10:R14)</f>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1">
+        <f>AVERAGE(M10:S14)</f>
         <v>0.58509085714285725</v>
       </c>
-      <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
@@ -2024,11 +2026,11 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
-      <c r="AC15" s="1">
-        <f>AVERAGE(V10:AB14)</f>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1">
+        <f>AVERAGE(W10:AC14)</f>
         <v>2.2591611428571428</v>
       </c>
-      <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
@@ -2037,620 +2039,620 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
-      <c r="AM15" s="1">
-        <f>AVERAGE(AF10:AL14)</f>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1">
+        <f>AVERAGE(AG10:AM14)</f>
         <v>0.68894285714285708</v>
       </c>
-      <c r="AN15" s="1"/>
-      <c r="AO15" s="2"/>
+      <c r="AO15" s="1"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2"/>
       <c r="AR15" s="2"/>
       <c r="AS15" s="2"/>
       <c r="AT15" s="2"/>
-    </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU15" s="2"/>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="1">
+        <v>105</v>
+      </c>
+      <c r="C16" s="1">
         <v>0.68526999999999993</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>0.48518999999999995</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>0.48549999999999999</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>1.0629000000000002</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>0.49251000000000006</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>0.47968</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>0.48119000000000001</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>0.53872999999999993</v>
       </c>
-      <c r="J16" s="4">
-        <f t="shared" ref="J16:J32" si="10">AVERAGE(B16:I16)</f>
+      <c r="K16" s="4">
+        <f t="shared" ref="K16:K32" si="10">AVERAGE(C16:J16)</f>
         <v>0.58887125000000007</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1">
+      <c r="L16" s="1"/>
+      <c r="M16" s="1">
         <v>2.6872799999999999</v>
       </c>
-      <c r="M16" s="1">
+      <c r="N16" s="1">
         <v>0.64868000000000003</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
         <v>0.77929999999999999</v>
       </c>
-      <c r="O16" s="1">
+      <c r="P16" s="1">
         <v>0.64882000000000006</v>
       </c>
-      <c r="P16" s="1">
+      <c r="Q16" s="1">
         <v>0.90784999999999993</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="R16" s="1">
         <v>0.73735000000000006</v>
       </c>
-      <c r="R16" s="1">
+      <c r="S16" s="1">
         <v>0.80964000000000003</v>
       </c>
-      <c r="S16" s="4">
-        <f t="shared" ref="S16:S32" si="11">AVERAGE(K16:R16)</f>
+      <c r="T16" s="4">
+        <f t="shared" ref="T16:T32" si="11">AVERAGE(L16:S16)</f>
         <v>1.0312742857142856</v>
       </c>
-      <c r="T16" s="1"/>
       <c r="U16" s="1"/>
-      <c r="V16" s="1">
+      <c r="V16" s="1"/>
+      <c r="W16" s="1">
         <v>0.51558999999999999</v>
       </c>
-      <c r="W16" s="1">
+      <c r="X16" s="1">
         <v>0.50894000000000006</v>
       </c>
-      <c r="X16" s="1">
+      <c r="Y16" s="1">
         <v>0.64590000000000003</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="Z16" s="1">
         <v>0.58385999999999993</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="AA16" s="1">
         <v>0.57521999999999995</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AB16" s="1">
         <v>0.59980999999999995</v>
       </c>
-      <c r="AB16" s="1">
+      <c r="AC16" s="1">
         <v>0.52736000000000005</v>
       </c>
-      <c r="AC16" s="4">
-        <f t="shared" ref="AC16:AC32" si="12">AVERAGE(U16:AB16)</f>
+      <c r="AD16" s="4">
+        <f t="shared" ref="AD16:AD32" si="12">AVERAGE(V16:AC16)</f>
         <v>0.56523999999999996</v>
       </c>
-      <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
-      <c r="AF16" s="1">
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1">
         <v>0.44900000000000001</v>
       </c>
-      <c r="AG16" s="1">
+      <c r="AH16" s="1">
         <v>0.35499999999999998</v>
       </c>
-      <c r="AH16" s="1">
+      <c r="AI16" s="1">
         <v>0.55600000000000005</v>
       </c>
-      <c r="AI16" s="1">
+      <c r="AJ16" s="1">
         <v>0.378</v>
       </c>
-      <c r="AJ16" s="1">
+      <c r="AK16" s="1">
         <v>0.49399999999999999</v>
       </c>
-      <c r="AK16" s="1">
+      <c r="AL16" s="1">
         <v>0.44500000000000001</v>
       </c>
-      <c r="AL16" s="1">
+      <c r="AM16" s="1">
         <v>0.433</v>
       </c>
-      <c r="AM16" s="4">
-        <f t="shared" ref="AM16:AM32" si="13">AVERAGE(AE16:AL16)</f>
+      <c r="AN16" s="4">
+        <f t="shared" ref="AN16:AN32" si="13">AVERAGE(AF16:AM16)</f>
         <v>0.44428571428571428</v>
       </c>
-      <c r="AN16" s="1"/>
-      <c r="AO16" s="2"/>
+      <c r="AO16" s="1"/>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2"/>
       <c r="AR16" s="2"/>
       <c r="AS16" s="2"/>
       <c r="AT16" s="2"/>
-    </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU16" s="2"/>
+    </row>
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1">
         <v>9.6839000000000013</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>0.91720999999999997</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>0.74058999999999997</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>0.47905999999999999</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>0.70677999999999996</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>0.50202999999999998</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>0.67805000000000004</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>0.53892999999999991</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <f t="shared" si="10"/>
         <v>1.7808187500000003</v>
       </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1">
+      <c r="L17" s="1"/>
+      <c r="M17" s="1">
         <v>0.40841</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N17" s="1">
         <v>0.42054999999999998</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <v>0.43364000000000003</v>
       </c>
-      <c r="O17" s="1">
+      <c r="P17" s="1">
         <v>0.39953</v>
       </c>
-      <c r="P17" s="1">
+      <c r="Q17" s="1">
         <v>0.44750999999999996</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="R17" s="1">
         <v>0.41583999999999999</v>
       </c>
-      <c r="R17" s="1">
+      <c r="S17" s="1">
         <v>0.43342000000000003</v>
       </c>
-      <c r="S17" s="4">
+      <c r="T17" s="4">
         <f t="shared" si="11"/>
         <v>0.42269999999999996</v>
       </c>
-      <c r="T17" s="1"/>
       <c r="U17" s="1"/>
-      <c r="V17" s="1">
+      <c r="V17" s="1"/>
+      <c r="W17" s="1">
         <v>0.52707999999999999</v>
       </c>
-      <c r="W17" s="1">
+      <c r="X17" s="1">
         <v>0.53290000000000004</v>
       </c>
-      <c r="X17" s="1">
+      <c r="Y17" s="1">
         <v>2.8163400000000003</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="Z17" s="1">
         <v>0.60331999999999997</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="AA17" s="1">
         <v>0.51513999999999993</v>
       </c>
-      <c r="AA17" s="1">
+      <c r="AB17" s="1">
         <v>0.47778000000000004</v>
       </c>
-      <c r="AB17" s="1">
+      <c r="AC17" s="1">
         <v>0.55322000000000005</v>
       </c>
-      <c r="AC17" s="4">
+      <c r="AD17" s="4">
         <f t="shared" si="12"/>
         <v>0.86082571428571419</v>
       </c>
-      <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
-      <c r="AF17" s="1">
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1">
         <v>0.21299999999999999</v>
       </c>
-      <c r="AG17" s="1">
+      <c r="AH17" s="1">
         <v>0.16300000000000001</v>
       </c>
-      <c r="AH17" s="1">
+      <c r="AI17" s="1">
         <v>0.26600000000000001</v>
       </c>
-      <c r="AI17" s="1">
+      <c r="AJ17" s="1">
         <v>0.21199999999999999</v>
       </c>
-      <c r="AJ17" s="1">
+      <c r="AK17" s="1">
         <v>0.20799999999999999</v>
       </c>
-      <c r="AK17" s="1">
+      <c r="AL17" s="1">
         <v>0.19800000000000001</v>
       </c>
-      <c r="AL17" s="1">
+      <c r="AM17" s="1">
         <v>0.17399999999999999</v>
       </c>
-      <c r="AM17" s="4">
+      <c r="AN17" s="4">
         <f t="shared" si="13"/>
         <v>0.20485714285714285</v>
       </c>
-      <c r="AN17" s="1"/>
-      <c r="AO17" s="2"/>
+      <c r="AO17" s="1"/>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2"/>
       <c r="AR17" s="2"/>
       <c r="AS17" s="2"/>
       <c r="AT17" s="2"/>
-    </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU17" s="2"/>
+    </row>
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1">
         <v>0.50962999999999992</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>0.51144000000000001</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>7.6715100000000005</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>0.47020000000000001</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>0.53813000000000011</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>0.68424000000000007</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>0.49065000000000003</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>0.51150999999999991</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <f t="shared" si="10"/>
         <v>1.4234137500000001</v>
       </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1">
+      <c r="L18" s="1"/>
+      <c r="M18" s="1">
         <v>0.48315000000000002</v>
       </c>
-      <c r="M18" s="1">
+      <c r="N18" s="1">
         <v>0.44927</v>
       </c>
-      <c r="N18" s="1">
+      <c r="O18" s="1">
         <v>0.45702999999999999</v>
       </c>
-      <c r="O18" s="1">
+      <c r="P18" s="1">
         <v>0.50746000000000002</v>
       </c>
-      <c r="P18" s="1">
+      <c r="Q18" s="1">
         <v>0.43253999999999998</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="R18" s="1">
         <v>0.43528</v>
       </c>
-      <c r="R18" s="1">
+      <c r="S18" s="1">
         <v>0.55931999999999993</v>
       </c>
-      <c r="S18" s="4">
+      <c r="T18" s="4">
         <f t="shared" si="11"/>
         <v>0.47486428571428574</v>
       </c>
-      <c r="T18" s="1"/>
       <c r="U18" s="1"/>
-      <c r="V18" s="1">
+      <c r="V18" s="1"/>
+      <c r="W18" s="1">
         <v>0.56410000000000005</v>
       </c>
-      <c r="W18" s="1">
+      <c r="X18" s="1">
         <v>0.55113000000000001</v>
       </c>
-      <c r="X18" s="1">
+      <c r="Y18" s="1">
         <v>0.59287000000000001</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="Z18" s="1">
         <v>0.52251000000000003</v>
       </c>
-      <c r="Z18" s="1">
+      <c r="AA18" s="1">
         <v>0.97926000000000002</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="AB18" s="1">
         <v>0.53147</v>
       </c>
-      <c r="AB18" s="1">
+      <c r="AC18" s="1">
         <v>0.58164000000000005</v>
       </c>
-      <c r="AC18" s="4">
+      <c r="AD18" s="4">
         <f t="shared" si="12"/>
         <v>0.61756857142857147</v>
       </c>
-      <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
-      <c r="AF18" s="1">
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1">
         <v>0.14799999999999999</v>
       </c>
-      <c r="AG18" s="1">
+      <c r="AH18" s="1">
         <v>0.24</v>
       </c>
-      <c r="AH18" s="1">
+      <c r="AI18" s="1">
         <v>0.182</v>
       </c>
-      <c r="AI18" s="1">
+      <c r="AJ18" s="1">
         <v>0.215</v>
       </c>
-      <c r="AJ18" s="1">
+      <c r="AK18" s="1">
         <v>0.218</v>
       </c>
-      <c r="AK18" s="1">
+      <c r="AL18" s="1">
         <v>0.28199999999999997</v>
       </c>
-      <c r="AL18" s="1">
+      <c r="AM18" s="1">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AM18" s="4">
+      <c r="AN18" s="4">
         <f t="shared" si="13"/>
         <v>0.20428571428571432</v>
       </c>
-      <c r="AN18" s="1"/>
-      <c r="AO18" s="2"/>
+      <c r="AO18" s="1"/>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2"/>
       <c r="AR18" s="2"/>
       <c r="AS18" s="2"/>
       <c r="AT18" s="2"/>
-    </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU18" s="2"/>
+    </row>
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1">
         <v>0.50367999999999991</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>0.46415999999999996</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>0.46276</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>0.49456999999999995</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>0.46781</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>0.49790000000000001</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>0.59694999999999998</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <v>0.63841999999999999</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <f t="shared" si="10"/>
         <v>0.51578124999999997</v>
       </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1">
+      <c r="L19" s="1"/>
+      <c r="M19" s="1">
         <v>0.37215000000000004</v>
       </c>
-      <c r="M19" s="1">
+      <c r="N19" s="1">
         <v>0.50641000000000003</v>
       </c>
-      <c r="N19" s="1">
+      <c r="O19" s="1">
         <v>0.50566</v>
       </c>
-      <c r="O19" s="1">
+      <c r="P19" s="1">
         <v>0.40912999999999999</v>
       </c>
-      <c r="P19" s="1">
+      <c r="Q19" s="1">
         <v>0.39571000000000001</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="R19" s="1">
         <v>0.37661999999999995</v>
       </c>
-      <c r="R19" s="1">
+      <c r="S19" s="1">
         <v>0.43131000000000003</v>
       </c>
-      <c r="S19" s="4">
+      <c r="T19" s="4">
         <f t="shared" si="11"/>
         <v>0.42814142857142856</v>
       </c>
-      <c r="T19" s="1"/>
       <c r="U19" s="1"/>
-      <c r="V19" s="1">
+      <c r="V19" s="1"/>
+      <c r="W19" s="1">
         <v>0.56440999999999997</v>
       </c>
-      <c r="W19" s="1">
+      <c r="X19" s="1">
         <v>0.54798000000000002</v>
       </c>
-      <c r="X19" s="1">
+      <c r="Y19" s="1">
         <v>0.54364000000000001</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="Z19" s="1">
         <v>0.53622999999999998</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="AA19" s="1">
         <v>0.52193000000000001</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AB19" s="1">
         <v>0.6238800000000001</v>
       </c>
-      <c r="AB19" s="1">
+      <c r="AC19" s="1">
         <v>0.54874000000000001</v>
       </c>
-      <c r="AC19" s="4">
+      <c r="AD19" s="4">
         <f t="shared" si="12"/>
         <v>0.55525857142857149</v>
       </c>
-      <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
-      <c r="AF19" s="1">
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1">
         <v>0.2</v>
       </c>
-      <c r="AG19" s="1">
+      <c r="AH19" s="1">
         <v>0.19800000000000001</v>
       </c>
-      <c r="AH19" s="1">
+      <c r="AI19" s="1">
         <v>0.14699999999999999</v>
       </c>
-      <c r="AI19" s="1">
+      <c r="AJ19" s="1">
         <v>0.193</v>
       </c>
-      <c r="AJ19" s="1">
+      <c r="AK19" s="1">
         <v>0.14899999999999999</v>
       </c>
-      <c r="AK19" s="1">
+      <c r="AL19" s="1">
         <v>0.19600000000000001</v>
       </c>
-      <c r="AL19" s="1">
+      <c r="AM19" s="1">
         <v>0.156</v>
       </c>
-      <c r="AM19" s="4">
+      <c r="AN19" s="4">
         <f t="shared" si="13"/>
         <v>0.17699999999999999</v>
       </c>
-      <c r="AN19" s="1"/>
-      <c r="AO19" s="2"/>
+      <c r="AO19" s="1"/>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2"/>
       <c r="AR19" s="2"/>
       <c r="AS19" s="2"/>
       <c r="AT19" s="2"/>
-    </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU19" s="2"/>
+    </row>
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1">
         <v>0.62934000000000001</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
         <v>0.64824000000000004</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>0.58874000000000004</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>0.57954000000000006</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>0.66040999999999994</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>0.68108999999999997</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>0.54907000000000006</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <v>0.71128000000000002</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <f t="shared" si="10"/>
         <v>0.63096375000000016</v>
       </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1">
+      <c r="L20" s="1"/>
+      <c r="M20" s="1">
         <v>0.40756000000000003</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20" s="1">
         <v>0.38174999999999998</v>
       </c>
-      <c r="N20" s="1">
+      <c r="O20" s="1">
         <v>0.39617000000000002</v>
       </c>
-      <c r="O20" s="1">
+      <c r="P20" s="1">
         <v>0.38364999999999999</v>
       </c>
-      <c r="P20" s="1">
+      <c r="Q20" s="1">
         <v>0.38591999999999999</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="R20" s="1">
         <v>0.46546999999999999</v>
       </c>
-      <c r="R20" s="1">
+      <c r="S20" s="1">
         <v>0.37480000000000002</v>
       </c>
-      <c r="S20" s="4">
+      <c r="T20" s="4">
         <f t="shared" si="11"/>
         <v>0.39933142857142861</v>
       </c>
-      <c r="T20" s="1"/>
       <c r="U20" s="1"/>
-      <c r="V20" s="1">
+      <c r="V20" s="1"/>
+      <c r="W20" s="1">
         <v>0.54212000000000005</v>
       </c>
-      <c r="W20" s="1">
+      <c r="X20" s="1">
         <v>0.52290999999999999</v>
       </c>
-      <c r="X20" s="1">
+      <c r="Y20" s="1">
         <v>0.53527999999999998</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="Z20" s="1">
         <v>0.53058000000000005</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="AA20" s="1">
         <v>0.55898000000000003</v>
       </c>
-      <c r="AA20" s="1">
+      <c r="AB20" s="1">
         <v>0.54164999999999996</v>
       </c>
-      <c r="AB20" s="1">
+      <c r="AC20" s="1">
         <v>0.53768000000000005</v>
       </c>
-      <c r="AC20" s="4">
+      <c r="AD20" s="4">
         <f t="shared" si="12"/>
         <v>0.53845714285714286</v>
       </c>
-      <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
-      <c r="AF20" s="1">
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1">
         <v>0.14599999999999999</v>
       </c>
-      <c r="AG20" s="1">
+      <c r="AH20" s="1">
         <v>0.2</v>
       </c>
-      <c r="AH20" s="1">
+      <c r="AI20" s="1">
         <v>0.14699999999999999</v>
       </c>
-      <c r="AI20" s="1">
+      <c r="AJ20" s="1">
         <v>0.247</v>
       </c>
-      <c r="AJ20" s="1">
+      <c r="AK20" s="1">
         <v>0.16900000000000001</v>
       </c>
-      <c r="AK20" s="1">
+      <c r="AL20" s="1">
         <v>0.251</v>
       </c>
-      <c r="AL20" s="1">
+      <c r="AM20" s="1">
         <v>0.14699999999999999</v>
       </c>
-      <c r="AM20" s="4">
+      <c r="AN20" s="4">
         <f t="shared" si="13"/>
         <v>0.18671428571428575</v>
       </c>
-      <c r="AN20" s="1"/>
-      <c r="AO20" s="2"/>
+      <c r="AO20" s="1"/>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2"/>
       <c r="AR20" s="2"/>
       <c r="AS20" s="2"/>
       <c r="AT20" s="2"/>
-    </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
+      <c r="AU20" s="2"/>
+    </row>
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2658,11 +2660,11 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="4">
-        <f t="shared" ref="J21" si="14">AVERAGE(B16:I20)</f>
+      <c r="J21" s="1"/>
+      <c r="K21" s="4">
+        <f t="shared" ref="K21" si="14">AVERAGE(C16:J20)</f>
         <v>0.98796975000000009</v>
       </c>
-      <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -2670,11 +2672,11 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
-      <c r="S21" s="1">
-        <f t="shared" ref="S21" si="15">AVERAGE(L16:R20)</f>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1">
+        <f t="shared" ref="T21" si="15">AVERAGE(M16:S20)</f>
         <v>0.55126228571428559</v>
       </c>
-      <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
@@ -2683,11 +2685,11 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
-      <c r="AC21" s="1">
-        <f t="shared" ref="AC21" si="16">AVERAGE(V16:AB20)</f>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1">
+        <f t="shared" ref="AD21" si="16">AVERAGE(W16:AC20)</f>
         <v>0.62747000000000008</v>
       </c>
-      <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
@@ -2696,620 +2698,620 @@
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
-      <c r="AM21" s="1">
-        <f t="shared" ref="AM21" si="17">AVERAGE(AF16:AL20)</f>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1">
+        <f t="shared" ref="AN21" si="17">AVERAGE(AG16:AM20)</f>
         <v>0.24342857142857141</v>
       </c>
-      <c r="AN21" s="1"/>
-      <c r="AO21" s="2"/>
+      <c r="AO21" s="1"/>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2"/>
       <c r="AR21" s="2"/>
       <c r="AS21" s="2"/>
       <c r="AT21" s="2"/>
-    </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU21" s="2"/>
+    </row>
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="1">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1">
         <v>0.68110000000000004</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D22" s="1">
         <v>0.76385999999999998</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>1.8717899999999998</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>0.66529000000000005</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>0.75339999999999996</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>0.87936000000000003</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>0.67745</v>
       </c>
-      <c r="I22" s="1">
+      <c r="J22" s="1">
         <v>0.72914000000000001</v>
       </c>
-      <c r="J22" s="4">
-        <f t="shared" ref="J22" si="18">AVERAGE(B22:I22)</f>
+      <c r="K22" s="4">
+        <f t="shared" ref="K22" si="18">AVERAGE(C22:J22)</f>
         <v>0.87767375000000003</v>
       </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1">
+      <c r="L22" s="1"/>
+      <c r="M22" s="1">
         <v>0.75700000000000001</v>
       </c>
-      <c r="M22" s="1">
+      <c r="N22" s="1">
         <v>0.37282999999999999</v>
       </c>
-      <c r="N22" s="1">
+      <c r="O22" s="1">
         <v>0.44990999999999998</v>
       </c>
-      <c r="O22" s="1">
+      <c r="P22" s="1">
         <v>0.45185999999999998</v>
       </c>
-      <c r="P22" s="1">
+      <c r="Q22" s="1">
         <v>0.44641999999999998</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="R22" s="1">
         <v>0.41553000000000001</v>
       </c>
-      <c r="R22" s="1">
+      <c r="S22" s="1">
         <v>0.41299000000000002</v>
       </c>
-      <c r="S22" s="4">
-        <f t="shared" ref="S22" si="19">AVERAGE(K22:R22)</f>
+      <c r="T22" s="4">
+        <f t="shared" ref="T22" si="19">AVERAGE(L22:S22)</f>
         <v>0.47236285714285714</v>
       </c>
-      <c r="T22" s="1"/>
       <c r="U22" s="1"/>
-      <c r="V22" s="1">
+      <c r="V22" s="1"/>
+      <c r="W22" s="1">
         <v>0.83318000000000003</v>
       </c>
-      <c r="W22" s="1">
+      <c r="X22" s="1">
         <v>0.54527000000000003</v>
       </c>
-      <c r="X22" s="1">
+      <c r="Y22" s="1">
         <v>1.69374</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="Z22" s="1">
         <v>1.0069899999999998</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="AA22" s="1">
         <v>0.86738999999999999</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AB22" s="1">
         <v>0.80752000000000002</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AC22" s="1">
         <v>0.71168999999999993</v>
       </c>
-      <c r="AC22" s="4">
-        <f t="shared" ref="AC22" si="20">AVERAGE(U22:AB22)</f>
+      <c r="AD22" s="4">
+        <f t="shared" ref="AD22" si="20">AVERAGE(V22:AC22)</f>
         <v>0.92368285714285725</v>
       </c>
-      <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
-      <c r="AF22" s="1">
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1">
         <v>8.3079999999999998</v>
       </c>
-      <c r="AG22" s="1">
+      <c r="AH22" s="1">
         <v>0.20100000000000001</v>
       </c>
-      <c r="AH22" s="1">
+      <c r="AI22" s="1">
         <v>0.16300000000000001</v>
       </c>
-      <c r="AI22" s="1">
+      <c r="AJ22" s="1">
         <v>0.20499999999999999</v>
       </c>
-      <c r="AJ22" s="1">
+      <c r="AK22" s="1">
         <v>0.21099999999999999</v>
       </c>
-      <c r="AK22" s="1">
+      <c r="AL22" s="1">
         <v>0.193</v>
       </c>
-      <c r="AL22" s="1">
+      <c r="AM22" s="1">
         <v>0.16300000000000001</v>
       </c>
-      <c r="AM22" s="4">
-        <f>AVERAGE(AE22:AL22)</f>
+      <c r="AN22" s="4">
+        <f>AVERAGE(AF22:AM22)</f>
         <v>1.3491428571428572</v>
       </c>
-      <c r="AN22" s="1"/>
-      <c r="AO22" s="2"/>
+      <c r="AO22" s="1"/>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2"/>
       <c r="AR22" s="2"/>
       <c r="AS22" s="2"/>
       <c r="AT22" s="2"/>
-    </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU22" s="2"/>
+    </row>
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="1">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1">
         <v>0.54724000000000006</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D23" s="1">
         <v>0.49654999999999999</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>0.50429000000000002</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>0.50157999999999991</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>0.49735000000000001</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>0.51130999999999993</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>0.46639000000000003</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <v>0.52117000000000002</v>
       </c>
-      <c r="J23" s="4">
+      <c r="K23" s="4">
         <f t="shared" si="10"/>
         <v>0.50573500000000005</v>
       </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1">
+      <c r="L23" s="1"/>
+      <c r="M23" s="1">
         <v>0.55307000000000006</v>
       </c>
-      <c r="M23" s="1">
+      <c r="N23" s="1">
         <v>0.42763000000000001</v>
       </c>
-      <c r="N23" s="1">
+      <c r="O23" s="1">
         <v>0.41623000000000004</v>
       </c>
-      <c r="O23" s="1">
+      <c r="P23" s="1">
         <v>0.41604999999999998</v>
       </c>
-      <c r="P23" s="1">
+      <c r="Q23" s="1">
         <v>0.41549000000000003</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="R23" s="1">
         <v>0.40986</v>
       </c>
-      <c r="R23" s="1">
+      <c r="S23" s="1">
         <v>0.41336999999999996</v>
       </c>
-      <c r="S23" s="4">
+      <c r="T23" s="4">
         <f t="shared" si="11"/>
         <v>0.43595714285714288</v>
       </c>
-      <c r="T23" s="1"/>
       <c r="U23" s="1"/>
-      <c r="V23" s="1">
+      <c r="V23" s="1"/>
+      <c r="W23" s="1">
         <v>0.58345000000000002</v>
       </c>
-      <c r="W23" s="1">
+      <c r="X23" s="1">
         <v>0.12753</v>
       </c>
-      <c r="X23" s="1">
+      <c r="Y23" s="1">
         <v>0.51380999999999999</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="Z23" s="1">
         <v>0.60535000000000005</v>
       </c>
-      <c r="Z23" s="1">
+      <c r="AA23" s="1">
         <v>0.63814000000000004</v>
       </c>
-      <c r="AA23" s="1">
+      <c r="AB23" s="1">
         <v>0.52475000000000005</v>
       </c>
-      <c r="AB23" s="1">
+      <c r="AC23" s="1">
         <v>0.61138999999999999</v>
       </c>
-      <c r="AC23" s="4">
+      <c r="AD23" s="4">
         <f t="shared" si="12"/>
         <v>0.51491714285714285</v>
       </c>
-      <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
-      <c r="AF23" s="1">
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1">
         <v>0.41099999999999998</v>
       </c>
-      <c r="AG23" s="1">
+      <c r="AH23" s="1">
         <v>0.224</v>
       </c>
-      <c r="AH23" s="1">
+      <c r="AI23" s="1">
         <v>0.14299999999999999</v>
       </c>
-      <c r="AI23" s="1">
+      <c r="AJ23" s="1">
         <v>0.193</v>
       </c>
-      <c r="AJ23" s="1">
+      <c r="AK23" s="1">
         <v>0.153</v>
       </c>
-      <c r="AK23" s="1">
+      <c r="AL23" s="1">
         <v>0.14799999999999999</v>
       </c>
-      <c r="AL23" s="1">
+      <c r="AM23" s="1">
         <v>1.4690000000000001</v>
       </c>
-      <c r="AM23" s="4">
+      <c r="AN23" s="4">
         <f t="shared" si="13"/>
         <v>0.39157142857142857</v>
       </c>
-      <c r="AN23" s="1"/>
-      <c r="AO23" s="2"/>
+      <c r="AO23" s="1"/>
       <c r="AP23" s="2"/>
       <c r="AQ23" s="2"/>
       <c r="AR23" s="2"/>
       <c r="AS23" s="2"/>
       <c r="AT23" s="2"/>
-    </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU23" s="2"/>
+    </row>
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="1">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1">
         <v>0.77904000000000007</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D24" s="1">
         <v>0.65300000000000002</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <v>0.49881999999999999</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>0.63805999999999996</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <v>0.50456000000000001</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <v>0.45716000000000001</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>0.51398999999999995</v>
       </c>
-      <c r="I24" s="1">
+      <c r="J24" s="1">
         <v>0.90094999999999992</v>
       </c>
-      <c r="J24" s="4">
+      <c r="K24" s="4">
         <f t="shared" si="10"/>
         <v>0.61819750000000007</v>
       </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1">
+      <c r="L24" s="1"/>
+      <c r="M24" s="1">
         <v>0.42943000000000003</v>
       </c>
-      <c r="M24" s="1">
+      <c r="N24" s="1">
         <v>0.52783000000000002</v>
       </c>
-      <c r="N24" s="1">
+      <c r="O24" s="1">
         <v>0.41759000000000002</v>
       </c>
-      <c r="O24" s="1">
+      <c r="P24" s="1">
         <v>0.42069999999999996</v>
       </c>
-      <c r="P24" s="1">
+      <c r="Q24" s="1">
         <v>0.40786</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="R24" s="1">
         <v>0.41603000000000001</v>
       </c>
-      <c r="R24" s="1">
+      <c r="S24" s="1">
         <v>0.42980999999999997</v>
       </c>
-      <c r="S24" s="4">
+      <c r="T24" s="4">
         <f t="shared" si="11"/>
         <v>0.4356071428571428</v>
       </c>
-      <c r="T24" s="1"/>
       <c r="U24" s="1"/>
-      <c r="V24" s="1">
+      <c r="V24" s="1"/>
+      <c r="W24" s="1">
         <v>0.55024000000000006</v>
       </c>
-      <c r="W24" s="1">
+      <c r="X24" s="1">
         <v>0.51395000000000002</v>
       </c>
-      <c r="X24" s="1">
+      <c r="Y24" s="1">
         <v>0.61480000000000001</v>
       </c>
-      <c r="Y24" s="1">
+      <c r="Z24" s="1">
         <v>0.52254</v>
       </c>
-      <c r="Z24" s="1">
+      <c r="AA24" s="1">
         <v>0.55198000000000003</v>
       </c>
-      <c r="AA24" s="1">
+      <c r="AB24" s="1">
         <v>0.55111999999999994</v>
       </c>
-      <c r="AB24" s="1">
+      <c r="AC24" s="1">
         <v>0.58418999999999999</v>
       </c>
-      <c r="AC24" s="4">
+      <c r="AD24" s="4">
         <f t="shared" si="12"/>
         <v>0.55554571428571431</v>
       </c>
-      <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
-      <c r="AF24" s="1">
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1">
         <v>0.186</v>
       </c>
-      <c r="AG24" s="1">
+      <c r="AH24" s="1">
         <v>0.26100000000000001</v>
       </c>
-      <c r="AH24" s="1">
+      <c r="AI24" s="1">
         <v>0.16600000000000001</v>
       </c>
-      <c r="AI24" s="1">
+      <c r="AJ24" s="1">
         <v>0.26700000000000002</v>
       </c>
-      <c r="AJ24" s="1">
+      <c r="AK24" s="1">
         <v>0.185</v>
       </c>
-      <c r="AK24" s="1">
+      <c r="AL24" s="1">
         <v>0.17899999999999999</v>
       </c>
-      <c r="AL24" s="1">
+      <c r="AM24" s="1">
         <v>0.24399999999999999</v>
       </c>
-      <c r="AM24" s="4">
+      <c r="AN24" s="4">
         <f t="shared" si="13"/>
         <v>0.21257142857142858</v>
       </c>
-      <c r="AN24" s="1"/>
-      <c r="AO24" s="2"/>
+      <c r="AO24" s="1"/>
       <c r="AP24" s="2"/>
       <c r="AQ24" s="2"/>
       <c r="AR24" s="2"/>
       <c r="AS24" s="2"/>
       <c r="AT24" s="2"/>
-    </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU24" s="2"/>
+    </row>
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="1">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1">
         <v>1.0189699999999999</v>
       </c>
-      <c r="C25" s="1">
+      <c r="D25" s="1">
         <v>0.67222999999999999</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="1">
         <v>0.50217000000000001</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>0.53300000000000003</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>0.59783999999999993</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>0.50421000000000005</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <v>2.49899</v>
       </c>
-      <c r="I25" s="1">
+      <c r="J25" s="1">
         <v>0.57782</v>
       </c>
-      <c r="J25" s="4">
+      <c r="K25" s="4">
         <f t="shared" si="10"/>
         <v>0.86315375000000005</v>
       </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1">
+      <c r="L25" s="1"/>
+      <c r="M25" s="1">
         <v>0.50023000000000006</v>
       </c>
-      <c r="M25" s="1">
+      <c r="N25" s="1">
         <v>0.44399</v>
       </c>
-      <c r="N25" s="1">
+      <c r="O25" s="1">
         <v>0.40878000000000003</v>
       </c>
-      <c r="O25" s="1">
+      <c r="P25" s="1">
         <v>0.42403999999999997</v>
       </c>
-      <c r="P25" s="1">
+      <c r="Q25" s="1">
         <v>0.41205999999999998</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="R25" s="1">
         <v>0.41741</v>
       </c>
-      <c r="R25" s="1">
+      <c r="S25" s="1">
         <v>0.41166999999999998</v>
       </c>
-      <c r="S25" s="4">
+      <c r="T25" s="4">
         <f t="shared" si="11"/>
         <v>0.43116857142857146</v>
       </c>
-      <c r="T25" s="1"/>
       <c r="U25" s="1"/>
-      <c r="V25" s="1">
+      <c r="V25" s="1"/>
+      <c r="W25" s="1">
         <v>0.63593999999999995</v>
       </c>
-      <c r="W25" s="1">
+      <c r="X25" s="1">
         <v>0.62702000000000002</v>
       </c>
-      <c r="X25" s="1">
+      <c r="Y25" s="1">
         <v>0.70877999999999997</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="Z25" s="1">
         <v>0.88846000000000003</v>
       </c>
-      <c r="Z25" s="1">
+      <c r="AA25" s="1">
         <v>0.66204999999999992</v>
       </c>
-      <c r="AA25" s="1">
+      <c r="AB25" s="1">
         <v>0.87025000000000008</v>
       </c>
-      <c r="AB25" s="1">
+      <c r="AC25" s="1">
         <v>0.82049000000000005</v>
       </c>
-      <c r="AC25" s="4">
+      <c r="AD25" s="4">
         <f t="shared" si="12"/>
         <v>0.74471285714285718</v>
       </c>
-      <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
-      <c r="AF25" s="1">
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1">
         <v>0.16700000000000001</v>
       </c>
-      <c r="AG25" s="1">
+      <c r="AH25" s="1">
         <v>0.18099999999999999</v>
       </c>
-      <c r="AH25" s="1">
+      <c r="AI25" s="1">
         <v>0.14199999999999999</v>
       </c>
-      <c r="AI25" s="1">
+      <c r="AJ25" s="1">
         <v>0.21099999999999999</v>
       </c>
-      <c r="AJ25" s="1">
+      <c r="AK25" s="1">
         <v>0.16500000000000001</v>
       </c>
-      <c r="AK25" s="1">
+      <c r="AL25" s="1">
         <v>0.14299999999999999</v>
       </c>
-      <c r="AL25" s="1">
+      <c r="AM25" s="1">
         <v>0.152</v>
       </c>
-      <c r="AM25" s="4">
+      <c r="AN25" s="4">
         <f t="shared" si="13"/>
         <v>0.16585714285714284</v>
       </c>
-      <c r="AN25" s="1"/>
-      <c r="AO25" s="2"/>
+      <c r="AO25" s="1"/>
       <c r="AP25" s="2"/>
       <c r="AQ25" s="2"/>
       <c r="AR25" s="2"/>
       <c r="AS25" s="2"/>
       <c r="AT25" s="2"/>
-    </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU25" s="2"/>
+    </row>
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="1">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1">
         <v>0.5835499999999999</v>
       </c>
-      <c r="C26" s="1">
+      <c r="D26" s="1">
         <v>3.1245000000000003</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E26" s="1">
         <v>0.57384999999999997</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>0.53377999999999992</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <v>0.51493999999999995</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
         <v>0.56447999999999998</v>
       </c>
-      <c r="H26" s="1">
+      <c r="I26" s="1">
         <v>0.56384000000000001</v>
       </c>
-      <c r="I26" s="1">
+      <c r="J26" s="1">
         <v>0.53007000000000004</v>
       </c>
-      <c r="J26" s="4">
+      <c r="K26" s="4">
         <f t="shared" si="10"/>
         <v>0.87362625000000005</v>
       </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1">
+      <c r="L26" s="1"/>
+      <c r="M26" s="1">
         <v>0.41793000000000002</v>
       </c>
-      <c r="M26" s="1">
+      <c r="N26" s="1">
         <v>0.42026999999999998</v>
       </c>
-      <c r="N26" s="1">
+      <c r="O26" s="1">
         <v>0.42066999999999999</v>
       </c>
-      <c r="O26" s="1">
+      <c r="P26" s="1">
         <v>0.44178000000000001</v>
       </c>
-      <c r="P26" s="1">
+      <c r="Q26" s="1">
         <v>0.38601000000000002</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="R26" s="1">
         <v>0.46068999999999999</v>
       </c>
-      <c r="R26" s="1">
+      <c r="S26" s="1">
         <v>0.46132000000000001</v>
       </c>
-      <c r="S26" s="4">
+      <c r="T26" s="4">
         <f t="shared" si="11"/>
         <v>0.42981000000000008</v>
       </c>
-      <c r="T26" s="1"/>
       <c r="U26" s="1"/>
-      <c r="V26" s="1">
+      <c r="V26" s="1"/>
+      <c r="W26" s="1">
         <v>0.64668999999999999</v>
       </c>
-      <c r="W26" s="1">
+      <c r="X26" s="1">
         <v>0.55192999999999992</v>
       </c>
-      <c r="X26" s="1">
+      <c r="Y26" s="1">
         <v>0.56033000000000011</v>
       </c>
-      <c r="Y26" s="1">
+      <c r="Z26" s="1">
         <v>0.6463000000000001</v>
       </c>
-      <c r="Z26" s="1">
+      <c r="AA26" s="1">
         <v>0.53112000000000004</v>
       </c>
-      <c r="AA26" s="1">
+      <c r="AB26" s="1">
         <v>0.53740999999999994</v>
       </c>
-      <c r="AB26" s="1">
+      <c r="AC26" s="1">
         <v>0.69937000000000005</v>
       </c>
-      <c r="AC26" s="4">
+      <c r="AD26" s="4">
         <f t="shared" si="12"/>
         <v>0.5961642857142857</v>
       </c>
-      <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
-      <c r="AF26" s="1">
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1">
         <v>0.17699999999999999</v>
       </c>
-      <c r="AG26" s="1">
+      <c r="AH26" s="1">
         <v>0.18099999999999999</v>
       </c>
-      <c r="AH26" s="1">
+      <c r="AI26" s="1">
         <v>0.13700000000000001</v>
       </c>
-      <c r="AI26" s="1">
+      <c r="AJ26" s="1">
         <v>0.21199999999999999</v>
       </c>
-      <c r="AJ26" s="1">
+      <c r="AK26" s="1">
         <v>0.25800000000000001</v>
       </c>
-      <c r="AK26" s="1">
+      <c r="AL26" s="1">
         <v>0.17</v>
       </c>
-      <c r="AL26" s="1">
+      <c r="AM26" s="1">
         <v>0.20300000000000001</v>
       </c>
-      <c r="AM26" s="4">
+      <c r="AN26" s="4">
         <f t="shared" si="13"/>
         <v>0.19114285714285714</v>
       </c>
-      <c r="AN26" s="1"/>
-      <c r="AO26" s="2"/>
+      <c r="AO26" s="1"/>
       <c r="AP26" s="2"/>
       <c r="AQ26" s="2"/>
       <c r="AR26" s="2"/>
       <c r="AS26" s="2"/>
       <c r="AT26" s="2"/>
-    </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
+      <c r="AU26" s="2"/>
+    </row>
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -3317,11 +3319,11 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="4">
-        <f t="shared" ref="J27" si="21">AVERAGE(B22:I26)</f>
+      <c r="J27" s="1"/>
+      <c r="K27" s="4">
+        <f t="shared" ref="K27" si="21">AVERAGE(C22:J26)</f>
         <v>0.74767724999999996</v>
       </c>
-      <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -3329,11 +3331,11 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
-      <c r="S27" s="1">
-        <f t="shared" ref="S27" si="22">AVERAGE(L22:R26)</f>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1">
+        <f t="shared" ref="T27" si="22">AVERAGE(M22:S26)</f>
         <v>0.44098114285714279</v>
       </c>
-      <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
@@ -3342,11 +3344,11 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
-      <c r="AC27" s="1">
-        <f t="shared" ref="AC27" si="23">AVERAGE(V22:AB26)</f>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1">
+        <f t="shared" ref="AD27" si="23">AVERAGE(W22:AC26)</f>
         <v>0.66700457142857139</v>
       </c>
-      <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
@@ -3355,634 +3357,635 @@
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
-      <c r="AM27" s="1">
-        <f t="shared" ref="AM27" si="24">AVERAGE(AF22:AL26)</f>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1">
+        <f t="shared" ref="AN27" si="24">AVERAGE(AG22:AM26)</f>
         <v>0.46205714285714278</v>
       </c>
-      <c r="AN27" s="1"/>
-      <c r="AO27" s="2"/>
+      <c r="AO27" s="1"/>
       <c r="AP27" s="2"/>
       <c r="AQ27" s="2"/>
       <c r="AR27" s="2"/>
       <c r="AS27" s="2"/>
       <c r="AT27" s="2"/>
-    </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU27" s="2"/>
+    </row>
+    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="1">
+      <c r="C28" s="1">
         <v>0.71282000000000001</v>
       </c>
-      <c r="C28" s="1">
+      <c r="D28" s="1">
         <v>0.69696999999999998</v>
       </c>
-      <c r="D28" s="1">
+      <c r="E28" s="1">
         <v>0.71128999999999998</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="1">
         <v>0.66673000000000004</v>
       </c>
-      <c r="F28" s="1">
+      <c r="G28" s="1">
         <v>0.62373999999999996</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H28" s="1">
         <v>0.78408</v>
       </c>
-      <c r="H28" s="1">
+      <c r="I28" s="1">
         <v>0.69965999999999995</v>
       </c>
-      <c r="I28" s="1">
+      <c r="J28" s="1">
         <v>0.84931000000000001</v>
       </c>
-      <c r="J28" s="4">
-        <f t="shared" ref="J28" si="25">AVERAGE(B28:I28)</f>
+      <c r="K28" s="4">
+        <f t="shared" ref="K28" si="25">AVERAGE(C28:J28)</f>
         <v>0.71807500000000002</v>
       </c>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1">
+      <c r="L28" s="1"/>
+      <c r="M28" s="1">
         <v>3.7829999999999999</v>
       </c>
-      <c r="M28" s="1">
+      <c r="N28" s="1">
         <v>0.53713</v>
       </c>
-      <c r="N28" s="1">
+      <c r="O28" s="1">
         <v>0.78186</v>
       </c>
-      <c r="O28" s="1">
+      <c r="P28" s="1">
         <v>0.54164000000000001</v>
       </c>
-      <c r="P28" s="1">
+      <c r="Q28" s="1">
         <v>0.54425999999999997</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="R28" s="1">
         <v>0.55937000000000003</v>
       </c>
-      <c r="R28" s="1">
+      <c r="S28" s="1">
         <v>0.56476999999999999</v>
       </c>
-      <c r="S28" s="4">
-        <f t="shared" ref="S28" si="26">AVERAGE(K28:R28)</f>
+      <c r="T28" s="4">
+        <f t="shared" ref="T28" si="26">AVERAGE(L28:S28)</f>
         <v>1.0445757142857144</v>
       </c>
-      <c r="T28" s="1"/>
       <c r="U28" s="1"/>
-      <c r="V28" s="1">
+      <c r="V28" s="1"/>
+      <c r="W28" s="1">
         <v>2854.4576400000001</v>
       </c>
-      <c r="W28" s="1">
+      <c r="X28" s="1">
         <v>1.6981200000000001</v>
       </c>
-      <c r="X28" s="1">
+      <c r="Y28" s="1">
         <v>2.10317</v>
       </c>
-      <c r="Y28" s="1">
+      <c r="Z28" s="1">
         <v>1.5918600000000001</v>
       </c>
-      <c r="Z28" s="1">
+      <c r="AA28" s="1">
         <v>1.6415</v>
       </c>
-      <c r="AA28" s="1">
+      <c r="AB28" s="1">
         <v>1.6665099999999999</v>
       </c>
-      <c r="AB28" s="1">
+      <c r="AC28" s="1">
         <v>1.54033</v>
       </c>
-      <c r="AC28" s="4">
-        <f>AVERAGE(U28:AB28)</f>
+      <c r="AD28" s="4">
+        <f>AVERAGE(V28:AC28)</f>
         <v>409.24273285714287</v>
       </c>
-      <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
-      <c r="AF28" s="1">
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1">
         <v>0.371</v>
       </c>
-      <c r="AG28" s="1">
+      <c r="AH28" s="1">
         <v>0.35499999999999998</v>
       </c>
-      <c r="AH28" s="1">
+      <c r="AI28" s="1">
         <v>0.35599999999999998</v>
       </c>
-      <c r="AI28" s="1">
+      <c r="AJ28" s="1">
         <v>0.39200000000000002</v>
       </c>
-      <c r="AJ28" s="1">
+      <c r="AK28" s="1">
         <v>0.40300000000000002</v>
       </c>
-      <c r="AK28" s="1">
+      <c r="AL28" s="1">
         <v>0.41</v>
       </c>
-      <c r="AL28" s="1">
+      <c r="AM28" s="1">
         <v>0.77</v>
       </c>
-      <c r="AM28" s="4">
-        <f>AVERAGE(AE28:AL28)</f>
+      <c r="AN28" s="4">
+        <f>AVERAGE(AF28:AM28)</f>
         <v>0.43671428571428572</v>
       </c>
-      <c r="AN28" s="1"/>
-      <c r="AO28" s="2"/>
+      <c r="AO28" s="1"/>
       <c r="AP28" s="2"/>
       <c r="AQ28" s="2"/>
       <c r="AR28" s="2"/>
       <c r="AS28" s="2"/>
       <c r="AT28" s="2"/>
-    </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU28" s="2"/>
+    </row>
+    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="1">
+        <v>18</v>
+      </c>
+      <c r="C29" s="1">
         <v>0.51449999999999996</v>
       </c>
-      <c r="C29" s="1">
+      <c r="D29" s="1">
         <v>0.46015</v>
       </c>
-      <c r="D29" s="1">
+      <c r="E29" s="1">
         <v>0.47003</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
         <v>0.57797999999999994</v>
       </c>
-      <c r="F29" s="1">
+      <c r="G29" s="1">
         <v>0.45549000000000001</v>
       </c>
-      <c r="G29" s="1">
+      <c r="H29" s="1">
         <v>0.49098999999999998</v>
       </c>
-      <c r="H29" s="1">
+      <c r="I29" s="1">
         <v>0.46560999999999997</v>
       </c>
-      <c r="I29" s="1">
+      <c r="J29" s="1">
         <v>0.44449</v>
       </c>
-      <c r="J29" s="4">
+      <c r="K29" s="4">
         <f t="shared" si="10"/>
         <v>0.48490500000000003</v>
       </c>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1">
+      <c r="L29" s="1"/>
+      <c r="M29" s="1">
         <v>2.6312199999999999</v>
       </c>
-      <c r="M29" s="1">
+      <c r="N29" s="1">
         <v>0.40698999999999996</v>
       </c>
-      <c r="N29" s="1">
+      <c r="O29" s="1">
         <v>0.37274999999999997</v>
       </c>
-      <c r="O29" s="1">
+      <c r="P29" s="1">
         <v>0.37680000000000002</v>
       </c>
-      <c r="P29" s="1">
+      <c r="Q29" s="1">
         <v>0.43956000000000001</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="R29" s="1">
         <v>0.50492999999999999</v>
       </c>
-      <c r="R29" s="1">
+      <c r="S29" s="1">
         <v>0.47028000000000003</v>
       </c>
-      <c r="S29" s="4">
+      <c r="T29" s="4">
         <f t="shared" si="11"/>
         <v>0.7432185714285714</v>
       </c>
-      <c r="T29" s="1"/>
       <c r="U29" s="1"/>
-      <c r="V29" s="1">
+      <c r="V29" s="1"/>
+      <c r="W29" s="1">
         <v>100.00997000000001</v>
       </c>
-      <c r="W29" s="1">
+      <c r="X29" s="1">
         <v>0.56638999999999995</v>
       </c>
-      <c r="X29" s="1">
+      <c r="Y29" s="1">
         <v>0.54905999999999999</v>
       </c>
-      <c r="Y29" s="1">
+      <c r="Z29" s="1">
         <v>0.5515500000000001</v>
       </c>
-      <c r="Z29" s="1">
+      <c r="AA29" s="1">
         <v>0.55026999999999993</v>
       </c>
-      <c r="AA29" s="1">
+      <c r="AB29" s="1">
         <v>0.55924999999999991</v>
       </c>
-      <c r="AB29" s="1">
+      <c r="AC29" s="1">
         <v>0.5484</v>
       </c>
-      <c r="AC29" s="4">
+      <c r="AD29" s="4">
         <f t="shared" si="12"/>
         <v>14.762127142857144</v>
       </c>
-      <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
-      <c r="AF29" s="1">
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1">
         <v>0.42599999999999999</v>
       </c>
-      <c r="AG29" s="1">
+      <c r="AH29" s="1">
         <v>0.29499999999999998</v>
       </c>
-      <c r="AH29" s="1">
+      <c r="AI29" s="1">
         <v>0.32700000000000001</v>
       </c>
-      <c r="AI29" s="1">
+      <c r="AJ29" s="1">
         <v>0.309</v>
       </c>
-      <c r="AJ29" s="1">
+      <c r="AK29" s="1">
         <v>0.35499999999999998</v>
       </c>
-      <c r="AK29" s="1">
+      <c r="AL29" s="1">
         <v>0.3</v>
       </c>
-      <c r="AL29" s="1">
+      <c r="AM29" s="1">
         <v>0.36499999999999999</v>
       </c>
-      <c r="AM29" s="4">
+      <c r="AN29" s="4">
         <f t="shared" si="13"/>
         <v>0.33957142857142852</v>
       </c>
-      <c r="AN29" s="1"/>
-      <c r="AO29" s="2"/>
+      <c r="AO29" s="1"/>
       <c r="AP29" s="2"/>
       <c r="AQ29" s="2"/>
       <c r="AR29" s="2"/>
       <c r="AS29" s="2"/>
       <c r="AT29" s="2"/>
-    </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU29" s="2"/>
+    </row>
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="1">
+        <v>19</v>
+      </c>
+      <c r="C30" s="1">
         <v>0.47352</v>
       </c>
-      <c r="C30" s="1">
+      <c r="D30" s="1">
         <v>0.47237000000000001</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="1">
         <v>0.46890000000000004</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>0.46532000000000001</v>
       </c>
-      <c r="F30" s="1">
+      <c r="G30" s="1">
         <v>0.47858999999999996</v>
       </c>
-      <c r="G30" s="1">
+      <c r="H30" s="1">
         <v>0.46733000000000002</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
         <v>0.44517999999999996</v>
       </c>
-      <c r="I30" s="1">
+      <c r="J30" s="1">
         <v>0.4541</v>
       </c>
-      <c r="J30" s="4">
+      <c r="K30" s="4">
         <f t="shared" si="10"/>
         <v>0.46566374999999999</v>
       </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1">
+      <c r="L30" s="1"/>
+      <c r="M30" s="1">
         <v>6.93492</v>
       </c>
-      <c r="M30" s="1">
+      <c r="N30" s="1">
         <v>1.0752699999999999</v>
       </c>
-      <c r="N30" s="1">
+      <c r="O30" s="1">
         <v>0.91120000000000001</v>
       </c>
-      <c r="O30" s="1">
+      <c r="P30" s="1">
         <v>0.85665999999999998</v>
       </c>
-      <c r="P30" s="1">
+      <c r="Q30" s="1">
         <v>0.91560999999999992</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="R30" s="1">
         <v>0.88117999999999996</v>
       </c>
-      <c r="R30" s="1">
+      <c r="S30" s="1">
         <v>0.87741999999999998</v>
       </c>
-      <c r="S30" s="4">
+      <c r="T30" s="4">
         <f t="shared" si="11"/>
         <v>1.7788942857142855</v>
       </c>
-      <c r="T30" s="1"/>
       <c r="U30" s="1"/>
-      <c r="V30" s="1">
+      <c r="V30" s="1"/>
+      <c r="W30" s="1">
         <v>47.337579999999996</v>
       </c>
-      <c r="W30" s="1">
+      <c r="X30" s="1">
         <v>0.52081</v>
       </c>
-      <c r="X30" s="1">
+      <c r="Y30" s="1">
         <v>0.51634999999999998</v>
       </c>
-      <c r="Y30" s="1">
+      <c r="Z30" s="1">
         <v>0.55501</v>
       </c>
-      <c r="Z30" s="1">
+      <c r="AA30" s="1">
         <v>0.52068000000000003</v>
       </c>
-      <c r="AA30" s="1">
+      <c r="AB30" s="1">
         <v>0.56296000000000002</v>
       </c>
-      <c r="AB30" s="1">
+      <c r="AC30" s="1">
         <v>0.58855000000000002</v>
       </c>
-      <c r="AC30" s="4">
+      <c r="AD30" s="4">
         <f t="shared" si="12"/>
         <v>7.2288485714285704</v>
       </c>
-      <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
-      <c r="AF30" s="1">
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1">
         <v>0.14799999999999999</v>
       </c>
-      <c r="AG30" s="1">
+      <c r="AH30" s="1">
         <v>0.11600000000000001</v>
       </c>
-      <c r="AH30" s="1">
+      <c r="AI30" s="1">
         <v>0.11700000000000001</v>
       </c>
-      <c r="AI30" s="1">
+      <c r="AJ30" s="1">
         <v>0.13</v>
       </c>
-      <c r="AJ30" s="1">
+      <c r="AK30" s="1">
         <v>0.11700000000000001</v>
       </c>
-      <c r="AK30" s="1">
+      <c r="AL30" s="1">
         <v>0.16500000000000001</v>
       </c>
-      <c r="AL30" s="1">
+      <c r="AM30" s="1">
         <v>0.18099999999999999</v>
       </c>
-      <c r="AM30" s="4">
+      <c r="AN30" s="4">
         <f t="shared" si="13"/>
         <v>0.13914285714285715</v>
       </c>
-      <c r="AN30" s="1"/>
-      <c r="AO30" s="2"/>
+      <c r="AO30" s="1"/>
       <c r="AP30" s="2"/>
       <c r="AQ30" s="2"/>
       <c r="AR30" s="2"/>
       <c r="AS30" s="2"/>
       <c r="AT30" s="2"/>
-    </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU30" s="2"/>
+    </row>
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="1">
+        <v>20</v>
+      </c>
+      <c r="C31" s="1">
         <v>0.47952</v>
       </c>
-      <c r="C31" s="1">
+      <c r="D31" s="1">
         <v>0.49229999999999996</v>
       </c>
-      <c r="D31" s="1">
+      <c r="E31" s="1">
         <v>0.45885000000000004</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
         <v>0.45051999999999998</v>
       </c>
-      <c r="F31" s="1">
+      <c r="G31" s="1">
         <v>0.47100000000000003</v>
       </c>
-      <c r="G31" s="1">
+      <c r="H31" s="1">
         <v>0.46340999999999999</v>
       </c>
-      <c r="H31" s="1">
+      <c r="I31" s="1">
         <v>0.47377999999999998</v>
       </c>
-      <c r="I31" s="1">
+      <c r="J31" s="1">
         <v>0.48845</v>
       </c>
-      <c r="J31" s="4">
+      <c r="K31" s="4">
         <f t="shared" si="10"/>
         <v>0.47222874999999997</v>
       </c>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1">
+      <c r="L31" s="1"/>
+      <c r="M31" s="1">
         <v>0.49989</v>
       </c>
-      <c r="M31" s="1">
+      <c r="N31" s="1">
         <v>0.38590999999999998</v>
       </c>
-      <c r="N31" s="1">
+      <c r="O31" s="1">
         <v>0.40101999999999999</v>
       </c>
-      <c r="O31" s="1">
+      <c r="P31" s="1">
         <v>0.38775999999999999</v>
       </c>
-      <c r="P31" s="1">
+      <c r="Q31" s="1">
         <v>1.9806300000000001</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="R31" s="1">
         <v>0.39462999999999998</v>
       </c>
-      <c r="R31" s="1">
+      <c r="S31" s="1">
         <v>0.42651</v>
       </c>
-      <c r="S31" s="4">
+      <c r="T31" s="4">
         <f t="shared" si="11"/>
         <v>0.63947857142857145</v>
       </c>
-      <c r="T31" s="1"/>
       <c r="U31" s="1"/>
-      <c r="V31" s="1">
+      <c r="V31" s="1"/>
+      <c r="W31" s="1">
         <v>67.304509999999993</v>
       </c>
-      <c r="W31" s="1">
+      <c r="X31" s="1">
         <v>0.57017000000000007</v>
       </c>
-      <c r="X31" s="1">
+      <c r="Y31" s="1">
         <v>0.55042000000000002</v>
       </c>
-      <c r="Y31" s="1">
+      <c r="Z31" s="1">
         <v>0.55190000000000006</v>
       </c>
-      <c r="Z31" s="1">
+      <c r="AA31" s="1">
         <v>0.53804000000000007</v>
       </c>
-      <c r="AA31" s="1">
+      <c r="AB31" s="1">
         <v>0.55137000000000003</v>
       </c>
-      <c r="AB31" s="1">
+      <c r="AC31" s="1">
         <v>0.53417000000000003</v>
       </c>
-      <c r="AC31" s="4">
+      <c r="AD31" s="4">
         <f t="shared" si="12"/>
         <v>10.085797142857144</v>
       </c>
-      <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
-      <c r="AF31" s="1">
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1">
         <v>0.72099999999999997</v>
       </c>
-      <c r="AG31" s="1">
+      <c r="AH31" s="1">
         <v>0.12</v>
       </c>
-      <c r="AH31" s="1">
+      <c r="AI31" s="1">
         <v>0.121</v>
       </c>
-      <c r="AI31" s="1">
+      <c r="AJ31" s="1">
         <v>0.17100000000000001</v>
       </c>
-      <c r="AJ31" s="1">
+      <c r="AK31" s="1">
         <v>0.11700000000000001</v>
       </c>
-      <c r="AK31" s="1">
+      <c r="AL31" s="1">
         <v>0.129</v>
       </c>
-      <c r="AL31" s="1">
+      <c r="AM31" s="1">
         <v>0.13100000000000001</v>
       </c>
-      <c r="AM31" s="4">
+      <c r="AN31" s="4">
         <f t="shared" si="13"/>
         <v>0.21571428571428572</v>
       </c>
-      <c r="AN31" s="1"/>
-      <c r="AO31" s="2"/>
+      <c r="AO31" s="1"/>
       <c r="AP31" s="2"/>
       <c r="AQ31" s="2"/>
       <c r="AR31" s="2"/>
       <c r="AS31" s="2"/>
       <c r="AT31" s="2"/>
-    </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU31" s="2"/>
+    </row>
+    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="1">
+        <v>21</v>
+      </c>
+      <c r="C32" s="1">
         <v>0.55411999999999995</v>
       </c>
-      <c r="C32" s="1">
+      <c r="D32" s="1">
         <v>0.72227999999999992</v>
       </c>
-      <c r="D32" s="1">
+      <c r="E32" s="1">
         <v>0.74329999999999996</v>
       </c>
-      <c r="E32" s="1">
+      <c r="F32" s="1">
         <v>0.65673000000000004</v>
       </c>
-      <c r="F32" s="1">
+      <c r="G32" s="1">
         <v>0.62809999999999999</v>
       </c>
-      <c r="G32" s="1">
+      <c r="H32" s="1">
         <v>0.65247999999999995</v>
       </c>
-      <c r="H32" s="1">
+      <c r="I32" s="1">
         <v>0.63202999999999998</v>
       </c>
-      <c r="I32" s="1">
+      <c r="J32" s="1">
         <v>0.64029999999999998</v>
       </c>
-      <c r="J32" s="4">
+      <c r="K32" s="4">
         <f t="shared" si="10"/>
         <v>0.65366749999999996</v>
       </c>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1">
+      <c r="L32" s="1"/>
+      <c r="M32" s="1">
         <v>0.38840999999999998</v>
       </c>
-      <c r="M32" s="1">
+      <c r="N32" s="1">
         <v>0.42769999999999997</v>
       </c>
-      <c r="N32" s="1">
+      <c r="O32" s="1">
         <v>0.37295</v>
       </c>
-      <c r="O32" s="1">
+      <c r="P32" s="1">
         <v>0.40011000000000002</v>
       </c>
-      <c r="P32" s="1">
+      <c r="Q32" s="1">
         <v>0.38227999999999995</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="R32" s="1">
         <v>0.38890000000000002</v>
       </c>
-      <c r="R32" s="1">
+      <c r="S32" s="1">
         <v>0.35434000000000004</v>
       </c>
-      <c r="S32" s="4">
+      <c r="T32" s="4">
         <f t="shared" si="11"/>
         <v>0.38781285714285713</v>
       </c>
-      <c r="T32" s="1"/>
       <c r="U32" s="1"/>
-      <c r="V32" s="1">
+      <c r="V32" s="1"/>
+      <c r="W32" s="1">
         <v>73.69726</v>
       </c>
-      <c r="W32" s="1">
+      <c r="X32" s="1">
         <v>0.55029000000000006</v>
       </c>
-      <c r="X32" s="1">
+      <c r="Y32" s="1">
         <v>0.56330000000000002</v>
       </c>
-      <c r="Y32" s="1">
+      <c r="Z32" s="1">
         <v>0.54850999999999994</v>
       </c>
-      <c r="Z32" s="1">
+      <c r="AA32" s="1">
         <v>0.55210999999999999</v>
       </c>
-      <c r="AA32" s="1">
+      <c r="AB32" s="1">
         <v>0.55032999999999999</v>
       </c>
-      <c r="AB32" s="1">
+      <c r="AC32" s="1">
         <v>0.56194999999999995</v>
       </c>
-      <c r="AC32" s="4">
+      <c r="AD32" s="4">
         <f t="shared" si="12"/>
         <v>11.003392857142856</v>
       </c>
-      <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
-      <c r="AF32" s="1">
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1">
         <v>0.39800000000000002</v>
       </c>
-      <c r="AG32" s="1">
+      <c r="AH32" s="1">
         <v>0.11600000000000001</v>
       </c>
-      <c r="AH32" s="1">
+      <c r="AI32" s="1">
         <v>0.12</v>
       </c>
-      <c r="AI32" s="1">
+      <c r="AJ32" s="1">
         <v>0.16800000000000001</v>
       </c>
-      <c r="AJ32" s="1">
+      <c r="AK32" s="1">
         <v>0.11799999999999999</v>
       </c>
-      <c r="AK32" s="1">
+      <c r="AL32" s="1">
         <v>0.32300000000000001</v>
       </c>
-      <c r="AL32" s="1">
+      <c r="AM32" s="1">
         <v>0.193</v>
       </c>
-      <c r="AM32" s="4">
+      <c r="AN32" s="4">
         <f t="shared" si="13"/>
         <v>0.20514285714285715</v>
       </c>
-      <c r="AN32" s="1"/>
-      <c r="AO32" s="2"/>
+      <c r="AO32" s="1"/>
       <c r="AP32" s="2"/>
       <c r="AQ32" s="2"/>
       <c r="AR32" s="2"/>
       <c r="AS32" s="2"/>
       <c r="AT32" s="2"/>
-    </row>
-    <row r="33" spans="10:39" x14ac:dyDescent="0.25">
-      <c r="J33" s="4">
-        <f t="shared" ref="J33" si="27">AVERAGE(B28:I32)</f>
+      <c r="AU32" s="2"/>
+    </row>
+    <row r="33" spans="11:40" x14ac:dyDescent="0.25">
+      <c r="K33" s="4">
+        <f t="shared" ref="K33" si="27">AVERAGE(C28:J32)</f>
         <v>0.55890800000000018</v>
       </c>
-      <c r="S33" s="1">
-        <f t="shared" ref="S33" si="28">AVERAGE(L28:R32)</f>
+      <c r="T33" s="1">
+        <f t="shared" ref="T33" si="28">AVERAGE(M28:S32)</f>
         <v>0.91879600000000017</v>
       </c>
-      <c r="AC33" s="1">
-        <f t="shared" ref="AC33" si="29">AVERAGE(V28:AB32)</f>
+      <c r="AD33" s="1">
+        <f t="shared" ref="AD33" si="29">AVERAGE(W28:AC32)</f>
         <v>90.464579714285705</v>
       </c>
-      <c r="AD33" s="1"/>
-      <c r="AM33" s="1">
-        <f t="shared" ref="AM33" si="30">AVERAGE(AF28:AL32)</f>
+      <c r="AE33" s="1"/>
+      <c r="AN33" s="1">
+        <f t="shared" ref="AN33" si="30">AVERAGE(AG28:AM32)</f>
         <v>0.2672571428571428</v>
       </c>
     </row>
@@ -3994,34 +3997,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:K18"/>
+  <dimension ref="B7:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>116</v>
       </c>
       <c r="C8">
         <v>17.795892160000001</v>
@@ -4035,145 +4050,263 @@
       <c r="F8">
         <v>21.015432430000001</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>50000</v>
+      </c>
+      <c r="I8" s="8">
+        <f>$H8*C8</f>
+        <v>889794.60800000001</v>
+      </c>
+      <c r="J8" s="8">
+        <f t="shared" ref="J8:K8" si="0">$H8*D8</f>
+        <v>372175.71619999997</v>
+      </c>
+      <c r="K8" s="8">
+        <f t="shared" si="0"/>
+        <v>10385759.07</v>
+      </c>
+      <c r="L8" s="8">
+        <f>$H8*F8</f>
+        <v>1050771.6215000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9">
+        <v>0.63</v>
+      </c>
+      <c r="D9">
+        <v>0.59</v>
+      </c>
+      <c r="E9">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F9">
+        <v>0.69</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>H9*C9</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9:J14" si="1">$H9*D9</f>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:K14" si="2">$H9*E9</f>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ref="L9:L14" si="3">$H9*F9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10">
+        <v>0.99</v>
+      </c>
+      <c r="D10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E10">
+        <v>0.63</v>
+      </c>
+      <c r="F10">
+        <v>0.24</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ref="I10:I14" si="4">H10*C10</f>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C11">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="D11">
-        <v>0.59</v>
+        <v>0.44</v>
       </c>
       <c r="E11">
-        <v>2.2599999999999998</v>
+        <v>0.67</v>
       </c>
       <c r="F11">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.46</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C12">
-        <v>0.99</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D12">
-        <v>0.55000000000000004</v>
+        <v>0.92</v>
       </c>
       <c r="E12">
-        <v>0.63</v>
+        <v>90.46</v>
       </c>
       <c r="F12">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.27</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C13">
-        <v>0.75</v>
+        <v>2.93</v>
       </c>
       <c r="D13">
-        <v>0.44</v>
+        <v>2.5</v>
       </c>
       <c r="E13">
-        <v>0.67</v>
+        <v>94.02</v>
       </c>
       <c r="F13">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1.66</v>
+      </c>
+      <c r="H13">
+        <v>100000</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>293000</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>250000</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>9402000</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>166000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C14">
-        <v>0.56000000000000005</v>
+        <v>60430</v>
       </c>
       <c r="D14">
-        <v>0.92</v>
+        <v>59360</v>
       </c>
       <c r="E14">
-        <v>90.46</v>
+        <v>372750</v>
       </c>
       <c r="F14">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15">
-        <v>2.93</v>
-      </c>
-      <c r="D15">
-        <v>2.5</v>
-      </c>
-      <c r="E15">
-        <v>94.02</v>
-      </c>
-      <c r="F15">
-        <v>1.66</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17">
-        <v>60.43</v>
-      </c>
-      <c r="D17">
-        <v>59.36</v>
-      </c>
-      <c r="E17">
-        <v>372.75</v>
-      </c>
-      <c r="F17">
-        <v>105.86</v>
-      </c>
-      <c r="H17">
-        <f>AVERAGE(C17:F17)</f>
-        <v>149.6</v>
-      </c>
-      <c r="I17">
-        <f t="shared" ref="I17:K17" si="0">AVERAGE(D17:G17)</f>
-        <v>179.32333333333335</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="0"/>
-        <v>209.40333333333334</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="0"/>
-        <v>144.92777777777778</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H18">
-        <f>(H17-C17)/H17</f>
-        <v>0.59605614973262022</v>
-      </c>
-      <c r="I18">
-        <f t="shared" ref="I18:K18" si="1">(I17-D17)/I17</f>
-        <v>0.66897782404223283</v>
-      </c>
-      <c r="J18">
+        <v>105860</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>60430</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="1"/>
-        <v>-0.78005762404291556</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="1"/>
-        <v>0.26956721738797101</v>
+        <v>59360</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>372750</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>105860</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I15" s="7">
+        <f>SUM(I8:I14)</f>
+        <v>1243224.608</v>
+      </c>
+      <c r="J15" s="7">
+        <f>SUM(J8:J14)</f>
+        <v>681535.71619999991</v>
+      </c>
+      <c r="K15" s="7">
+        <f>SUM(K8:K14)</f>
+        <v>20160509.07</v>
+      </c>
+      <c r="L15" s="7">
+        <f>SUM(L8:L14)</f>
+        <v>1322631.6215000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4194,21 +4327,21 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" t="s">
         <v>64</v>
       </c>
-      <c r="G1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>65</v>
-      </c>
-      <c r="I1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="5"/>
       <c r="F2">
@@ -4226,7 +4359,7 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5"/>
       <c r="F3">
@@ -4244,7 +4377,7 @@
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="5"/>
       <c r="F4">
@@ -4262,7 +4395,7 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="5"/>
       <c r="F5">
@@ -4280,7 +4413,7 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="5"/>
       <c r="F6">
@@ -4298,7 +4431,7 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="5"/>
       <c r="F7">
@@ -4316,7 +4449,7 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="5"/>
       <c r="F8">
@@ -4334,7 +4467,7 @@
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="5"/>
       <c r="F9">
@@ -4352,7 +4485,7 @@
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5"/>
       <c r="F10">
@@ -4370,7 +4503,7 @@
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="5"/>
       <c r="F11">
@@ -4388,7 +4521,7 @@
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5"/>
       <c r="F12">
@@ -4406,7 +4539,7 @@
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="5"/>
       <c r="F13">
@@ -4424,7 +4557,7 @@
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="5"/>
       <c r="F14">
@@ -4442,7 +4575,7 @@
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="5"/>
       <c r="F15">
@@ -4460,7 +4593,7 @@
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5"/>
       <c r="F16">
@@ -4478,7 +4611,7 @@
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="5"/>
       <c r="F17">
@@ -4496,7 +4629,7 @@
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="5"/>
       <c r="F18">
@@ -4514,7 +4647,7 @@
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="5"/>
       <c r="F19">
@@ -4532,7 +4665,7 @@
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="5"/>
       <c r="F20">
@@ -4550,7 +4683,7 @@
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="5"/>
       <c r="F21">
@@ -4568,7 +4701,7 @@
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="5"/>
       <c r="F22">
@@ -4586,7 +4719,7 @@
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="5"/>
       <c r="F23">
@@ -4604,7 +4737,7 @@
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="5"/>
       <c r="F24">
@@ -4622,7 +4755,7 @@
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="5"/>
       <c r="F25">
@@ -4640,7 +4773,7 @@
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="5"/>
       <c r="F26">
@@ -4658,7 +4791,7 @@
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="5"/>
       <c r="F27">
@@ -4676,7 +4809,7 @@
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" s="5"/>
       <c r="F28">
@@ -4694,7 +4827,7 @@
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29" s="5"/>
       <c r="F29">
@@ -4712,7 +4845,7 @@
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="5"/>
       <c r="F30">
@@ -4730,7 +4863,7 @@
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="5"/>
       <c r="F31">
@@ -4748,7 +4881,7 @@
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" s="5"/>
       <c r="F32">
@@ -4766,7 +4899,7 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" s="5"/>
       <c r="F33">
@@ -4784,7 +4917,7 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34" s="5"/>
       <c r="F34">
@@ -4802,7 +4935,7 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B35" s="5"/>
       <c r="F35">
@@ -4820,7 +4953,7 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B36" s="5"/>
       <c r="F36">
@@ -4838,7 +4971,7 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="5"/>
       <c r="F37">
@@ -4856,7 +4989,7 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B38" s="5"/>
       <c r="F38">
@@ -4874,7 +5007,7 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F39" s="3">
         <f>AVERAGE(F2:F38)</f>
@@ -4895,7 +5028,7 @@
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F40">
         <f>MAX(F2:F39)</f>
@@ -4916,7 +5049,7 @@
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F41">
         <f>MIN(F2:F38)</f>
@@ -4938,7 +5071,7 @@
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D42" s="6"/>
       <c r="E42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F42">
         <f>MEDIAN(F2:F38)</f>
@@ -4962,7 +5095,7 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z44">
         <f>_xlfn.NUMBERVALUE(Y44,"."," ")</f>
@@ -4971,7 +5104,7 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z45">
         <f t="shared" ref="Z45:Z80" si="1">_xlfn.NUMBERVALUE(Y45,"."," ")</f>
@@ -4980,7 +5113,7 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z46">
         <f t="shared" si="1"/>
@@ -4989,7 +5122,7 @@
     </row>
     <row r="47" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="Y47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z47">
         <f t="shared" si="1"/>
@@ -4998,7 +5131,7 @@
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z48">
         <f t="shared" si="1"/>
@@ -5007,7 +5140,7 @@
     </row>
     <row r="49" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z49">
         <f t="shared" si="1"/>
@@ -5016,7 +5149,7 @@
     </row>
     <row r="50" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z50">
         <f t="shared" si="1"/>
@@ -5025,7 +5158,7 @@
     </row>
     <row r="51" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z51">
         <f t="shared" si="1"/>
@@ -5034,7 +5167,7 @@
     </row>
     <row r="52" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z52">
         <f t="shared" si="1"/>
@@ -5043,7 +5176,7 @@
     </row>
     <row r="53" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z53">
         <f t="shared" si="1"/>
@@ -5052,7 +5185,7 @@
     </row>
     <row r="54" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z54">
         <f t="shared" si="1"/>
@@ -5061,7 +5194,7 @@
     </row>
     <row r="55" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z55">
         <f t="shared" si="1"/>
@@ -5070,7 +5203,7 @@
     </row>
     <row r="56" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z56">
         <f t="shared" si="1"/>
@@ -5079,7 +5212,7 @@
     </row>
     <row r="57" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z57">
         <f t="shared" si="1"/>
@@ -5088,7 +5221,7 @@
     </row>
     <row r="58" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z58">
         <f t="shared" si="1"/>
@@ -5097,7 +5230,7 @@
     </row>
     <row r="59" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z59">
         <f t="shared" si="1"/>
@@ -5106,7 +5239,7 @@
     </row>
     <row r="60" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z60">
         <f t="shared" si="1"/>
@@ -5115,7 +5248,7 @@
     </row>
     <row r="61" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z61">
         <f t="shared" si="1"/>
@@ -5124,7 +5257,7 @@
     </row>
     <row r="62" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z62">
         <f t="shared" si="1"/>
@@ -5133,7 +5266,7 @@
     </row>
     <row r="63" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Z63">
         <f t="shared" si="1"/>
@@ -5142,7 +5275,7 @@
     </row>
     <row r="64" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z64">
         <f t="shared" si="1"/>
@@ -5151,7 +5284,7 @@
     </row>
     <row r="65" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z65">
         <f t="shared" si="1"/>
@@ -5160,7 +5293,7 @@
     </row>
     <row r="66" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Z66">
         <f t="shared" si="1"/>
@@ -5169,7 +5302,7 @@
     </row>
     <row r="67" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z67">
         <f t="shared" si="1"/>
@@ -5178,7 +5311,7 @@
     </row>
     <row r="68" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y68" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z68">
         <f t="shared" si="1"/>
@@ -5187,7 +5320,7 @@
     </row>
     <row r="69" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z69">
         <f t="shared" si="1"/>
@@ -5196,7 +5329,7 @@
     </row>
     <row r="70" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z70">
         <f t="shared" si="1"/>
@@ -5205,7 +5338,7 @@
     </row>
     <row r="71" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z71">
         <f t="shared" si="1"/>
@@ -5214,7 +5347,7 @@
     </row>
     <row r="72" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y72" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z72">
         <f t="shared" si="1"/>
@@ -5223,7 +5356,7 @@
     </row>
     <row r="73" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z73">
         <f t="shared" si="1"/>
@@ -5232,7 +5365,7 @@
     </row>
     <row r="74" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y74" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Z74">
         <f t="shared" si="1"/>
@@ -5241,7 +5374,7 @@
     </row>
     <row r="75" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z75">
         <f t="shared" si="1"/>
@@ -5250,7 +5383,7 @@
     </row>
     <row r="76" spans="25:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y76" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z76">
         <f t="shared" si="1"/>
@@ -5259,7 +5392,7 @@
     </row>
     <row r="77" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z77">
         <f t="shared" si="1"/>
@@ -5268,7 +5401,7 @@
     </row>
     <row r="78" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z78">
         <f t="shared" si="1"/>
@@ -5277,7 +5410,7 @@
     </row>
     <row r="79" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y79" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Z79">
         <f t="shared" si="1"/>
@@ -5286,7 +5419,7 @@
     </row>
     <row r="80" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y80" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Z80">
         <f t="shared" si="1"/>

--- a/mereni.xlsx
+++ b/mereni.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6315" tabRatio="504"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6315" tabRatio="504" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -481,7 +481,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -493,7 +493,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -779,7 +778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O25" workbookViewId="0">
+    <sheetView topLeftCell="W1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -3997,324 +3996,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:L15"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:L15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8">
-        <v>17.795892160000001</v>
-      </c>
-      <c r="D8">
-        <v>7.4435143239999997</v>
-      </c>
-      <c r="E8">
-        <v>207.71518140000001</v>
-      </c>
-      <c r="F8">
-        <v>21.015432430000001</v>
-      </c>
-      <c r="H8">
-        <v>50000</v>
-      </c>
-      <c r="I8" s="8">
-        <f>$H8*C8</f>
-        <v>889794.60800000001</v>
-      </c>
-      <c r="J8" s="8">
-        <f t="shared" ref="J8:K8" si="0">$H8*D8</f>
-        <v>372175.71619999997</v>
-      </c>
-      <c r="K8" s="8">
-        <f t="shared" si="0"/>
-        <v>10385759.07</v>
-      </c>
-      <c r="L8" s="8">
-        <f>$H8*F8</f>
-        <v>1050771.6215000001</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9">
-        <v>0.63</v>
-      </c>
-      <c r="D9">
-        <v>0.59</v>
-      </c>
-      <c r="E9">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="F9">
-        <v>0.69</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f>H9*C9</f>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f t="shared" ref="J9:J14" si="1">$H9*D9</f>
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <f t="shared" ref="K9:K14" si="2">$H9*E9</f>
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <f t="shared" ref="L9:L14" si="3">$H9*F9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10">
-        <v>0.99</v>
-      </c>
-      <c r="D10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E10">
-        <v>0.63</v>
-      </c>
-      <c r="F10">
-        <v>0.24</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f t="shared" ref="I10:I14" si="4">H10*C10</f>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11">
-        <v>0.75</v>
-      </c>
-      <c r="D11">
-        <v>0.44</v>
-      </c>
-      <c r="E11">
-        <v>0.67</v>
-      </c>
-      <c r="F11">
-        <v>0.46</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D12">
-        <v>0.92</v>
-      </c>
-      <c r="E12">
-        <v>90.46</v>
-      </c>
-      <c r="F12">
-        <v>0.27</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13">
-        <v>2.93</v>
-      </c>
-      <c r="D13">
-        <v>2.5</v>
-      </c>
-      <c r="E13">
-        <v>94.02</v>
-      </c>
-      <c r="F13">
-        <v>1.66</v>
-      </c>
-      <c r="H13">
-        <v>100000</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="4"/>
-        <v>293000</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="1"/>
-        <v>250000</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="2"/>
-        <v>9402000</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="3"/>
-        <v>166000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14">
-        <v>60430</v>
-      </c>
-      <c r="D14">
-        <v>59360</v>
-      </c>
-      <c r="E14">
-        <v>372750</v>
-      </c>
-      <c r="F14">
-        <v>105860</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="4"/>
-        <v>60430</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="1"/>
-        <v>59360</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="2"/>
-        <v>372750</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="3"/>
-        <v>105860</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I15" s="7">
-        <f>SUM(I8:I14)</f>
-        <v>1243224.608</v>
-      </c>
-      <c r="J15" s="7">
-        <f>SUM(J8:J14)</f>
-        <v>681535.71619999991</v>
-      </c>
-      <c r="K15" s="7">
-        <f>SUM(K8:K14)</f>
-        <v>20160509.07</v>
-      </c>
-      <c r="L15" s="7">
-        <f>SUM(L8:L14)</f>
-        <v>1322631.6215000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A43" sqref="A43:A64"/>
     </sheetView>
   </sheetViews>
@@ -4322,7 +4006,7 @@
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="79.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5429,4 +5113,323 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B7:L15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15:L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8">
+        <v>17.795892160000001</v>
+      </c>
+      <c r="D8">
+        <v>7.4435143239999997</v>
+      </c>
+      <c r="E8">
+        <v>207.71518140000001</v>
+      </c>
+      <c r="F8">
+        <v>21.015432430000001</v>
+      </c>
+      <c r="H8">
+        <v>50000</v>
+      </c>
+      <c r="I8" s="7">
+        <f>$H8*C8</f>
+        <v>889794.60800000001</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" ref="J8:K8" si="0">$H8*D8</f>
+        <v>372175.71619999997</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="0"/>
+        <v>10385759.07</v>
+      </c>
+      <c r="L8" s="7">
+        <f>$H8*F8</f>
+        <v>1050771.6215000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9">
+        <v>0.63</v>
+      </c>
+      <c r="D9">
+        <v>0.59</v>
+      </c>
+      <c r="E9">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F9">
+        <v>0.69</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>H9*C9</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9:J14" si="1">$H9*D9</f>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:K14" si="2">$H9*E9</f>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ref="L9:L14" si="3">$H9*F9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10">
+        <v>0.99</v>
+      </c>
+      <c r="D10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E10">
+        <v>0.63</v>
+      </c>
+      <c r="F10">
+        <v>0.24</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ref="I10:I14" si="4">H10*C10</f>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11">
+        <v>0.75</v>
+      </c>
+      <c r="D11">
+        <v>0.44</v>
+      </c>
+      <c r="E11">
+        <v>0.67</v>
+      </c>
+      <c r="F11">
+        <v>0.46</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D12">
+        <v>0.92</v>
+      </c>
+      <c r="E12">
+        <v>90.46</v>
+      </c>
+      <c r="F12">
+        <v>0.27</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13">
+        <v>2.93</v>
+      </c>
+      <c r="D13">
+        <v>2.5</v>
+      </c>
+      <c r="E13">
+        <v>94.02</v>
+      </c>
+      <c r="F13">
+        <v>1.66</v>
+      </c>
+      <c r="H13">
+        <v>100000</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>293000</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>250000</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>9402000</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>166000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14">
+        <v>60430</v>
+      </c>
+      <c r="D14">
+        <v>59360</v>
+      </c>
+      <c r="E14">
+        <v>372750</v>
+      </c>
+      <c r="F14">
+        <v>105860</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>60430</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>59360</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>372750</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>105860</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I15" s="1">
+        <f>SUM(I8:I14)</f>
+        <v>1243224.608</v>
+      </c>
+      <c r="J15" s="1">
+        <f>SUM(J8:J14)</f>
+        <v>681535.71619999991</v>
+      </c>
+      <c r="K15" s="1">
+        <f>SUM(K8:K14)</f>
+        <v>20160509.07</v>
+      </c>
+      <c r="L15" s="1">
+        <f>SUM(L8:L14)</f>
+        <v>1322631.6215000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>
--- a/mereni.xlsx
+++ b/mereni.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6315" tabRatio="504" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6315" tabRatio="504"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Obsah" sheetId="5" r:id="rId1"/>
+    <sheet name="Jednoduché dotazy, načítání" sheetId="1" r:id="rId2"/>
+    <sheet name="získávání počtu produktů" sheetId="2" r:id="rId3"/>
+    <sheet name="Výsledné hodnoty" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="132">
   <si>
     <t>load data infile '/tmp/mirek-db/mysql/product.txt' replace into table product;</t>
   </si>
@@ -43,18 +44,12 @@
     <t>load data infile '/tmp/mirek-db/mysql/vehicle.txt' replace into table vehicle;</t>
   </si>
   <si>
-    <t>selecty</t>
-  </si>
-  <si>
     <t>select product_id from product_vehicle where vehicle_id = 13706;</t>
   </si>
   <si>
     <t>MEMORY</t>
   </si>
   <si>
-    <t>postgre</t>
-  </si>
-  <si>
     <t>select * from product where id = 1;</t>
   </si>
   <si>
@@ -376,10 +371,58 @@
     <t>získání počtu produktů v kategorii</t>
   </si>
   <si>
-    <t>vyhledávání produktů, součet</t>
-  </si>
-  <si>
     <t>načítání dat</t>
+  </si>
+  <si>
+    <t>Jednotlivá měření</t>
+  </si>
+  <si>
+    <t>celkem</t>
+  </si>
+  <si>
+    <t>průměr všech hodnot</t>
+  </si>
+  <si>
+    <t>jednotlivá měření</t>
+  </si>
+  <si>
+    <t>váha</t>
+  </si>
+  <si>
+    <t>obsahuje seznam naměřených hodnot pro všechny měřené enginy</t>
+  </si>
+  <si>
+    <t>načítání dat (příkazy load infile) bylo měřeno v sekundách</t>
+  </si>
+  <si>
+    <t>Jednoduché dotazy, načítání</t>
+  </si>
+  <si>
+    <t>získávání počtu produktů</t>
+  </si>
+  <si>
+    <t>obsahuje všechny příkazy, které byly spuštěny při měření získávání počtu produktů v jednotlivých kategoriích</t>
+  </si>
+  <si>
+    <t>jednotky měření jsou milisekundy</t>
+  </si>
+  <si>
+    <t>průměr [ms]</t>
+  </si>
+  <si>
+    <t>vyhledávání produktů</t>
+  </si>
+  <si>
+    <t>součet průměrů v každém scénáři [ms]</t>
+  </si>
+  <si>
+    <t>součet průměrů [s]</t>
+  </si>
+  <si>
+    <t>výsledné hodnoty</t>
+  </si>
+  <si>
+    <t>obsahuje výsledné naměřené hodnoty, zbůsob jejich dosažení a význam je okomentován v textu práce</t>
   </si>
 </sst>
 </file>
@@ -390,7 +433,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _K_č_-;\-* #,##0.00\ _K_č_-;_-* &quot;-&quot;??\ _K_č_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,6 +466,15 @@
       <family val="1"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -437,7 +489,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -475,13 +527,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -494,11 +558,24 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Total" xfId="3" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -776,10 +853,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU33"/>
+  <dimension ref="E7:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="42.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:AU37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AF10" sqref="AF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,1379 +920,1154 @@
     <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="C1">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="C3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="M3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="W3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AG3" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="9"/>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="C4" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG4" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="9"/>
+      <c r="AN4" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>26.06</v>
+      </c>
+      <c r="D5" s="1">
+        <v>22.06</v>
+      </c>
+      <c r="E5" s="1">
+        <v>22.31</v>
+      </c>
+      <c r="F5" s="1">
+        <v>20.68</v>
+      </c>
+      <c r="G5" s="1">
+        <v>23.59</v>
+      </c>
+      <c r="H5" s="1">
+        <v>25.28</v>
+      </c>
+      <c r="I5" s="1">
+        <v>26.6</v>
+      </c>
+      <c r="K5" s="4">
+        <f>AVERAGE(C5,D5,E5,F5,G5,H5,I5)</f>
+        <v>23.797142857142855</v>
+      </c>
+      <c r="M5">
+        <v>25.92</v>
+      </c>
+      <c r="N5">
+        <v>26.85</v>
+      </c>
+      <c r="O5">
+        <v>28.3</v>
+      </c>
+      <c r="P5">
+        <v>28.91</v>
+      </c>
+      <c r="Q5">
+        <v>24.56</v>
+      </c>
+      <c r="R5">
+        <v>28.76</v>
+      </c>
+      <c r="S5">
+        <v>26.12</v>
+      </c>
+      <c r="T5">
+        <f>AVERAGE(M5:S5)</f>
+        <v>27.06</v>
+      </c>
+      <c r="U5" s="4">
+        <f>AVERAGE(M5:T5)</f>
+        <v>27.06</v>
+      </c>
+      <c r="W5" s="1">
+        <v>47.62</v>
+      </c>
+      <c r="X5" s="1">
+        <v>50.45</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>44.76</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>45.67</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>54.37</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>54.1</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>51.9</v>
+      </c>
+      <c r="AD5" s="1">
+        <f>AVERAGE(W5:AC5)</f>
+        <v>49.838571428571427</v>
+      </c>
+      <c r="AE5" s="4">
+        <f>AVERAGE(W5:AD5)</f>
+        <v>49.838571428571427</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>18.335312999999999</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>17.616596000000001</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>14.458015</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>15.504475000000001</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>16.209768</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>15.069468000000001</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>20.774990000000003</v>
+      </c>
+      <c r="AN5" s="4">
+        <f>AVERAGE(AG5:AM5)</f>
+        <v>16.852660714285715</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="D1">
+      <c r="C6" s="1">
+        <v>33.869999999999997</v>
+      </c>
+      <c r="D6" s="1">
+        <v>30.98</v>
+      </c>
+      <c r="E6" s="1">
+        <v>35.020000000000003</v>
+      </c>
+      <c r="F6" s="1">
+        <v>31.58</v>
+      </c>
+      <c r="G6" s="1">
+        <v>34.75</v>
+      </c>
+      <c r="H6" s="1">
+        <v>33.83</v>
+      </c>
+      <c r="I6" s="1">
+        <v>41.35</v>
+      </c>
+      <c r="K6" s="4">
+        <f>AVERAGE(C6,D6,E6,F6,G6,H6,I6)</f>
+        <v>34.482857142857135</v>
+      </c>
+      <c r="M6">
+        <v>32.409999999999997</v>
+      </c>
+      <c r="N6">
+        <v>29.19</v>
+      </c>
+      <c r="O6">
+        <v>34.1</v>
+      </c>
+      <c r="P6">
+        <v>30</v>
+      </c>
+      <c r="Q6">
+        <v>30.84</v>
+      </c>
+      <c r="R6">
+        <v>29.82</v>
+      </c>
+      <c r="S6">
+        <v>26.31</v>
+      </c>
+      <c r="T6">
+        <f t="shared" ref="T6:T9" si="0">AVERAGE(M6:S6)</f>
+        <v>30.381428571428568</v>
+      </c>
+      <c r="U6" s="4">
+        <f t="shared" ref="U6:U9" si="1">AVERAGE(M6:T6)</f>
+        <v>30.381428571428568</v>
+      </c>
+      <c r="W6" s="1">
+        <v>303</v>
+      </c>
+      <c r="X6" s="1">
+        <v>288</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>281</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>296</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>288</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>316</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>289</v>
+      </c>
+      <c r="AD6" s="1">
+        <f t="shared" ref="AD6:AD9" si="2">AVERAGE(W6:AC6)</f>
+        <v>294.42857142857144</v>
+      </c>
+      <c r="AE6" s="4">
+        <f t="shared" ref="AE6:AE9" si="3">AVERAGE(W6:AD6)</f>
+        <v>294.42857142857144</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>84.346086999999997</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>94.901071999999999</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>84.506124999999997</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>84.042400999999998</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>79.610828999999995</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>76.792373000000012</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>91.267825000000002</v>
+      </c>
+      <c r="AN6" s="4">
+        <f t="shared" ref="AN6:AN9" si="4">AVERAGE(AG6:AM6)</f>
+        <v>85.066673142857141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-      <c r="F1">
-        <v>4</v>
-      </c>
-      <c r="G1">
-        <v>5</v>
-      </c>
-      <c r="H1">
-        <v>6</v>
-      </c>
-      <c r="I1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="1">
-        <v>26.06</v>
-      </c>
-      <c r="D2" s="1">
-        <v>22.06</v>
-      </c>
-      <c r="E2" s="1">
-        <v>22.31</v>
-      </c>
-      <c r="F2" s="1">
-        <v>20.68</v>
-      </c>
-      <c r="G2" s="1">
-        <v>23.59</v>
-      </c>
-      <c r="H2" s="1">
-        <v>25.28</v>
-      </c>
-      <c r="I2" s="1">
-        <v>26.6</v>
-      </c>
-      <c r="J2" s="4">
-        <f>AVERAGE(C2,D2,E2,F2,G2,H2,I2)</f>
-        <v>23.797142857142855</v>
-      </c>
-      <c r="L2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2">
-        <v>25.92</v>
-      </c>
-      <c r="N2">
-        <v>26.85</v>
-      </c>
-      <c r="O2">
-        <v>28.3</v>
-      </c>
-      <c r="P2">
-        <v>28.91</v>
-      </c>
-      <c r="Q2">
-        <v>24.56</v>
-      </c>
-      <c r="R2">
-        <v>28.76</v>
-      </c>
-      <c r="S2">
-        <v>26.12</v>
-      </c>
-      <c r="T2">
-        <f>AVERAGE(M2:S2)</f>
-        <v>27.06</v>
-      </c>
-      <c r="U2" s="4">
-        <f>AVERAGE(M2:T2)</f>
-        <v>27.06</v>
-      </c>
-      <c r="V2" t="s">
-        <v>64</v>
-      </c>
-      <c r="W2" s="1">
-        <v>47.62</v>
-      </c>
-      <c r="X2" s="1">
-        <v>50.45</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>44.76</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>45.67</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>54.37</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>54.1</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>51.9</v>
-      </c>
-      <c r="AD2" s="1">
-        <f>AVERAGE(W2:AC2)</f>
-        <v>49.838571428571427</v>
-      </c>
-      <c r="AE2" s="4">
-        <f>AVERAGE(W2:AD2)</f>
-        <v>49.838571428571427</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>18.335312999999999</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>17.616596000000001</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>14.458015</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>15.504475000000001</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>16.209768</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>15.069468000000001</v>
-      </c>
-      <c r="AM2" s="1">
-        <v>20.774990000000003</v>
-      </c>
-      <c r="AN2" s="4">
-        <f>AVERAGE(AG2:AM2)</f>
-        <v>16.852660714285715</v>
-      </c>
-    </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>33.869999999999997</v>
-      </c>
-      <c r="D3" s="1">
-        <v>30.98</v>
-      </c>
-      <c r="E3" s="1">
-        <v>35.020000000000003</v>
-      </c>
-      <c r="F3" s="1">
-        <v>31.58</v>
-      </c>
-      <c r="G3" s="1">
-        <v>34.75</v>
-      </c>
-      <c r="H3" s="1">
-        <v>33.83</v>
-      </c>
-      <c r="I3" s="1">
-        <v>41.35</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J6" si="0">AVERAGE(C3,D3,E3,F3,G3,H3,I3)</f>
-        <v>34.482857142857135</v>
-      </c>
-      <c r="M3">
-        <v>32.409999999999997</v>
-      </c>
-      <c r="N3">
-        <v>29.19</v>
-      </c>
-      <c r="O3">
-        <v>34.1</v>
-      </c>
-      <c r="P3">
-        <v>30</v>
-      </c>
-      <c r="Q3">
-        <v>30.84</v>
-      </c>
-      <c r="R3">
-        <v>29.82</v>
-      </c>
-      <c r="S3">
-        <v>26.31</v>
-      </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T6" si="1">AVERAGE(M3:S3)</f>
-        <v>30.381428571428568</v>
-      </c>
-      <c r="U3" s="4">
-        <f t="shared" ref="U3:U6" si="2">AVERAGE(M3:T3)</f>
-        <v>30.381428571428568</v>
-      </c>
-      <c r="W3" s="1">
-        <v>303</v>
-      </c>
-      <c r="X3" s="1">
-        <v>288</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>281</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>296</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>288</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>316</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>289</v>
-      </c>
-      <c r="AD3" s="1">
-        <f t="shared" ref="AD3:AD6" si="3">AVERAGE(W3:AC3)</f>
-        <v>294.42857142857144</v>
-      </c>
-      <c r="AE3" s="4">
-        <f t="shared" ref="AE3:AE6" si="4">AVERAGE(W3:AD3)</f>
-        <v>294.42857142857144</v>
-      </c>
-      <c r="AG3" s="1">
-        <v>84.346086999999997</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>94.901071999999999</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>84.506124999999997</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>84.042400999999998</v>
-      </c>
-      <c r="AK3" s="1">
-        <v>79.610828999999995</v>
-      </c>
-      <c r="AL3" s="1">
-        <v>76.792373000000012</v>
-      </c>
-      <c r="AM3" s="1">
-        <v>91.267825000000002</v>
-      </c>
-      <c r="AN3" s="4">
-        <f t="shared" ref="AN3:AN6" si="5">AVERAGE(AG3:AM3)</f>
-        <v>85.066673142857141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="C7" s="1">
         <v>0.17</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D7" s="1">
         <v>0.18</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E7" s="1">
         <v>0.16</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F7" s="1">
         <v>0.18</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G7" s="1">
         <v>0.16</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H7" s="1">
         <v>0.17</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I7" s="1">
         <v>0.17</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K7" s="4">
+        <f>AVERAGE(C7,D7,E7,F7,G7,H7,I7)</f>
+        <v>0.16999999999999998</v>
+      </c>
+      <c r="M7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N7">
+        <v>0.26</v>
+      </c>
+      <c r="O7">
+        <v>0.18</v>
+      </c>
+      <c r="P7">
+        <v>0.18</v>
+      </c>
+      <c r="Q7">
+        <v>0.18</v>
+      </c>
+      <c r="R7">
+        <v>0.18</v>
+      </c>
+      <c r="S7">
+        <v>0.18</v>
+      </c>
+      <c r="T7">
         <f t="shared" si="0"/>
-        <v>0.16999999999999998</v>
-      </c>
-      <c r="M4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="N4">
-        <v>0.26</v>
-      </c>
-      <c r="O4">
-        <v>0.18</v>
-      </c>
-      <c r="P4">
-        <v>0.18</v>
-      </c>
-      <c r="Q4">
-        <v>0.18</v>
-      </c>
-      <c r="R4">
-        <v>0.18</v>
-      </c>
-      <c r="S4">
-        <v>0.18</v>
-      </c>
-      <c r="T4">
+        <v>0.20571428571428568</v>
+      </c>
+      <c r="U7" s="4">
         <f t="shared" si="1"/>
         <v>0.20571428571428568</v>
       </c>
-      <c r="U4" s="4">
+      <c r="W7" s="1">
+        <v>3.22</v>
+      </c>
+      <c r="X7" s="1">
+        <v>1.94</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>1.58</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="AD7" s="1">
         <f t="shared" si="2"/>
-        <v>0.20571428571428568</v>
-      </c>
-      <c r="W4" s="1">
-        <v>3.22</v>
-      </c>
-      <c r="X4" s="1">
-        <v>1.94</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>1.58</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AD4" s="1">
+        <v>1.4428571428571431</v>
+      </c>
+      <c r="AE7" s="4">
         <f t="shared" si="3"/>
         <v>1.4428571428571431</v>
       </c>
-      <c r="AE4" s="4">
+      <c r="AG7" s="1">
+        <v>0.22764500000000001</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>0.25831599999999999</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>0.204017</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>0.41442499999999999</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>0.206153</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>0.202483</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>0.20283999999999999</v>
+      </c>
+      <c r="AN7" s="4">
         <f t="shared" si="4"/>
-        <v>1.4428571428571431</v>
-      </c>
-      <c r="AG4" s="1">
-        <v>0.22764500000000001</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>0.25831599999999999</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>0.204017</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>0.41442499999999999</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>0.206153</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>0.202483</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>0.20283999999999999</v>
-      </c>
-      <c r="AN4" s="4">
-        <f t="shared" si="5"/>
         <v>0.24512557142857141</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C8" s="1">
         <v>1.4</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D8" s="1">
         <v>1.52</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E8" s="1">
         <v>1.39</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F8" s="1">
         <v>1.41</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G8" s="1">
         <v>2.36</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H8" s="1">
         <v>1.38</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I8" s="1">
         <v>1.37</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K8" s="4">
+        <f>AVERAGE(C8,D8,E8,F8,G8,H8,I8)</f>
+        <v>1.5471428571428574</v>
+      </c>
+      <c r="M8">
+        <v>1.59</v>
+      </c>
+      <c r="N8">
+        <v>1.46</v>
+      </c>
+      <c r="O8">
+        <v>1.28</v>
+      </c>
+      <c r="P8">
+        <v>2.15</v>
+      </c>
+      <c r="Q8">
+        <v>1.26</v>
+      </c>
+      <c r="R8">
+        <v>1.26</v>
+      </c>
+      <c r="S8">
+        <v>1.28</v>
+      </c>
+      <c r="T8">
         <f t="shared" si="0"/>
-        <v>1.5471428571428574</v>
-      </c>
-      <c r="M5">
-        <v>1.59</v>
-      </c>
-      <c r="N5">
-        <v>1.46</v>
-      </c>
-      <c r="O5">
-        <v>1.28</v>
-      </c>
-      <c r="P5">
-        <v>2.15</v>
-      </c>
-      <c r="Q5">
-        <v>1.26</v>
-      </c>
-      <c r="R5">
-        <v>1.26</v>
-      </c>
-      <c r="S5">
-        <v>1.28</v>
-      </c>
-      <c r="T5">
+        <v>1.4685714285714284</v>
+      </c>
+      <c r="U8" s="4">
         <f t="shared" si="1"/>
         <v>1.4685714285714284</v>
       </c>
-      <c r="U5" s="4">
+      <c r="W8" s="1">
+        <v>25.13</v>
+      </c>
+      <c r="X8" s="1">
+        <v>27.64</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>25.57</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>23.15</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>25.41</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>28.58</v>
+      </c>
+      <c r="AD8" s="1">
         <f t="shared" si="2"/>
-        <v>1.4685714285714284</v>
-      </c>
-      <c r="W5" s="1">
-        <v>25.13</v>
-      </c>
-      <c r="X5" s="1">
-        <v>27.64</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>25.57</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>23.15</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>24.9</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>25.41</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>28.58</v>
-      </c>
-      <c r="AD5" s="1">
+        <v>25.768571428571427</v>
+      </c>
+      <c r="AE8" s="4">
         <f t="shared" si="3"/>
         <v>25.768571428571427</v>
       </c>
-      <c r="AE5" s="4">
+      <c r="AG8" s="1">
+        <v>3.3805770000000002</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>3.6390669999999998</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>3.2104090000000003</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>3.3913760000000002</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>3.720475</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>3.3534099999999998</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>2.9524209999999997</v>
+      </c>
+      <c r="AN8" s="4">
         <f t="shared" si="4"/>
-        <v>25.768571428571427</v>
-      </c>
-      <c r="AG5" s="1">
-        <v>3.3805770000000002</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>3.6390669999999998</v>
-      </c>
-      <c r="AI5" s="1">
-        <v>3.2104090000000003</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>3.3913760000000002</v>
-      </c>
-      <c r="AK5" s="1">
-        <v>3.720475</v>
-      </c>
-      <c r="AL5" s="1">
-        <v>3.3534099999999998</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>2.9524209999999997</v>
-      </c>
-      <c r="AN5" s="4">
-        <f t="shared" si="5"/>
         <v>3.3782478571428571</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C9" s="1">
         <v>0.22</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D9" s="1">
         <v>0.23</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E9" s="1">
         <v>0.97</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F9" s="1">
         <v>0.75</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G9" s="1">
         <v>0.4</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H9" s="1">
         <v>0.21</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I9" s="1">
         <v>0.22</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K9" s="4">
+        <f>AVERAGE(C9,D9,E9,F9,G9,H9,I9)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="M9">
+        <v>0.23</v>
+      </c>
+      <c r="N9">
+        <v>0.21</v>
+      </c>
+      <c r="O9">
+        <v>0.18</v>
+      </c>
+      <c r="P9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Q9">
+        <v>0.18</v>
+      </c>
+      <c r="R9">
+        <v>0.19</v>
+      </c>
+      <c r="S9">
+        <v>0.18</v>
+      </c>
+      <c r="T9">
         <f t="shared" si="0"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="M6">
-        <v>0.23</v>
-      </c>
-      <c r="N6">
-        <v>0.21</v>
-      </c>
-      <c r="O6">
-        <v>0.18</v>
-      </c>
-      <c r="P6">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="Q6">
-        <v>0.18</v>
-      </c>
-      <c r="R6">
-        <v>0.19</v>
-      </c>
-      <c r="S6">
-        <v>0.18</v>
-      </c>
-      <c r="T6">
+        <v>0.24714285714285714</v>
+      </c>
+      <c r="U9" s="4">
         <f t="shared" si="1"/>
         <v>0.24714285714285714</v>
       </c>
-      <c r="U6" s="4">
+      <c r="W9" s="1">
+        <v>1.83</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>1.19</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>2.31</v>
+      </c>
+      <c r="AD9" s="1">
         <f t="shared" si="2"/>
-        <v>0.24714285714285714</v>
-      </c>
-      <c r="W6" s="1">
-        <v>1.83</v>
-      </c>
-      <c r="X6" s="1">
-        <v>0.82</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>1.19</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>0.77</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>1.06</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>2.31</v>
-      </c>
-      <c r="AD6" s="1">
+        <v>1.2757142857142856</v>
+      </c>
+      <c r="AE9" s="4">
         <f t="shared" si="3"/>
         <v>1.2757142857142856</v>
       </c>
-      <c r="AE6" s="4">
+      <c r="AG9" s="1">
+        <v>0.32813400000000004</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>0.29890800000000001</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>0.32208600000000004</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>0.32813799999999999</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>0.34958100000000003</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>0.32921100000000003</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>0.29002100000000003</v>
+      </c>
+      <c r="AN9" s="4">
         <f t="shared" si="4"/>
-        <v>1.2757142857142856</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>0.32813400000000004</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>0.29890800000000001</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>0.32208600000000004</v>
-      </c>
-      <c r="AJ6" s="1">
-        <v>0.32813799999999999</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>0.34958100000000003</v>
-      </c>
-      <c r="AL6" s="1">
-        <v>0.32921100000000003</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>0.29002100000000003</v>
-      </c>
-      <c r="AN6" s="4">
-        <f t="shared" si="5"/>
         <v>0.32086842857142855</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="J7" s="1">
-        <f>SUM(J2:J6)</f>
+    <row r="10" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" s="11">
+        <f>SUM(K5:K9)</f>
         <v>60.425714285714278</v>
       </c>
-      <c r="U7" s="1">
-        <f>SUM(U2:U6)</f>
+      <c r="S10" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="T10" s="12"/>
+      <c r="U10" s="11">
+        <f>SUM(U5:U9)</f>
         <v>59.362857142857138</v>
       </c>
-      <c r="AE7" s="1">
-        <f>SUM(AE2:AE6)</f>
+      <c r="AC10" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="11">
+        <f>SUM(AE5:AE9)</f>
         <v>372.75428571428569</v>
       </c>
-      <c r="AN7" s="1">
-        <f>SUM(AN2:AN6)</f>
+      <c r="AL10" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="11">
+        <f>SUM(AN5:AN9)</f>
         <v>105.86357571428572</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.48840000000000006</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.56179999999999997</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.53145999999999993</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.49916999999999995</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.54206999999999994</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.53349999999999997</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.54228999999999994</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.54059999999999997</v>
-      </c>
-      <c r="K10" s="4">
-        <f>AVERAGE(C10:J10)</f>
-        <v>0.52991124999999994</v>
-      </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1">
-        <v>0.47589000000000004</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0.46878000000000003</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0.49675999999999998</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0.58348999999999995</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>2.3076099999999999</v>
-      </c>
-      <c r="R10" s="1">
-        <v>0.47893000000000002</v>
-      </c>
-      <c r="S10" s="1">
-        <v>0.47025</v>
-      </c>
-      <c r="T10" s="4">
-        <f>AVERAGE(L10:S10)</f>
-        <v>0.75453000000000003</v>
-      </c>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1">
-        <v>2.4689700000000001</v>
-      </c>
-      <c r="X10" s="1">
-        <v>0.64543000000000006</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>0.63471</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>0.61597000000000002</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>0.68010000000000004</v>
-      </c>
-      <c r="AB10" s="1">
-        <v>0.64745000000000008</v>
-      </c>
-      <c r="AC10" s="1">
-        <v>0.60095999999999994</v>
-      </c>
-      <c r="AD10" s="4">
-        <f>AVERAGE(V10:AC10)</f>
-        <v>0.89908428571428589</v>
-      </c>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1">
-        <v>1.754</v>
-      </c>
-      <c r="AH10" s="1">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="AI10" s="1">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="AJ10" s="1">
-        <v>0.41</v>
-      </c>
-      <c r="AK10" s="1">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="AL10" s="1">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="AM10" s="1">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="AN10" s="4">
-        <f>AVERAGE(AF10:AM10)</f>
-        <v>0.62671428571428578</v>
-      </c>
-    </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.51245999999999992</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.49948999999999999</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.54213999999999996</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.48886000000000002</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.47645999999999999</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.59443999999999997</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.54467999999999994</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.58962000000000003</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" ref="K11:K14" si="6">AVERAGE(C11:J11)</f>
-        <v>0.53101874999999998</v>
-      </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1">
-        <v>0.51608999999999994</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0.46795000000000003</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0.48576999999999998</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0.48801999999999995</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>0.51208999999999993</v>
-      </c>
-      <c r="R11" s="1">
-        <v>0.48950999999999995</v>
-      </c>
-      <c r="S11" s="1">
-        <v>0.48220000000000002</v>
-      </c>
-      <c r="T11" s="4">
-        <f t="shared" ref="T11:T14" si="7">AVERAGE(L11:S11)</f>
-        <v>0.49166142857142864</v>
-      </c>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1">
-        <v>8.8999400000000009</v>
-      </c>
-      <c r="X11" s="1">
-        <v>0.61771000000000009</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>0.66149000000000002</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>0.64332999999999996</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>0.64149</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>0.68944000000000005</v>
-      </c>
-      <c r="AC11" s="1">
-        <v>0.67851000000000006</v>
-      </c>
-      <c r="AD11" s="4">
-        <f t="shared" ref="AD11:AD14" si="8">AVERAGE(V11:AC11)</f>
-        <v>1.8331300000000001</v>
-      </c>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1">
-        <v>1.1779999999999999</v>
-      </c>
-      <c r="AH11" s="1">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="AI11" s="1">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="AJ11" s="1">
-        <v>0.59099999999999997</v>
-      </c>
-      <c r="AK11" s="1">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="AL11" s="1">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="AM11" s="1">
-        <v>0.81499999999999995</v>
-      </c>
-      <c r="AN11" s="4">
-        <f t="shared" ref="AN11:AN14" si="9">AVERAGE(AF11:AM11)</f>
-        <v>0.70557142857142863</v>
-      </c>
-    </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.47177999999999998</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.45859</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.46933000000000002</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.44307999999999997</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.44935999999999998</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.47666000000000003</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.50178999999999996</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.43919000000000002</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="6"/>
-        <v>0.46372249999999993</v>
-      </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1">
-        <v>0.56141000000000008</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0.50914999999999999</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0.44481999999999999</v>
-      </c>
-      <c r="P12" s="1">
-        <v>0.51583000000000001</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>0.42101</v>
-      </c>
-      <c r="R12" s="1">
-        <v>2.2436400000000001</v>
-      </c>
-      <c r="S12" s="1">
-        <v>0.53625</v>
-      </c>
-      <c r="T12" s="4">
-        <f t="shared" si="7"/>
-        <v>0.74744428571428567</v>
-      </c>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1">
-        <v>0.68148999999999993</v>
-      </c>
-      <c r="X12" s="1">
-        <v>0.64122000000000001</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>0.66208</v>
-      </c>
-      <c r="Z12" s="1">
-        <v>0.62664000000000009</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>0.63896000000000008</v>
-      </c>
-      <c r="AB12" s="1">
-        <v>0.62141000000000002</v>
-      </c>
-      <c r="AC12" s="1">
-        <v>0.75354999999999994</v>
-      </c>
-      <c r="AD12" s="4">
-        <f t="shared" si="8"/>
-        <v>0.66076428571428569</v>
-      </c>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1">
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="AH12" s="1">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="AI12" s="1">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="AJ12" s="1">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="AK12" s="1">
-        <v>0.59299999999999997</v>
-      </c>
-      <c r="AL12" s="1">
-        <v>0.876</v>
-      </c>
-      <c r="AM12" s="1">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="AN12" s="4">
-        <f t="shared" si="9"/>
-        <v>0.67585714285714282</v>
-      </c>
-    </row>
+    <row r="11" spans="1:47" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1">
-        <v>0.50898999999999994</v>
+        <v>0.48840000000000006</v>
       </c>
       <c r="D13" s="1">
-        <v>1.01715</v>
+        <v>0.56179999999999997</v>
       </c>
       <c r="E13" s="1">
-        <v>0.49461000000000005</v>
+        <v>0.53145999999999993</v>
       </c>
       <c r="F13" s="1">
-        <v>0.53594000000000008</v>
+        <v>0.49916999999999995</v>
       </c>
       <c r="G13" s="1">
-        <v>0.50164999999999993</v>
+        <v>0.54206999999999994</v>
       </c>
       <c r="H13" s="1">
-        <v>2.40835</v>
+        <v>0.53349999999999997</v>
       </c>
       <c r="I13" s="1">
-        <v>0.54929000000000006</v>
+        <v>0.54228999999999994</v>
       </c>
       <c r="J13" s="1">
-        <v>0.43919000000000002</v>
+        <v>0.54059999999999997</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" si="6"/>
-        <v>0.80689624999999998</v>
+        <f>AVERAGE(C13:J13)</f>
+        <v>0.52991124999999994</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
-        <v>0.47743999999999998</v>
+        <v>0.47589000000000004</v>
       </c>
       <c r="N13" s="1">
-        <v>0.41526999999999997</v>
+        <v>0.46878000000000003</v>
       </c>
       <c r="O13" s="1">
-        <v>0.47566999999999998</v>
+        <v>0.49675999999999998</v>
       </c>
       <c r="P13" s="1">
-        <v>0.48092000000000001</v>
+        <v>0.58348999999999995</v>
       </c>
       <c r="Q13" s="1">
-        <v>0.43772</v>
+        <v>2.3076099999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>0.44728000000000001</v>
+        <v>0.47893000000000002</v>
       </c>
       <c r="S13" s="1">
-        <v>0.47488000000000002</v>
+        <v>0.47025</v>
       </c>
       <c r="T13" s="4">
-        <f t="shared" si="7"/>
-        <v>0.45845428571428576</v>
+        <f>AVERAGE(L13:S13)</f>
+        <v>0.75453000000000003</v>
       </c>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1">
-        <v>28.87444</v>
+        <v>2.4689700000000001</v>
       </c>
       <c r="X13" s="1">
-        <v>0.72028999999999999</v>
+        <v>0.64543000000000006</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.86312</v>
+        <v>0.63471</v>
       </c>
       <c r="Z13" s="1">
-        <v>0.70496000000000003</v>
+        <v>0.61597000000000002</v>
       </c>
       <c r="AA13" s="1">
-        <v>0.66108</v>
+        <v>0.68010000000000004</v>
       </c>
       <c r="AB13" s="1">
-        <v>0.72114</v>
+        <v>0.64745000000000008</v>
       </c>
       <c r="AC13" s="1">
-        <v>0.60922999999999994</v>
+        <v>0.60095999999999994</v>
       </c>
       <c r="AD13" s="4">
-        <f t="shared" si="8"/>
-        <v>4.7363228571428566</v>
+        <f>AVERAGE(V13:AC13)</f>
+        <v>0.89908428571428589</v>
       </c>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1">
-        <v>0.57499999999999996</v>
+        <v>1.754</v>
       </c>
       <c r="AH13" s="1">
-        <v>0.59</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="AJ13" s="1">
-        <v>0.72599999999999998</v>
+        <v>0.41</v>
       </c>
       <c r="AK13" s="1">
-        <v>0.57499999999999996</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>0.59599999999999997</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="AM13" s="1">
-        <v>0.54900000000000004</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="AN13" s="4">
-        <f t="shared" si="9"/>
-        <v>0.59442857142857153</v>
-      </c>
-      <c r="AP13" s="2"/>
-      <c r="AQ13" s="2"/>
-      <c r="AR13" s="2"/>
-      <c r="AS13" s="2"/>
-      <c r="AT13" s="2"/>
-      <c r="AU13" s="2"/>
+        <f>AVERAGE(AF13:AM13)</f>
+        <v>0.62671428571428578</v>
+      </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1">
-        <v>2.6753399999999998</v>
+        <v>0.51245999999999992</v>
       </c>
       <c r="D14" s="1">
-        <v>0.55771999999999999</v>
+        <v>0.49948999999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.53122000000000003</v>
+        <v>0.54213999999999996</v>
       </c>
       <c r="F14" s="1">
-        <v>0.54554999999999998</v>
+        <v>0.48886000000000002</v>
       </c>
       <c r="G14" s="1">
-        <v>0.51634999999999998</v>
+        <v>0.47645999999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>0.52298999999999995</v>
+        <v>0.59443999999999997</v>
       </c>
       <c r="I14" s="1">
-        <v>0.52446999999999999</v>
+        <v>0.54467999999999994</v>
       </c>
       <c r="J14" s="1">
-        <v>0.61567000000000005</v>
+        <v>0.58962000000000003</v>
       </c>
       <c r="K14" s="4">
-        <f t="shared" si="6"/>
-        <v>0.81116374999999996</v>
+        <f t="shared" ref="K14:K17" si="5">AVERAGE(C14:J14)</f>
+        <v>0.53101874999999998</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
-        <v>0.47423999999999999</v>
+        <v>0.51608999999999994</v>
       </c>
       <c r="N14" s="1">
-        <v>0.46073000000000003</v>
+        <v>0.46795000000000003</v>
       </c>
       <c r="O14" s="1">
-        <v>0.50042999999999993</v>
+        <v>0.48576999999999998</v>
       </c>
       <c r="P14" s="1">
-        <v>0.46556000000000003</v>
+        <v>0.48801999999999995</v>
       </c>
       <c r="Q14" s="1">
-        <v>0.5242</v>
+        <v>0.51208999999999993</v>
       </c>
       <c r="R14" s="1">
-        <v>0.42968999999999996</v>
+        <v>0.48950999999999995</v>
       </c>
       <c r="S14" s="1">
-        <v>0.4587</v>
+        <v>0.48220000000000002</v>
       </c>
       <c r="T14" s="4">
-        <f t="shared" si="7"/>
-        <v>0.47336428571428568</v>
+        <f t="shared" ref="T14:T17" si="6">AVERAGE(L14:S14)</f>
+        <v>0.49166142857142864</v>
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1">
-        <v>10.55785</v>
+        <v>8.8999400000000009</v>
       </c>
       <c r="X14" s="1">
-        <v>0.58753999999999995</v>
+        <v>0.61771000000000009</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.65101999999999993</v>
+        <v>0.66149000000000002</v>
       </c>
       <c r="Z14" s="1">
-        <v>0.62107000000000001</v>
+        <v>0.64332999999999996</v>
       </c>
       <c r="AA14" s="1">
-        <v>8.3152799999999996</v>
+        <v>0.64149</v>
       </c>
       <c r="AB14" s="1">
-        <v>0.70669000000000004</v>
+        <v>0.68944000000000005</v>
       </c>
       <c r="AC14" s="1">
-        <v>0.72608000000000006</v>
+        <v>0.67851000000000006</v>
       </c>
       <c r="AD14" s="4">
-        <f t="shared" si="8"/>
-        <v>3.1665042857142858</v>
+        <f t="shared" ref="AD14:AD17" si="7">AVERAGE(V14:AC14)</f>
+        <v>1.8331300000000001</v>
       </c>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1">
-        <v>0.61099999999999999</v>
+        <v>1.1779999999999999</v>
       </c>
       <c r="AH14" s="1">
-        <v>0.68500000000000005</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.65100000000000002</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="AJ14" s="1">
-        <v>2.1019999999999999</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="AK14" s="1">
-        <v>0.54500000000000004</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>0.65700000000000003</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="AM14" s="1">
-        <v>0.64400000000000002</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="AN14" s="4">
-        <f t="shared" si="9"/>
-        <v>0.84214285714285708</v>
-      </c>
-      <c r="AO14" s="2"/>
-      <c r="AP14" s="2"/>
-      <c r="AQ14" s="2"/>
-      <c r="AR14" s="2"/>
-      <c r="AS14" s="2"/>
-      <c r="AT14" s="2"/>
-      <c r="AU14" s="2"/>
+        <f t="shared" ref="AN14:AN17" si="8">AVERAGE(AF14:AM14)</f>
+        <v>0.70557142857142863</v>
+      </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.47177999999999998</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.45859</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.46933000000000002</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.44307999999999997</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.44935999999999998</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.47666000000000003</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.50178999999999996</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.43919000000000002</v>
+      </c>
       <c r="K15" s="4">
-        <f>AVERAGE(C10:J14)</f>
-        <v>0.62854249999999989</v>
+        <f t="shared" si="5"/>
+        <v>0.46372249999999993</v>
       </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1">
-        <f>AVERAGE(M10:S14)</f>
-        <v>0.58509085714285725</v>
+      <c r="M15" s="1">
+        <v>0.56141000000000008</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.50914999999999999</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.44481999999999999</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.51583000000000001</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.42101</v>
+      </c>
+      <c r="R15" s="1">
+        <v>2.2436400000000001</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0.53625</v>
+      </c>
+      <c r="T15" s="4">
+        <f t="shared" si="6"/>
+        <v>0.74744428571428567</v>
       </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1">
-        <f>AVERAGE(W10:AC14)</f>
-        <v>2.2591611428571428</v>
+      <c r="W15" s="1">
+        <v>0.68148999999999993</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0.64122000000000001</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>0.66208</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>0.62664000000000009</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>0.63896000000000008</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>0.62141000000000002</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>0.75354999999999994</v>
+      </c>
+      <c r="AD15" s="4">
+        <f t="shared" si="7"/>
+        <v>0.66076428571428569</v>
       </c>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="1"/>
-      <c r="AM15" s="1"/>
-      <c r="AN15" s="1">
-        <f>AVERAGE(AG10:AM14)</f>
-        <v>0.68894285714285708</v>
-      </c>
-      <c r="AO15" s="1"/>
-      <c r="AP15" s="2"/>
-      <c r="AQ15" s="2"/>
-      <c r="AR15" s="2"/>
-      <c r="AS15" s="2"/>
-      <c r="AT15" s="2"/>
-      <c r="AU15" s="2"/>
+      <c r="AG15" s="1">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>0.876</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="AN15" s="4">
+        <f t="shared" si="8"/>
+        <v>0.67585714285714282</v>
+      </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1">
-        <v>0.68526999999999993</v>
+        <v>0.50898999999999994</v>
       </c>
       <c r="D16" s="1">
-        <v>0.48518999999999995</v>
+        <v>1.01715</v>
       </c>
       <c r="E16" s="1">
-        <v>0.48549999999999999</v>
+        <v>0.49461000000000005</v>
       </c>
       <c r="F16" s="1">
-        <v>1.0629000000000002</v>
+        <v>0.53594000000000008</v>
       </c>
       <c r="G16" s="1">
-        <v>0.49251000000000006</v>
+        <v>0.50164999999999993</v>
       </c>
       <c r="H16" s="1">
-        <v>0.47968</v>
+        <v>2.40835</v>
       </c>
       <c r="I16" s="1">
-        <v>0.48119000000000001</v>
+        <v>0.54929000000000006</v>
       </c>
       <c r="J16" s="1">
-        <v>0.53872999999999993</v>
+        <v>0.43919000000000002</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" ref="K16:K32" si="10">AVERAGE(C16:J16)</f>
-        <v>0.58887125000000007</v>
+        <f t="shared" si="5"/>
+        <v>0.80689624999999998</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
-        <v>2.6872799999999999</v>
+        <v>0.47743999999999998</v>
       </c>
       <c r="N16" s="1">
-        <v>0.64868000000000003</v>
+        <v>0.41526999999999997</v>
       </c>
       <c r="O16" s="1">
-        <v>0.77929999999999999</v>
+        <v>0.47566999999999998</v>
       </c>
       <c r="P16" s="1">
-        <v>0.64882000000000006</v>
+        <v>0.48092000000000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>0.90784999999999993</v>
+        <v>0.43772</v>
       </c>
       <c r="R16" s="1">
-        <v>0.73735000000000006</v>
+        <v>0.44728000000000001</v>
       </c>
       <c r="S16" s="1">
-        <v>0.80964000000000003</v>
+        <v>0.47488000000000002</v>
       </c>
       <c r="T16" s="4">
-        <f t="shared" ref="T16:T32" si="11">AVERAGE(L16:S16)</f>
-        <v>1.0312742857142856</v>
+        <f t="shared" si="6"/>
+        <v>0.45845428571428576</v>
       </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1">
-        <v>0.51558999999999999</v>
+        <v>28.87444</v>
       </c>
       <c r="X16" s="1">
-        <v>0.50894000000000006</v>
+        <v>0.72028999999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.64590000000000003</v>
+        <v>0.86312</v>
       </c>
       <c r="Z16" s="1">
-        <v>0.58385999999999993</v>
+        <v>0.70496000000000003</v>
       </c>
       <c r="AA16" s="1">
-        <v>0.57521999999999995</v>
+        <v>0.66108</v>
       </c>
       <c r="AB16" s="1">
-        <v>0.59980999999999995</v>
+        <v>0.72114</v>
       </c>
       <c r="AC16" s="1">
-        <v>0.52736000000000005</v>
+        <v>0.60922999999999994</v>
       </c>
       <c r="AD16" s="4">
-        <f t="shared" ref="AD16:AD32" si="12">AVERAGE(V16:AC16)</f>
-        <v>0.56523999999999996</v>
+        <f t="shared" si="7"/>
+        <v>4.7363228571428566</v>
       </c>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1">
-        <v>0.44900000000000001</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="AH16" s="1">
-        <v>0.35499999999999998</v>
+        <v>0.59</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.55600000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AJ16" s="1">
-        <v>0.378</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="AK16" s="1">
-        <v>0.49399999999999999</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="AL16" s="1">
-        <v>0.44500000000000001</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="AM16" s="1">
-        <v>0.433</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="AN16" s="4">
-        <f t="shared" ref="AN16:AN32" si="13">AVERAGE(AF16:AM16)</f>
-        <v>0.44428571428571428</v>
-      </c>
-      <c r="AO16" s="1"/>
+        <f t="shared" si="8"/>
+        <v>0.59442857142857153</v>
+      </c>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2"/>
       <c r="AR16" s="2"/>
@@ -2173,117 +2077,117 @@
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1">
-        <v>9.6839000000000013</v>
+        <v>2.6753399999999998</v>
       </c>
       <c r="D17" s="1">
-        <v>0.91720999999999997</v>
+        <v>0.55771999999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.74058999999999997</v>
+        <v>0.53122000000000003</v>
       </c>
       <c r="F17" s="1">
-        <v>0.47905999999999999</v>
+        <v>0.54554999999999998</v>
       </c>
       <c r="G17" s="1">
-        <v>0.70677999999999996</v>
+        <v>0.51634999999999998</v>
       </c>
       <c r="H17" s="1">
-        <v>0.50202999999999998</v>
+        <v>0.52298999999999995</v>
       </c>
       <c r="I17" s="1">
-        <v>0.67805000000000004</v>
+        <v>0.52446999999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.53892999999999991</v>
+        <v>0.61567000000000005</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" si="10"/>
-        <v>1.7808187500000003</v>
+        <f t="shared" si="5"/>
+        <v>0.81116374999999996</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
-        <v>0.40841</v>
+        <v>0.47423999999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>0.42054999999999998</v>
+        <v>0.46073000000000003</v>
       </c>
       <c r="O17" s="1">
-        <v>0.43364000000000003</v>
+        <v>0.50042999999999993</v>
       </c>
       <c r="P17" s="1">
-        <v>0.39953</v>
+        <v>0.46556000000000003</v>
       </c>
       <c r="Q17" s="1">
-        <v>0.44750999999999996</v>
+        <v>0.5242</v>
       </c>
       <c r="R17" s="1">
-        <v>0.41583999999999999</v>
+        <v>0.42968999999999996</v>
       </c>
       <c r="S17" s="1">
-        <v>0.43342000000000003</v>
+        <v>0.4587</v>
       </c>
       <c r="T17" s="4">
-        <f t="shared" si="11"/>
-        <v>0.42269999999999996</v>
+        <f t="shared" si="6"/>
+        <v>0.47336428571428568</v>
       </c>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1">
-        <v>0.52707999999999999</v>
+        <v>10.55785</v>
       </c>
       <c r="X17" s="1">
-        <v>0.53290000000000004</v>
+        <v>0.58753999999999995</v>
       </c>
       <c r="Y17" s="1">
-        <v>2.8163400000000003</v>
+        <v>0.65101999999999993</v>
       </c>
       <c r="Z17" s="1">
-        <v>0.60331999999999997</v>
+        <v>0.62107000000000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>0.51513999999999993</v>
+        <v>8.3152799999999996</v>
       </c>
       <c r="AB17" s="1">
-        <v>0.47778000000000004</v>
+        <v>0.70669000000000004</v>
       </c>
       <c r="AC17" s="1">
-        <v>0.55322000000000005</v>
+        <v>0.72608000000000006</v>
       </c>
       <c r="AD17" s="4">
-        <f t="shared" si="12"/>
-        <v>0.86082571428571419</v>
+        <f t="shared" si="7"/>
+        <v>3.1665042857142858</v>
       </c>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1">
-        <v>0.21299999999999999</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="AH17" s="1">
-        <v>0.16300000000000001</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.26600000000000001</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="AJ17" s="1">
-        <v>0.21199999999999999</v>
+        <v>2.1019999999999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>0.20799999999999999</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="AL17" s="1">
-        <v>0.19800000000000001</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="AM17" s="1">
-        <v>0.17399999999999999</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="AN17" s="4">
-        <f t="shared" si="13"/>
-        <v>0.20485714285714285</v>
-      </c>
-      <c r="AO17" s="1"/>
+        <f t="shared" si="8"/>
+        <v>0.84214285714285708</v>
+      </c>
+      <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2"/>
       <c r="AR17" s="2"/>
@@ -2291,117 +2195,64 @@
       <c r="AT17" s="2"/>
       <c r="AU17" s="2"/>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.50962999999999992</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.51144000000000001</v>
-      </c>
-      <c r="E18" s="1">
-        <v>7.6715100000000005</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.47020000000000001</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.53813000000000011</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.68424000000000007</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.49065000000000003</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0.51150999999999991</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="10"/>
-        <v>1.4234137500000001</v>
+    <row r="18" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="13">
+        <f>AVERAGE(C13:J17)</f>
+        <v>0.62854249999999989</v>
       </c>
       <c r="L18" s="1"/>
-      <c r="M18" s="1">
-        <v>0.48315000000000002</v>
-      </c>
-      <c r="N18" s="1">
-        <v>0.44927</v>
-      </c>
-      <c r="O18" s="1">
-        <v>0.45702999999999999</v>
-      </c>
-      <c r="P18" s="1">
-        <v>0.50746000000000002</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>0.43253999999999998</v>
-      </c>
-      <c r="R18" s="1">
-        <v>0.43528</v>
-      </c>
-      <c r="S18" s="1">
-        <v>0.55931999999999993</v>
-      </c>
-      <c r="T18" s="4">
-        <f t="shared" si="11"/>
-        <v>0.47486428571428574</v>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="S18" s="12"/>
+      <c r="T18" s="11">
+        <f>AVERAGE(M13:S17)</f>
+        <v>0.58509085714285725</v>
       </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="1">
-        <v>0.56410000000000005</v>
-      </c>
-      <c r="X18" s="1">
-        <v>0.55113000000000001</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>0.59287000000000001</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>0.52251000000000003</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>0.97926000000000002</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>0.53147</v>
-      </c>
-      <c r="AC18" s="1">
-        <v>0.58164000000000005</v>
-      </c>
-      <c r="AD18" s="4">
-        <f t="shared" si="12"/>
-        <v>0.61756857142857147</v>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="11">
+        <f>AVERAGE(W13:AC17)</f>
+        <v>2.2591611428571428</v>
       </c>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
-      <c r="AG18" s="1">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="AH18" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="AI18" s="1">
-        <v>0.182</v>
-      </c>
-      <c r="AJ18" s="1">
-        <v>0.215</v>
-      </c>
-      <c r="AK18" s="1">
-        <v>0.218</v>
-      </c>
-      <c r="AL18" s="1">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="AM18" s="1">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AN18" s="4">
-        <f t="shared" si="13"/>
-        <v>0.20428571428571432</v>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM18" s="12"/>
+      <c r="AN18" s="11">
+        <f>AVERAGE(AG13:AM17)</f>
+        <v>0.68894285714285708</v>
       </c>
       <c r="AO18" s="1"/>
       <c r="AP18" s="2"/>
@@ -2411,117 +2262,117 @@
       <c r="AT18" s="2"/>
       <c r="AU18" s="2"/>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="C19" s="1">
-        <v>0.50367999999999991</v>
+        <v>0.68526999999999993</v>
       </c>
       <c r="D19" s="1">
-        <v>0.46415999999999996</v>
+        <v>0.48518999999999995</v>
       </c>
       <c r="E19" s="1">
-        <v>0.46276</v>
+        <v>0.48549999999999999</v>
       </c>
       <c r="F19" s="1">
-        <v>0.49456999999999995</v>
+        <v>1.0629000000000002</v>
       </c>
       <c r="G19" s="1">
-        <v>0.46781</v>
+        <v>0.49251000000000006</v>
       </c>
       <c r="H19" s="1">
-        <v>0.49790000000000001</v>
+        <v>0.47968</v>
       </c>
       <c r="I19" s="1">
-        <v>0.59694999999999998</v>
+        <v>0.48119000000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.63841999999999999</v>
+        <v>0.53872999999999993</v>
       </c>
       <c r="K19" s="4">
-        <f t="shared" si="10"/>
-        <v>0.51578124999999997</v>
+        <f t="shared" ref="K19:K35" si="9">AVERAGE(C19:J19)</f>
+        <v>0.58887125000000007</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
-        <v>0.37215000000000004</v>
+        <v>2.6872799999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>0.50641000000000003</v>
+        <v>0.64868000000000003</v>
       </c>
       <c r="O19" s="1">
-        <v>0.50566</v>
+        <v>0.77929999999999999</v>
       </c>
       <c r="P19" s="1">
-        <v>0.40912999999999999</v>
+        <v>0.64882000000000006</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.39571000000000001</v>
+        <v>0.90784999999999993</v>
       </c>
       <c r="R19" s="1">
-        <v>0.37661999999999995</v>
+        <v>0.73735000000000006</v>
       </c>
       <c r="S19" s="1">
-        <v>0.43131000000000003</v>
+        <v>0.80964000000000003</v>
       </c>
       <c r="T19" s="4">
-        <f t="shared" si="11"/>
-        <v>0.42814142857142856</v>
+        <f t="shared" ref="T19:T35" si="10">AVERAGE(L19:S19)</f>
+        <v>1.0312742857142856</v>
       </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1">
-        <v>0.56440999999999997</v>
+        <v>0.51558999999999999</v>
       </c>
       <c r="X19" s="1">
-        <v>0.54798000000000002</v>
+        <v>0.50894000000000006</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.54364000000000001</v>
+        <v>0.64590000000000003</v>
       </c>
       <c r="Z19" s="1">
-        <v>0.53622999999999998</v>
+        <v>0.58385999999999993</v>
       </c>
       <c r="AA19" s="1">
-        <v>0.52193000000000001</v>
+        <v>0.57521999999999995</v>
       </c>
       <c r="AB19" s="1">
-        <v>0.6238800000000001</v>
+        <v>0.59980999999999995</v>
       </c>
       <c r="AC19" s="1">
-        <v>0.54874000000000001</v>
+        <v>0.52736000000000005</v>
       </c>
       <c r="AD19" s="4">
-        <f t="shared" si="12"/>
-        <v>0.55525857142857149</v>
+        <f t="shared" ref="AD19:AD35" si="11">AVERAGE(V19:AC19)</f>
+        <v>0.56523999999999996</v>
       </c>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1">
-        <v>0.2</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="AH19" s="1">
-        <v>0.19800000000000001</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.14699999999999999</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="AJ19" s="1">
-        <v>0.193</v>
+        <v>0.378</v>
       </c>
       <c r="AK19" s="1">
-        <v>0.14899999999999999</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>0.19600000000000001</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="AM19" s="1">
-        <v>0.156</v>
+        <v>0.433</v>
       </c>
       <c r="AN19" s="4">
-        <f t="shared" si="13"/>
-        <v>0.17699999999999999</v>
+        <f t="shared" ref="AN19:AN35" si="12">AVERAGE(AF19:AM19)</f>
+        <v>0.44428571428571428</v>
       </c>
       <c r="AO19" s="1"/>
       <c r="AP19" s="2"/>
@@ -2533,115 +2384,115 @@
     </row>
     <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1">
-        <v>0.62934000000000001</v>
+        <v>9.6839000000000013</v>
       </c>
       <c r="D20" s="1">
-        <v>0.64824000000000004</v>
+        <v>0.91720999999999997</v>
       </c>
       <c r="E20" s="1">
-        <v>0.58874000000000004</v>
+        <v>0.74058999999999997</v>
       </c>
       <c r="F20" s="1">
-        <v>0.57954000000000006</v>
+        <v>0.47905999999999999</v>
       </c>
       <c r="G20" s="1">
-        <v>0.66040999999999994</v>
+        <v>0.70677999999999996</v>
       </c>
       <c r="H20" s="1">
-        <v>0.68108999999999997</v>
+        <v>0.50202999999999998</v>
       </c>
       <c r="I20" s="1">
-        <v>0.54907000000000006</v>
+        <v>0.67805000000000004</v>
       </c>
       <c r="J20" s="1">
-        <v>0.71128000000000002</v>
+        <v>0.53892999999999991</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" si="10"/>
-        <v>0.63096375000000016</v>
+        <f t="shared" si="9"/>
+        <v>1.7808187500000003</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
-        <v>0.40756000000000003</v>
+        <v>0.40841</v>
       </c>
       <c r="N20" s="1">
-        <v>0.38174999999999998</v>
+        <v>0.42054999999999998</v>
       </c>
       <c r="O20" s="1">
-        <v>0.39617000000000002</v>
+        <v>0.43364000000000003</v>
       </c>
       <c r="P20" s="1">
-        <v>0.38364999999999999</v>
+        <v>0.39953</v>
       </c>
       <c r="Q20" s="1">
-        <v>0.38591999999999999</v>
+        <v>0.44750999999999996</v>
       </c>
       <c r="R20" s="1">
-        <v>0.46546999999999999</v>
+        <v>0.41583999999999999</v>
       </c>
       <c r="S20" s="1">
-        <v>0.37480000000000002</v>
+        <v>0.43342000000000003</v>
       </c>
       <c r="T20" s="4">
-        <f t="shared" si="11"/>
-        <v>0.39933142857142861</v>
+        <f t="shared" si="10"/>
+        <v>0.42269999999999996</v>
       </c>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1">
-        <v>0.54212000000000005</v>
+        <v>0.52707999999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>0.52290999999999999</v>
+        <v>0.53290000000000004</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.53527999999999998</v>
+        <v>2.8163400000000003</v>
       </c>
       <c r="Z20" s="1">
-        <v>0.53058000000000005</v>
+        <v>0.60331999999999997</v>
       </c>
       <c r="AA20" s="1">
-        <v>0.55898000000000003</v>
+        <v>0.51513999999999993</v>
       </c>
       <c r="AB20" s="1">
-        <v>0.54164999999999996</v>
+        <v>0.47778000000000004</v>
       </c>
       <c r="AC20" s="1">
-        <v>0.53768000000000005</v>
+        <v>0.55322000000000005</v>
       </c>
       <c r="AD20" s="4">
-        <f t="shared" si="12"/>
-        <v>0.53845714285714286</v>
+        <f t="shared" si="11"/>
+        <v>0.86082571428571419</v>
       </c>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1">
-        <v>0.14599999999999999</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>0.2</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.14699999999999999</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="AJ20" s="1">
-        <v>0.247</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>0.16900000000000001</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>0.251</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="AM20" s="1">
-        <v>0.14699999999999999</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="AN20" s="4">
-        <f t="shared" si="13"/>
-        <v>0.18671428571428575</v>
+        <f t="shared" si="12"/>
+        <v>0.20485714285714285</v>
       </c>
       <c r="AO20" s="1"/>
       <c r="AP20" s="2"/>
@@ -2652,55 +2503,116 @@
       <c r="AU20" s="2"/>
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.50962999999999992</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.51144000000000001</v>
+      </c>
+      <c r="E21" s="1">
+        <v>7.6715100000000005</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.47020000000000001</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.53813000000000011</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.68424000000000007</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.49065000000000003</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.51150999999999991</v>
+      </c>
       <c r="K21" s="4">
-        <f t="shared" ref="K21" si="14">AVERAGE(C16:J20)</f>
-        <v>0.98796975000000009</v>
+        <f t="shared" si="9"/>
+        <v>1.4234137500000001</v>
       </c>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1">
-        <f t="shared" ref="T21" si="15">AVERAGE(M16:S20)</f>
-        <v>0.55126228571428559</v>
+      <c r="M21" s="1">
+        <v>0.48315000000000002</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.44927</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0.45702999999999999</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0.50746000000000002</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0.43253999999999998</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0.43528</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0.55931999999999993</v>
+      </c>
+      <c r="T21" s="4">
+        <f t="shared" si="10"/>
+        <v>0.47486428571428574</v>
       </c>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1">
-        <f t="shared" ref="AD21" si="16">AVERAGE(W16:AC20)</f>
-        <v>0.62747000000000008</v>
+      <c r="W21" s="1">
+        <v>0.56410000000000005</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0.55113000000000001</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>0.59287000000000001</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>0.52251000000000003</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>0.97926000000000002</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>0.53147</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>0.58164000000000005</v>
+      </c>
+      <c r="AD21" s="4">
+        <f t="shared" si="11"/>
+        <v>0.61756857142857147</v>
       </c>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
-      <c r="AJ21" s="1"/>
-      <c r="AK21" s="1"/>
-      <c r="AL21" s="1"/>
-      <c r="AM21" s="1"/>
-      <c r="AN21" s="1">
-        <f t="shared" ref="AN21" si="17">AVERAGE(AG16:AM20)</f>
-        <v>0.24342857142857141</v>
+      <c r="AG21" s="1">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>0.182</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>0.215</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>0.218</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AN21" s="4">
+        <f t="shared" si="12"/>
+        <v>0.20428571428571432</v>
       </c>
       <c r="AO21" s="1"/>
       <c r="AP21" s="2"/>
@@ -2712,115 +2624,115 @@
     </row>
     <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1">
-        <v>0.68110000000000004</v>
+        <v>0.50367999999999991</v>
       </c>
       <c r="D22" s="1">
-        <v>0.76385999999999998</v>
+        <v>0.46415999999999996</v>
       </c>
       <c r="E22" s="1">
-        <v>1.8717899999999998</v>
+        <v>0.46276</v>
       </c>
       <c r="F22" s="1">
-        <v>0.66529000000000005</v>
+        <v>0.49456999999999995</v>
       </c>
       <c r="G22" s="1">
-        <v>0.75339999999999996</v>
+        <v>0.46781</v>
       </c>
       <c r="H22" s="1">
-        <v>0.87936000000000003</v>
+        <v>0.49790000000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>0.67745</v>
+        <v>0.59694999999999998</v>
       </c>
       <c r="J22" s="1">
-        <v>0.72914000000000001</v>
+        <v>0.63841999999999999</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" ref="K22" si="18">AVERAGE(C22:J22)</f>
-        <v>0.87767375000000003</v>
+        <f t="shared" si="9"/>
+        <v>0.51578124999999997</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
-        <v>0.75700000000000001</v>
+        <v>0.37215000000000004</v>
       </c>
       <c r="N22" s="1">
-        <v>0.37282999999999999</v>
+        <v>0.50641000000000003</v>
       </c>
       <c r="O22" s="1">
-        <v>0.44990999999999998</v>
+        <v>0.50566</v>
       </c>
       <c r="P22" s="1">
-        <v>0.45185999999999998</v>
+        <v>0.40912999999999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>0.44641999999999998</v>
+        <v>0.39571000000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>0.41553000000000001</v>
+        <v>0.37661999999999995</v>
       </c>
       <c r="S22" s="1">
-        <v>0.41299000000000002</v>
+        <v>0.43131000000000003</v>
       </c>
       <c r="T22" s="4">
-        <f t="shared" ref="T22" si="19">AVERAGE(L22:S22)</f>
-        <v>0.47236285714285714</v>
+        <f t="shared" si="10"/>
+        <v>0.42814142857142856</v>
       </c>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1">
-        <v>0.83318000000000003</v>
+        <v>0.56440999999999997</v>
       </c>
       <c r="X22" s="1">
-        <v>0.54527000000000003</v>
+        <v>0.54798000000000002</v>
       </c>
       <c r="Y22" s="1">
-        <v>1.69374</v>
+        <v>0.54364000000000001</v>
       </c>
       <c r="Z22" s="1">
-        <v>1.0069899999999998</v>
+        <v>0.53622999999999998</v>
       </c>
       <c r="AA22" s="1">
-        <v>0.86738999999999999</v>
+        <v>0.52193000000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>0.80752000000000002</v>
+        <v>0.6238800000000001</v>
       </c>
       <c r="AC22" s="1">
-        <v>0.71168999999999993</v>
+        <v>0.54874000000000001</v>
       </c>
       <c r="AD22" s="4">
-        <f t="shared" ref="AD22" si="20">AVERAGE(V22:AC22)</f>
-        <v>0.92368285714285725</v>
+        <f t="shared" si="11"/>
+        <v>0.55525857142857149</v>
       </c>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1">
-        <v>8.3079999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="AH22" s="1">
-        <v>0.20100000000000001</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.16300000000000001</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="AJ22" s="1">
-        <v>0.20499999999999999</v>
+        <v>0.193</v>
       </c>
       <c r="AK22" s="1">
-        <v>0.21099999999999999</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>0.193</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>0.16300000000000001</v>
+        <v>0.156</v>
       </c>
       <c r="AN22" s="4">
-        <f>AVERAGE(AF22:AM22)</f>
-        <v>1.3491428571428572</v>
+        <f t="shared" si="12"/>
+        <v>0.17699999999999999</v>
       </c>
       <c r="AO22" s="1"/>
       <c r="AP22" s="2"/>
@@ -2832,115 +2744,115 @@
     </row>
     <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C23" s="1">
-        <v>0.54724000000000006</v>
+        <v>0.62934000000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>0.49654999999999999</v>
+        <v>0.64824000000000004</v>
       </c>
       <c r="E23" s="1">
-        <v>0.50429000000000002</v>
+        <v>0.58874000000000004</v>
       </c>
       <c r="F23" s="1">
-        <v>0.50157999999999991</v>
+        <v>0.57954000000000006</v>
       </c>
       <c r="G23" s="1">
-        <v>0.49735000000000001</v>
+        <v>0.66040999999999994</v>
       </c>
       <c r="H23" s="1">
-        <v>0.51130999999999993</v>
+        <v>0.68108999999999997</v>
       </c>
       <c r="I23" s="1">
-        <v>0.46639000000000003</v>
+        <v>0.54907000000000006</v>
       </c>
       <c r="J23" s="1">
-        <v>0.52117000000000002</v>
+        <v>0.71128000000000002</v>
       </c>
       <c r="K23" s="4">
-        <f t="shared" si="10"/>
-        <v>0.50573500000000005</v>
+        <f t="shared" si="9"/>
+        <v>0.63096375000000016</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1">
-        <v>0.55307000000000006</v>
+        <v>0.40756000000000003</v>
       </c>
       <c r="N23" s="1">
-        <v>0.42763000000000001</v>
+        <v>0.38174999999999998</v>
       </c>
       <c r="O23" s="1">
-        <v>0.41623000000000004</v>
+        <v>0.39617000000000002</v>
       </c>
       <c r="P23" s="1">
-        <v>0.41604999999999998</v>
+        <v>0.38364999999999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>0.41549000000000003</v>
+        <v>0.38591999999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>0.40986</v>
+        <v>0.46546999999999999</v>
       </c>
       <c r="S23" s="1">
-        <v>0.41336999999999996</v>
+        <v>0.37480000000000002</v>
       </c>
       <c r="T23" s="4">
-        <f t="shared" si="11"/>
-        <v>0.43595714285714288</v>
+        <f t="shared" si="10"/>
+        <v>0.39933142857142861</v>
       </c>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1">
-        <v>0.58345000000000002</v>
+        <v>0.54212000000000005</v>
       </c>
       <c r="X23" s="1">
-        <v>0.12753</v>
+        <v>0.52290999999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.51380999999999999</v>
+        <v>0.53527999999999998</v>
       </c>
       <c r="Z23" s="1">
-        <v>0.60535000000000005</v>
+        <v>0.53058000000000005</v>
       </c>
       <c r="AA23" s="1">
-        <v>0.63814000000000004</v>
+        <v>0.55898000000000003</v>
       </c>
       <c r="AB23" s="1">
-        <v>0.52475000000000005</v>
+        <v>0.54164999999999996</v>
       </c>
       <c r="AC23" s="1">
-        <v>0.61138999999999999</v>
+        <v>0.53768000000000005</v>
       </c>
       <c r="AD23" s="4">
-        <f t="shared" si="12"/>
-        <v>0.51491714285714285</v>
+        <f t="shared" si="11"/>
+        <v>0.53845714285714286</v>
       </c>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1">
-        <v>0.41099999999999998</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="AH23" s="1">
-        <v>0.224</v>
+        <v>0.2</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.14299999999999999</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="AJ23" s="1">
-        <v>0.193</v>
+        <v>0.247</v>
       </c>
       <c r="AK23" s="1">
-        <v>0.153</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>0.14799999999999999</v>
+        <v>0.251</v>
       </c>
       <c r="AM23" s="1">
-        <v>1.4690000000000001</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="AN23" s="4">
-        <f t="shared" si="13"/>
-        <v>0.39157142857142857</v>
+        <f t="shared" si="12"/>
+        <v>0.18671428571428575</v>
       </c>
       <c r="AO23" s="1"/>
       <c r="AP23" s="2"/>
@@ -2950,117 +2862,64 @@
       <c r="AT23" s="2"/>
       <c r="AU23" s="2"/>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.77904000000000007</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.49881999999999999</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0.63805999999999996</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.50456000000000001</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0.45716000000000001</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0.51398999999999995</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0.90094999999999992</v>
-      </c>
-      <c r="K24" s="4">
-        <f t="shared" si="10"/>
-        <v>0.61819750000000007</v>
+    <row r="24" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J24" s="12"/>
+      <c r="K24" s="13">
+        <f t="shared" ref="K24" si="13">AVERAGE(C19:J23)</f>
+        <v>0.98796975000000009</v>
       </c>
       <c r="L24" s="1"/>
-      <c r="M24" s="1">
-        <v>0.42943000000000003</v>
-      </c>
-      <c r="N24" s="1">
-        <v>0.52783000000000002</v>
-      </c>
-      <c r="O24" s="1">
-        <v>0.41759000000000002</v>
-      </c>
-      <c r="P24" s="1">
-        <v>0.42069999999999996</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>0.40786</v>
-      </c>
-      <c r="R24" s="1">
-        <v>0.41603000000000001</v>
-      </c>
-      <c r="S24" s="1">
-        <v>0.42980999999999997</v>
-      </c>
-      <c r="T24" s="4">
-        <f t="shared" si="11"/>
-        <v>0.4356071428571428</v>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="S24" s="12"/>
+      <c r="T24" s="11">
+        <f t="shared" ref="T24" si="14">AVERAGE(M19:S23)</f>
+        <v>0.55126228571428559</v>
       </c>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
-      <c r="W24" s="1">
-        <v>0.55024000000000006</v>
-      </c>
-      <c r="X24" s="1">
-        <v>0.51395000000000002</v>
-      </c>
-      <c r="Y24" s="1">
-        <v>0.61480000000000001</v>
-      </c>
-      <c r="Z24" s="1">
-        <v>0.52254</v>
-      </c>
-      <c r="AA24" s="1">
-        <v>0.55198000000000003</v>
-      </c>
-      <c r="AB24" s="1">
-        <v>0.55111999999999994</v>
-      </c>
-      <c r="AC24" s="1">
-        <v>0.58418999999999999</v>
-      </c>
-      <c r="AD24" s="4">
-        <f t="shared" si="12"/>
-        <v>0.55554571428571431</v>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="11">
+        <f t="shared" ref="AD24" si="15">AVERAGE(W19:AC23)</f>
+        <v>0.62747000000000008</v>
       </c>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
-      <c r="AG24" s="1">
-        <v>0.186</v>
-      </c>
-      <c r="AH24" s="1">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="AI24" s="1">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="AJ24" s="1">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="AK24" s="1">
-        <v>0.185</v>
-      </c>
-      <c r="AL24" s="1">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="AM24" s="1">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="AN24" s="4">
-        <f t="shared" si="13"/>
-        <v>0.21257142857142858</v>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM24" s="12"/>
+      <c r="AN24" s="11">
+        <f t="shared" ref="AN24" si="16">AVERAGE(AG19:AM23)</f>
+        <v>0.24342857142857141</v>
       </c>
       <c r="AO24" s="1"/>
       <c r="AP24" s="2"/>
@@ -3070,117 +2929,117 @@
       <c r="AT24" s="2"/>
       <c r="AU24" s="2"/>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1">
-        <v>1.0189699999999999</v>
+        <v>0.68110000000000004</v>
       </c>
       <c r="D25" s="1">
-        <v>0.67222999999999999</v>
+        <v>0.76385999999999998</v>
       </c>
       <c r="E25" s="1">
-        <v>0.50217000000000001</v>
+        <v>1.8717899999999998</v>
       </c>
       <c r="F25" s="1">
-        <v>0.53300000000000003</v>
+        <v>0.66529000000000005</v>
       </c>
       <c r="G25" s="1">
-        <v>0.59783999999999993</v>
+        <v>0.75339999999999996</v>
       </c>
       <c r="H25" s="1">
-        <v>0.50421000000000005</v>
+        <v>0.87936000000000003</v>
       </c>
       <c r="I25" s="1">
-        <v>2.49899</v>
+        <v>0.67745</v>
       </c>
       <c r="J25" s="1">
-        <v>0.57782</v>
+        <v>0.72914000000000001</v>
       </c>
       <c r="K25" s="4">
-        <f t="shared" si="10"/>
-        <v>0.86315375000000005</v>
+        <f t="shared" ref="K25" si="17">AVERAGE(C25:J25)</f>
+        <v>0.87767375000000003</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
-        <v>0.50023000000000006</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="N25" s="1">
-        <v>0.44399</v>
+        <v>0.37282999999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.40878000000000003</v>
+        <v>0.44990999999999998</v>
       </c>
       <c r="P25" s="1">
-        <v>0.42403999999999997</v>
+        <v>0.45185999999999998</v>
       </c>
       <c r="Q25" s="1">
-        <v>0.41205999999999998</v>
+        <v>0.44641999999999998</v>
       </c>
       <c r="R25" s="1">
-        <v>0.41741</v>
+        <v>0.41553000000000001</v>
       </c>
       <c r="S25" s="1">
-        <v>0.41166999999999998</v>
+        <v>0.41299000000000002</v>
       </c>
       <c r="T25" s="4">
-        <f t="shared" si="11"/>
-        <v>0.43116857142857146</v>
+        <f t="shared" ref="T25" si="18">AVERAGE(L25:S25)</f>
+        <v>0.47236285714285714</v>
       </c>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1">
-        <v>0.63593999999999995</v>
+        <v>0.83318000000000003</v>
       </c>
       <c r="X25" s="1">
-        <v>0.62702000000000002</v>
+        <v>0.54527000000000003</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.70877999999999997</v>
+        <v>1.69374</v>
       </c>
       <c r="Z25" s="1">
-        <v>0.88846000000000003</v>
+        <v>1.0069899999999998</v>
       </c>
       <c r="AA25" s="1">
-        <v>0.66204999999999992</v>
+        <v>0.86738999999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>0.87025000000000008</v>
+        <v>0.80752000000000002</v>
       </c>
       <c r="AC25" s="1">
-        <v>0.82049000000000005</v>
+        <v>0.71168999999999993</v>
       </c>
       <c r="AD25" s="4">
-        <f t="shared" si="12"/>
-        <v>0.74471285714285718</v>
+        <f t="shared" ref="AD25" si="19">AVERAGE(V25:AC25)</f>
+        <v>0.92368285714285725</v>
       </c>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
       <c r="AG25" s="1">
-        <v>0.16700000000000001</v>
+        <v>8.3079999999999998</v>
       </c>
       <c r="AH25" s="1">
-        <v>0.18099999999999999</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.14199999999999999</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="AJ25" s="1">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="AK25" s="1">
         <v>0.21099999999999999</v>
       </c>
-      <c r="AK25" s="1">
-        <v>0.16500000000000001</v>
-      </c>
       <c r="AL25" s="1">
-        <v>0.14299999999999999</v>
+        <v>0.193</v>
       </c>
       <c r="AM25" s="1">
-        <v>0.152</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="AN25" s="4">
-        <f t="shared" si="13"/>
-        <v>0.16585714285714284</v>
+        <f>AVERAGE(AF25:AM25)</f>
+        <v>1.3491428571428572</v>
       </c>
       <c r="AO25" s="1"/>
       <c r="AP25" s="2"/>
@@ -3192,115 +3051,115 @@
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C26" s="1">
-        <v>0.5835499999999999</v>
+        <v>0.54724000000000006</v>
       </c>
       <c r="D26" s="1">
-        <v>3.1245000000000003</v>
+        <v>0.49654999999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.57384999999999997</v>
+        <v>0.50429000000000002</v>
       </c>
       <c r="F26" s="1">
-        <v>0.53377999999999992</v>
+        <v>0.50157999999999991</v>
       </c>
       <c r="G26" s="1">
-        <v>0.51493999999999995</v>
+        <v>0.49735000000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>0.56447999999999998</v>
+        <v>0.51130999999999993</v>
       </c>
       <c r="I26" s="1">
-        <v>0.56384000000000001</v>
+        <v>0.46639000000000003</v>
       </c>
       <c r="J26" s="1">
-        <v>0.53007000000000004</v>
+        <v>0.52117000000000002</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" si="10"/>
-        <v>0.87362625000000005</v>
+        <f t="shared" si="9"/>
+        <v>0.50573500000000005</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
-        <v>0.41793000000000002</v>
+        <v>0.55307000000000006</v>
       </c>
       <c r="N26" s="1">
-        <v>0.42026999999999998</v>
+        <v>0.42763000000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.42066999999999999</v>
+        <v>0.41623000000000004</v>
       </c>
       <c r="P26" s="1">
-        <v>0.44178000000000001</v>
+        <v>0.41604999999999998</v>
       </c>
       <c r="Q26" s="1">
-        <v>0.38601000000000002</v>
+        <v>0.41549000000000003</v>
       </c>
       <c r="R26" s="1">
-        <v>0.46068999999999999</v>
+        <v>0.40986</v>
       </c>
       <c r="S26" s="1">
-        <v>0.46132000000000001</v>
+        <v>0.41336999999999996</v>
       </c>
       <c r="T26" s="4">
-        <f t="shared" si="11"/>
-        <v>0.42981000000000008</v>
+        <f t="shared" si="10"/>
+        <v>0.43595714285714288</v>
       </c>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1">
-        <v>0.64668999999999999</v>
+        <v>0.58345000000000002</v>
       </c>
       <c r="X26" s="1">
-        <v>0.55192999999999992</v>
+        <v>0.12753</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.56033000000000011</v>
+        <v>0.51380999999999999</v>
       </c>
       <c r="Z26" s="1">
-        <v>0.6463000000000001</v>
+        <v>0.60535000000000005</v>
       </c>
       <c r="AA26" s="1">
-        <v>0.53112000000000004</v>
+        <v>0.63814000000000004</v>
       </c>
       <c r="AB26" s="1">
-        <v>0.53740999999999994</v>
+        <v>0.52475000000000005</v>
       </c>
       <c r="AC26" s="1">
-        <v>0.69937000000000005</v>
+        <v>0.61138999999999999</v>
       </c>
       <c r="AD26" s="4">
-        <f t="shared" si="12"/>
-        <v>0.5961642857142857</v>
+        <f t="shared" si="11"/>
+        <v>0.51491714285714285</v>
       </c>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1">
-        <v>0.17699999999999999</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="AH26" s="1">
-        <v>0.18099999999999999</v>
+        <v>0.224</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.13700000000000001</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="AJ26" s="1">
-        <v>0.21199999999999999</v>
+        <v>0.193</v>
       </c>
       <c r="AK26" s="1">
-        <v>0.25800000000000001</v>
+        <v>0.153</v>
       </c>
       <c r="AL26" s="1">
-        <v>0.17</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="AM26" s="1">
-        <v>0.20300000000000001</v>
+        <v>1.4690000000000001</v>
       </c>
       <c r="AN26" s="4">
-        <f t="shared" si="13"/>
-        <v>0.19114285714285714</v>
+        <f t="shared" si="12"/>
+        <v>0.39157142857142857</v>
       </c>
       <c r="AO26" s="1"/>
       <c r="AP26" s="2"/>
@@ -3311,55 +3170,116 @@
       <c r="AU26" s="2"/>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.77904000000000007</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.49881999999999999</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.63805999999999996</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.50456000000000001</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.45716000000000001</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.51398999999999995</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.90094999999999992</v>
+      </c>
       <c r="K27" s="4">
-        <f t="shared" ref="K27" si="21">AVERAGE(C22:J26)</f>
-        <v>0.74767724999999996</v>
+        <f t="shared" si="9"/>
+        <v>0.61819750000000007</v>
       </c>
       <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1">
-        <f t="shared" ref="T27" si="22">AVERAGE(M22:S26)</f>
-        <v>0.44098114285714279</v>
+      <c r="M27" s="1">
+        <v>0.42943000000000003</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0.52783000000000002</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0.41759000000000002</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0.42069999999999996</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0.40786</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0.41603000000000001</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0.42980999999999997</v>
+      </c>
+      <c r="T27" s="4">
+        <f t="shared" si="10"/>
+        <v>0.4356071428571428</v>
       </c>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1">
-        <f t="shared" ref="AD27" si="23">AVERAGE(W22:AC26)</f>
-        <v>0.66700457142857139</v>
+      <c r="W27" s="1">
+        <v>0.55024000000000006</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0.51395000000000002</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>0.61480000000000001</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>0.52254</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>0.55198000000000003</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>0.55111999999999994</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>0.58418999999999999</v>
+      </c>
+      <c r="AD27" s="4">
+        <f t="shared" si="11"/>
+        <v>0.55554571428571431</v>
       </c>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="1"/>
-      <c r="AJ27" s="1"/>
-      <c r="AK27" s="1"/>
-      <c r="AL27" s="1"/>
-      <c r="AM27" s="1"/>
-      <c r="AN27" s="1">
-        <f t="shared" ref="AN27" si="24">AVERAGE(AG22:AM26)</f>
-        <v>0.46205714285714278</v>
+      <c r="AG27" s="1">
+        <v>0.186</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="AI27" s="1">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="AJ27" s="1">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="AK27" s="1">
+        <v>0.185</v>
+      </c>
+      <c r="AL27" s="1">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="AM27" s="1">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="AN27" s="4">
+        <f t="shared" si="12"/>
+        <v>0.21257142857142858</v>
       </c>
       <c r="AO27" s="1"/>
       <c r="AP27" s="2"/>
@@ -3371,115 +3291,115 @@
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C28" s="1">
-        <v>0.71282000000000001</v>
+        <v>1.0189699999999999</v>
       </c>
       <c r="D28" s="1">
-        <v>0.69696999999999998</v>
+        <v>0.67222999999999999</v>
       </c>
       <c r="E28" s="1">
-        <v>0.71128999999999998</v>
+        <v>0.50217000000000001</v>
       </c>
       <c r="F28" s="1">
-        <v>0.66673000000000004</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="G28" s="1">
-        <v>0.62373999999999996</v>
+        <v>0.59783999999999993</v>
       </c>
       <c r="H28" s="1">
-        <v>0.78408</v>
+        <v>0.50421000000000005</v>
       </c>
       <c r="I28" s="1">
-        <v>0.69965999999999995</v>
+        <v>2.49899</v>
       </c>
       <c r="J28" s="1">
-        <v>0.84931000000000001</v>
+        <v>0.57782</v>
       </c>
       <c r="K28" s="4">
-        <f t="shared" ref="K28" si="25">AVERAGE(C28:J28)</f>
-        <v>0.71807500000000002</v>
+        <f t="shared" si="9"/>
+        <v>0.86315375000000005</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1">
-        <v>3.7829999999999999</v>
+        <v>0.50023000000000006</v>
       </c>
       <c r="N28" s="1">
-        <v>0.53713</v>
+        <v>0.44399</v>
       </c>
       <c r="O28" s="1">
-        <v>0.78186</v>
+        <v>0.40878000000000003</v>
       </c>
       <c r="P28" s="1">
-        <v>0.54164000000000001</v>
+        <v>0.42403999999999997</v>
       </c>
       <c r="Q28" s="1">
-        <v>0.54425999999999997</v>
+        <v>0.41205999999999998</v>
       </c>
       <c r="R28" s="1">
-        <v>0.55937000000000003</v>
+        <v>0.41741</v>
       </c>
       <c r="S28" s="1">
-        <v>0.56476999999999999</v>
+        <v>0.41166999999999998</v>
       </c>
       <c r="T28" s="4">
-        <f t="shared" ref="T28" si="26">AVERAGE(L28:S28)</f>
-        <v>1.0445757142857144</v>
+        <f t="shared" si="10"/>
+        <v>0.43116857142857146</v>
       </c>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1">
-        <v>2854.4576400000001</v>
+        <v>0.63593999999999995</v>
       </c>
       <c r="X28" s="1">
-        <v>1.6981200000000001</v>
+        <v>0.62702000000000002</v>
       </c>
       <c r="Y28" s="1">
-        <v>2.10317</v>
+        <v>0.70877999999999997</v>
       </c>
       <c r="Z28" s="1">
-        <v>1.5918600000000001</v>
+        <v>0.88846000000000003</v>
       </c>
       <c r="AA28" s="1">
-        <v>1.6415</v>
+        <v>0.66204999999999992</v>
       </c>
       <c r="AB28" s="1">
-        <v>1.6665099999999999</v>
+        <v>0.87025000000000008</v>
       </c>
       <c r="AC28" s="1">
-        <v>1.54033</v>
+        <v>0.82049000000000005</v>
       </c>
       <c r="AD28" s="4">
-        <f>AVERAGE(V28:AC28)</f>
-        <v>409.24273285714287</v>
+        <f t="shared" si="11"/>
+        <v>0.74471285714285718</v>
       </c>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1">
-        <v>0.371</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="AH28" s="1">
-        <v>0.35499999999999998</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="AI28" s="1">
-        <v>0.35599999999999998</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="AJ28" s="1">
-        <v>0.39200000000000002</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="AK28" s="1">
-        <v>0.40300000000000002</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="AL28" s="1">
-        <v>0.41</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="AM28" s="1">
-        <v>0.77</v>
+        <v>0.152</v>
       </c>
       <c r="AN28" s="4">
-        <f>AVERAGE(AF28:AM28)</f>
-        <v>0.43671428571428572</v>
+        <f t="shared" si="12"/>
+        <v>0.16585714285714284</v>
       </c>
       <c r="AO28" s="1"/>
       <c r="AP28" s="2"/>
@@ -3491,115 +3411,115 @@
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C29" s="1">
-        <v>0.51449999999999996</v>
+        <v>0.5835499999999999</v>
       </c>
       <c r="D29" s="1">
-        <v>0.46015</v>
+        <v>3.1245000000000003</v>
       </c>
       <c r="E29" s="1">
-        <v>0.47003</v>
+        <v>0.57384999999999997</v>
       </c>
       <c r="F29" s="1">
-        <v>0.57797999999999994</v>
+        <v>0.53377999999999992</v>
       </c>
       <c r="G29" s="1">
-        <v>0.45549000000000001</v>
+        <v>0.51493999999999995</v>
       </c>
       <c r="H29" s="1">
-        <v>0.49098999999999998</v>
+        <v>0.56447999999999998</v>
       </c>
       <c r="I29" s="1">
-        <v>0.46560999999999997</v>
+        <v>0.56384000000000001</v>
       </c>
       <c r="J29" s="1">
-        <v>0.44449</v>
+        <v>0.53007000000000004</v>
       </c>
       <c r="K29" s="4">
-        <f t="shared" si="10"/>
-        <v>0.48490500000000003</v>
+        <f t="shared" si="9"/>
+        <v>0.87362625000000005</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
-        <v>2.6312199999999999</v>
+        <v>0.41793000000000002</v>
       </c>
       <c r="N29" s="1">
-        <v>0.40698999999999996</v>
+        <v>0.42026999999999998</v>
       </c>
       <c r="O29" s="1">
-        <v>0.37274999999999997</v>
+        <v>0.42066999999999999</v>
       </c>
       <c r="P29" s="1">
-        <v>0.37680000000000002</v>
+        <v>0.44178000000000001</v>
       </c>
       <c r="Q29" s="1">
-        <v>0.43956000000000001</v>
+        <v>0.38601000000000002</v>
       </c>
       <c r="R29" s="1">
-        <v>0.50492999999999999</v>
+        <v>0.46068999999999999</v>
       </c>
       <c r="S29" s="1">
-        <v>0.47028000000000003</v>
+        <v>0.46132000000000001</v>
       </c>
       <c r="T29" s="4">
-        <f t="shared" si="11"/>
-        <v>0.7432185714285714</v>
+        <f t="shared" si="10"/>
+        <v>0.42981000000000008</v>
       </c>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1">
-        <v>100.00997000000001</v>
+        <v>0.64668999999999999</v>
       </c>
       <c r="X29" s="1">
-        <v>0.56638999999999995</v>
+        <v>0.55192999999999992</v>
       </c>
       <c r="Y29" s="1">
-        <v>0.54905999999999999</v>
+        <v>0.56033000000000011</v>
       </c>
       <c r="Z29" s="1">
-        <v>0.5515500000000001</v>
+        <v>0.6463000000000001</v>
       </c>
       <c r="AA29" s="1">
-        <v>0.55026999999999993</v>
+        <v>0.53112000000000004</v>
       </c>
       <c r="AB29" s="1">
-        <v>0.55924999999999991</v>
+        <v>0.53740999999999994</v>
       </c>
       <c r="AC29" s="1">
-        <v>0.5484</v>
+        <v>0.69937000000000005</v>
       </c>
       <c r="AD29" s="4">
-        <f t="shared" si="12"/>
-        <v>14.762127142857144</v>
+        <f t="shared" si="11"/>
+        <v>0.5961642857142857</v>
       </c>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
       <c r="AG29" s="1">
-        <v>0.42599999999999999</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="AH29" s="1">
-        <v>0.29499999999999998</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="AI29" s="1">
-        <v>0.32700000000000001</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="AJ29" s="1">
-        <v>0.309</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="AK29" s="1">
-        <v>0.35499999999999998</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="AL29" s="1">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
       <c r="AM29" s="1">
-        <v>0.36499999999999999</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="AN29" s="4">
-        <f t="shared" si="13"/>
-        <v>0.33957142857142852</v>
+        <f t="shared" si="12"/>
+        <v>0.19114285714285714</v>
       </c>
       <c r="AO29" s="1"/>
       <c r="AP29" s="2"/>
@@ -3609,117 +3529,64 @@
       <c r="AT29" s="2"/>
       <c r="AU29" s="2"/>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0.47352</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.47237000000000001</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0.46890000000000004</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0.46532000000000001</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0.47858999999999996</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0.46733000000000002</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0.44517999999999996</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0.4541</v>
-      </c>
-      <c r="K30" s="4">
-        <f t="shared" si="10"/>
-        <v>0.46566374999999999</v>
+    <row r="30" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J30" s="12"/>
+      <c r="K30" s="13">
+        <f t="shared" ref="K30" si="20">AVERAGE(C25:J29)</f>
+        <v>0.74767724999999996</v>
       </c>
       <c r="L30" s="1"/>
-      <c r="M30" s="1">
-        <v>6.93492</v>
-      </c>
-      <c r="N30" s="1">
-        <v>1.0752699999999999</v>
-      </c>
-      <c r="O30" s="1">
-        <v>0.91120000000000001</v>
-      </c>
-      <c r="P30" s="1">
-        <v>0.85665999999999998</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>0.91560999999999992</v>
-      </c>
-      <c r="R30" s="1">
-        <v>0.88117999999999996</v>
-      </c>
-      <c r="S30" s="1">
-        <v>0.87741999999999998</v>
-      </c>
-      <c r="T30" s="4">
-        <f t="shared" si="11"/>
-        <v>1.7788942857142855</v>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="S30" s="12"/>
+      <c r="T30" s="11">
+        <f t="shared" ref="T30" si="21">AVERAGE(M25:S29)</f>
+        <v>0.44098114285714279</v>
       </c>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
-      <c r="W30" s="1">
-        <v>47.337579999999996</v>
-      </c>
-      <c r="X30" s="1">
-        <v>0.52081</v>
-      </c>
-      <c r="Y30" s="1">
-        <v>0.51634999999999998</v>
-      </c>
-      <c r="Z30" s="1">
-        <v>0.55501</v>
-      </c>
-      <c r="AA30" s="1">
-        <v>0.52068000000000003</v>
-      </c>
-      <c r="AB30" s="1">
-        <v>0.56296000000000002</v>
-      </c>
-      <c r="AC30" s="1">
-        <v>0.58855000000000002</v>
-      </c>
-      <c r="AD30" s="4">
-        <f t="shared" si="12"/>
-        <v>7.2288485714285704</v>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="11">
+        <f t="shared" ref="AD30" si="22">AVERAGE(W25:AC29)</f>
+        <v>0.66700457142857139</v>
       </c>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
-      <c r="AG30" s="1">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="AH30" s="1">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="AI30" s="1">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="AJ30" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="AK30" s="1">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="AL30" s="1">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="AM30" s="1">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="AN30" s="4">
-        <f t="shared" si="13"/>
-        <v>0.13914285714285715</v>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM30" s="12"/>
+      <c r="AN30" s="11">
+        <f t="shared" ref="AN30" si="23">AVERAGE(AG25:AM29)</f>
+        <v>0.46205714285714278</v>
       </c>
       <c r="AO30" s="1"/>
       <c r="AP30" s="2"/>
@@ -3729,117 +3596,117 @@
       <c r="AT30" s="2"/>
       <c r="AU30" s="2"/>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C31" s="1">
-        <v>0.47952</v>
+        <v>0.71282000000000001</v>
       </c>
       <c r="D31" s="1">
-        <v>0.49229999999999996</v>
+        <v>0.69696999999999998</v>
       </c>
       <c r="E31" s="1">
-        <v>0.45885000000000004</v>
+        <v>0.71128999999999998</v>
       </c>
       <c r="F31" s="1">
-        <v>0.45051999999999998</v>
+        <v>0.66673000000000004</v>
       </c>
       <c r="G31" s="1">
-        <v>0.47100000000000003</v>
+        <v>0.62373999999999996</v>
       </c>
       <c r="H31" s="1">
-        <v>0.46340999999999999</v>
+        <v>0.78408</v>
       </c>
       <c r="I31" s="1">
-        <v>0.47377999999999998</v>
+        <v>0.69965999999999995</v>
       </c>
       <c r="J31" s="1">
-        <v>0.48845</v>
+        <v>0.84931000000000001</v>
       </c>
       <c r="K31" s="4">
-        <f t="shared" si="10"/>
-        <v>0.47222874999999997</v>
+        <f t="shared" ref="K31" si="24">AVERAGE(C31:J31)</f>
+        <v>0.71807500000000002</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
-        <v>0.49989</v>
+        <v>3.7829999999999999</v>
       </c>
       <c r="N31" s="1">
-        <v>0.38590999999999998</v>
+        <v>0.53713</v>
       </c>
       <c r="O31" s="1">
-        <v>0.40101999999999999</v>
+        <v>0.78186</v>
       </c>
       <c r="P31" s="1">
-        <v>0.38775999999999999</v>
+        <v>0.54164000000000001</v>
       </c>
       <c r="Q31" s="1">
-        <v>1.9806300000000001</v>
+        <v>0.54425999999999997</v>
       </c>
       <c r="R31" s="1">
-        <v>0.39462999999999998</v>
+        <v>0.55937000000000003</v>
       </c>
       <c r="S31" s="1">
-        <v>0.42651</v>
+        <v>0.56476999999999999</v>
       </c>
       <c r="T31" s="4">
-        <f t="shared" si="11"/>
-        <v>0.63947857142857145</v>
+        <f t="shared" ref="T31" si="25">AVERAGE(L31:S31)</f>
+        <v>1.0445757142857144</v>
       </c>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1">
-        <v>67.304509999999993</v>
+        <v>2854.4576400000001</v>
       </c>
       <c r="X31" s="1">
-        <v>0.57017000000000007</v>
+        <v>1.6981200000000001</v>
       </c>
       <c r="Y31" s="1">
-        <v>0.55042000000000002</v>
+        <v>2.10317</v>
       </c>
       <c r="Z31" s="1">
-        <v>0.55190000000000006</v>
+        <v>1.5918600000000001</v>
       </c>
       <c r="AA31" s="1">
-        <v>0.53804000000000007</v>
+        <v>1.6415</v>
       </c>
       <c r="AB31" s="1">
-        <v>0.55137000000000003</v>
+        <v>1.6665099999999999</v>
       </c>
       <c r="AC31" s="1">
-        <v>0.53417000000000003</v>
+        <v>1.54033</v>
       </c>
       <c r="AD31" s="4">
-        <f t="shared" si="12"/>
-        <v>10.085797142857144</v>
+        <f>AVERAGE(V31:AC31)</f>
+        <v>409.24273285714287</v>
       </c>
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
       <c r="AG31" s="1">
-        <v>0.72099999999999997</v>
+        <v>0.371</v>
       </c>
       <c r="AH31" s="1">
-        <v>0.12</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="AI31" s="1">
-        <v>0.121</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="AJ31" s="1">
-        <v>0.17100000000000001</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="AK31" s="1">
-        <v>0.11700000000000001</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="AL31" s="1">
-        <v>0.129</v>
+        <v>0.41</v>
       </c>
       <c r="AM31" s="1">
-        <v>0.13100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AN31" s="4">
-        <f t="shared" si="13"/>
-        <v>0.21571428571428572</v>
+        <f>AVERAGE(AF31:AM31)</f>
+        <v>0.43671428571428572</v>
       </c>
       <c r="AO31" s="1"/>
       <c r="AP31" s="2"/>
@@ -3851,115 +3718,115 @@
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C32" s="1">
-        <v>0.55411999999999995</v>
+        <v>0.51449999999999996</v>
       </c>
       <c r="D32" s="1">
-        <v>0.72227999999999992</v>
+        <v>0.46015</v>
       </c>
       <c r="E32" s="1">
-        <v>0.74329999999999996</v>
+        <v>0.47003</v>
       </c>
       <c r="F32" s="1">
-        <v>0.65673000000000004</v>
+        <v>0.57797999999999994</v>
       </c>
       <c r="G32" s="1">
-        <v>0.62809999999999999</v>
+        <v>0.45549000000000001</v>
       </c>
       <c r="H32" s="1">
-        <v>0.65247999999999995</v>
+        <v>0.49098999999999998</v>
       </c>
       <c r="I32" s="1">
-        <v>0.63202999999999998</v>
+        <v>0.46560999999999997</v>
       </c>
       <c r="J32" s="1">
-        <v>0.64029999999999998</v>
+        <v>0.44449</v>
       </c>
       <c r="K32" s="4">
-        <f t="shared" si="10"/>
-        <v>0.65366749999999996</v>
+        <f t="shared" si="9"/>
+        <v>0.48490500000000003</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
-        <v>0.38840999999999998</v>
+        <v>2.6312199999999999</v>
       </c>
       <c r="N32" s="1">
-        <v>0.42769999999999997</v>
+        <v>0.40698999999999996</v>
       </c>
       <c r="O32" s="1">
-        <v>0.37295</v>
+        <v>0.37274999999999997</v>
       </c>
       <c r="P32" s="1">
-        <v>0.40011000000000002</v>
+        <v>0.37680000000000002</v>
       </c>
       <c r="Q32" s="1">
-        <v>0.38227999999999995</v>
+        <v>0.43956000000000001</v>
       </c>
       <c r="R32" s="1">
-        <v>0.38890000000000002</v>
+        <v>0.50492999999999999</v>
       </c>
       <c r="S32" s="1">
-        <v>0.35434000000000004</v>
+        <v>0.47028000000000003</v>
       </c>
       <c r="T32" s="4">
-        <f t="shared" si="11"/>
-        <v>0.38781285714285713</v>
+        <f t="shared" si="10"/>
+        <v>0.7432185714285714</v>
       </c>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1">
-        <v>73.69726</v>
+        <v>100.00997000000001</v>
       </c>
       <c r="X32" s="1">
-        <v>0.55029000000000006</v>
+        <v>0.56638999999999995</v>
       </c>
       <c r="Y32" s="1">
-        <v>0.56330000000000002</v>
+        <v>0.54905999999999999</v>
       </c>
       <c r="Z32" s="1">
-        <v>0.54850999999999994</v>
+        <v>0.5515500000000001</v>
       </c>
       <c r="AA32" s="1">
-        <v>0.55210999999999999</v>
+        <v>0.55026999999999993</v>
       </c>
       <c r="AB32" s="1">
-        <v>0.55032999999999999</v>
+        <v>0.55924999999999991</v>
       </c>
       <c r="AC32" s="1">
-        <v>0.56194999999999995</v>
+        <v>0.5484</v>
       </c>
       <c r="AD32" s="4">
-        <f t="shared" si="12"/>
-        <v>11.003392857142856</v>
+        <f t="shared" si="11"/>
+        <v>14.762127142857144</v>
       </c>
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
       <c r="AG32" s="1">
-        <v>0.39800000000000002</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="AH32" s="1">
-        <v>0.11600000000000001</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="AI32" s="1">
-        <v>0.12</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="AJ32" s="1">
-        <v>0.16800000000000001</v>
+        <v>0.309</v>
       </c>
       <c r="AK32" s="1">
-        <v>0.11799999999999999</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="AL32" s="1">
-        <v>0.32300000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="AM32" s="1">
-        <v>0.193</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="AN32" s="4">
-        <f t="shared" si="13"/>
-        <v>0.20514285714285715</v>
+        <f t="shared" si="12"/>
+        <v>0.33957142857142852</v>
       </c>
       <c r="AO32" s="1"/>
       <c r="AP32" s="2"/>
@@ -3969,63 +3836,472 @@
       <c r="AT32" s="2"/>
       <c r="AU32" s="2"/>
     </row>
-    <row r="33" spans="11:40" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.47352</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.47237000000000001</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.46890000000000004</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.46532000000000001</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.47858999999999996</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.46733000000000002</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.44517999999999996</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.4541</v>
+      </c>
       <c r="K33" s="4">
-        <f t="shared" ref="K33" si="27">AVERAGE(C28:J32)</f>
+        <f t="shared" si="9"/>
+        <v>0.46566374999999999</v>
+      </c>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1">
+        <v>6.93492</v>
+      </c>
+      <c r="N33" s="1">
+        <v>1.0752699999999999</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0.91120000000000001</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0.85665999999999998</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0.91560999999999992</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0.88117999999999996</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0.87741999999999998</v>
+      </c>
+      <c r="T33" s="4">
+        <f t="shared" si="10"/>
+        <v>1.7788942857142855</v>
+      </c>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1">
+        <v>47.337579999999996</v>
+      </c>
+      <c r="X33" s="1">
+        <v>0.52081</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>0.51634999999999998</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>0.55501</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>0.52068000000000003</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>0.56296000000000002</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>0.58855000000000002</v>
+      </c>
+      <c r="AD33" s="4">
+        <f t="shared" si="11"/>
+        <v>7.2288485714285704</v>
+      </c>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="AH33" s="1">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="AI33" s="1">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="AJ33" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="AK33" s="1">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="AL33" s="1">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="AM33" s="1">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="AN33" s="4">
+        <f t="shared" si="12"/>
+        <v>0.13914285714285715</v>
+      </c>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="2"/>
+      <c r="AQ33" s="2"/>
+      <c r="AR33" s="2"/>
+      <c r="AS33" s="2"/>
+      <c r="AT33" s="2"/>
+      <c r="AU33" s="2"/>
+    </row>
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.47952</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.49229999999999996</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.45885000000000004</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.45051999999999998</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.47100000000000003</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.46340999999999999</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.47377999999999998</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.48845</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" si="9"/>
+        <v>0.47222874999999997</v>
+      </c>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1">
+        <v>0.49989</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0.38590999999999998</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0.40101999999999999</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0.38775999999999999</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>1.9806300000000001</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0.39462999999999998</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0.42651</v>
+      </c>
+      <c r="T34" s="4">
+        <f t="shared" si="10"/>
+        <v>0.63947857142857145</v>
+      </c>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1">
+        <v>67.304509999999993</v>
+      </c>
+      <c r="X34" s="1">
+        <v>0.57017000000000007</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>0.55042000000000002</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>0.55190000000000006</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>0.53804000000000007</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>0.55137000000000003</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>0.53417000000000003</v>
+      </c>
+      <c r="AD34" s="4">
+        <f t="shared" si="11"/>
+        <v>10.085797142857144</v>
+      </c>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="AH34" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="AI34" s="1">
+        <v>0.121</v>
+      </c>
+      <c r="AJ34" s="1">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="AK34" s="1">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="AL34" s="1">
+        <v>0.129</v>
+      </c>
+      <c r="AM34" s="1">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="AN34" s="4">
+        <f t="shared" si="12"/>
+        <v>0.21571428571428572</v>
+      </c>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="2"/>
+      <c r="AQ34" s="2"/>
+      <c r="AR34" s="2"/>
+      <c r="AS34" s="2"/>
+      <c r="AT34" s="2"/>
+      <c r="AU34" s="2"/>
+    </row>
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.55411999999999995</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.72227999999999992</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.74329999999999996</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.65673000000000004</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.62809999999999999</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.65247999999999995</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.63202999999999998</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.64029999999999998</v>
+      </c>
+      <c r="K35" s="4">
+        <f t="shared" si="9"/>
+        <v>0.65366749999999996</v>
+      </c>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1">
+        <v>0.38840999999999998</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0.42769999999999997</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0.37295</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0.40011000000000002</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0.38227999999999995</v>
+      </c>
+      <c r="R35" s="1">
+        <v>0.38890000000000002</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0.35434000000000004</v>
+      </c>
+      <c r="T35" s="4">
+        <f t="shared" si="10"/>
+        <v>0.38781285714285713</v>
+      </c>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1">
+        <v>73.69726</v>
+      </c>
+      <c r="X35" s="1">
+        <v>0.55029000000000006</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>0.56330000000000002</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>0.54850999999999994</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>0.55210999999999999</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>0.55032999999999999</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>0.56194999999999995</v>
+      </c>
+      <c r="AD35" s="4">
+        <f t="shared" si="11"/>
+        <v>11.003392857142856</v>
+      </c>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="AH35" s="1">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="AI35" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="AJ35" s="1">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="AK35" s="1">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="AL35" s="1">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="AM35" s="1">
+        <v>0.193</v>
+      </c>
+      <c r="AN35" s="4">
+        <f t="shared" si="12"/>
+        <v>0.20514285714285715</v>
+      </c>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="2"/>
+      <c r="AQ35" s="2"/>
+      <c r="AR35" s="2"/>
+      <c r="AS35" s="2"/>
+      <c r="AT35" s="2"/>
+      <c r="AU35" s="2"/>
+    </row>
+    <row r="36" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I36" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J36" s="12"/>
+      <c r="K36" s="13">
+        <f t="shared" ref="K36" si="26">AVERAGE(C31:J35)</f>
         <v>0.55890800000000018</v>
       </c>
-      <c r="T33" s="1">
-        <f t="shared" ref="T33" si="28">AVERAGE(M28:S32)</f>
+      <c r="R36" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="S36" s="12"/>
+      <c r="T36" s="11">
+        <f t="shared" ref="T36" si="27">AVERAGE(M31:S35)</f>
         <v>0.91879600000000017</v>
       </c>
-      <c r="AD33" s="1">
-        <f t="shared" ref="AD33" si="29">AVERAGE(W28:AC32)</f>
+      <c r="AB36" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="11">
+        <f t="shared" ref="AD36" si="28">AVERAGE(W31:AC35)</f>
         <v>90.464579714285705</v>
       </c>
-      <c r="AE33" s="1"/>
-      <c r="AN33" s="1">
-        <f t="shared" ref="AN33" si="30">AVERAGE(AG28:AM32)</f>
+      <c r="AE36" s="1"/>
+      <c r="AL36" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM36" s="12"/>
+      <c r="AN36" s="11">
+        <f t="shared" ref="AN36" si="29">AVERAGE(AG31:AM35)</f>
         <v>0.2672571428571428</v>
       </c>
     </row>
+    <row r="37" spans="1:47" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="AL36:AM36"/>
+    <mergeCell ref="AL30:AM30"/>
+    <mergeCell ref="AL24:AM24"/>
+    <mergeCell ref="AL18:AM18"/>
+    <mergeCell ref="AL10:AM10"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="W3:AE3"/>
+    <mergeCell ref="AG3:AN3"/>
+    <mergeCell ref="M3:U3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="M4:T4"/>
+    <mergeCell ref="W4:AD4"/>
+    <mergeCell ref="AG4:AM4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:A64"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="171.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="79.42578125" customWidth="1"/>
+    <col min="3" max="3" width="56.85546875" customWidth="1"/>
+    <col min="4" max="4" width="111.7109375" customWidth="1"/>
+    <col min="5" max="5" width="1.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" t="s">
         <v>63</v>
-      </c>
-      <c r="G1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="5"/>
       <c r="F2">
@@ -4043,7 +4319,7 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="5"/>
       <c r="F3">
@@ -4061,7 +4337,7 @@
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="5"/>
       <c r="F4">
@@ -4079,7 +4355,7 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5"/>
       <c r="F5">
@@ -4097,7 +4373,7 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="5"/>
       <c r="F6">
@@ -4115,7 +4391,7 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5"/>
       <c r="F7">
@@ -4133,7 +4409,7 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="5"/>
       <c r="F8">
@@ -4151,7 +4427,7 @@
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" s="5"/>
       <c r="F9">
@@ -4169,7 +4445,7 @@
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5"/>
       <c r="F10">
@@ -4187,7 +4463,7 @@
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" s="5"/>
       <c r="F11">
@@ -4205,7 +4481,7 @@
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="5"/>
       <c r="F12">
@@ -4223,7 +4499,7 @@
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5"/>
       <c r="F13">
@@ -4241,7 +4517,7 @@
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" s="5"/>
       <c r="F14">
@@ -4259,7 +4535,7 @@
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" s="5"/>
       <c r="F15">
@@ -4277,7 +4553,7 @@
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5"/>
       <c r="F16">
@@ -4295,7 +4571,7 @@
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17" s="5"/>
       <c r="F17">
@@ -4313,7 +4589,7 @@
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18" s="5"/>
       <c r="F18">
@@ -4331,7 +4607,7 @@
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B19" s="5"/>
       <c r="F19">
@@ -4349,7 +4625,7 @@
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B20" s="5"/>
       <c r="F20">
@@ -4367,7 +4643,7 @@
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B21" s="5"/>
       <c r="F21">
@@ -4385,7 +4661,7 @@
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B22" s="5"/>
       <c r="F22">
@@ -4403,7 +4679,7 @@
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" s="5"/>
       <c r="F23">
@@ -4421,7 +4697,7 @@
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" s="5"/>
       <c r="F24">
@@ -4439,7 +4715,7 @@
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B25" s="5"/>
       <c r="F25">
@@ -4457,7 +4733,7 @@
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B26" s="5"/>
       <c r="F26">
@@ -4475,7 +4751,7 @@
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B27" s="5"/>
       <c r="F27">
@@ -4493,7 +4769,7 @@
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B28" s="5"/>
       <c r="F28">
@@ -4511,7 +4787,7 @@
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B29" s="5"/>
       <c r="F29">
@@ -4529,7 +4805,7 @@
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B30" s="5"/>
       <c r="F30">
@@ -4547,7 +4823,7 @@
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B31" s="5"/>
       <c r="F31">
@@ -4565,7 +4841,7 @@
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B32" s="5"/>
       <c r="F32">
@@ -4583,7 +4859,7 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B33" s="5"/>
       <c r="F33">
@@ -4601,7 +4877,7 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B34" s="5"/>
       <c r="F34">
@@ -4619,7 +4895,7 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B35" s="5"/>
       <c r="F35">
@@ -4637,7 +4913,7 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B36" s="5"/>
       <c r="F36">
@@ -4655,7 +4931,7 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B37" s="5"/>
       <c r="F37">
@@ -4673,7 +4949,7 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B38" s="5"/>
       <c r="F38">
@@ -4691,7 +4967,7 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F39" s="3">
         <f>AVERAGE(F2:F38)</f>
@@ -4712,7 +4988,7 @@
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F40">
         <f>MAX(F2:F39)</f>
@@ -4733,7 +5009,7 @@
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F41">
         <f>MIN(F2:F38)</f>
@@ -4755,7 +5031,7 @@
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D42" s="6"/>
       <c r="E42" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F42">
         <f>MEDIAN(F2:F38)</f>
@@ -4779,7 +5055,7 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Z44">
         <f>_xlfn.NUMBERVALUE(Y44,"."," ")</f>
@@ -4788,7 +5064,7 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y45" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Z45">
         <f t="shared" ref="Z45:Z80" si="1">_xlfn.NUMBERVALUE(Y45,"."," ")</f>
@@ -4797,7 +5073,7 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y46" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z46">
         <f t="shared" si="1"/>
@@ -4806,7 +5082,7 @@
     </row>
     <row r="47" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="Y47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Z47">
         <f t="shared" si="1"/>
@@ -4815,7 +5091,7 @@
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Z48">
         <f t="shared" si="1"/>
@@ -4824,7 +5100,7 @@
     </row>
     <row r="49" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y49" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z49">
         <f t="shared" si="1"/>
@@ -4833,7 +5109,7 @@
     </row>
     <row r="50" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Z50">
         <f t="shared" si="1"/>
@@ -4842,7 +5118,7 @@
     </row>
     <row r="51" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y51" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Z51">
         <f t="shared" si="1"/>
@@ -4851,7 +5127,7 @@
     </row>
     <row r="52" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y52" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Z52">
         <f t="shared" si="1"/>
@@ -4860,7 +5136,7 @@
     </row>
     <row r="53" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y53" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Z53">
         <f t="shared" si="1"/>
@@ -4869,7 +5145,7 @@
     </row>
     <row r="54" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Z54">
         <f t="shared" si="1"/>
@@ -4878,7 +5154,7 @@
     </row>
     <row r="55" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y55" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Z55">
         <f t="shared" si="1"/>
@@ -4887,7 +5163,7 @@
     </row>
     <row r="56" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y56" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Z56">
         <f t="shared" si="1"/>
@@ -4896,7 +5172,7 @@
     </row>
     <row r="57" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y57" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Z57">
         <f t="shared" si="1"/>
@@ -4905,7 +5181,7 @@
     </row>
     <row r="58" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y58" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Z58">
         <f t="shared" si="1"/>
@@ -4914,7 +5190,7 @@
     </row>
     <row r="59" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y59" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z59">
         <f t="shared" si="1"/>
@@ -4923,7 +5199,7 @@
     </row>
     <row r="60" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y60" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Z60">
         <f t="shared" si="1"/>
@@ -4932,7 +5208,7 @@
     </row>
     <row r="61" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y61" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Z61">
         <f t="shared" si="1"/>
@@ -4941,7 +5217,7 @@
     </row>
     <row r="62" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y62" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z62">
         <f t="shared" si="1"/>
@@ -4950,7 +5226,7 @@
     </row>
     <row r="63" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y63" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Z63">
         <f t="shared" si="1"/>
@@ -4959,7 +5235,7 @@
     </row>
     <row r="64" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y64" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Z64">
         <f t="shared" si="1"/>
@@ -4968,7 +5244,7 @@
     </row>
     <row r="65" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y65" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z65">
         <f t="shared" si="1"/>
@@ -4977,7 +5253,7 @@
     </row>
     <row r="66" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y66" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z66">
         <f t="shared" si="1"/>
@@ -4986,7 +5262,7 @@
     </row>
     <row r="67" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y67" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z67">
         <f t="shared" si="1"/>
@@ -4995,7 +5271,7 @@
     </row>
     <row r="68" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y68" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z68">
         <f t="shared" si="1"/>
@@ -5004,7 +5280,7 @@
     </row>
     <row r="69" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y69" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Z69">
         <f t="shared" si="1"/>
@@ -5013,7 +5289,7 @@
     </row>
     <row r="70" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y70" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Z70">
         <f t="shared" si="1"/>
@@ -5022,7 +5298,7 @@
     </row>
     <row r="71" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y71" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Z71">
         <f t="shared" si="1"/>
@@ -5031,7 +5307,7 @@
     </row>
     <row r="72" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y72" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Z72">
         <f t="shared" si="1"/>
@@ -5040,7 +5316,7 @@
     </row>
     <row r="73" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y73" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Z73">
         <f t="shared" si="1"/>
@@ -5049,7 +5325,7 @@
     </row>
     <row r="74" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y74" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Z74">
         <f t="shared" si="1"/>
@@ -5058,7 +5334,7 @@
     </row>
     <row r="75" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y75" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Z75">
         <f t="shared" si="1"/>
@@ -5067,7 +5343,7 @@
     </row>
     <row r="76" spans="25:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y76" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Z76">
         <f t="shared" si="1"/>
@@ -5076,7 +5352,7 @@
     </row>
     <row r="77" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y77" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Z77">
         <f t="shared" si="1"/>
@@ -5085,7 +5361,7 @@
     </row>
     <row r="78" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y78" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Z78">
         <f t="shared" si="1"/>
@@ -5094,7 +5370,7 @@
     </row>
     <row r="79" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y79" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Z79">
         <f t="shared" si="1"/>
@@ -5103,7 +5379,7 @@
     </row>
     <row r="80" spans="25:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y80" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Z80">
         <f t="shared" si="1"/>
@@ -5115,316 +5391,329 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:L15"/>
+  <dimension ref="C7:N15"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15:L15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="42.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I7" t="s">
-        <v>63</v>
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" t="s">
+        <v>112</v>
       </c>
       <c r="J7" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="K7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="M7" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8">
         <v>17.795892160000001</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>7.4435143239999997</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>207.71518140000001</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>21.015432430000001</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>50000</v>
       </c>
-      <c r="I8" s="7">
-        <f>$H8*C8</f>
+      <c r="K8" s="7">
+        <f>$J8*E8</f>
         <v>889794.60800000001</v>
       </c>
-      <c r="J8" s="7">
-        <f t="shared" ref="J8:K8" si="0">$H8*D8</f>
+      <c r="L8" s="7">
+        <f t="shared" ref="L8:M8" si="0">$J8*F8</f>
         <v>372175.71619999997</v>
       </c>
-      <c r="K8" s="7">
+      <c r="M8" s="7">
         <f t="shared" si="0"/>
         <v>10385759.07</v>
       </c>
-      <c r="L8" s="7">
-        <f>$H8*F8</f>
+      <c r="N8" s="7">
+        <f>$J8*H8</f>
         <v>1050771.6215000001</v>
       </c>
     </row>
-    <row r="9" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9">
+    <row r="9" spans="3:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9">
         <v>0.63</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>0.59</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>2.2599999999999998</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>0.69</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>0</v>
       </c>
-      <c r="I9">
-        <f>H9*C9</f>
+      <c r="K9">
+        <f>J9*E9</f>
         <v>0</v>
       </c>
-      <c r="J9">
-        <f t="shared" ref="J9:J14" si="1">$H9*D9</f>
+      <c r="L9">
+        <f t="shared" ref="L9:L14" si="1">$J9*F9</f>
         <v>0</v>
       </c>
-      <c r="K9">
-        <f t="shared" ref="K9:K14" si="2">$H9*E9</f>
+      <c r="M9">
+        <f t="shared" ref="M9:M14" si="2">$J9*G9</f>
         <v>0</v>
       </c>
-      <c r="L9">
-        <f t="shared" ref="L9:L14" si="3">$H9*F9</f>
+      <c r="N9">
+        <f t="shared" ref="N9:N14" si="3">$J9*H9</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10">
+    <row r="10" spans="3:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10">
         <v>0.99</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>0.63</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>0.24</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>0</v>
       </c>
-      <c r="I10">
-        <f t="shared" ref="I10:I14" si="4">H10*C10</f>
+      <c r="K10">
+        <f t="shared" ref="K10:K14" si="4">J10*E10</f>
         <v>0</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11">
+    <row r="11" spans="3:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11">
         <v>0.75</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>0.44</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>0.67</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>0.46</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>0</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12">
+    <row r="12" spans="3:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>0.92</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>90.46</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>0.27</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>0</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13">
         <v>2.93</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>2.5</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>94.02</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>1.66</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>100000</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <f t="shared" si="4"/>
         <v>293000</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <f t="shared" si="1"/>
         <v>250000</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <f t="shared" si="2"/>
         <v>9402000</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <f t="shared" si="3"/>
         <v>166000</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14">
         <v>60430</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>59360</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>372750</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>105860</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>1</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <f t="shared" si="4"/>
         <v>60430</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <f t="shared" si="1"/>
         <v>59360</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <f t="shared" si="2"/>
         <v>372750</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <f t="shared" si="3"/>
         <v>105860</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I15" s="1">
-        <f>SUM(I8:I14)</f>
-        <v>1243224.608</v>
-      </c>
-      <c r="J15" s="1">
-        <f>SUM(J8:J14)</f>
-        <v>681535.71619999991</v>
-      </c>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="K15" s="1">
         <f>SUM(K8:K14)</f>
-        <v>20160509.07</v>
+        <v>1243224.608</v>
       </c>
       <c r="L15" s="1">
         <f>SUM(L8:L14)</f>
+        <v>681535.71619999991</v>
+      </c>
+      <c r="M15" s="1">
+        <f>SUM(M8:M14)</f>
+        <v>20160509.07</v>
+      </c>
+      <c r="N15" s="1">
+        <f>SUM(N8:N14)</f>
         <v>1322631.6215000001</v>
       </c>
     </row>
